--- a/BackTest/2019-10-19 BackTest RNT.xlsx
+++ b/BackTest/2019-10-19 BackTest RNT.xlsx
@@ -917,7 +917,9 @@
       <c r="J12" t="n">
         <v>1.200000000000001</v>
       </c>
-      <c r="K12" t="inlineStr"/>
+      <c r="K12" t="n">
+        <v>33.33333333333333</v>
+      </c>
       <c r="L12" t="n">
         <v>12.81</v>
       </c>
@@ -962,7 +964,9 @@
       <c r="J13" t="n">
         <v>1.200000000000001</v>
       </c>
-      <c r="K13" t="inlineStr"/>
+      <c r="K13" t="n">
+        <v>33.33333333333333</v>
+      </c>
       <c r="L13" t="n">
         <v>12.85</v>
       </c>
@@ -1007,7 +1011,9 @@
       <c r="J14" t="n">
         <v>1.200000000000001</v>
       </c>
-      <c r="K14" t="inlineStr"/>
+      <c r="K14" t="n">
+        <v>11.11111111111107</v>
+      </c>
       <c r="L14" t="n">
         <v>12.89</v>
       </c>
@@ -1052,7 +1058,9 @@
       <c r="J15" t="n">
         <v>1.200000000000001</v>
       </c>
-      <c r="K15" t="inlineStr"/>
+      <c r="K15" t="n">
+        <v>66.66666666666676</v>
+      </c>
       <c r="L15" t="n">
         <v>12.9</v>
       </c>
@@ -1097,7 +1105,9 @@
       <c r="J16" t="n">
         <v>1.300000000000001</v>
       </c>
-      <c r="K16" t="inlineStr"/>
+      <c r="K16" t="n">
+        <v>-33.33333333333333</v>
+      </c>
       <c r="L16" t="n">
         <v>12.93</v>
       </c>
@@ -1142,7 +1152,9 @@
       <c r="J17" t="n">
         <v>1.400000000000002</v>
       </c>
-      <c r="K17" t="inlineStr"/>
+      <c r="K17" t="n">
+        <v>-100</v>
+      </c>
       <c r="L17" t="n">
         <v>12.91</v>
       </c>
@@ -1187,7 +1199,9 @@
       <c r="J18" t="n">
         <v>1.500000000000004</v>
       </c>
-      <c r="K18" t="inlineStr"/>
+      <c r="K18" t="n">
+        <v>-49.99999999999956</v>
+      </c>
       <c r="L18" t="n">
         <v>12.89</v>
       </c>
@@ -1232,7 +1246,9 @@
       <c r="J19" t="n">
         <v>1.600000000000005</v>
       </c>
-      <c r="K19" t="inlineStr"/>
+      <c r="K19" t="n">
+        <v>-59.99999999999972</v>
+      </c>
       <c r="L19" t="n">
         <v>12.86</v>
       </c>
@@ -1277,7 +1293,9 @@
       <c r="J20" t="n">
         <v>1.700000000000005</v>
       </c>
-      <c r="K20" t="inlineStr"/>
+      <c r="K20" t="n">
+        <v>-66.66666666666637</v>
+      </c>
       <c r="L20" t="n">
         <v>12.82</v>
       </c>
@@ -1322,7 +1340,9 @@
       <c r="J21" t="n">
         <v>1.900000000000006</v>
       </c>
-      <c r="K21" t="inlineStr"/>
+      <c r="K21" t="n">
+        <v>-14.28571428571414</v>
+      </c>
       <c r="L21" t="n">
         <v>12.8</v>
       </c>
@@ -1369,7 +1389,9 @@
       <c r="J22" t="n">
         <v>2.100000000000005</v>
       </c>
-      <c r="K22" t="inlineStr"/>
+      <c r="K22" t="n">
+        <v>11.11111111111102</v>
+      </c>
       <c r="L22" t="n">
         <v>12.81</v>
       </c>
@@ -1417,7 +1439,7 @@
         <v>2.100000000000005</v>
       </c>
       <c r="K23" t="n">
-        <v>23.80952380952375</v>
+        <v>11.11111111111102</v>
       </c>
       <c r="L23" t="n">
         <v>12.82</v>
@@ -1466,7 +1488,7 @@
         <v>2.100000000000005</v>
       </c>
       <c r="K24" t="n">
-        <v>23.80952380952375</v>
+        <v>11.11111111111102</v>
       </c>
       <c r="L24" t="n">
         <v>12.83</v>
@@ -1515,7 +1537,7 @@
         <v>2.100000000000005</v>
       </c>
       <c r="K25" t="n">
-        <v>11.11111111111104</v>
+        <v>24.99999999999978</v>
       </c>
       <c r="L25" t="n">
         <v>12.84</v>
@@ -1564,7 +1586,7 @@
         <v>2.300000000000004</v>
       </c>
       <c r="K26" t="n">
-        <v>17.64705882352942</v>
+        <v>11.11111111111124</v>
       </c>
       <c r="L26" t="n">
         <v>12.84</v>
@@ -1613,7 +1635,7 @@
         <v>2.300000000000004</v>
       </c>
       <c r="K27" t="n">
-        <v>-7.69230769230765</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
         <v>12.85</v>
@@ -1662,7 +1684,7 @@
         <v>2.300000000000004</v>
       </c>
       <c r="K28" t="n">
-        <v>-16.66666666666657</v>
+        <v>14.2857142857145</v>
       </c>
       <c r="L28" t="n">
         <v>12.85</v>
@@ -1711,7 +1733,7 @@
         <v>2.300000000000004</v>
       </c>
       <c r="K29" t="n">
-        <v>-16.66666666666657</v>
+        <v>33.33333333333353</v>
       </c>
       <c r="L29" t="n">
         <v>12.86</v>
@@ -1760,7 +1782,7 @@
         <v>2.300000000000004</v>
       </c>
       <c r="K30" t="n">
-        <v>-16.66666666666657</v>
+        <v>0</v>
       </c>
       <c r="L30" t="n">
         <v>12.88</v>
@@ -1809,7 +1831,7 @@
         <v>2.300000000000004</v>
       </c>
       <c r="K31" t="n">
-        <v>-16.66666666666657</v>
+        <v>-100</v>
       </c>
       <c r="L31" t="n">
         <v>12.88</v>
@@ -1860,7 +1882,7 @@
         <v>2.300000000000004</v>
       </c>
       <c r="K32" t="n">
-        <v>-9.090909090909033</v>
+        <v>-100</v>
       </c>
       <c r="L32" t="n">
         <v>12.86</v>
@@ -1911,7 +1933,7 @@
         <v>2.500000000000004</v>
       </c>
       <c r="K33" t="n">
-        <v>7.69230769230765</v>
+        <v>0</v>
       </c>
       <c r="L33" t="n">
         <v>12.86</v>
@@ -1962,7 +1984,7 @@
         <v>2.700000000000003</v>
       </c>
       <c r="K34" t="n">
-        <v>-6.666666666666635</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L34" t="n">
         <v>12.84000000000001</v>
@@ -2013,7 +2035,7 @@
         <v>2.900000000000002</v>
       </c>
       <c r="K35" t="n">
-        <v>5.882352941176446</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L35" t="n">
         <v>12.84000000000001</v>
@@ -2115,7 +2137,7 @@
         <v>3.300000000000001</v>
       </c>
       <c r="K37" t="n">
-        <v>15.78947368421058</v>
+        <v>20</v>
       </c>
       <c r="L37" t="n">
         <v>12.86</v>
@@ -2217,7 +2239,7 @@
         <v>3.5</v>
       </c>
       <c r="K39" t="n">
-        <v>5.26315789473693</v>
+        <v>0</v>
       </c>
       <c r="L39" t="n">
         <v>12.86</v>
@@ -2268,7 +2290,7 @@
         <v>3.700000000000001</v>
       </c>
       <c r="K40" t="n">
-        <v>0</v>
+        <v>-14.28571428571439</v>
       </c>
       <c r="L40" t="n">
         <v>12.84</v>
@@ -2319,7 +2341,7 @@
         <v>3.700000000000001</v>
       </c>
       <c r="K41" t="n">
-        <v>-11.1111111111112</v>
+        <v>-14.28571428571439</v>
       </c>
       <c r="L41" t="n">
         <v>12.82</v>
@@ -2370,7 +2392,7 @@
         <v>3.800000000000001</v>
       </c>
       <c r="K42" t="n">
-        <v>-29.41176470588243</v>
+        <v>-38.46153846153855</v>
       </c>
       <c r="L42" t="n">
         <v>12.79</v>
@@ -2421,7 +2443,7 @@
         <v>4</v>
       </c>
       <c r="K43" t="n">
-        <v>-15.78947368421061</v>
+        <v>-7.692307692307819</v>
       </c>
       <c r="L43" t="n">
         <v>12.76</v>
@@ -2472,7 +2494,7 @@
         <v>4</v>
       </c>
       <c r="K44" t="n">
-        <v>-15.78947368421061</v>
+        <v>-27.27272727272739</v>
       </c>
       <c r="L44" t="n">
         <v>12.75</v>
@@ -2523,7 +2545,7 @@
         <v>4.1</v>
       </c>
       <c r="K45" t="n">
-        <v>-20.00000000000007</v>
+        <v>-20.00000000000014</v>
       </c>
       <c r="L45" t="n">
         <v>12.71</v>
@@ -2574,7 +2596,7 @@
         <v>4.199999999999999</v>
       </c>
       <c r="K46" t="n">
-        <v>-15.78947368421061</v>
+        <v>-55.55555555555565</v>
       </c>
       <c r="L46" t="n">
         <v>12.68</v>
@@ -2625,7 +2647,7 @@
         <v>4.199999999999999</v>
       </c>
       <c r="K47" t="n">
-        <v>-15.78947368421061</v>
+        <v>-42.857142857143</v>
       </c>
       <c r="L47" t="n">
         <v>12.63</v>
@@ -2676,7 +2698,7 @@
         <v>4.199999999999999</v>
       </c>
       <c r="K48" t="n">
-        <v>-15.78947368421061</v>
+        <v>-42.857142857143</v>
       </c>
       <c r="L48" t="n">
         <v>12.6</v>
@@ -2727,7 +2749,7 @@
         <v>4.299999999999999</v>
       </c>
       <c r="K49" t="n">
-        <v>-20.00000000000007</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L49" t="n">
         <v>12.56</v>
@@ -2778,7 +2800,7 @@
         <v>4.399999999999999</v>
       </c>
       <c r="K50" t="n">
-        <v>-14.28571428571436</v>
+        <v>-14.28571428571428</v>
       </c>
       <c r="L50" t="n">
         <v>12.55</v>
@@ -2829,7 +2851,7 @@
         <v>4.499999999999998</v>
       </c>
       <c r="K51" t="n">
-        <v>-9.090909090909165</v>
+        <v>14.28571428571428</v>
       </c>
       <c r="L51" t="n">
         <v>12.55</v>
@@ -2880,7 +2902,7 @@
         <v>4.599999999999998</v>
       </c>
       <c r="K52" t="n">
-        <v>-13.04347826086963</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L52" t="n">
         <v>12.55</v>
@@ -2931,7 +2953,7 @@
         <v>4.599999999999998</v>
       </c>
       <c r="K53" t="n">
-        <v>-23.80952380952387</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L53" t="n">
         <v>12.53</v>
@@ -2982,7 +3004,7 @@
         <v>4.599999999999998</v>
       </c>
       <c r="K54" t="n">
-        <v>-15.78947368421061</v>
+        <v>-20</v>
       </c>
       <c r="L54" t="n">
         <v>12.51</v>
@@ -3033,7 +3055,7 @@
         <v>4.699999999999998</v>
       </c>
       <c r="K55" t="n">
-        <v>-22.2222222222223</v>
+        <v>20</v>
       </c>
       <c r="L55" t="n">
         <v>12.51</v>
@@ -3084,7 +3106,7 @@
         <v>4.799999999999997</v>
       </c>
       <c r="K56" t="n">
-        <v>-5.882352941176569</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L56" t="n">
         <v>12.53</v>
@@ -3135,7 +3157,7 @@
         <v>4.899999999999997</v>
       </c>
       <c r="K57" t="n">
-        <v>-25.00000000000008</v>
+        <v>14.28571428571428</v>
       </c>
       <c r="L57" t="n">
         <v>12.54</v>
@@ -3186,7 +3208,7 @@
         <v>4.899999999999997</v>
       </c>
       <c r="K58" t="n">
-        <v>-14.28571428571439</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L58" t="n">
         <v>12.55</v>
@@ -3237,7 +3259,7 @@
         <v>4.999999999999996</v>
       </c>
       <c r="K59" t="n">
-        <v>-20.0000000000001</v>
+        <v>0</v>
       </c>
       <c r="L59" t="n">
         <v>12.56</v>
@@ -3288,7 +3310,7 @@
         <v>5.399999999999997</v>
       </c>
       <c r="K60" t="n">
-        <v>17.6470588235295</v>
+        <v>33.33333333333346</v>
       </c>
       <c r="L60" t="n">
         <v>12.6</v>
@@ -3339,7 +3361,7 @@
         <v>5.799999999999997</v>
       </c>
       <c r="K61" t="n">
-        <v>-4.761904761904754</v>
+        <v>0</v>
       </c>
       <c r="L61" t="n">
         <v>12.59</v>
@@ -3390,7 +3412,7 @@
         <v>5.899999999999997</v>
       </c>
       <c r="K62" t="n">
-        <v>-4.761904761904754</v>
+        <v>-7.692307692307672</v>
       </c>
       <c r="L62" t="n">
         <v>12.58</v>
@@ -3441,7 +3463,7 @@
         <v>5.899999999999997</v>
       </c>
       <c r="K63" t="n">
-        <v>-15.7894736842105</v>
+        <v>-7.692307692307672</v>
       </c>
       <c r="L63" t="n">
         <v>12.57</v>
@@ -3492,7 +3514,7 @@
         <v>6.099999999999998</v>
       </c>
       <c r="K64" t="n">
-        <v>-23.80952380952383</v>
+        <v>-28.57142857142859</v>
       </c>
       <c r="L64" t="n">
         <v>12.54</v>
@@ -3543,7 +3565,7 @@
         <v>6.199999999999998</v>
       </c>
       <c r="K65" t="n">
-        <v>-23.80952380952383</v>
+        <v>-42.85714285714282</v>
       </c>
       <c r="L65" t="n">
         <v>12.49</v>
@@ -3594,7 +3616,7 @@
         <v>6.399999999999999</v>
       </c>
       <c r="K66" t="n">
-        <v>-9.090909090909062</v>
+        <v>-19.9999999999999</v>
       </c>
       <c r="L66" t="n">
         <v>12.45</v>
@@ -3645,7 +3667,7 @@
         <v>6.399999999999999</v>
       </c>
       <c r="K67" t="n">
-        <v>-9.090909090909062</v>
+        <v>-19.9999999999999</v>
       </c>
       <c r="L67" t="n">
         <v>12.42</v>
@@ -3696,7 +3718,7 @@
         <v>6.399999999999999</v>
       </c>
       <c r="K68" t="n">
-        <v>-9.090909090909062</v>
+        <v>-14.28571428571421</v>
       </c>
       <c r="L68" t="n">
         <v>12.39</v>
@@ -3747,7 +3769,7 @@
         <v>6.499999999999998</v>
       </c>
       <c r="K69" t="n">
-        <v>0</v>
+        <v>-45.4545454545454</v>
       </c>
       <c r="L69" t="n">
         <v>12.38</v>
@@ -3849,7 +3871,7 @@
         <v>6.599999999999998</v>
       </c>
       <c r="K71" t="n">
-        <v>-4.761904761904746</v>
+        <v>14.28571428571421</v>
       </c>
       <c r="L71" t="n">
         <v>12.34</v>
@@ -3900,7 +3922,7 @@
         <v>6.699999999999998</v>
       </c>
       <c r="K72" t="n">
-        <v>-4.761904761904746</v>
+        <v>0</v>
       </c>
       <c r="L72" t="n">
         <v>12.34</v>
@@ -3951,7 +3973,7 @@
         <v>6.699999999999998</v>
       </c>
       <c r="K73" t="n">
-        <v>-4.761904761904746</v>
+        <v>33.33333333333353</v>
       </c>
       <c r="L73" t="n">
         <v>12.34</v>
@@ -4002,7 +4024,7 @@
         <v>6.699999999999998</v>
       </c>
       <c r="K74" t="n">
-        <v>-4.761904761904746</v>
+        <v>60.00000000000014</v>
       </c>
       <c r="L74" t="n">
         <v>12.36</v>
@@ -4053,7 +4075,7 @@
         <v>6.799999999999997</v>
       </c>
       <c r="K75" t="n">
-        <v>-4.761904761904746</v>
+        <v>50</v>
       </c>
       <c r="L75" t="n">
         <v>12.4</v>
@@ -4104,7 +4126,7 @@
         <v>6.899999999999997</v>
       </c>
       <c r="K76" t="n">
-        <v>-14.28571428571424</v>
+        <v>20</v>
       </c>
       <c r="L76" t="n">
         <v>12.41</v>
@@ -4155,7 +4177,7 @@
         <v>6.899999999999997</v>
       </c>
       <c r="K77" t="n">
-        <v>-9.999999999999964</v>
+        <v>20</v>
       </c>
       <c r="L77" t="n">
         <v>12.42</v>
@@ -4206,7 +4228,7 @@
         <v>6.999999999999996</v>
       </c>
       <c r="K78" t="n">
-        <v>-4.761904761904746</v>
+        <v>20</v>
       </c>
       <c r="L78" t="n">
         <v>12.44</v>
@@ -4308,7 +4330,7 @@
         <v>7.099999999999996</v>
       </c>
       <c r="K80" t="n">
-        <v>-29.41176470588237</v>
+        <v>-20</v>
       </c>
       <c r="L80" t="n">
         <v>12.44</v>
@@ -4359,7 +4381,7 @@
         <v>7.199999999999996</v>
       </c>
       <c r="K81" t="n">
-        <v>-14.28571428571425</v>
+        <v>-20</v>
       </c>
       <c r="L81" t="n">
         <v>12.42000000000001</v>
@@ -4410,7 +4432,7 @@
         <v>7.399999999999995</v>
       </c>
       <c r="K82" t="n">
-        <v>6.666666666666651</v>
+        <v>14.28571428571428</v>
       </c>
       <c r="L82" t="n">
         <v>12.43</v>
@@ -4461,7 +4483,7 @@
         <v>7.399999999999995</v>
       </c>
       <c r="K83" t="n">
-        <v>6.666666666666651</v>
+        <v>14.28571428571428</v>
       </c>
       <c r="L83" t="n">
         <v>12.44</v>
@@ -4512,7 +4534,7 @@
         <v>7.599999999999994</v>
       </c>
       <c r="K84" t="n">
-        <v>6.666666666666778</v>
+        <v>-25</v>
       </c>
       <c r="L84" t="n">
         <v>12.43</v>
@@ -4563,7 +4585,7 @@
         <v>7.799999999999994</v>
       </c>
       <c r="K85" t="n">
-        <v>25.00000000000008</v>
+        <v>11.11111111111111</v>
       </c>
       <c r="L85" t="n">
         <v>12.43</v>
@@ -4614,7 +4636,7 @@
         <v>7.799999999999994</v>
       </c>
       <c r="K86" t="n">
-        <v>14.28571428571428</v>
+        <v>11.11111111111111</v>
       </c>
       <c r="L86" t="n">
         <v>12.44</v>
@@ -4665,7 +4687,7 @@
         <v>7.799999999999994</v>
       </c>
       <c r="K87" t="n">
-        <v>14.28571428571428</v>
+        <v>0</v>
       </c>
       <c r="L87" t="n">
         <v>12.45</v>
@@ -4716,7 +4738,7 @@
         <v>7.799999999999994</v>
       </c>
       <c r="K88" t="n">
-        <v>14.28571428571428</v>
+        <v>0</v>
       </c>
       <c r="L88" t="n">
         <v>12.45</v>
@@ -4818,7 +4840,7 @@
         <v>7.899999999999993</v>
       </c>
       <c r="K90" t="n">
-        <v>-7.692307692307693</v>
+        <v>14.28571428571428</v>
       </c>
       <c r="L90" t="n">
         <v>12.44</v>
@@ -4869,7 +4891,7 @@
         <v>8.099999999999993</v>
       </c>
       <c r="K91" t="n">
-        <v>6.666666666666667</v>
+        <v>14.28571428571428</v>
       </c>
       <c r="L91" t="n">
         <v>12.47</v>
@@ -4971,7 +4993,7 @@
         <v>8.299999999999992</v>
       </c>
       <c r="K93" t="n">
-        <v>0</v>
+        <v>14.28571428571428</v>
       </c>
       <c r="L93" t="n">
         <v>12.47</v>
@@ -5022,7 +5044,7 @@
         <v>8.299999999999992</v>
       </c>
       <c r="K94" t="n">
-        <v>0</v>
+        <v>-20</v>
       </c>
       <c r="L94" t="n">
         <v>12.48000000000001</v>
@@ -5073,7 +5095,7 @@
         <v>8.299999999999992</v>
       </c>
       <c r="K95" t="n">
-        <v>-6.666666666666667</v>
+        <v>-20</v>
       </c>
       <c r="L95" t="n">
         <v>12.47</v>
@@ -5124,7 +5146,7 @@
         <v>8.399999999999991</v>
       </c>
       <c r="K96" t="n">
-        <v>6.666666666666667</v>
+        <v>0</v>
       </c>
       <c r="L96" t="n">
         <v>12.47</v>
@@ -5175,7 +5197,7 @@
         <v>8.399999999999991</v>
       </c>
       <c r="K97" t="n">
-        <v>6.666666666666667</v>
+        <v>0</v>
       </c>
       <c r="L97" t="n">
         <v>12.47</v>
@@ -5226,7 +5248,7 @@
         <v>8.499999999999991</v>
       </c>
       <c r="K98" t="n">
-        <v>6.666666666666667</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L98" t="n">
         <v>12.48</v>
@@ -5277,7 +5299,7 @@
         <v>8.599999999999991</v>
       </c>
       <c r="K99" t="n">
-        <v>0</v>
+        <v>14.28571428571428</v>
       </c>
       <c r="L99" t="n">
         <v>12.49</v>
@@ -5328,7 +5350,7 @@
         <v>8.599999999999991</v>
       </c>
       <c r="K100" t="n">
-        <v>6.666666666666667</v>
+        <v>-20</v>
       </c>
       <c r="L100" t="n">
         <v>12.5</v>
@@ -5379,7 +5401,7 @@
         <v>8.599999999999991</v>
       </c>
       <c r="K101" t="n">
-        <v>14.28571428571428</v>
+        <v>-20</v>
       </c>
       <c r="L101" t="n">
         <v>12.49</v>
@@ -5430,7 +5452,7 @@
         <v>8.599999999999991</v>
       </c>
       <c r="K102" t="n">
-        <v>0</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L102" t="n">
         <v>12.48</v>
@@ -5481,7 +5503,7 @@
         <v>8.599999999999991</v>
       </c>
       <c r="K103" t="n">
-        <v>0</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L103" t="n">
         <v>12.49</v>
@@ -5532,7 +5554,7 @@
         <v>8.599999999999991</v>
       </c>
       <c r="K104" t="n">
-        <v>20</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L104" t="n">
         <v>12.5</v>
@@ -5634,7 +5656,7 @@
         <v>8.69999999999999</v>
       </c>
       <c r="K106" t="n">
-        <v>-11.11111111111111</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L106" t="n">
         <v>12.5</v>
@@ -5685,7 +5707,7 @@
         <v>8.79999999999999</v>
       </c>
       <c r="K107" t="n">
-        <v>0</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L107" t="n">
         <v>12.5</v>
@@ -5736,7 +5758,7 @@
         <v>8.89999999999999</v>
       </c>
       <c r="K108" t="n">
-        <v>-9.090909090909092</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L108" t="n">
         <v>12.48</v>
@@ -5787,7 +5809,7 @@
         <v>8.999999999999989</v>
       </c>
       <c r="K109" t="n">
-        <v>9.090909090909092</v>
+        <v>0</v>
       </c>
       <c r="L109" t="n">
         <v>12.48</v>
@@ -5838,7 +5860,7 @@
         <v>9.099999999999989</v>
       </c>
       <c r="K110" t="n">
-        <v>16.66666666666666</v>
+        <v>20</v>
       </c>
       <c r="L110" t="n">
         <v>12.49</v>
@@ -5889,7 +5911,7 @@
         <v>9.299999999999988</v>
       </c>
       <c r="K111" t="n">
-        <v>-16.66666666666666</v>
+        <v>-14.28571428571428</v>
       </c>
       <c r="L111" t="n">
         <v>12.48</v>
@@ -5940,7 +5962,7 @@
         <v>9.499999999999988</v>
       </c>
       <c r="K112" t="n">
-        <v>0</v>
+        <v>11.11111111111111</v>
       </c>
       <c r="L112" t="n">
         <v>12.49</v>
@@ -5991,7 +6013,7 @@
         <v>9.599999999999987</v>
       </c>
       <c r="K113" t="n">
-        <v>7.692307692307693</v>
+        <v>0</v>
       </c>
       <c r="L113" t="n">
         <v>12.49</v>
@@ -6042,7 +6064,7 @@
         <v>9.699999999999987</v>
       </c>
       <c r="K114" t="n">
-        <v>14.28571428571428</v>
+        <v>9.090909090909092</v>
       </c>
       <c r="L114" t="n">
         <v>12.5</v>
@@ -6093,7 +6115,7 @@
         <v>9.799999999999986</v>
       </c>
       <c r="K115" t="n">
-        <v>6.666666666666667</v>
+        <v>9.090909090909092</v>
       </c>
       <c r="L115" t="n">
         <v>12.5</v>
@@ -6144,7 +6166,7 @@
         <v>9.899999999999986</v>
       </c>
       <c r="K116" t="n">
-        <v>6.666666666666667</v>
+        <v>9.090909090909092</v>
       </c>
       <c r="L116" t="n">
         <v>12.52</v>
@@ -6195,7 +6217,7 @@
         <v>9.899999999999986</v>
       </c>
       <c r="K117" t="n">
-        <v>6.666666666666667</v>
+        <v>20</v>
       </c>
       <c r="L117" t="n">
         <v>12.53</v>
@@ -6246,7 +6268,7 @@
         <v>9.999999999999986</v>
       </c>
       <c r="K118" t="n">
-        <v>-6.666666666666667</v>
+        <v>0</v>
       </c>
       <c r="L118" t="n">
         <v>12.54</v>
@@ -6297,7 +6319,7 @@
         <v>10.19999999999999</v>
       </c>
       <c r="K119" t="n">
-        <v>12.5</v>
+        <v>9.090909090909092</v>
       </c>
       <c r="L119" t="n">
         <v>12.56</v>
@@ -6348,7 +6370,7 @@
         <v>10.39999999999998</v>
       </c>
       <c r="K120" t="n">
-        <v>0</v>
+        <v>9.090909090909092</v>
       </c>
       <c r="L120" t="n">
         <v>12.55</v>
@@ -6399,7 +6421,7 @@
         <v>10.49999999999998</v>
       </c>
       <c r="K121" t="n">
-        <v>-5.263157894736842</v>
+        <v>-20</v>
       </c>
       <c r="L121" t="n">
         <v>12.55</v>
@@ -6501,7 +6523,7 @@
         <v>10.89999999999998</v>
       </c>
       <c r="K123" t="n">
-        <v>13.04347826086963</v>
+        <v>16.66666666666679</v>
       </c>
       <c r="L123" t="n">
         <v>12.57</v>
@@ -6552,7 +6574,7 @@
         <v>10.89999999999998</v>
       </c>
       <c r="K124" t="n">
-        <v>13.04347826086963</v>
+        <v>27.27272727272739</v>
       </c>
       <c r="L124" t="n">
         <v>12.59</v>
@@ -6603,7 +6625,7 @@
         <v>10.99999999999998</v>
       </c>
       <c r="K125" t="n">
-        <v>16.66666666666673</v>
+        <v>27.27272727272739</v>
       </c>
       <c r="L125" t="n">
         <v>12.63</v>
@@ -6654,7 +6676,7 @@
         <v>10.99999999999998</v>
       </c>
       <c r="K126" t="n">
-        <v>21.73913043478267</v>
+        <v>27.27272727272739</v>
       </c>
       <c r="L126" t="n">
         <v>12.66000000000001</v>
@@ -6705,7 +6727,7 @@
         <v>10.99999999999998</v>
       </c>
       <c r="K127" t="n">
-        <v>18.18181818181825</v>
+        <v>40.00000000000011</v>
       </c>
       <c r="L127" t="n">
         <v>12.69000000000001</v>
@@ -6756,7 +6778,7 @@
         <v>11.19999999999998</v>
       </c>
       <c r="K128" t="n">
-        <v>30.43478260869571</v>
+        <v>40.00000000000011</v>
       </c>
       <c r="L128" t="n">
         <v>12.75000000000001</v>
@@ -6807,7 +6829,7 @@
         <v>11.69999999999998</v>
       </c>
       <c r="K129" t="n">
-        <v>40.74074074074082</v>
+        <v>84.61538461538466</v>
       </c>
       <c r="L129" t="n">
         <v>12.84000000000001</v>
@@ -6858,7 +6880,7 @@
         <v>11.69999999999998</v>
       </c>
       <c r="K130" t="n">
-        <v>38.46153846153855</v>
+        <v>100</v>
       </c>
       <c r="L130" t="n">
         <v>12.95000000000001</v>
@@ -6909,7 +6931,7 @@
         <v>11.99999999999998</v>
       </c>
       <c r="K131" t="n">
-        <v>55.55555555555565</v>
+        <v>100</v>
       </c>
       <c r="L131" t="n">
         <v>13.1</v>
@@ -6960,7 +6982,7 @@
         <v>12.29999999999998</v>
       </c>
       <c r="K132" t="n">
-        <v>35.71428571428575</v>
+        <v>57.14285714285705</v>
       </c>
       <c r="L132" t="n">
         <v>13.21</v>
@@ -7011,7 +7033,7 @@
         <v>12.39999999999998</v>
       </c>
       <c r="K133" t="n">
-        <v>42.85714285714288</v>
+        <v>59.99999999999991</v>
       </c>
       <c r="L133" t="n">
         <v>13.3</v>
@@ -7062,7 +7084,7 @@
         <v>12.89999999999998</v>
       </c>
       <c r="K134" t="n">
-        <v>50.00000000000004</v>
+        <v>68.42105263157889</v>
       </c>
       <c r="L134" t="n">
         <v>13.44</v>
@@ -7113,7 +7135,7 @@
         <v>12.89999999999998</v>
       </c>
       <c r="K135" t="n">
-        <v>54.83870967741937</v>
+        <v>68.42105263157889</v>
       </c>
       <c r="L135" t="n">
         <v>13.57</v>
@@ -7164,7 +7186,7 @@
         <v>13.39999999999998</v>
       </c>
       <c r="K136" t="n">
-        <v>31.42857142857143</v>
+        <v>33.33333333333328</v>
       </c>
       <c r="L136" t="n">
         <v>13.65</v>
@@ -7215,7 +7237,7 @@
         <v>13.39999999999998</v>
       </c>
       <c r="K137" t="n">
-        <v>31.42857142857143</v>
+        <v>27.27272727272724</v>
       </c>
       <c r="L137" t="n">
         <v>13.73</v>
@@ -7266,7 +7288,7 @@
         <v>13.39999999999998</v>
       </c>
       <c r="K138" t="n">
-        <v>35.29411764705881</v>
+        <v>5.882352941176446</v>
       </c>
       <c r="L138" t="n">
         <v>13.79</v>
@@ -7317,7 +7339,7 @@
         <v>13.49999999999999</v>
       </c>
       <c r="K139" t="n">
-        <v>33.33333333333337</v>
+        <v>11.11111111111116</v>
       </c>
       <c r="L139" t="n">
         <v>13.81</v>
@@ -7368,7 +7390,7 @@
         <v>13.59999999999999</v>
       </c>
       <c r="K140" t="n">
-        <v>37.49999999999994</v>
+        <v>-12.50000000000004</v>
       </c>
       <c r="L140" t="n">
         <v>13.82</v>
@@ -7419,7 +7441,7 @@
         <v>13.69999999999999</v>
       </c>
       <c r="K141" t="n">
-        <v>37.49999999999994</v>
+        <v>0</v>
       </c>
       <c r="L141" t="n">
         <v>13.79</v>
@@ -7470,7 +7492,7 @@
         <v>13.69999999999999</v>
       </c>
       <c r="K142" t="n">
-        <v>35.48387096774189</v>
+        <v>-7.69230769230765</v>
       </c>
       <c r="L142" t="n">
         <v>13.79</v>
@@ -7521,7 +7543,7 @@
         <v>13.69999999999999</v>
       </c>
       <c r="K143" t="n">
-        <v>28.57142857142851</v>
+        <v>-74.99999999999972</v>
       </c>
       <c r="L143" t="n">
         <v>13.78</v>
@@ -7572,7 +7594,7 @@
         <v>13.89999999999999</v>
       </c>
       <c r="K144" t="n">
-        <v>19.99999999999998</v>
+        <v>-79.99999999999974</v>
       </c>
       <c r="L144" t="n">
         <v>13.7</v>
@@ -7623,7 +7645,7 @@
         <v>13.89999999999999</v>
       </c>
       <c r="K145" t="n">
-        <v>17.24137931034481</v>
+        <v>-59.99999999999957</v>
       </c>
       <c r="L145" t="n">
         <v>13.62</v>
@@ -7674,7 +7696,7 @@
         <v>13.89999999999999</v>
       </c>
       <c r="K146" t="n">
-        <v>17.24137931034481</v>
+        <v>-59.99999999999957</v>
       </c>
       <c r="L146" t="n">
         <v>13.59</v>
@@ -7725,7 +7747,7 @@
         <v>13.99999999999999</v>
       </c>
       <c r="K147" t="n">
-        <v>19.99999999999998</v>
+        <v>-33.33333333333314</v>
       </c>
       <c r="L147" t="n">
         <v>13.57</v>
@@ -7776,7 +7798,7 @@
         <v>13.99999999999999</v>
       </c>
       <c r="K148" t="n">
-        <v>14.28571428571428</v>
+        <v>-60.00000000000014</v>
       </c>
       <c r="L148" t="n">
         <v>13.55</v>
@@ -7827,7 +7849,7 @@
         <v>14.19999999999999</v>
       </c>
       <c r="K149" t="n">
-        <v>3.999999999999983</v>
+        <v>0</v>
       </c>
       <c r="L149" t="n">
         <v>13.54</v>
@@ -7878,7 +7900,7 @@
         <v>14.19999999999999</v>
       </c>
       <c r="K150" t="n">
-        <v>3.999999999999983</v>
+        <v>20</v>
       </c>
       <c r="L150" t="n">
         <v>13.54</v>
@@ -7929,7 +7951,7 @@
         <v>14.29999999999999</v>
       </c>
       <c r="K151" t="n">
-        <v>-4.347826086956501</v>
+        <v>33.33333333333353</v>
       </c>
       <c r="L151" t="n">
         <v>13.56</v>
@@ -7980,7 +8002,7 @@
         <v>14.39999999999999</v>
       </c>
       <c r="K152" t="n">
-        <v>4.761904761904738</v>
+        <v>14.28571428571421</v>
       </c>
       <c r="L152" t="n">
         <v>13.57</v>
@@ -8031,7 +8053,7 @@
         <v>14.49999999999999</v>
       </c>
       <c r="K153" t="n">
-        <v>-4.761904761904738</v>
+        <v>33.33333333333314</v>
       </c>
       <c r="L153" t="n">
         <v>13.57</v>
@@ -8082,7 +8104,7 @@
         <v>14.69999999999999</v>
       </c>
       <c r="K154" t="n">
-        <v>-44.44444444444432</v>
+        <v>0</v>
       </c>
       <c r="L154" t="n">
         <v>13.57</v>
@@ -8133,7 +8155,7 @@
         <v>14.89999999999999</v>
       </c>
       <c r="K155" t="n">
-        <v>-29.99999999999995</v>
+        <v>19.99999999999993</v>
       </c>
       <c r="L155" t="n">
         <v>13.59</v>
@@ -8184,7 +8206,7 @@
         <v>15.09999999999999</v>
       </c>
       <c r="K156" t="n">
-        <v>-17.64705882352934</v>
+        <v>-9.090909090909062</v>
       </c>
       <c r="L156" t="n">
         <v>13.59</v>
@@ -8235,7 +8257,7 @@
         <v>15.09999999999999</v>
       </c>
       <c r="K157" t="n">
-        <v>-17.64705882352934</v>
+        <v>-9.090909090909062</v>
       </c>
       <c r="L157" t="n">
         <v>13.58</v>
@@ -8286,7 +8308,7 @@
         <v>15.19999999999999</v>
       </c>
       <c r="K158" t="n">
-        <v>-11.11111111111107</v>
+        <v>-19.99999999999993</v>
       </c>
       <c r="L158" t="n">
         <v>13.58</v>
@@ -8337,7 +8359,7 @@
         <v>15.39999999999998</v>
       </c>
       <c r="K159" t="n">
-        <v>-26.31578947368423</v>
+        <v>-33.33333333333324</v>
       </c>
       <c r="L159" t="n">
         <v>13.54</v>
@@ -8388,7 +8410,7 @@
         <v>15.39999999999998</v>
       </c>
       <c r="K160" t="n">
-        <v>-22.22222222222218</v>
+        <v>-45.45454545454554</v>
       </c>
       <c r="L160" t="n">
         <v>13.50000000000001</v>
@@ -8439,7 +8461,7 @@
         <v>15.39999999999998</v>
       </c>
       <c r="K161" t="n">
-        <v>-17.64705882352937</v>
+        <v>-40</v>
       </c>
       <c r="L161" t="n">
         <v>13.45000000000001</v>
@@ -8490,7 +8512,7 @@
         <v>15.59999999999998</v>
       </c>
       <c r="K162" t="n">
-        <v>-5.263157894736832</v>
+        <v>-9.090909090909092</v>
       </c>
       <c r="L162" t="n">
         <v>13.43000000000001</v>
@@ -8541,7 +8563,7 @@
         <v>15.59999999999998</v>
       </c>
       <c r="K163" t="n">
-        <v>-5.263157894736832</v>
+        <v>11.11111111111111</v>
       </c>
       <c r="L163" t="n">
         <v>13.42000000000001</v>
@@ -8592,7 +8614,7 @@
         <v>15.69999999999998</v>
       </c>
       <c r="K164" t="n">
-        <v>0</v>
+        <v>-25</v>
       </c>
       <c r="L164" t="n">
         <v>13.42000000000001</v>
@@ -8694,7 +8716,7 @@
         <v>15.89999999999998</v>
       </c>
       <c r="K166" t="n">
-        <v>9.999999999999982</v>
+        <v>25</v>
       </c>
       <c r="L166" t="n">
         <v>13.42000000000001</v>
@@ -8745,7 +8767,7 @@
         <v>16.19999999999998</v>
       </c>
       <c r="K167" t="n">
-        <v>-9.090909090909076</v>
+        <v>-20</v>
       </c>
       <c r="L167" t="n">
         <v>13.41000000000001</v>
@@ -8796,7 +8818,7 @@
         <v>16.19999999999998</v>
       </c>
       <c r="K168" t="n">
-        <v>-9.090909090909076</v>
+        <v>0</v>
       </c>
       <c r="L168" t="n">
         <v>13.39000000000001</v>
@@ -8847,7 +8869,7 @@
         <v>16.39999999999998</v>
       </c>
       <c r="K169" t="n">
-        <v>-9.090909090909076</v>
+        <v>20</v>
       </c>
       <c r="L169" t="n">
         <v>13.41000000000001</v>
@@ -8898,7 +8920,7 @@
         <v>16.49999999999998</v>
       </c>
       <c r="K170" t="n">
-        <v>-13.04347826086956</v>
+        <v>9.090909090909104</v>
       </c>
       <c r="L170" t="n">
         <v>13.42000000000001</v>
@@ -8949,7 +8971,7 @@
         <v>16.49999999999998</v>
       </c>
       <c r="K171" t="n">
-        <v>-18.18181818181826</v>
+        <v>-11.11111111111113</v>
       </c>
       <c r="L171" t="n">
         <v>13.43000000000001</v>
@@ -9000,7 +9022,7 @@
         <v>16.59999999999998</v>
       </c>
       <c r="K172" t="n">
-        <v>-9.090909090909092</v>
+        <v>0</v>
       </c>
       <c r="L172" t="n">
         <v>13.43000000000001</v>
@@ -9051,7 +9073,7 @@
         <v>16.69999999999998</v>
       </c>
       <c r="K173" t="n">
-        <v>-9.090909090909085</v>
+        <v>0</v>
       </c>
       <c r="L173" t="n">
         <v>13.42000000000001</v>
@@ -9153,7 +9175,7 @@
         <v>16.79999999999998</v>
       </c>
       <c r="K175" t="n">
-        <v>-15.7894736842105</v>
+        <v>-33.3333333333332</v>
       </c>
       <c r="L175" t="n">
         <v>13.41000000000001</v>
@@ -9204,7 +9226,7 @@
         <v>16.89999999999998</v>
       </c>
       <c r="K176" t="n">
-        <v>0</v>
+        <v>14.28571428571418</v>
       </c>
       <c r="L176" t="n">
         <v>13.39000000000001</v>
@@ -9255,7 +9277,7 @@
         <v>16.99999999999999</v>
       </c>
       <c r="K177" t="n">
-        <v>-5.263157894736822</v>
+        <v>0</v>
       </c>
       <c r="L177" t="n">
         <v>13.39000000000001</v>
@@ -9357,7 +9379,7 @@
         <v>17.49999999999999</v>
       </c>
       <c r="K179" t="n">
-        <v>23.8095238095238</v>
+        <v>39.99999999999975</v>
       </c>
       <c r="L179" t="n">
         <v>13.44000000000001</v>
@@ -9408,7 +9430,7 @@
         <v>17.69999999999999</v>
       </c>
       <c r="K180" t="n">
-        <v>30.43478260869561</v>
+        <v>49.99999999999971</v>
       </c>
       <c r="L180" t="n">
         <v>13.50000000000001</v>
@@ -9459,7 +9481,7 @@
         <v>17.69999999999999</v>
       </c>
       <c r="K181" t="n">
-        <v>30.43478260869561</v>
+        <v>45.45454545454525</v>
       </c>
       <c r="L181" t="n">
         <v>13.56000000000001</v>
@@ -9510,7 +9532,7 @@
         <v>17.89999999999998</v>
       </c>
       <c r="K182" t="n">
-        <v>30.43478260869561</v>
+        <v>66.66666666666642</v>
       </c>
       <c r="L182" t="n">
         <v>13.63000000000001</v>
@@ -9561,7 +9583,7 @@
         <v>17.99999999999999</v>
       </c>
       <c r="K183" t="n">
-        <v>33.33333333333333</v>
+        <v>69.23076923076903</v>
       </c>
       <c r="L183" t="n">
         <v>13.72000000000001</v>
@@ -9612,7 +9634,7 @@
         <v>18.19999999999999</v>
       </c>
       <c r="K184" t="n">
-        <v>27.99999999999991</v>
+        <v>57.14285714285684</v>
       </c>
       <c r="L184" t="n">
         <v>13.79000000000001</v>
@@ -9663,7 +9685,7 @@
         <v>18.49999999999999</v>
       </c>
       <c r="K185" t="n">
-        <v>14.28571428571428</v>
+        <v>25</v>
       </c>
       <c r="L185" t="n">
         <v>13.84000000000001</v>
@@ -9714,7 +9736,7 @@
         <v>18.89999999999998</v>
       </c>
       <c r="K186" t="n">
-        <v>19.99999999999998</v>
+        <v>47.36842105263154</v>
       </c>
       <c r="L186" t="n">
         <v>13.92000000000001</v>
@@ -9765,7 +9787,7 @@
         <v>19.09999999999998</v>
       </c>
       <c r="K187" t="n">
-        <v>24.13793103448272</v>
+        <v>26.31578947368423</v>
       </c>
       <c r="L187" t="n">
         <v>13.99</v>
@@ -9816,7 +9838,7 @@
         <v>19.09999999999998</v>
       </c>
       <c r="K188" t="n">
-        <v>24.13793103448272</v>
+        <v>12.49999999999997</v>
       </c>
       <c r="L188" t="n">
         <v>14.04</v>
@@ -9867,7 +9889,7 @@
         <v>19.09999999999998</v>
       </c>
       <c r="K189" t="n">
-        <v>18.5185185185185</v>
+        <v>0</v>
       </c>
       <c r="L189" t="n">
         <v>14.06</v>
@@ -9918,7 +9940,7 @@
         <v>19.29999999999998</v>
       </c>
       <c r="K190" t="n">
-        <v>14.28571428571428</v>
+        <v>-12.49999999999997</v>
       </c>
       <c r="L190" t="n">
         <v>14.04</v>
@@ -9969,7 +9991,7 @@
         <v>19.29999999999998</v>
       </c>
       <c r="K191" t="n">
-        <v>14.28571428571428</v>
+        <v>-28.5714285714285</v>
       </c>
       <c r="L191" t="n">
         <v>14.02</v>
@@ -10020,7 +10042,7 @@
         <v>19.29999999999998</v>
       </c>
       <c r="K192" t="n">
-        <v>11.11111111111112</v>
+        <v>-38.46153846153855</v>
       </c>
       <c r="L192" t="n">
         <v>13.98000000000001</v>
@@ -10071,7 +10093,7 @@
         <v>19.29999999999998</v>
       </c>
       <c r="K193" t="n">
-        <v>15.38461538461539</v>
+        <v>-27.27272727272732</v>
       </c>
       <c r="L193" t="n">
         <v>13.93000000000001</v>
@@ -10122,7 +10144,7 @@
         <v>19.39999999999998</v>
       </c>
       <c r="K194" t="n">
-        <v>11.11111111111106</v>
+        <v>-11.11111111111129</v>
       </c>
       <c r="L194" t="n">
         <v>13.89000000000001</v>
@@ -10173,7 +10195,7 @@
         <v>19.59999999999999</v>
       </c>
       <c r="K195" t="n">
-        <v>21.42857142857138</v>
+        <v>-42.85714285714253</v>
       </c>
       <c r="L195" t="n">
         <v>13.90000000000001</v>
@@ -10224,7 +10246,7 @@
         <v>19.59999999999999</v>
       </c>
       <c r="K196" t="n">
-        <v>18.5185185185185</v>
+        <v>-19.99999999999979</v>
       </c>
       <c r="L196" t="n">
         <v>13.87000000000001</v>
@@ -10275,7 +10297,7 @@
         <v>19.59999999999999</v>
       </c>
       <c r="K197" t="n">
-        <v>23.07692307692305</v>
+        <v>-19.99999999999979</v>
       </c>
       <c r="L197" t="n">
         <v>13.86000000000001</v>
@@ -10326,7 +10348,7 @@
         <v>19.59999999999999</v>
       </c>
       <c r="K198" t="n">
-        <v>16.66666666666666</v>
+        <v>-19.99999999999979</v>
       </c>
       <c r="L198" t="n">
         <v>13.85000000000001</v>
@@ -10377,7 +10399,7 @@
         <v>19.59999999999999</v>
       </c>
       <c r="K199" t="n">
-        <v>4.761904761904741</v>
+        <v>33.33333333333275</v>
       </c>
       <c r="L199" t="n">
         <v>13.84000000000001</v>
@@ -10428,7 +10450,7 @@
         <v>19.59999999999999</v>
       </c>
       <c r="K200" t="n">
-        <v>-5.263157894736818</v>
+        <v>33.33333333333275</v>
       </c>
       <c r="L200" t="n">
         <v>13.85000000000001</v>
@@ -10479,7 +10501,7 @@
         <v>19.79999999999999</v>
       </c>
       <c r="K201" t="n">
-        <v>-14.28571428571428</v>
+        <v>-20</v>
       </c>
       <c r="L201" t="n">
         <v>13.84000000000001</v>
@@ -10530,7 +10552,7 @@
         <v>19.79999999999999</v>
       </c>
       <c r="K202" t="n">
-        <v>-26.31578947368413</v>
+        <v>-20</v>
       </c>
       <c r="L202" t="n">
         <v>13.83</v>
@@ -10581,7 +10603,7 @@
         <v>19.79999999999999</v>
       </c>
       <c r="K203" t="n">
-        <v>-33.33333333333333</v>
+        <v>0</v>
       </c>
       <c r="L203" t="n">
         <v>13.82</v>
@@ -10632,7 +10654,7 @@
         <v>20.09999999999999</v>
       </c>
       <c r="K204" t="n">
-        <v>-5.263157894736818</v>
+        <v>19.99999999999979</v>
       </c>
       <c r="L204" t="n">
         <v>13.85</v>
@@ -10683,7 +10705,7 @@
         <v>20.29999999999999</v>
       </c>
       <c r="K205" t="n">
-        <v>0</v>
+        <v>-14.28571428571418</v>
       </c>
       <c r="L205" t="n">
         <v>13.84</v>
@@ -10734,7 +10756,7 @@
         <v>20.29999999999999</v>
       </c>
       <c r="K206" t="n">
-        <v>-28.57142857142835</v>
+        <v>-14.28571428571418</v>
       </c>
       <c r="L206" t="n">
         <v>13.83</v>
@@ -10785,7 +10807,7 @@
         <v>20.29999999999999</v>
       </c>
       <c r="K207" t="n">
-        <v>-16.66666666666652</v>
+        <v>-14.28571428571418</v>
       </c>
       <c r="L207" t="n">
         <v>13.82</v>
@@ -10836,7 +10858,7 @@
         <v>20.49999999999999</v>
       </c>
       <c r="K208" t="n">
-        <v>0</v>
+        <v>11.11111111111104</v>
       </c>
       <c r="L208" t="n">
         <v>13.83</v>
@@ -10887,7 +10909,7 @@
         <v>20.59999999999999</v>
       </c>
       <c r="K209" t="n">
-        <v>-6.666666666666628</v>
+        <v>0</v>
       </c>
       <c r="L209" t="n">
         <v>13.83</v>
@@ -10938,7 +10960,7 @@
         <v>20.59999999999999</v>
       </c>
       <c r="K210" t="n">
-        <v>7.69230769230764</v>
+        <v>25.00000000000022</v>
       </c>
       <c r="L210" t="n">
         <v>13.83</v>
@@ -10989,7 +11011,7 @@
         <v>20.59999999999999</v>
       </c>
       <c r="K211" t="n">
-        <v>7.69230769230764</v>
+        <v>25.00000000000022</v>
       </c>
       <c r="L211" t="n">
         <v>13.85</v>
@@ -11040,7 +11062,7 @@
         <v>20.59999999999999</v>
       </c>
       <c r="K212" t="n">
-        <v>7.69230769230764</v>
+        <v>25.00000000000022</v>
       </c>
       <c r="L212" t="n">
         <v>13.87000000000001</v>
@@ -11091,7 +11113,7 @@
         <v>20.59999999999999</v>
       </c>
       <c r="K213" t="n">
-        <v>7.69230769230764</v>
+        <v>-20.00000000000007</v>
       </c>
       <c r="L213" t="n">
         <v>13.89000000000001</v>
@@ -11142,7 +11164,7 @@
         <v>20.69999999999999</v>
       </c>
       <c r="K214" t="n">
-        <v>23.07692307692306</v>
+        <v>50</v>
       </c>
       <c r="L214" t="n">
         <v>13.89000000000001</v>
@@ -11193,7 +11215,7 @@
         <v>20.79999999999999</v>
       </c>
       <c r="K215" t="n">
-        <v>0</v>
+        <v>19.99999999999993</v>
       </c>
       <c r="L215" t="n">
         <v>13.90000000000001</v>
@@ -11244,7 +11266,7 @@
         <v>20.89999999999999</v>
       </c>
       <c r="K216" t="n">
-        <v>-7.69230769230764</v>
+        <v>0</v>
       </c>
       <c r="L216" t="n">
         <v>13.90000000000001</v>
@@ -11295,7 +11317,7 @@
         <v>20.99999999999999</v>
       </c>
       <c r="K217" t="n">
-        <v>-14.2857142857143</v>
+        <v>-59.99999999999972</v>
       </c>
       <c r="L217" t="n">
         <v>13.89000000000001</v>
@@ -11346,7 +11368,7 @@
         <v>20.99999999999999</v>
       </c>
       <c r="K218" t="n">
-        <v>-14.2857142857143</v>
+        <v>-49.99999999999956</v>
       </c>
       <c r="L218" t="n">
         <v>13.86</v>
@@ -11397,7 +11419,7 @@
         <v>21.09999999999999</v>
       </c>
       <c r="K219" t="n">
-        <v>-6.666666666666611</v>
+        <v>-19.99999999999964</v>
       </c>
       <c r="L219" t="n">
         <v>13.85</v>
@@ -11448,7 +11470,7 @@
         <v>21.3</v>
       </c>
       <c r="K220" t="n">
-        <v>-17.64705882352935</v>
+        <v>-42.85714285714235</v>
       </c>
       <c r="L220" t="n">
         <v>13.82</v>
@@ -11499,7 +11521,7 @@
         <v>21.3</v>
       </c>
       <c r="K221" t="n">
-        <v>-6.666666666666611</v>
+        <v>-42.85714285714235</v>
       </c>
       <c r="L221" t="n">
         <v>13.79</v>
@@ -11550,7 +11572,7 @@
         <v>21.6</v>
       </c>
       <c r="K222" t="n">
-        <v>11.11111111111112</v>
+        <v>0</v>
       </c>
       <c r="L222" t="n">
         <v>13.79</v>
@@ -11601,7 +11623,7 @@
         <v>21.7</v>
       </c>
       <c r="K223" t="n">
-        <v>5.263157894736901</v>
+        <v>-19.99999999999979</v>
       </c>
       <c r="L223" t="n">
         <v>13.78</v>
@@ -11652,7 +11674,7 @@
         <v>21.7</v>
       </c>
       <c r="K224" t="n">
-        <v>-12.49999999999992</v>
+        <v>-11.111111111111</v>
       </c>
       <c r="L224" t="n">
         <v>13.76000000000001</v>
@@ -11754,7 +11776,7 @@
         <v>21.7</v>
       </c>
       <c r="K226" t="n">
-        <v>0</v>
+        <v>14.28571428571443</v>
       </c>
       <c r="L226" t="n">
         <v>13.75000000000001</v>
@@ -11805,7 +11827,7 @@
         <v>21.7</v>
       </c>
       <c r="K227" t="n">
-        <v>0</v>
+        <v>14.28571428571443</v>
       </c>
       <c r="L227" t="n">
         <v>13.76000000000001</v>
@@ -11856,7 +11878,7 @@
         <v>21.7</v>
       </c>
       <c r="K228" t="n">
-        <v>-16.66666666666652</v>
+        <v>0</v>
       </c>
       <c r="L228" t="n">
         <v>13.77000000000001</v>
@@ -11907,7 +11929,7 @@
         <v>21.9</v>
       </c>
       <c r="K229" t="n">
-        <v>-23.07692307692293</v>
+        <v>0</v>
       </c>
       <c r="L229" t="n">
         <v>13.75000000000001</v>
@@ -11958,7 +11980,7 @@
         <v>22</v>
       </c>
       <c r="K230" t="n">
-        <v>-14.28571428571423</v>
+        <v>14.28571428571418</v>
       </c>
       <c r="L230" t="n">
         <v>13.76000000000001</v>
@@ -12009,7 +12031,7 @@
         <v>22.1</v>
       </c>
       <c r="K231" t="n">
-        <v>-19.99999999999986</v>
+        <v>-59.99999999999972</v>
       </c>
       <c r="L231" t="n">
         <v>13.76000000000001</v>
@@ -12060,7 +12082,7 @@
         <v>22.2</v>
       </c>
       <c r="K232" t="n">
-        <v>-12.49999999999994</v>
+        <v>-20</v>
       </c>
       <c r="L232" t="n">
         <v>13.74000000000001</v>
@@ -12111,7 +12133,7 @@
         <v>22.7</v>
       </c>
       <c r="K233" t="n">
-        <v>-33.33333333333314</v>
+        <v>-59.99999999999972</v>
       </c>
       <c r="L233" t="n">
         <v>13.68</v>
@@ -12162,7 +12184,7 @@
         <v>23</v>
       </c>
       <c r="K234" t="n">
-        <v>-21.73913043478247</v>
+        <v>-23.07692307692299</v>
       </c>
       <c r="L234" t="n">
         <v>13.65</v>
@@ -12213,7 +12235,7 @@
         <v>23.1</v>
       </c>
       <c r="K235" t="n">
-        <v>-13.04347826086953</v>
+        <v>-14.2857142857143</v>
       </c>
       <c r="L235" t="n">
         <v>13.63</v>
@@ -12264,7 +12286,7 @@
         <v>23.1</v>
       </c>
       <c r="K236" t="n">
-        <v>-9.090909090909099</v>
+        <v>-14.2857142857143</v>
       </c>
       <c r="L236" t="n">
         <v>13.61</v>
@@ -12315,7 +12337,7 @@
         <v>23.3</v>
       </c>
       <c r="K237" t="n">
-        <v>4.347826086956561</v>
+        <v>0</v>
       </c>
       <c r="L237" t="n">
         <v>13.61</v>
@@ -12366,7 +12388,7 @@
         <v>23.40000000000001</v>
       </c>
       <c r="K238" t="n">
-        <v>0</v>
+        <v>6.666666666666611</v>
       </c>
       <c r="L238" t="n">
         <v>13.6</v>
@@ -12417,7 +12439,7 @@
         <v>23.50000000000001</v>
       </c>
       <c r="K239" t="n">
-        <v>0</v>
+        <v>6.66666666666673</v>
       </c>
       <c r="L239" t="n">
         <v>13.62</v>
@@ -12468,7 +12490,7 @@
         <v>23.50000000000001</v>
       </c>
       <c r="K240" t="n">
-        <v>9.090909090909099</v>
+        <v>14.2857142857143</v>
       </c>
       <c r="L240" t="n">
         <v>13.63</v>
@@ -12519,7 +12541,7 @@
         <v>23.70000000000001</v>
       </c>
       <c r="K241" t="n">
-        <v>0</v>
+        <v>-6.666666666666611</v>
       </c>
       <c r="L241" t="n">
         <v>13.63</v>
@@ -12570,7 +12592,7 @@
         <v>23.80000000000001</v>
       </c>
       <c r="K242" t="n">
-        <v>-9.090909090909085</v>
+        <v>45.45454545454511</v>
       </c>
       <c r="L242" t="n">
         <v>13.63</v>
@@ -12621,7 +12643,7 @@
         <v>23.80000000000001</v>
       </c>
       <c r="K243" t="n">
-        <v>-4.761904761904794</v>
+        <v>24.99999999999967</v>
       </c>
       <c r="L243" t="n">
         <v>13.68</v>
@@ -12672,7 +12694,7 @@
         <v>23.90000000000001</v>
       </c>
       <c r="K244" t="n">
-        <v>0</v>
+        <v>24.99999999999978</v>
       </c>
       <c r="L244" t="n">
         <v>13.71</v>
@@ -12723,7 +12745,7 @@
         <v>24.00000000000001</v>
       </c>
       <c r="K245" t="n">
-        <v>-4.347826086956549</v>
+        <v>11.11111111111091</v>
       </c>
       <c r="L245" t="n">
         <v>13.72</v>
@@ -12774,7 +12796,7 @@
         <v>24.00000000000001</v>
       </c>
       <c r="K246" t="n">
-        <v>-4.347826086956549</v>
+        <v>-14.28571428571428</v>
       </c>
       <c r="L246" t="n">
         <v>13.73</v>
@@ -12825,7 +12847,7 @@
         <v>24.10000000000002</v>
       </c>
       <c r="K247" t="n">
-        <v>-8.333333333333309</v>
+        <v>-14.28571428571403</v>
       </c>
       <c r="L247" t="n">
         <v>13.71</v>
@@ -12876,7 +12898,7 @@
         <v>24.10000000000002</v>
       </c>
       <c r="K248" t="n">
-        <v>-8.333333333333309</v>
+        <v>-33.33333333333304</v>
       </c>
       <c r="L248" t="n">
         <v>13.7</v>
@@ -12927,7 +12949,7 @@
         <v>24.10000000000002</v>
       </c>
       <c r="K249" t="n">
-        <v>0</v>
+        <v>-33.33333333333304</v>
       </c>
       <c r="L249" t="n">
         <v>13.68</v>
@@ -12978,7 +13000,7 @@
         <v>24.10000000000002</v>
       </c>
       <c r="K250" t="n">
-        <v>-4.761904761904709</v>
+        <v>0</v>
       </c>
       <c r="L250" t="n">
         <v>13.66</v>
@@ -13029,7 +13051,7 @@
         <v>24.10000000000002</v>
       </c>
       <c r="K251" t="n">
-        <v>0</v>
+        <v>-33.33333333333275</v>
       </c>
       <c r="L251" t="n">
         <v>13.66</v>
@@ -13080,7 +13102,7 @@
         <v>24.20000000000002</v>
       </c>
       <c r="K252" t="n">
-        <v>-9.999999999999893</v>
+        <v>-49.99999999999911</v>
       </c>
       <c r="L252" t="n">
         <v>13.64</v>
@@ -13131,7 +13153,7 @@
         <v>24.20000000000002</v>
       </c>
       <c r="K253" t="n">
-        <v>19.99999999999986</v>
+        <v>-99.99999999999881</v>
       </c>
       <c r="L253" t="n">
         <v>13.62</v>
@@ -13182,7 +13204,7 @@
         <v>24.30000000000002</v>
       </c>
       <c r="K254" t="n">
-        <v>7.692307692307576</v>
+        <v>-33.33333333333275</v>
       </c>
       <c r="L254" t="n">
         <v>13.6</v>
@@ -13233,7 +13255,7 @@
         <v>24.30000000000002</v>
       </c>
       <c r="K255" t="n">
-        <v>0</v>
+        <v>-33.33333333333275</v>
       </c>
       <c r="L255" t="n">
         <v>13.59</v>
@@ -13284,7 +13306,7 @@
         <v>24.40000000000002</v>
       </c>
       <c r="K256" t="n">
-        <v>7.692307692307556</v>
+        <v>33.33333333333275</v>
       </c>
       <c r="L256" t="n">
         <v>13.59</v>
@@ -13335,7 +13357,7 @@
         <v>24.50000000000002</v>
       </c>
       <c r="K257" t="n">
-        <v>-16.66666666666652</v>
+        <v>0</v>
       </c>
       <c r="L257" t="n">
         <v>13.59</v>
@@ -13386,7 +13408,7 @@
         <v>24.60000000000002</v>
       </c>
       <c r="K258" t="n">
-        <v>-16.66666666666637</v>
+        <v>-19.99999999999964</v>
       </c>
       <c r="L258" t="n">
         <v>13.58</v>
@@ -13437,7 +13459,7 @@
         <v>24.70000000000002</v>
       </c>
       <c r="K259" t="n">
-        <v>-16.66666666666652</v>
+        <v>0</v>
       </c>
       <c r="L259" t="n">
         <v>13.58</v>
@@ -13488,7 +13510,7 @@
         <v>25.00000000000002</v>
       </c>
       <c r="K260" t="n">
-        <v>-33.33333333333302</v>
+        <v>-33.333333333333</v>
       </c>
       <c r="L260" t="n">
         <v>13.55</v>
@@ -13539,7 +13561,7 @@
         <v>25.00000000000002</v>
       </c>
       <c r="K261" t="n">
-        <v>-23.07692307692279</v>
+        <v>-24.99999999999978</v>
       </c>
       <c r="L261" t="n">
         <v>13.52</v>
@@ -13590,7 +13612,7 @@
         <v>25.40000000000002</v>
       </c>
       <c r="K262" t="n">
-        <v>0</v>
+        <v>16.66666666666657</v>
       </c>
       <c r="L262" t="n">
         <v>13.54</v>
@@ -13641,7 +13663,7 @@
         <v>25.60000000000002</v>
       </c>
       <c r="K263" t="n">
-        <v>-11.11111111111102</v>
+        <v>-7.692307692307661</v>
       </c>
       <c r="L263" t="n">
         <v>13.54</v>
@@ -13692,7 +13714,7 @@
         <v>25.70000000000002</v>
       </c>
       <c r="K264" t="n">
-        <v>-22.22222222222219</v>
+        <v>-14.28571428571425</v>
       </c>
       <c r="L264" t="n">
         <v>13.52</v>
@@ -13743,7 +13765,7 @@
         <v>25.80000000000002</v>
       </c>
       <c r="K265" t="n">
-        <v>-11.11111111111104</v>
+        <v>-14.28571428571425</v>
       </c>
       <c r="L265" t="n">
         <v>13.51</v>
@@ -13794,7 +13816,7 @@
         <v>26.00000000000002</v>
       </c>
       <c r="K266" t="n">
-        <v>-19.99999999999989</v>
+        <v>-19.99999999999998</v>
       </c>
       <c r="L266" t="n">
         <v>13.47</v>
@@ -13845,7 +13867,7 @@
         <v>26.20000000000002</v>
       </c>
       <c r="K267" t="n">
-        <v>-4.761904761904741</v>
+        <v>0</v>
       </c>
       <c r="L267" t="n">
         <v>13.46</v>
@@ -13896,7 +13918,7 @@
         <v>26.30000000000002</v>
       </c>
       <c r="K268" t="n">
-        <v>-9.090909090909047</v>
+        <v>-12.5</v>
       </c>
       <c r="L268" t="n">
         <v>13.45000000000001</v>
@@ -13947,7 +13969,7 @@
         <v>26.40000000000002</v>
       </c>
       <c r="K269" t="n">
-        <v>-13.0434782608695</v>
+        <v>0</v>
       </c>
       <c r="L269" t="n">
         <v>13.42000000000001</v>
@@ -13998,7 +14020,7 @@
         <v>26.50000000000002</v>
       </c>
       <c r="K270" t="n">
-        <v>-16.66666666666664</v>
+        <v>-6.666666666666761</v>
       </c>
       <c r="L270" t="n">
         <v>13.41000000000001</v>
@@ -14049,7 +14071,7 @@
         <v>26.70000000000002</v>
       </c>
       <c r="K271" t="n">
-        <v>-7.69230769230764</v>
+        <v>-23.07692307692292</v>
       </c>
       <c r="L271" t="n">
         <v>13.42000000000001</v>
@@ -14100,7 +14122,7 @@
         <v>26.70000000000002</v>
       </c>
       <c r="K272" t="n">
-        <v>-3.999999999999974</v>
+        <v>-9.090909090909017</v>
       </c>
       <c r="L272" t="n">
         <v>13.39000000000001</v>

--- a/BackTest/2019-10-19 BackTest RNT.xlsx
+++ b/BackTest/2019-10-19 BackTest RNT.xlsx
@@ -451,17 +451,13 @@
         <v>12.38666666666665</v>
       </c>
       <c r="H2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
       </c>
-      <c r="J2" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="K2" t="n">
-        <v>12.5</v>
-      </c>
+      <c r="J2" t="inlineStr"/>
+      <c r="K2" t="inlineStr"/>
       <c r="L2" t="inlineStr"/>
       <c r="M2" t="n">
         <v>1</v>
@@ -490,2854 +486,2414 @@
         <v>12.38666666666665</v>
       </c>
       <c r="H3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
-      <c r="J3" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="K3" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="L3" t="inlineStr">
+      <c r="J3" t="inlineStr"/>
+      <c r="K3" t="inlineStr"/>
+      <c r="L3" t="inlineStr"/>
+      <c r="M3" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="C4" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="D4" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="E4" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="F4" t="n">
+        <v>2691.52</v>
+      </c>
+      <c r="G4" t="n">
+        <v>12.38833333333332</v>
+      </c>
+      <c r="H4" t="n">
+        <v>0</v>
+      </c>
+      <c r="I4" t="n">
+        <v>0</v>
+      </c>
+      <c r="J4" t="inlineStr"/>
+      <c r="K4" t="inlineStr"/>
+      <c r="L4" t="inlineStr"/>
+      <c r="M4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="C5" t="n">
+        <v>12.8</v>
+      </c>
+      <c r="D5" t="n">
+        <v>12.8</v>
+      </c>
+      <c r="E5" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="F5" t="n">
+        <v>51</v>
+      </c>
+      <c r="G5" t="n">
+        <v>12.39666666666665</v>
+      </c>
+      <c r="H5" t="n">
+        <v>0</v>
+      </c>
+      <c r="I5" t="n">
+        <v>0</v>
+      </c>
+      <c r="J5" t="inlineStr"/>
+      <c r="K5" t="inlineStr"/>
+      <c r="L5" t="inlineStr"/>
+      <c r="M5" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="C6" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="D6" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="E6" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="F6" t="n">
+        <v>3216.29</v>
+      </c>
+      <c r="G6" t="n">
+        <v>12.39999999999998</v>
+      </c>
+      <c r="H6" t="n">
+        <v>0</v>
+      </c>
+      <c r="I6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J6" t="inlineStr"/>
+      <c r="K6" t="inlineStr"/>
+      <c r="L6" t="inlineStr"/>
+      <c r="M6" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="n">
+        <v>12.8</v>
+      </c>
+      <c r="C7" t="n">
+        <v>12.9</v>
+      </c>
+      <c r="D7" t="n">
+        <v>12.9</v>
+      </c>
+      <c r="E7" t="n">
+        <v>12.8</v>
+      </c>
+      <c r="F7" t="n">
+        <v>203793.3273</v>
+      </c>
+      <c r="G7" t="n">
+        <v>12.40999999999998</v>
+      </c>
+      <c r="H7" t="n">
+        <v>0</v>
+      </c>
+      <c r="I7" t="n">
+        <v>0</v>
+      </c>
+      <c r="J7" t="inlineStr"/>
+      <c r="K7" t="inlineStr"/>
+      <c r="L7" t="inlineStr"/>
+      <c r="M7" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="n">
+        <v>13</v>
+      </c>
+      <c r="C8" t="n">
+        <v>13</v>
+      </c>
+      <c r="D8" t="n">
+        <v>13</v>
+      </c>
+      <c r="E8" t="n">
+        <v>13</v>
+      </c>
+      <c r="F8" t="n">
+        <v>3192.5</v>
+      </c>
+      <c r="G8" t="n">
+        <v>12.41999999999998</v>
+      </c>
+      <c r="H8" t="n">
+        <v>0</v>
+      </c>
+      <c r="I8" t="n">
+        <v>0</v>
+      </c>
+      <c r="J8" t="inlineStr"/>
+      <c r="K8" t="inlineStr"/>
+      <c r="L8" t="inlineStr"/>
+      <c r="M8" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="n">
+        <v>13</v>
+      </c>
+      <c r="C9" t="n">
+        <v>13</v>
+      </c>
+      <c r="D9" t="n">
+        <v>13.2</v>
+      </c>
+      <c r="E9" t="n">
+        <v>13</v>
+      </c>
+      <c r="F9" t="n">
+        <v>74962.91711969697</v>
+      </c>
+      <c r="G9" t="n">
+        <v>12.43333333333332</v>
+      </c>
+      <c r="H9" t="n">
+        <v>0</v>
+      </c>
+      <c r="I9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" t="inlineStr"/>
+      <c r="K9" t="inlineStr"/>
+      <c r="L9" t="inlineStr"/>
+      <c r="M9" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="n">
+        <v>13</v>
+      </c>
+      <c r="C10" t="n">
+        <v>13</v>
+      </c>
+      <c r="D10" t="n">
+        <v>13</v>
+      </c>
+      <c r="E10" t="n">
+        <v>13</v>
+      </c>
+      <c r="F10" t="n">
+        <v>31555.0425</v>
+      </c>
+      <c r="G10" t="n">
+        <v>12.44666666666665</v>
+      </c>
+      <c r="H10" t="n">
+        <v>0</v>
+      </c>
+      <c r="I10" t="n">
+        <v>0</v>
+      </c>
+      <c r="J10" t="inlineStr"/>
+      <c r="K10" t="inlineStr"/>
+      <c r="L10" t="inlineStr"/>
+      <c r="M10" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="n">
+        <v>13</v>
+      </c>
+      <c r="C11" t="n">
+        <v>13</v>
+      </c>
+      <c r="D11" t="n">
+        <v>13</v>
+      </c>
+      <c r="E11" t="n">
+        <v>13</v>
+      </c>
+      <c r="F11" t="n">
+        <v>14703.8251</v>
+      </c>
+      <c r="G11" t="n">
+        <v>12.45999999999998</v>
+      </c>
+      <c r="H11" t="n">
+        <v>0</v>
+      </c>
+      <c r="I11" t="n">
+        <v>0</v>
+      </c>
+      <c r="J11" t="inlineStr"/>
+      <c r="K11" t="inlineStr"/>
+      <c r="L11" t="inlineStr"/>
+      <c r="M11" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="n">
+        <v>13</v>
+      </c>
+      <c r="C12" t="n">
+        <v>12.9</v>
+      </c>
+      <c r="D12" t="n">
+        <v>13</v>
+      </c>
+      <c r="E12" t="n">
+        <v>12.9</v>
+      </c>
+      <c r="F12" t="n">
+        <v>123029.8431</v>
+      </c>
+      <c r="G12" t="n">
+        <v>12.47166666666665</v>
+      </c>
+      <c r="H12" t="n">
+        <v>0</v>
+      </c>
+      <c r="I12" t="n">
+        <v>0</v>
+      </c>
+      <c r="J12" t="inlineStr"/>
+      <c r="K12" t="inlineStr"/>
+      <c r="L12" t="inlineStr"/>
+      <c r="M12" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="n">
+        <v>12.9</v>
+      </c>
+      <c r="C13" t="n">
+        <v>12.9</v>
+      </c>
+      <c r="D13" t="n">
+        <v>12.9</v>
+      </c>
+      <c r="E13" t="n">
+        <v>12.9</v>
+      </c>
+      <c r="F13" t="n">
+        <v>18310</v>
+      </c>
+      <c r="G13" t="n">
+        <v>12.48333333333331</v>
+      </c>
+      <c r="H13" t="n">
+        <v>0</v>
+      </c>
+      <c r="I13" t="n">
+        <v>0</v>
+      </c>
+      <c r="J13" t="inlineStr"/>
+      <c r="K13" t="inlineStr"/>
+      <c r="L13" t="inlineStr"/>
+      <c r="M13" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="n">
+        <v>12.9</v>
+      </c>
+      <c r="C14" t="n">
+        <v>12.9</v>
+      </c>
+      <c r="D14" t="n">
+        <v>12.9</v>
+      </c>
+      <c r="E14" t="n">
+        <v>12.9</v>
+      </c>
+      <c r="F14" t="n">
+        <v>20733.5107</v>
+      </c>
+      <c r="G14" t="n">
+        <v>12.49499999999998</v>
+      </c>
+      <c r="H14" t="n">
+        <v>0</v>
+      </c>
+      <c r="I14" t="n">
+        <v>0</v>
+      </c>
+      <c r="J14" t="inlineStr"/>
+      <c r="K14" t="inlineStr"/>
+      <c r="L14" t="inlineStr"/>
+      <c r="M14" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="n">
+        <v>12.9</v>
+      </c>
+      <c r="C15" t="n">
+        <v>12.9</v>
+      </c>
+      <c r="D15" t="n">
+        <v>12.9</v>
+      </c>
+      <c r="E15" t="n">
+        <v>12.9</v>
+      </c>
+      <c r="F15" t="n">
+        <v>7611.1404</v>
+      </c>
+      <c r="G15" t="n">
+        <v>12.50666666666664</v>
+      </c>
+      <c r="H15" t="n">
+        <v>0</v>
+      </c>
+      <c r="I15" t="n">
+        <v>0</v>
+      </c>
+      <c r="J15" t="inlineStr"/>
+      <c r="K15" t="inlineStr"/>
+      <c r="L15" t="inlineStr"/>
+      <c r="M15" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="n">
+        <v>12.8</v>
+      </c>
+      <c r="C16" t="n">
+        <v>12.8</v>
+      </c>
+      <c r="D16" t="n">
+        <v>12.8</v>
+      </c>
+      <c r="E16" t="n">
+        <v>12.8</v>
+      </c>
+      <c r="F16" t="n">
+        <v>51186.13</v>
+      </c>
+      <c r="G16" t="n">
+        <v>12.51499999999998</v>
+      </c>
+      <c r="H16" t="n">
+        <v>0</v>
+      </c>
+      <c r="I16" t="n">
+        <v>0</v>
+      </c>
+      <c r="J16" t="inlineStr"/>
+      <c r="K16" t="inlineStr"/>
+      <c r="L16" t="inlineStr"/>
+      <c r="M16" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="n">
+        <v>12.7</v>
+      </c>
+      <c r="C17" t="n">
+        <v>12.7</v>
+      </c>
+      <c r="D17" t="n">
+        <v>12.7</v>
+      </c>
+      <c r="E17" t="n">
+        <v>12.7</v>
+      </c>
+      <c r="F17" t="n">
+        <v>45061.2773</v>
+      </c>
+      <c r="G17" t="n">
+        <v>12.52333333333331</v>
+      </c>
+      <c r="H17" t="n">
+        <v>0</v>
+      </c>
+      <c r="I17" t="n">
+        <v>0</v>
+      </c>
+      <c r="J17" t="inlineStr"/>
+      <c r="K17" t="inlineStr"/>
+      <c r="L17" t="inlineStr"/>
+      <c r="M17" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="n">
+        <v>12.8</v>
+      </c>
+      <c r="C18" t="n">
+        <v>12.8</v>
+      </c>
+      <c r="D18" t="n">
+        <v>12.8</v>
+      </c>
+      <c r="E18" t="n">
+        <v>12.8</v>
+      </c>
+      <c r="F18" t="n">
+        <v>12</v>
+      </c>
+      <c r="G18" t="n">
+        <v>12.53166666666664</v>
+      </c>
+      <c r="H18" t="n">
+        <v>0</v>
+      </c>
+      <c r="I18" t="n">
+        <v>0</v>
+      </c>
+      <c r="J18" t="inlineStr"/>
+      <c r="K18" t="inlineStr"/>
+      <c r="L18" t="inlineStr"/>
+      <c r="M18" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="n">
+        <v>12.7</v>
+      </c>
+      <c r="C19" t="n">
+        <v>12.7</v>
+      </c>
+      <c r="D19" t="n">
+        <v>12.7</v>
+      </c>
+      <c r="E19" t="n">
+        <v>12.7</v>
+      </c>
+      <c r="F19" t="n">
+        <v>50000</v>
+      </c>
+      <c r="G19" t="n">
+        <v>12.53999999999998</v>
+      </c>
+      <c r="H19" t="n">
+        <v>0</v>
+      </c>
+      <c r="I19" t="n">
+        <v>0</v>
+      </c>
+      <c r="J19" t="inlineStr"/>
+      <c r="K19" t="inlineStr"/>
+      <c r="L19" t="inlineStr"/>
+      <c r="M19" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="n">
+        <v>12.7</v>
+      </c>
+      <c r="C20" t="n">
+        <v>12.6</v>
+      </c>
+      <c r="D20" t="n">
+        <v>12.7</v>
+      </c>
+      <c r="E20" t="n">
+        <v>12.6</v>
+      </c>
+      <c r="F20" t="n">
+        <v>5000</v>
+      </c>
+      <c r="G20" t="n">
+        <v>12.54666666666664</v>
+      </c>
+      <c r="H20" t="n">
+        <v>0</v>
+      </c>
+      <c r="I20" t="n">
+        <v>0</v>
+      </c>
+      <c r="J20" t="inlineStr"/>
+      <c r="K20" t="inlineStr"/>
+      <c r="L20" t="inlineStr"/>
+      <c r="M20" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="n">
+        <v>12.8</v>
+      </c>
+      <c r="C21" t="n">
+        <v>12.8</v>
+      </c>
+      <c r="D21" t="n">
+        <v>12.8</v>
+      </c>
+      <c r="E21" t="n">
+        <v>12.8</v>
+      </c>
+      <c r="F21" t="n">
+        <v>7366.79</v>
+      </c>
+      <c r="G21" t="n">
+        <v>12.55666666666664</v>
+      </c>
+      <c r="H21" t="n">
+        <v>0</v>
+      </c>
+      <c r="I21" t="n">
+        <v>0</v>
+      </c>
+      <c r="J21" t="inlineStr"/>
+      <c r="K21" t="inlineStr"/>
+      <c r="L21" t="inlineStr"/>
+      <c r="M21" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="n">
+        <v>12.8</v>
+      </c>
+      <c r="C22" t="n">
+        <v>13</v>
+      </c>
+      <c r="D22" t="n">
+        <v>13</v>
+      </c>
+      <c r="E22" t="n">
+        <v>12.8</v>
+      </c>
+      <c r="F22" t="n">
+        <v>6000</v>
+      </c>
+      <c r="G22" t="n">
+        <v>12.56833333333331</v>
+      </c>
+      <c r="H22" t="n">
+        <v>0</v>
+      </c>
+      <c r="I22" t="n">
+        <v>0</v>
+      </c>
+      <c r="J22" t="inlineStr"/>
+      <c r="K22" t="inlineStr"/>
+      <c r="L22" t="inlineStr"/>
+      <c r="M22" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="n">
+        <v>12.9</v>
+      </c>
+      <c r="C23" t="n">
+        <v>13</v>
+      </c>
+      <c r="D23" t="n">
+        <v>13</v>
+      </c>
+      <c r="E23" t="n">
+        <v>12.8</v>
+      </c>
+      <c r="F23" t="n">
+        <v>594531.5437</v>
+      </c>
+      <c r="G23" t="n">
+        <v>12.57833333333331</v>
+      </c>
+      <c r="H23" t="n">
+        <v>0</v>
+      </c>
+      <c r="I23" t="n">
+        <v>0</v>
+      </c>
+      <c r="J23" t="inlineStr"/>
+      <c r="K23" t="inlineStr"/>
+      <c r="L23" t="inlineStr"/>
+      <c r="M23" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="n">
+        <v>13</v>
+      </c>
+      <c r="C24" t="n">
+        <v>13</v>
+      </c>
+      <c r="D24" t="n">
+        <v>13</v>
+      </c>
+      <c r="E24" t="n">
+        <v>13</v>
+      </c>
+      <c r="F24" t="n">
+        <v>31328.0501</v>
+      </c>
+      <c r="G24" t="n">
+        <v>12.58666666666664</v>
+      </c>
+      <c r="H24" t="n">
+        <v>0</v>
+      </c>
+      <c r="I24" t="n">
+        <v>0</v>
+      </c>
+      <c r="J24" t="inlineStr"/>
+      <c r="K24" t="inlineStr"/>
+      <c r="L24" t="inlineStr"/>
+      <c r="M24" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="n">
+        <v>13</v>
+      </c>
+      <c r="C25" t="n">
+        <v>13</v>
+      </c>
+      <c r="D25" t="n">
+        <v>13</v>
+      </c>
+      <c r="E25" t="n">
+        <v>13</v>
+      </c>
+      <c r="F25" t="n">
+        <v>2647.09</v>
+      </c>
+      <c r="G25" t="n">
+        <v>12.59666666666664</v>
+      </c>
+      <c r="H25" t="n">
+        <v>0</v>
+      </c>
+      <c r="I25" t="n">
+        <v>0</v>
+      </c>
+      <c r="J25" t="inlineStr"/>
+      <c r="K25" t="inlineStr"/>
+      <c r="L25" t="inlineStr"/>
+      <c r="M25" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="n">
+        <v>12.9</v>
+      </c>
+      <c r="C26" t="n">
+        <v>12.8</v>
+      </c>
+      <c r="D26" t="n">
+        <v>12.9</v>
+      </c>
+      <c r="E26" t="n">
+        <v>12.8</v>
+      </c>
+      <c r="F26" t="n">
+        <v>53535.9048</v>
+      </c>
+      <c r="G26" t="n">
+        <v>12.60166666666664</v>
+      </c>
+      <c r="H26" t="n">
+        <v>0</v>
+      </c>
+      <c r="I26" t="n">
+        <v>0</v>
+      </c>
+      <c r="J26" t="inlineStr"/>
+      <c r="K26" t="inlineStr"/>
+      <c r="L26" t="inlineStr"/>
+      <c r="M26" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="n">
+        <v>12.8</v>
+      </c>
+      <c r="C27" t="n">
+        <v>12.8</v>
+      </c>
+      <c r="D27" t="n">
+        <v>12.8</v>
+      </c>
+      <c r="E27" t="n">
+        <v>12.8</v>
+      </c>
+      <c r="F27" t="n">
+        <v>42829.2265</v>
+      </c>
+      <c r="G27" t="n">
+        <v>12.60666666666664</v>
+      </c>
+      <c r="H27" t="n">
+        <v>0</v>
+      </c>
+      <c r="I27" t="n">
+        <v>0</v>
+      </c>
+      <c r="J27" t="inlineStr"/>
+      <c r="K27" t="inlineStr"/>
+      <c r="L27" t="inlineStr"/>
+      <c r="M27" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="n">
+        <v>12.8</v>
+      </c>
+      <c r="C28" t="n">
+        <v>12.8</v>
+      </c>
+      <c r="D28" t="n">
+        <v>12.8</v>
+      </c>
+      <c r="E28" t="n">
+        <v>12.8</v>
+      </c>
+      <c r="F28" t="n">
+        <v>47334.6741</v>
+      </c>
+      <c r="G28" t="n">
+        <v>12.61166666666664</v>
+      </c>
+      <c r="H28" t="n">
+        <v>0</v>
+      </c>
+      <c r="I28" t="n">
+        <v>0</v>
+      </c>
+      <c r="J28" t="inlineStr"/>
+      <c r="K28" t="inlineStr"/>
+      <c r="L28" t="inlineStr"/>
+      <c r="M28" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="n">
+        <v>12.8</v>
+      </c>
+      <c r="C29" t="n">
+        <v>12.8</v>
+      </c>
+      <c r="D29" t="n">
+        <v>12.8</v>
+      </c>
+      <c r="E29" t="n">
+        <v>12.8</v>
+      </c>
+      <c r="F29" t="n">
+        <v>36660.5059</v>
+      </c>
+      <c r="G29" t="n">
+        <v>12.61499999999997</v>
+      </c>
+      <c r="H29" t="n">
+        <v>0</v>
+      </c>
+      <c r="I29" t="n">
+        <v>0</v>
+      </c>
+      <c r="J29" t="inlineStr"/>
+      <c r="K29" t="inlineStr"/>
+      <c r="L29" t="inlineStr"/>
+      <c r="M29" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="1" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="n">
+        <v>12.8</v>
+      </c>
+      <c r="C30" t="n">
+        <v>12.8</v>
+      </c>
+      <c r="D30" t="n">
+        <v>12.8</v>
+      </c>
+      <c r="E30" t="n">
+        <v>12.8</v>
+      </c>
+      <c r="F30" t="n">
+        <v>655.9628</v>
+      </c>
+      <c r="G30" t="n">
+        <v>12.61999999999997</v>
+      </c>
+      <c r="H30" t="n">
+        <v>0</v>
+      </c>
+      <c r="I30" t="n">
+        <v>0</v>
+      </c>
+      <c r="J30" t="inlineStr"/>
+      <c r="K30" t="inlineStr"/>
+      <c r="L30" t="inlineStr"/>
+      <c r="M30" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="1" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="n">
+        <v>12.8</v>
+      </c>
+      <c r="C31" t="n">
+        <v>12.8</v>
+      </c>
+      <c r="D31" t="n">
+        <v>12.8</v>
+      </c>
+      <c r="E31" t="n">
+        <v>12.8</v>
+      </c>
+      <c r="F31" t="n">
+        <v>14604.2757</v>
+      </c>
+      <c r="G31" t="n">
+        <v>12.62499999999997</v>
+      </c>
+      <c r="H31" t="n">
+        <v>0</v>
+      </c>
+      <c r="I31" t="n">
+        <v>0</v>
+      </c>
+      <c r="J31" t="inlineStr"/>
+      <c r="K31" t="inlineStr"/>
+      <c r="L31" t="inlineStr"/>
+      <c r="M31" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="1" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="n">
+        <v>12.8</v>
+      </c>
+      <c r="C32" t="n">
+        <v>12.8</v>
+      </c>
+      <c r="D32" t="n">
+        <v>12.8</v>
+      </c>
+      <c r="E32" t="n">
+        <v>12.8</v>
+      </c>
+      <c r="F32" t="n">
+        <v>21791.1093</v>
+      </c>
+      <c r="G32" t="n">
+        <v>12.62999999999997</v>
+      </c>
+      <c r="H32" t="n">
+        <v>0</v>
+      </c>
+      <c r="I32" t="n">
+        <v>0</v>
+      </c>
+      <c r="J32" t="inlineStr"/>
+      <c r="K32" t="inlineStr"/>
+      <c r="L32" t="inlineStr"/>
+      <c r="M32" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="1" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="n">
+        <v>12.8</v>
+      </c>
+      <c r="C33" t="n">
+        <v>13</v>
+      </c>
+      <c r="D33" t="n">
+        <v>13</v>
+      </c>
+      <c r="E33" t="n">
+        <v>12.8</v>
+      </c>
+      <c r="F33" t="n">
+        <v>15549.4711</v>
+      </c>
+      <c r="G33" t="n">
+        <v>12.6383333333333</v>
+      </c>
+      <c r="H33" t="n">
+        <v>0</v>
+      </c>
+      <c r="I33" t="n">
+        <v>0</v>
+      </c>
+      <c r="J33" t="inlineStr"/>
+      <c r="K33" t="inlineStr"/>
+      <c r="L33" t="inlineStr"/>
+      <c r="M33" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="1" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="n">
+        <v>12.8</v>
+      </c>
+      <c r="C34" t="n">
+        <v>12.8</v>
+      </c>
+      <c r="D34" t="n">
+        <v>12.8</v>
+      </c>
+      <c r="E34" t="n">
+        <v>12.8</v>
+      </c>
+      <c r="F34" t="n">
+        <v>86266.9745</v>
+      </c>
+      <c r="G34" t="n">
+        <v>12.6433333333333</v>
+      </c>
+      <c r="H34" t="n">
+        <v>0</v>
+      </c>
+      <c r="I34" t="n">
+        <v>0</v>
+      </c>
+      <c r="J34" t="inlineStr"/>
+      <c r="K34" t="inlineStr"/>
+      <c r="L34" t="inlineStr"/>
+      <c r="M34" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="1" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="n">
+        <v>13</v>
+      </c>
+      <c r="C35" t="n">
+        <v>13</v>
+      </c>
+      <c r="D35" t="n">
+        <v>13</v>
+      </c>
+      <c r="E35" t="n">
+        <v>13</v>
+      </c>
+      <c r="F35" t="n">
+        <v>11.8461</v>
+      </c>
+      <c r="G35" t="n">
+        <v>12.6533333333333</v>
+      </c>
+      <c r="H35" t="n">
+        <v>0</v>
+      </c>
+      <c r="I35" t="n">
+        <v>0</v>
+      </c>
+      <c r="J35" t="inlineStr"/>
+      <c r="K35" t="inlineStr"/>
+      <c r="L35" t="inlineStr"/>
+      <c r="M35" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="1" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="n">
+        <v>12.8</v>
+      </c>
+      <c r="C36" t="n">
+        <v>12.8</v>
+      </c>
+      <c r="D36" t="n">
+        <v>12.8</v>
+      </c>
+      <c r="E36" t="n">
+        <v>12.8</v>
+      </c>
+      <c r="F36" t="n">
+        <v>70961.43180000001</v>
+      </c>
+      <c r="G36" t="n">
+        <v>12.6583333333333</v>
+      </c>
+      <c r="H36" t="n">
+        <v>0</v>
+      </c>
+      <c r="I36" t="n">
+        <v>0</v>
+      </c>
+      <c r="J36" t="inlineStr"/>
+      <c r="K36" t="inlineStr"/>
+      <c r="L36" t="inlineStr"/>
+      <c r="M36" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="1" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="n">
+        <v>13</v>
+      </c>
+      <c r="C37" t="n">
+        <v>13</v>
+      </c>
+      <c r="D37" t="n">
+        <v>13</v>
+      </c>
+      <c r="E37" t="n">
+        <v>13</v>
+      </c>
+      <c r="F37" t="n">
+        <v>12</v>
+      </c>
+      <c r="G37" t="n">
+        <v>12.6683333333333</v>
+      </c>
+      <c r="H37" t="n">
+        <v>0</v>
+      </c>
+      <c r="I37" t="n">
+        <v>0</v>
+      </c>
+      <c r="J37" t="inlineStr"/>
+      <c r="K37" t="inlineStr"/>
+      <c r="L37" t="inlineStr"/>
+      <c r="M37" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="1" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="n">
+        <v>12.9</v>
+      </c>
+      <c r="C38" t="n">
+        <v>12.8</v>
+      </c>
+      <c r="D38" t="n">
+        <v>12.9</v>
+      </c>
+      <c r="E38" t="n">
+        <v>12.8</v>
+      </c>
+      <c r="F38" t="n">
+        <v>132169.8246</v>
+      </c>
+      <c r="G38" t="n">
+        <v>12.67499999999997</v>
+      </c>
+      <c r="H38" t="n">
+        <v>0</v>
+      </c>
+      <c r="I38" t="n">
+        <v>0</v>
+      </c>
+      <c r="J38" t="inlineStr"/>
+      <c r="K38" t="inlineStr"/>
+      <c r="L38" t="inlineStr"/>
+      <c r="M38" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="1" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="n">
+        <v>12.8</v>
+      </c>
+      <c r="C39" t="n">
+        <v>12.8</v>
+      </c>
+      <c r="D39" t="n">
+        <v>12.8</v>
+      </c>
+      <c r="E39" t="n">
+        <v>12.8</v>
+      </c>
+      <c r="F39" t="n">
+        <v>20000</v>
+      </c>
+      <c r="G39" t="n">
+        <v>12.6733333333333</v>
+      </c>
+      <c r="H39" t="n">
+        <v>0</v>
+      </c>
+      <c r="I39" t="n">
+        <v>0</v>
+      </c>
+      <c r="J39" t="inlineStr"/>
+      <c r="K39" t="inlineStr"/>
+      <c r="L39" t="inlineStr"/>
+      <c r="M39" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="1" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="n">
+        <v>12.8</v>
+      </c>
+      <c r="C40" t="n">
+        <v>12.6</v>
+      </c>
+      <c r="D40" t="n">
+        <v>12.8</v>
+      </c>
+      <c r="E40" t="n">
+        <v>12.6</v>
+      </c>
+      <c r="F40" t="n">
+        <v>123503.8715</v>
+      </c>
+      <c r="G40" t="n">
+        <v>12.67499999999997</v>
+      </c>
+      <c r="H40" t="n">
+        <v>0</v>
+      </c>
+      <c r="I40" t="n">
+        <v>0</v>
+      </c>
+      <c r="J40" t="inlineStr"/>
+      <c r="K40" t="inlineStr"/>
+      <c r="L40" t="inlineStr"/>
+      <c r="M40" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="1" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="C41" t="n">
+        <v>12.6</v>
+      </c>
+      <c r="D41" t="n">
+        <v>12.6</v>
+      </c>
+      <c r="E41" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="F41" t="n">
+        <v>5381.56</v>
+      </c>
+      <c r="G41" t="n">
+        <v>12.67666666666664</v>
+      </c>
+      <c r="H41" t="n">
+        <v>0</v>
+      </c>
+      <c r="I41" t="n">
+        <v>0</v>
+      </c>
+      <c r="J41" t="inlineStr"/>
+      <c r="K41" t="inlineStr"/>
+      <c r="L41" t="inlineStr"/>
+      <c r="M41" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="1" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="C42" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="D42" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="E42" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="F42" t="n">
+        <v>2911.52</v>
+      </c>
+      <c r="G42" t="n">
+        <v>12.67666666666664</v>
+      </c>
+      <c r="H42" t="n">
+        <v>0</v>
+      </c>
+      <c r="I42" t="n">
+        <v>0</v>
+      </c>
+      <c r="J42" t="inlineStr"/>
+      <c r="K42" t="inlineStr"/>
+      <c r="L42" t="inlineStr"/>
+      <c r="M42" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="1" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="n">
+        <v>12.6</v>
+      </c>
+      <c r="C43" t="n">
+        <v>12.7</v>
+      </c>
+      <c r="D43" t="n">
+        <v>12.7</v>
+      </c>
+      <c r="E43" t="n">
+        <v>12.6</v>
+      </c>
+      <c r="F43" t="n">
+        <v>7534.7497</v>
+      </c>
+      <c r="G43" t="n">
+        <v>12.68166666666664</v>
+      </c>
+      <c r="H43" t="n">
+        <v>0</v>
+      </c>
+      <c r="I43" t="n">
+        <v>0</v>
+      </c>
+      <c r="J43" t="inlineStr"/>
+      <c r="K43" t="inlineStr"/>
+      <c r="L43" t="inlineStr"/>
+      <c r="M43" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="1" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="n">
+        <v>12.7</v>
+      </c>
+      <c r="C44" t="n">
+        <v>12.7</v>
+      </c>
+      <c r="D44" t="n">
+        <v>12.7</v>
+      </c>
+      <c r="E44" t="n">
+        <v>12.7</v>
+      </c>
+      <c r="F44" t="n">
+        <v>3480</v>
+      </c>
+      <c r="G44" t="n">
+        <v>12.68666666666664</v>
+      </c>
+      <c r="H44" t="n">
+        <v>0</v>
+      </c>
+      <c r="I44" t="n">
+        <v>0</v>
+      </c>
+      <c r="J44" t="inlineStr"/>
+      <c r="K44" t="inlineStr"/>
+      <c r="L44" t="inlineStr"/>
+      <c r="M44" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="1" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="n">
+        <v>12.7</v>
+      </c>
+      <c r="C45" t="n">
+        <v>12.6</v>
+      </c>
+      <c r="D45" t="n">
+        <v>12.7</v>
+      </c>
+      <c r="E45" t="n">
+        <v>12.6</v>
+      </c>
+      <c r="F45" t="n">
+        <v>4028.44</v>
+      </c>
+      <c r="G45" t="n">
+        <v>12.69166666666664</v>
+      </c>
+      <c r="H45" t="n">
+        <v>0</v>
+      </c>
+      <c r="I45" t="n">
+        <v>0</v>
+      </c>
+      <c r="J45" t="inlineStr"/>
+      <c r="K45" t="inlineStr"/>
+      <c r="L45" t="inlineStr"/>
+      <c r="M45" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="1" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="n">
+        <v>12.6</v>
+      </c>
+      <c r="C46" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="D46" t="n">
+        <v>12.6</v>
+      </c>
+      <c r="E46" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="F46" t="n">
+        <v>153088.3466</v>
+      </c>
+      <c r="G46" t="n">
+        <v>12.69166666666664</v>
+      </c>
+      <c r="H46" t="n">
+        <v>0</v>
+      </c>
+      <c r="I46" t="n">
+        <v>0</v>
+      </c>
+      <c r="J46" t="inlineStr"/>
+      <c r="K46" t="inlineStr"/>
+      <c r="L46" t="inlineStr"/>
+      <c r="M46" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="1" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="C47" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="D47" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="E47" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="F47" t="n">
+        <v>9380</v>
+      </c>
+      <c r="G47" t="n">
+        <v>12.69499999999997</v>
+      </c>
+      <c r="H47" t="n">
+        <v>0</v>
+      </c>
+      <c r="I47" t="n">
+        <v>0</v>
+      </c>
+      <c r="J47" t="inlineStr"/>
+      <c r="K47" t="inlineStr"/>
+      <c r="L47" t="inlineStr"/>
+      <c r="M47" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="1" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="C48" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="D48" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="E48" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="F48" t="n">
+        <v>12886.62</v>
+      </c>
+      <c r="G48" t="n">
+        <v>12.69833333333331</v>
+      </c>
+      <c r="H48" t="n">
+        <v>0</v>
+      </c>
+      <c r="I48" t="n">
+        <v>0</v>
+      </c>
+      <c r="J48" t="inlineStr"/>
+      <c r="K48" t="inlineStr"/>
+      <c r="L48" t="inlineStr"/>
+      <c r="M48" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="1" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="C49" t="n">
+        <v>12.4</v>
+      </c>
+      <c r="D49" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="E49" t="n">
+        <v>12.4</v>
+      </c>
+      <c r="F49" t="n">
+        <v>40489.2315</v>
+      </c>
+      <c r="G49" t="n">
+        <v>12.69999999999998</v>
+      </c>
+      <c r="H49" t="n">
+        <v>0</v>
+      </c>
+      <c r="I49" t="n">
+        <v>0</v>
+      </c>
+      <c r="J49" t="inlineStr"/>
+      <c r="K49" t="inlineStr"/>
+      <c r="L49" t="inlineStr"/>
+      <c r="M49" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="1" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="C50" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="D50" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="E50" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="F50" t="n">
+        <v>2640</v>
+      </c>
+      <c r="G50" t="n">
+        <v>12.70333333333331</v>
+      </c>
+      <c r="H50" t="n">
+        <v>0</v>
+      </c>
+      <c r="I50" t="n">
+        <v>0</v>
+      </c>
+      <c r="J50" t="inlineStr"/>
+      <c r="K50" t="inlineStr"/>
+      <c r="L50" t="inlineStr"/>
+      <c r="M50" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="1" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="n">
+        <v>12.6</v>
+      </c>
+      <c r="C51" t="n">
+        <v>12.6</v>
+      </c>
+      <c r="D51" t="n">
+        <v>12.6</v>
+      </c>
+      <c r="E51" t="n">
+        <v>12.6</v>
+      </c>
+      <c r="F51" t="n">
+        <v>11527.5396</v>
+      </c>
+      <c r="G51" t="n">
+        <v>12.70833333333331</v>
+      </c>
+      <c r="H51" t="n">
+        <v>0</v>
+      </c>
+      <c r="I51" t="n">
+        <v>0</v>
+      </c>
+      <c r="J51" t="inlineStr"/>
+      <c r="K51" t="inlineStr"/>
+      <c r="L51" t="inlineStr"/>
+      <c r="M51" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="1" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="C52" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="D52" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="E52" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="F52" t="n">
+        <v>2640</v>
+      </c>
+      <c r="G52" t="n">
+        <v>12.70999999999998</v>
+      </c>
+      <c r="H52" t="n">
+        <v>0</v>
+      </c>
+      <c r="I52" t="n">
+        <v>0</v>
+      </c>
+      <c r="J52" t="inlineStr"/>
+      <c r="K52" t="inlineStr"/>
+      <c r="L52" t="inlineStr"/>
+      <c r="M52" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="1" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="C53" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="D53" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="E53" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="F53" t="n">
+        <v>45286.0001</v>
+      </c>
+      <c r="G53" t="n">
+        <v>12.71333333333331</v>
+      </c>
+      <c r="H53" t="n">
+        <v>0</v>
+      </c>
+      <c r="I53" t="n">
+        <v>0</v>
+      </c>
+      <c r="J53" t="inlineStr"/>
+      <c r="K53" t="inlineStr"/>
+      <c r="L53" t="inlineStr"/>
+      <c r="M53" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="1" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="C54" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="D54" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="E54" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="F54" t="n">
+        <v>48136.5387</v>
+      </c>
+      <c r="G54" t="n">
+        <v>12.71499999999998</v>
+      </c>
+      <c r="H54" t="n">
+        <v>0</v>
+      </c>
+      <c r="I54" t="n">
+        <v>0</v>
+      </c>
+      <c r="J54" t="inlineStr"/>
+      <c r="K54" t="inlineStr"/>
+      <c r="L54" t="inlineStr"/>
+      <c r="M54" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="1" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="n">
+        <v>12.6</v>
+      </c>
+      <c r="C55" t="n">
+        <v>12.6</v>
+      </c>
+      <c r="D55" t="n">
+        <v>12.6</v>
+      </c>
+      <c r="E55" t="n">
+        <v>12.6</v>
+      </c>
+      <c r="F55" t="n">
+        <v>59194.9443</v>
+      </c>
+      <c r="G55" t="n">
+        <v>12.71999999999998</v>
+      </c>
+      <c r="H55" t="n">
+        <v>0</v>
+      </c>
+      <c r="I55" t="n">
+        <v>0</v>
+      </c>
+      <c r="J55" t="inlineStr"/>
+      <c r="K55" t="inlineStr"/>
+      <c r="L55" t="inlineStr"/>
+      <c r="M55" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="1" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="n">
+        <v>12.7</v>
+      </c>
+      <c r="C56" t="n">
+        <v>12.7</v>
+      </c>
+      <c r="D56" t="n">
+        <v>12.7</v>
+      </c>
+      <c r="E56" t="n">
+        <v>12.7</v>
+      </c>
+      <c r="F56" t="n">
+        <v>56642.9921</v>
+      </c>
+      <c r="G56" t="n">
+        <v>12.72666666666665</v>
+      </c>
+      <c r="H56" t="n">
+        <v>0</v>
+      </c>
+      <c r="I56" t="n">
+        <v>0</v>
+      </c>
+      <c r="J56" t="inlineStr"/>
+      <c r="K56" t="inlineStr"/>
+      <c r="L56" t="inlineStr"/>
+      <c r="M56" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="1" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="n">
+        <v>12.7</v>
+      </c>
+      <c r="C57" t="n">
+        <v>12.6</v>
+      </c>
+      <c r="D57" t="n">
+        <v>12.7</v>
+      </c>
+      <c r="E57" t="n">
+        <v>12.6</v>
+      </c>
+      <c r="F57" t="n">
+        <v>18049.9546</v>
+      </c>
+      <c r="G57" t="n">
+        <v>12.73333333333331</v>
+      </c>
+      <c r="H57" t="n">
+        <v>0</v>
+      </c>
+      <c r="I57" t="n">
+        <v>0</v>
+      </c>
+      <c r="J57" t="inlineStr"/>
+      <c r="K57" t="inlineStr"/>
+      <c r="L57" t="inlineStr"/>
+      <c r="M57" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="1" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="n">
+        <v>12.6</v>
+      </c>
+      <c r="C58" t="n">
+        <v>12.6</v>
+      </c>
+      <c r="D58" t="n">
+        <v>12.6</v>
+      </c>
+      <c r="E58" t="n">
+        <v>12.6</v>
+      </c>
+      <c r="F58" t="n">
+        <v>18210</v>
+      </c>
+      <c r="G58" t="n">
+        <v>12.73499999999998</v>
+      </c>
+      <c r="H58" t="n">
+        <v>0</v>
+      </c>
+      <c r="I58" t="n">
+        <v>0</v>
+      </c>
+      <c r="J58" t="inlineStr"/>
+      <c r="K58" t="inlineStr"/>
+      <c r="L58" t="inlineStr"/>
+      <c r="M58" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="1" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="n">
+        <v>12.6</v>
+      </c>
+      <c r="C59" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="D59" t="n">
+        <v>12.6</v>
+      </c>
+      <c r="E59" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="F59" t="n">
+        <v>22962.7376</v>
+      </c>
+      <c r="G59" t="n">
+        <v>12.72833333333332</v>
+      </c>
+      <c r="H59" t="n">
+        <v>0</v>
+      </c>
+      <c r="I59" t="n">
+        <v>0</v>
+      </c>
+      <c r="J59" t="inlineStr"/>
+      <c r="K59" t="inlineStr"/>
+      <c r="L59" t="inlineStr"/>
+      <c r="M59" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="1" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="n">
+        <v>12.6</v>
+      </c>
+      <c r="C60" t="n">
+        <v>12.9</v>
+      </c>
+      <c r="D60" t="n">
+        <v>12.9</v>
+      </c>
+      <c r="E60" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="F60" t="n">
+        <v>19209.4733</v>
+      </c>
+      <c r="G60" t="n">
+        <v>12.73333333333331</v>
+      </c>
+      <c r="H60" t="n">
+        <v>0</v>
+      </c>
+      <c r="I60" t="n">
+        <v>0</v>
+      </c>
+      <c r="J60" t="inlineStr"/>
+      <c r="K60" t="inlineStr"/>
+      <c r="L60" t="inlineStr"/>
+      <c r="M60" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="1" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="n">
+        <v>12.6</v>
+      </c>
+      <c r="C61" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="D61" t="n">
+        <v>12.6</v>
+      </c>
+      <c r="E61" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="F61" t="n">
+        <v>4981.49287936508</v>
+      </c>
+      <c r="G61" t="n">
+        <v>12.73499999999998</v>
+      </c>
+      <c r="H61" t="n">
+        <v>0</v>
+      </c>
+      <c r="I61" t="n">
+        <v>0</v>
+      </c>
+      <c r="J61" t="inlineStr"/>
+      <c r="K61" t="inlineStr"/>
+      <c r="L61" t="inlineStr"/>
+      <c r="M61" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="1" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="C62" t="n">
+        <v>12.4</v>
+      </c>
+      <c r="D62" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="E62" t="n">
+        <v>12.4</v>
+      </c>
+      <c r="F62" t="n">
+        <v>115075.1631</v>
+      </c>
+      <c r="G62" t="n">
+        <v>12.73333333333331</v>
+      </c>
+      <c r="H62" t="n">
+        <v>0</v>
+      </c>
+      <c r="I62" t="n">
+        <v>0</v>
+      </c>
+      <c r="J62" t="inlineStr"/>
+      <c r="K62" t="inlineStr"/>
+      <c r="L62" t="inlineStr"/>
+      <c r="M62" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="1" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="n">
+        <v>12.4</v>
+      </c>
+      <c r="C63" t="n">
+        <v>12.4</v>
+      </c>
+      <c r="D63" t="n">
+        <v>12.4</v>
+      </c>
+      <c r="E63" t="n">
+        <v>12.4</v>
+      </c>
+      <c r="F63" t="n">
+        <v>7877.6222</v>
+      </c>
+      <c r="G63" t="n">
+        <v>12.73166666666665</v>
+      </c>
+      <c r="H63" t="n">
+        <v>0</v>
+      </c>
+      <c r="I63" t="n">
+        <v>0</v>
+      </c>
+      <c r="J63" t="inlineStr"/>
+      <c r="K63" t="inlineStr"/>
+      <c r="L63" t="inlineStr"/>
+      <c r="M63" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="1" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="n">
+        <v>12.3</v>
+      </c>
+      <c r="C64" t="n">
+        <v>12.2</v>
+      </c>
+      <c r="D64" t="n">
+        <v>12.3</v>
+      </c>
+      <c r="E64" t="n">
+        <v>12.2</v>
+      </c>
+      <c r="F64" t="n">
+        <v>284384.3923</v>
+      </c>
+      <c r="G64" t="n">
+        <v>12.72666666666665</v>
+      </c>
+      <c r="H64" t="n">
+        <v>0</v>
+      </c>
+      <c r="I64" t="n">
+        <v>0</v>
+      </c>
+      <c r="J64" t="inlineStr"/>
+      <c r="K64" t="inlineStr"/>
+      <c r="L64" t="inlineStr"/>
+      <c r="M64" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="1" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="n">
+        <v>12.2</v>
+      </c>
+      <c r="C65" t="n">
+        <v>12.1</v>
+      </c>
+      <c r="D65" t="n">
+        <v>12.2</v>
+      </c>
+      <c r="E65" t="n">
+        <v>12.1</v>
+      </c>
+      <c r="F65" t="n">
+        <v>33975.1401</v>
+      </c>
+      <c r="G65" t="n">
+        <v>12.71499999999998</v>
+      </c>
+      <c r="H65" t="n">
+        <v>0</v>
+      </c>
+      <c r="I65" t="n">
+        <v>0</v>
+      </c>
+      <c r="J65" t="inlineStr"/>
+      <c r="K65" t="inlineStr"/>
+      <c r="L65" t="inlineStr"/>
+      <c r="M65" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="1" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="n">
+        <v>12.3</v>
+      </c>
+      <c r="C66" t="n">
+        <v>12.3</v>
+      </c>
+      <c r="D66" t="n">
+        <v>12.3</v>
+      </c>
+      <c r="E66" t="n">
+        <v>12.3</v>
+      </c>
+      <c r="F66" t="n">
+        <v>1112.1027</v>
+      </c>
+      <c r="G66" t="n">
+        <v>12.71166666666665</v>
+      </c>
+      <c r="H66" t="n">
+        <v>0</v>
+      </c>
+      <c r="I66" t="n">
+        <v>0</v>
+      </c>
+      <c r="J66" t="inlineStr"/>
+      <c r="K66" t="inlineStr"/>
+      <c r="L66" t="inlineStr"/>
+      <c r="M66" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="1" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" t="n">
+        <v>12.4</v>
+      </c>
+      <c r="C67" t="n">
+        <v>12.3</v>
+      </c>
+      <c r="D67" t="n">
+        <v>12.4</v>
+      </c>
+      <c r="E67" t="n">
+        <v>12.3</v>
+      </c>
+      <c r="F67" t="n">
+        <v>119343.3896</v>
+      </c>
+      <c r="G67" t="n">
+        <v>12.70166666666665</v>
+      </c>
+      <c r="H67" t="n">
+        <v>0</v>
+      </c>
+      <c r="I67" t="n">
+        <v>0</v>
+      </c>
+      <c r="J67" t="inlineStr"/>
+      <c r="K67" t="inlineStr"/>
+      <c r="L67" t="inlineStr"/>
+      <c r="M67" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="1" t="n">
+        <v>66</v>
+      </c>
+      <c r="B68" t="n">
+        <v>12.3</v>
+      </c>
+      <c r="C68" t="n">
+        <v>12.3</v>
+      </c>
+      <c r="D68" t="n">
+        <v>12.3</v>
+      </c>
+      <c r="E68" t="n">
+        <v>12.3</v>
+      </c>
+      <c r="F68" t="n">
+        <v>59725</v>
+      </c>
+      <c r="G68" t="n">
+        <v>12.68999999999998</v>
+      </c>
+      <c r="H68" t="n">
+        <v>0</v>
+      </c>
+      <c r="I68" t="n">
+        <v>0</v>
+      </c>
+      <c r="J68" t="inlineStr"/>
+      <c r="K68" t="inlineStr"/>
+      <c r="L68" t="inlineStr"/>
+      <c r="M68" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="1" t="n">
+        <v>67</v>
+      </c>
+      <c r="B69" t="n">
+        <v>12.4</v>
+      </c>
+      <c r="C69" t="n">
+        <v>12.4</v>
+      </c>
+      <c r="D69" t="n">
+        <v>12.4</v>
+      </c>
+      <c r="E69" t="n">
+        <v>12.4</v>
+      </c>
+      <c r="F69" t="n">
+        <v>29591.6129</v>
+      </c>
+      <c r="G69" t="n">
+        <v>12.67999999999998</v>
+      </c>
+      <c r="H69" t="n">
+        <v>1</v>
+      </c>
+      <c r="I69" t="n">
+        <v>0</v>
+      </c>
+      <c r="J69" t="n">
+        <v>12.3</v>
+      </c>
+      <c r="K69" t="n">
+        <v>12.3</v>
+      </c>
+      <c r="L69" t="inlineStr"/>
+      <c r="M69" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="1" t="n">
+        <v>68</v>
+      </c>
+      <c r="B70" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="C70" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="D70" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="E70" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="F70" t="n">
+        <v>25823.0322</v>
+      </c>
+      <c r="G70" t="n">
+        <v>12.67166666666665</v>
+      </c>
+      <c r="H70" t="n">
+        <v>1</v>
+      </c>
+      <c r="I70" t="n">
+        <v>0</v>
+      </c>
+      <c r="J70" t="n">
+        <v>12.4</v>
+      </c>
+      <c r="K70" t="n">
+        <v>12.3</v>
+      </c>
+      <c r="L70" t="inlineStr">
         <is>
           <t>매수 대기</t>
         </is>
       </c>
-      <c r="M3" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="C4" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="D4" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="E4" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="F4" t="n">
-        <v>2691.52</v>
-      </c>
-      <c r="G4" t="n">
-        <v>12.38833333333332</v>
-      </c>
-      <c r="H4" t="n">
-        <v>1</v>
-      </c>
-      <c r="I4" t="n">
-        <v>0</v>
-      </c>
-      <c r="J4" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="K4" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="L4" t="inlineStr">
+      <c r="M70" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="1" t="n">
+        <v>69</v>
+      </c>
+      <c r="B71" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="C71" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="D71" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="E71" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="F71" t="n">
+        <v>12060</v>
+      </c>
+      <c r="G71" t="n">
+        <v>12.66333333333331</v>
+      </c>
+      <c r="H71" t="n">
+        <v>1</v>
+      </c>
+      <c r="I71" t="n">
+        <v>0</v>
+      </c>
+      <c r="J71" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="K71" t="n">
+        <v>12.3</v>
+      </c>
+      <c r="L71" t="inlineStr">
         <is>
           <t>매수 대기</t>
         </is>
       </c>
-      <c r="M4" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="C5" t="n">
-        <v>12.8</v>
-      </c>
-      <c r="D5" t="n">
-        <v>12.8</v>
-      </c>
-      <c r="E5" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="F5" t="n">
-        <v>51</v>
-      </c>
-      <c r="G5" t="n">
-        <v>12.39666666666665</v>
-      </c>
-      <c r="H5" t="n">
-        <v>1</v>
-      </c>
-      <c r="I5" t="n">
-        <v>0</v>
-      </c>
-      <c r="J5" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="K5" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="L5" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
-      <c r="M5" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="C6" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="D6" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="E6" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="F6" t="n">
-        <v>3216.29</v>
-      </c>
-      <c r="G6" t="n">
-        <v>12.39999999999998</v>
-      </c>
-      <c r="H6" t="n">
-        <v>1</v>
-      </c>
-      <c r="I6" t="n">
-        <v>0</v>
-      </c>
-      <c r="J6" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="K6" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="L6" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M6" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="n">
-        <v>12.8</v>
-      </c>
-      <c r="C7" t="n">
-        <v>12.9</v>
-      </c>
-      <c r="D7" t="n">
-        <v>12.9</v>
-      </c>
-      <c r="E7" t="n">
-        <v>12.8</v>
-      </c>
-      <c r="F7" t="n">
-        <v>203793.3273</v>
-      </c>
-      <c r="G7" t="n">
-        <v>12.40999999999998</v>
-      </c>
-      <c r="H7" t="n">
-        <v>1</v>
-      </c>
-      <c r="I7" t="n">
-        <v>0</v>
-      </c>
-      <c r="J7" t="n">
-        <v>12.8</v>
-      </c>
-      <c r="K7" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="L7" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M7" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="n">
-        <v>13</v>
-      </c>
-      <c r="C8" t="n">
-        <v>13</v>
-      </c>
-      <c r="D8" t="n">
-        <v>13</v>
-      </c>
-      <c r="E8" t="n">
-        <v>13</v>
-      </c>
-      <c r="F8" t="n">
-        <v>3192.5</v>
-      </c>
-      <c r="G8" t="n">
-        <v>12.41999999999998</v>
-      </c>
-      <c r="H8" t="n">
-        <v>1</v>
-      </c>
-      <c r="I8" t="n">
-        <v>0</v>
-      </c>
-      <c r="J8" t="n">
-        <v>13</v>
-      </c>
-      <c r="K8" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="L8" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M8" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="n">
-        <v>13</v>
-      </c>
-      <c r="C9" t="n">
-        <v>13</v>
-      </c>
-      <c r="D9" t="n">
-        <v>13.2</v>
-      </c>
-      <c r="E9" t="n">
-        <v>13</v>
-      </c>
-      <c r="F9" t="n">
-        <v>74962.91711969697</v>
-      </c>
-      <c r="G9" t="n">
-        <v>12.43333333333332</v>
-      </c>
-      <c r="H9" t="n">
-        <v>1</v>
-      </c>
-      <c r="I9" t="n">
-        <v>0</v>
-      </c>
-      <c r="J9" t="n">
-        <v>13</v>
-      </c>
-      <c r="K9" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="L9" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M9" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="n">
-        <v>13</v>
-      </c>
-      <c r="C10" t="n">
-        <v>13</v>
-      </c>
-      <c r="D10" t="n">
-        <v>13</v>
-      </c>
-      <c r="E10" t="n">
-        <v>13</v>
-      </c>
-      <c r="F10" t="n">
-        <v>31555.0425</v>
-      </c>
-      <c r="G10" t="n">
-        <v>12.44666666666665</v>
-      </c>
-      <c r="H10" t="n">
-        <v>0</v>
-      </c>
-      <c r="I10" t="n">
-        <v>0</v>
-      </c>
-      <c r="J10" t="inlineStr"/>
-      <c r="K10" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="L10" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M10" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="1" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="n">
-        <v>13</v>
-      </c>
-      <c r="C11" t="n">
-        <v>13</v>
-      </c>
-      <c r="D11" t="n">
-        <v>13</v>
-      </c>
-      <c r="E11" t="n">
-        <v>13</v>
-      </c>
-      <c r="F11" t="n">
-        <v>14703.8251</v>
-      </c>
-      <c r="G11" t="n">
-        <v>12.45999999999998</v>
-      </c>
-      <c r="H11" t="n">
-        <v>0</v>
-      </c>
-      <c r="I11" t="n">
-        <v>0</v>
-      </c>
-      <c r="J11" t="inlineStr"/>
-      <c r="K11" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="L11" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M11" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="n">
-        <v>13</v>
-      </c>
-      <c r="C12" t="n">
-        <v>12.9</v>
-      </c>
-      <c r="D12" t="n">
-        <v>13</v>
-      </c>
-      <c r="E12" t="n">
-        <v>12.9</v>
-      </c>
-      <c r="F12" t="n">
-        <v>123029.8431</v>
-      </c>
-      <c r="G12" t="n">
-        <v>12.47166666666665</v>
-      </c>
-      <c r="H12" t="n">
-        <v>0</v>
-      </c>
-      <c r="I12" t="n">
-        <v>0</v>
-      </c>
-      <c r="J12" t="inlineStr"/>
-      <c r="K12" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="L12" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M12" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" t="n">
-        <v>12.9</v>
-      </c>
-      <c r="C13" t="n">
-        <v>12.9</v>
-      </c>
-      <c r="D13" t="n">
-        <v>12.9</v>
-      </c>
-      <c r="E13" t="n">
-        <v>12.9</v>
-      </c>
-      <c r="F13" t="n">
-        <v>18310</v>
-      </c>
-      <c r="G13" t="n">
-        <v>12.48333333333331</v>
-      </c>
-      <c r="H13" t="n">
-        <v>0</v>
-      </c>
-      <c r="I13" t="n">
-        <v>0</v>
-      </c>
-      <c r="J13" t="inlineStr"/>
-      <c r="K13" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="L13" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M13" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="1" t="n">
-        <v>12</v>
-      </c>
-      <c r="B14" t="n">
-        <v>12.9</v>
-      </c>
-      <c r="C14" t="n">
-        <v>12.9</v>
-      </c>
-      <c r="D14" t="n">
-        <v>12.9</v>
-      </c>
-      <c r="E14" t="n">
-        <v>12.9</v>
-      </c>
-      <c r="F14" t="n">
-        <v>20733.5107</v>
-      </c>
-      <c r="G14" t="n">
-        <v>12.49499999999998</v>
-      </c>
-      <c r="H14" t="n">
-        <v>0</v>
-      </c>
-      <c r="I14" t="n">
-        <v>0</v>
-      </c>
-      <c r="J14" t="inlineStr"/>
-      <c r="K14" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="L14" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M14" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="n">
-        <v>13</v>
-      </c>
-      <c r="B15" t="n">
-        <v>12.9</v>
-      </c>
-      <c r="C15" t="n">
-        <v>12.9</v>
-      </c>
-      <c r="D15" t="n">
-        <v>12.9</v>
-      </c>
-      <c r="E15" t="n">
-        <v>12.9</v>
-      </c>
-      <c r="F15" t="n">
-        <v>7611.1404</v>
-      </c>
-      <c r="G15" t="n">
-        <v>12.50666666666664</v>
-      </c>
-      <c r="H15" t="n">
-        <v>0</v>
-      </c>
-      <c r="I15" t="n">
-        <v>0</v>
-      </c>
-      <c r="J15" t="inlineStr"/>
-      <c r="K15" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="L15" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M15" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="1" t="n">
-        <v>14</v>
-      </c>
-      <c r="B16" t="n">
-        <v>12.8</v>
-      </c>
-      <c r="C16" t="n">
-        <v>12.8</v>
-      </c>
-      <c r="D16" t="n">
-        <v>12.8</v>
-      </c>
-      <c r="E16" t="n">
-        <v>12.8</v>
-      </c>
-      <c r="F16" t="n">
-        <v>51186.13</v>
-      </c>
-      <c r="G16" t="n">
-        <v>12.51499999999998</v>
-      </c>
-      <c r="H16" t="n">
-        <v>0</v>
-      </c>
-      <c r="I16" t="n">
-        <v>0</v>
-      </c>
-      <c r="J16" t="inlineStr"/>
-      <c r="K16" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="L16" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M16" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="1" t="n">
-        <v>15</v>
-      </c>
-      <c r="B17" t="n">
-        <v>12.7</v>
-      </c>
-      <c r="C17" t="n">
-        <v>12.7</v>
-      </c>
-      <c r="D17" t="n">
-        <v>12.7</v>
-      </c>
-      <c r="E17" t="n">
-        <v>12.7</v>
-      </c>
-      <c r="F17" t="n">
-        <v>45061.2773</v>
-      </c>
-      <c r="G17" t="n">
-        <v>12.52333333333331</v>
-      </c>
-      <c r="H17" t="n">
-        <v>0</v>
-      </c>
-      <c r="I17" t="n">
-        <v>0</v>
-      </c>
-      <c r="J17" t="inlineStr"/>
-      <c r="K17" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="L17" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M17" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="1" t="n">
-        <v>16</v>
-      </c>
-      <c r="B18" t="n">
-        <v>12.8</v>
-      </c>
-      <c r="C18" t="n">
-        <v>12.8</v>
-      </c>
-      <c r="D18" t="n">
-        <v>12.8</v>
-      </c>
-      <c r="E18" t="n">
-        <v>12.8</v>
-      </c>
-      <c r="F18" t="n">
-        <v>12</v>
-      </c>
-      <c r="G18" t="n">
-        <v>12.53166666666664</v>
-      </c>
-      <c r="H18" t="n">
-        <v>0</v>
-      </c>
-      <c r="I18" t="n">
-        <v>0</v>
-      </c>
-      <c r="J18" t="inlineStr"/>
-      <c r="K18" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="L18" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M18" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="1" t="n">
-        <v>17</v>
-      </c>
-      <c r="B19" t="n">
-        <v>12.7</v>
-      </c>
-      <c r="C19" t="n">
-        <v>12.7</v>
-      </c>
-      <c r="D19" t="n">
-        <v>12.7</v>
-      </c>
-      <c r="E19" t="n">
-        <v>12.7</v>
-      </c>
-      <c r="F19" t="n">
-        <v>50000</v>
-      </c>
-      <c r="G19" t="n">
-        <v>12.53999999999998</v>
-      </c>
-      <c r="H19" t="n">
-        <v>0</v>
-      </c>
-      <c r="I19" t="n">
-        <v>0</v>
-      </c>
-      <c r="J19" t="inlineStr"/>
-      <c r="K19" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="L19" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M19" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="1" t="n">
-        <v>18</v>
-      </c>
-      <c r="B20" t="n">
-        <v>12.7</v>
-      </c>
-      <c r="C20" t="n">
-        <v>12.6</v>
-      </c>
-      <c r="D20" t="n">
-        <v>12.7</v>
-      </c>
-      <c r="E20" t="n">
-        <v>12.6</v>
-      </c>
-      <c r="F20" t="n">
-        <v>5000</v>
-      </c>
-      <c r="G20" t="n">
-        <v>12.54666666666664</v>
-      </c>
-      <c r="H20" t="n">
-        <v>0</v>
-      </c>
-      <c r="I20" t="n">
-        <v>0</v>
-      </c>
-      <c r="J20" t="inlineStr"/>
-      <c r="K20" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="L20" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M20" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="1" t="n">
-        <v>19</v>
-      </c>
-      <c r="B21" t="n">
-        <v>12.8</v>
-      </c>
-      <c r="C21" t="n">
-        <v>12.8</v>
-      </c>
-      <c r="D21" t="n">
-        <v>12.8</v>
-      </c>
-      <c r="E21" t="n">
-        <v>12.8</v>
-      </c>
-      <c r="F21" t="n">
-        <v>7366.79</v>
-      </c>
-      <c r="G21" t="n">
-        <v>12.55666666666664</v>
-      </c>
-      <c r="H21" t="n">
-        <v>0</v>
-      </c>
-      <c r="I21" t="n">
-        <v>0</v>
-      </c>
-      <c r="J21" t="inlineStr"/>
-      <c r="K21" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="L21" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M21" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="1" t="n">
-        <v>20</v>
-      </c>
-      <c r="B22" t="n">
-        <v>12.8</v>
-      </c>
-      <c r="C22" t="n">
-        <v>13</v>
-      </c>
-      <c r="D22" t="n">
-        <v>13</v>
-      </c>
-      <c r="E22" t="n">
-        <v>12.8</v>
-      </c>
-      <c r="F22" t="n">
-        <v>6000</v>
-      </c>
-      <c r="G22" t="n">
-        <v>12.56833333333331</v>
-      </c>
-      <c r="H22" t="n">
-        <v>0</v>
-      </c>
-      <c r="I22" t="n">
-        <v>0</v>
-      </c>
-      <c r="J22" t="inlineStr"/>
-      <c r="K22" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="L22" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M22" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" s="1" t="n">
-        <v>21</v>
-      </c>
-      <c r="B23" t="n">
-        <v>12.9</v>
-      </c>
-      <c r="C23" t="n">
-        <v>13</v>
-      </c>
-      <c r="D23" t="n">
-        <v>13</v>
-      </c>
-      <c r="E23" t="n">
-        <v>12.8</v>
-      </c>
-      <c r="F23" t="n">
-        <v>594531.5437</v>
-      </c>
-      <c r="G23" t="n">
-        <v>12.57833333333331</v>
-      </c>
-      <c r="H23" t="n">
-        <v>0</v>
-      </c>
-      <c r="I23" t="n">
-        <v>0</v>
-      </c>
-      <c r="J23" t="inlineStr"/>
-      <c r="K23" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="L23" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M23" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" s="1" t="n">
-        <v>22</v>
-      </c>
-      <c r="B24" t="n">
-        <v>13</v>
-      </c>
-      <c r="C24" t="n">
-        <v>13</v>
-      </c>
-      <c r="D24" t="n">
-        <v>13</v>
-      </c>
-      <c r="E24" t="n">
-        <v>13</v>
-      </c>
-      <c r="F24" t="n">
-        <v>31328.0501</v>
-      </c>
-      <c r="G24" t="n">
-        <v>12.58666666666664</v>
-      </c>
-      <c r="H24" t="n">
-        <v>0</v>
-      </c>
-      <c r="I24" t="n">
-        <v>0</v>
-      </c>
-      <c r="J24" t="inlineStr"/>
-      <c r="K24" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="L24" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M24" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="1" t="n">
-        <v>23</v>
-      </c>
-      <c r="B25" t="n">
-        <v>13</v>
-      </c>
-      <c r="C25" t="n">
-        <v>13</v>
-      </c>
-      <c r="D25" t="n">
-        <v>13</v>
-      </c>
-      <c r="E25" t="n">
-        <v>13</v>
-      </c>
-      <c r="F25" t="n">
-        <v>2647.09</v>
-      </c>
-      <c r="G25" t="n">
-        <v>12.59666666666664</v>
-      </c>
-      <c r="H25" t="n">
-        <v>0</v>
-      </c>
-      <c r="I25" t="n">
-        <v>0</v>
-      </c>
-      <c r="J25" t="inlineStr"/>
-      <c r="K25" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="L25" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M25" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" s="1" t="n">
-        <v>24</v>
-      </c>
-      <c r="B26" t="n">
-        <v>12.9</v>
-      </c>
-      <c r="C26" t="n">
-        <v>12.8</v>
-      </c>
-      <c r="D26" t="n">
-        <v>12.9</v>
-      </c>
-      <c r="E26" t="n">
-        <v>12.8</v>
-      </c>
-      <c r="F26" t="n">
-        <v>53535.9048</v>
-      </c>
-      <c r="G26" t="n">
-        <v>12.60166666666664</v>
-      </c>
-      <c r="H26" t="n">
-        <v>0</v>
-      </c>
-      <c r="I26" t="n">
-        <v>0</v>
-      </c>
-      <c r="J26" t="inlineStr"/>
-      <c r="K26" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="L26" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M26" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" s="1" t="n">
-        <v>25</v>
-      </c>
-      <c r="B27" t="n">
-        <v>12.8</v>
-      </c>
-      <c r="C27" t="n">
-        <v>12.8</v>
-      </c>
-      <c r="D27" t="n">
-        <v>12.8</v>
-      </c>
-      <c r="E27" t="n">
-        <v>12.8</v>
-      </c>
-      <c r="F27" t="n">
-        <v>42829.2265</v>
-      </c>
-      <c r="G27" t="n">
-        <v>12.60666666666664</v>
-      </c>
-      <c r="H27" t="n">
-        <v>0</v>
-      </c>
-      <c r="I27" t="n">
-        <v>0</v>
-      </c>
-      <c r="J27" t="inlineStr"/>
-      <c r="K27" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="L27" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M27" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" s="1" t="n">
-        <v>26</v>
-      </c>
-      <c r="B28" t="n">
-        <v>12.8</v>
-      </c>
-      <c r="C28" t="n">
-        <v>12.8</v>
-      </c>
-      <c r="D28" t="n">
-        <v>12.8</v>
-      </c>
-      <c r="E28" t="n">
-        <v>12.8</v>
-      </c>
-      <c r="F28" t="n">
-        <v>47334.6741</v>
-      </c>
-      <c r="G28" t="n">
-        <v>12.61166666666664</v>
-      </c>
-      <c r="H28" t="n">
-        <v>0</v>
-      </c>
-      <c r="I28" t="n">
-        <v>0</v>
-      </c>
-      <c r="J28" t="inlineStr"/>
-      <c r="K28" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="L28" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M28" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" s="1" t="n">
-        <v>27</v>
-      </c>
-      <c r="B29" t="n">
-        <v>12.8</v>
-      </c>
-      <c r="C29" t="n">
-        <v>12.8</v>
-      </c>
-      <c r="D29" t="n">
-        <v>12.8</v>
-      </c>
-      <c r="E29" t="n">
-        <v>12.8</v>
-      </c>
-      <c r="F29" t="n">
-        <v>36660.5059</v>
-      </c>
-      <c r="G29" t="n">
-        <v>12.61499999999997</v>
-      </c>
-      <c r="H29" t="n">
-        <v>0</v>
-      </c>
-      <c r="I29" t="n">
-        <v>0</v>
-      </c>
-      <c r="J29" t="inlineStr"/>
-      <c r="K29" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="L29" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M29" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" s="1" t="n">
-        <v>28</v>
-      </c>
-      <c r="B30" t="n">
-        <v>12.8</v>
-      </c>
-      <c r="C30" t="n">
-        <v>12.8</v>
-      </c>
-      <c r="D30" t="n">
-        <v>12.8</v>
-      </c>
-      <c r="E30" t="n">
-        <v>12.8</v>
-      </c>
-      <c r="F30" t="n">
-        <v>655.9628</v>
-      </c>
-      <c r="G30" t="n">
-        <v>12.61999999999997</v>
-      </c>
-      <c r="H30" t="n">
-        <v>0</v>
-      </c>
-      <c r="I30" t="n">
-        <v>0</v>
-      </c>
-      <c r="J30" t="inlineStr"/>
-      <c r="K30" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="L30" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M30" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" s="1" t="n">
-        <v>29</v>
-      </c>
-      <c r="B31" t="n">
-        <v>12.8</v>
-      </c>
-      <c r="C31" t="n">
-        <v>12.8</v>
-      </c>
-      <c r="D31" t="n">
-        <v>12.8</v>
-      </c>
-      <c r="E31" t="n">
-        <v>12.8</v>
-      </c>
-      <c r="F31" t="n">
-        <v>14604.2757</v>
-      </c>
-      <c r="G31" t="n">
-        <v>12.62499999999997</v>
-      </c>
-      <c r="H31" t="n">
-        <v>0</v>
-      </c>
-      <c r="I31" t="n">
-        <v>0</v>
-      </c>
-      <c r="J31" t="inlineStr"/>
-      <c r="K31" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="L31" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M31" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" s="1" t="n">
-        <v>30</v>
-      </c>
-      <c r="B32" t="n">
-        <v>12.8</v>
-      </c>
-      <c r="C32" t="n">
-        <v>12.8</v>
-      </c>
-      <c r="D32" t="n">
-        <v>12.8</v>
-      </c>
-      <c r="E32" t="n">
-        <v>12.8</v>
-      </c>
-      <c r="F32" t="n">
-        <v>21791.1093</v>
-      </c>
-      <c r="G32" t="n">
-        <v>12.62999999999997</v>
-      </c>
-      <c r="H32" t="n">
-        <v>0</v>
-      </c>
-      <c r="I32" t="n">
-        <v>0</v>
-      </c>
-      <c r="J32" t="inlineStr"/>
-      <c r="K32" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="L32" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M32" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" s="1" t="n">
-        <v>31</v>
-      </c>
-      <c r="B33" t="n">
-        <v>12.8</v>
-      </c>
-      <c r="C33" t="n">
-        <v>13</v>
-      </c>
-      <c r="D33" t="n">
-        <v>13</v>
-      </c>
-      <c r="E33" t="n">
-        <v>12.8</v>
-      </c>
-      <c r="F33" t="n">
-        <v>15549.4711</v>
-      </c>
-      <c r="G33" t="n">
-        <v>12.6383333333333</v>
-      </c>
-      <c r="H33" t="n">
-        <v>0</v>
-      </c>
-      <c r="I33" t="n">
-        <v>0</v>
-      </c>
-      <c r="J33" t="inlineStr"/>
-      <c r="K33" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="L33" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M33" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" s="1" t="n">
-        <v>32</v>
-      </c>
-      <c r="B34" t="n">
-        <v>12.8</v>
-      </c>
-      <c r="C34" t="n">
-        <v>12.8</v>
-      </c>
-      <c r="D34" t="n">
-        <v>12.8</v>
-      </c>
-      <c r="E34" t="n">
-        <v>12.8</v>
-      </c>
-      <c r="F34" t="n">
-        <v>86266.9745</v>
-      </c>
-      <c r="G34" t="n">
-        <v>12.6433333333333</v>
-      </c>
-      <c r="H34" t="n">
-        <v>0</v>
-      </c>
-      <c r="I34" t="n">
-        <v>0</v>
-      </c>
-      <c r="J34" t="inlineStr"/>
-      <c r="K34" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="L34" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M34" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" s="1" t="n">
-        <v>33</v>
-      </c>
-      <c r="B35" t="n">
-        <v>13</v>
-      </c>
-      <c r="C35" t="n">
-        <v>13</v>
-      </c>
-      <c r="D35" t="n">
-        <v>13</v>
-      </c>
-      <c r="E35" t="n">
-        <v>13</v>
-      </c>
-      <c r="F35" t="n">
-        <v>11.8461</v>
-      </c>
-      <c r="G35" t="n">
-        <v>12.6533333333333</v>
-      </c>
-      <c r="H35" t="n">
-        <v>0</v>
-      </c>
-      <c r="I35" t="n">
-        <v>0</v>
-      </c>
-      <c r="J35" t="inlineStr"/>
-      <c r="K35" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="L35" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M35" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" s="1" t="n">
-        <v>34</v>
-      </c>
-      <c r="B36" t="n">
-        <v>12.8</v>
-      </c>
-      <c r="C36" t="n">
-        <v>12.8</v>
-      </c>
-      <c r="D36" t="n">
-        <v>12.8</v>
-      </c>
-      <c r="E36" t="n">
-        <v>12.8</v>
-      </c>
-      <c r="F36" t="n">
-        <v>70961.43180000001</v>
-      </c>
-      <c r="G36" t="n">
-        <v>12.6583333333333</v>
-      </c>
-      <c r="H36" t="n">
-        <v>0</v>
-      </c>
-      <c r="I36" t="n">
-        <v>0</v>
-      </c>
-      <c r="J36" t="inlineStr"/>
-      <c r="K36" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="L36" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M36" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" s="1" t="n">
-        <v>35</v>
-      </c>
-      <c r="B37" t="n">
-        <v>13</v>
-      </c>
-      <c r="C37" t="n">
-        <v>13</v>
-      </c>
-      <c r="D37" t="n">
-        <v>13</v>
-      </c>
-      <c r="E37" t="n">
-        <v>13</v>
-      </c>
-      <c r="F37" t="n">
-        <v>12</v>
-      </c>
-      <c r="G37" t="n">
-        <v>12.6683333333333</v>
-      </c>
-      <c r="H37" t="n">
-        <v>0</v>
-      </c>
-      <c r="I37" t="n">
-        <v>0</v>
-      </c>
-      <c r="J37" t="inlineStr"/>
-      <c r="K37" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="L37" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M37" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" s="1" t="n">
-        <v>36</v>
-      </c>
-      <c r="B38" t="n">
-        <v>12.9</v>
-      </c>
-      <c r="C38" t="n">
-        <v>12.8</v>
-      </c>
-      <c r="D38" t="n">
-        <v>12.9</v>
-      </c>
-      <c r="E38" t="n">
-        <v>12.8</v>
-      </c>
-      <c r="F38" t="n">
-        <v>132169.8246</v>
-      </c>
-      <c r="G38" t="n">
-        <v>12.67499999999997</v>
-      </c>
-      <c r="H38" t="n">
-        <v>0</v>
-      </c>
-      <c r="I38" t="n">
-        <v>0</v>
-      </c>
-      <c r="J38" t="inlineStr"/>
-      <c r="K38" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="L38" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M38" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" s="1" t="n">
-        <v>37</v>
-      </c>
-      <c r="B39" t="n">
-        <v>12.8</v>
-      </c>
-      <c r="C39" t="n">
-        <v>12.8</v>
-      </c>
-      <c r="D39" t="n">
-        <v>12.8</v>
-      </c>
-      <c r="E39" t="n">
-        <v>12.8</v>
-      </c>
-      <c r="F39" t="n">
-        <v>20000</v>
-      </c>
-      <c r="G39" t="n">
-        <v>12.6733333333333</v>
-      </c>
-      <c r="H39" t="n">
-        <v>0</v>
-      </c>
-      <c r="I39" t="n">
-        <v>0</v>
-      </c>
-      <c r="J39" t="inlineStr"/>
-      <c r="K39" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="L39" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M39" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" s="1" t="n">
-        <v>38</v>
-      </c>
-      <c r="B40" t="n">
-        <v>12.8</v>
-      </c>
-      <c r="C40" t="n">
-        <v>12.6</v>
-      </c>
-      <c r="D40" t="n">
-        <v>12.8</v>
-      </c>
-      <c r="E40" t="n">
-        <v>12.6</v>
-      </c>
-      <c r="F40" t="n">
-        <v>123503.8715</v>
-      </c>
-      <c r="G40" t="n">
-        <v>12.67499999999997</v>
-      </c>
-      <c r="H40" t="n">
-        <v>0</v>
-      </c>
-      <c r="I40" t="n">
-        <v>0</v>
-      </c>
-      <c r="J40" t="inlineStr"/>
-      <c r="K40" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="L40" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M40" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" s="1" t="n">
-        <v>39</v>
-      </c>
-      <c r="B41" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="C41" t="n">
-        <v>12.6</v>
-      </c>
-      <c r="D41" t="n">
-        <v>12.6</v>
-      </c>
-      <c r="E41" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="F41" t="n">
-        <v>5381.56</v>
-      </c>
-      <c r="G41" t="n">
-        <v>12.67666666666664</v>
-      </c>
-      <c r="H41" t="n">
-        <v>0</v>
-      </c>
-      <c r="I41" t="n">
-        <v>0</v>
-      </c>
-      <c r="J41" t="inlineStr"/>
-      <c r="K41" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="L41" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M41" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" s="1" t="n">
-        <v>40</v>
-      </c>
-      <c r="B42" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="C42" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="D42" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="E42" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="F42" t="n">
-        <v>2911.52</v>
-      </c>
-      <c r="G42" t="n">
-        <v>12.67666666666664</v>
-      </c>
-      <c r="H42" t="n">
-        <v>0</v>
-      </c>
-      <c r="I42" t="n">
-        <v>0</v>
-      </c>
-      <c r="J42" t="inlineStr"/>
-      <c r="K42" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="L42" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M42" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" s="1" t="n">
-        <v>41</v>
-      </c>
-      <c r="B43" t="n">
-        <v>12.6</v>
-      </c>
-      <c r="C43" t="n">
-        <v>12.7</v>
-      </c>
-      <c r="D43" t="n">
-        <v>12.7</v>
-      </c>
-      <c r="E43" t="n">
-        <v>12.6</v>
-      </c>
-      <c r="F43" t="n">
-        <v>7534.7497</v>
-      </c>
-      <c r="G43" t="n">
-        <v>12.68166666666664</v>
-      </c>
-      <c r="H43" t="n">
-        <v>0</v>
-      </c>
-      <c r="I43" t="n">
-        <v>0</v>
-      </c>
-      <c r="J43" t="inlineStr"/>
-      <c r="K43" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="L43" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M43" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" s="1" t="n">
-        <v>42</v>
-      </c>
-      <c r="B44" t="n">
-        <v>12.7</v>
-      </c>
-      <c r="C44" t="n">
-        <v>12.7</v>
-      </c>
-      <c r="D44" t="n">
-        <v>12.7</v>
-      </c>
-      <c r="E44" t="n">
-        <v>12.7</v>
-      </c>
-      <c r="F44" t="n">
-        <v>3480</v>
-      </c>
-      <c r="G44" t="n">
-        <v>12.68666666666664</v>
-      </c>
-      <c r="H44" t="n">
-        <v>0</v>
-      </c>
-      <c r="I44" t="n">
-        <v>0</v>
-      </c>
-      <c r="J44" t="inlineStr"/>
-      <c r="K44" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="L44" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M44" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" s="1" t="n">
-        <v>43</v>
-      </c>
-      <c r="B45" t="n">
-        <v>12.7</v>
-      </c>
-      <c r="C45" t="n">
-        <v>12.6</v>
-      </c>
-      <c r="D45" t="n">
-        <v>12.7</v>
-      </c>
-      <c r="E45" t="n">
-        <v>12.6</v>
-      </c>
-      <c r="F45" t="n">
-        <v>4028.44</v>
-      </c>
-      <c r="G45" t="n">
-        <v>12.69166666666664</v>
-      </c>
-      <c r="H45" t="n">
-        <v>0</v>
-      </c>
-      <c r="I45" t="n">
-        <v>0</v>
-      </c>
-      <c r="J45" t="inlineStr"/>
-      <c r="K45" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="L45" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M45" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" s="1" t="n">
-        <v>44</v>
-      </c>
-      <c r="B46" t="n">
-        <v>12.6</v>
-      </c>
-      <c r="C46" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="D46" t="n">
-        <v>12.6</v>
-      </c>
-      <c r="E46" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="F46" t="n">
-        <v>153088.3466</v>
-      </c>
-      <c r="G46" t="n">
-        <v>12.69166666666664</v>
-      </c>
-      <c r="H46" t="n">
-        <v>0</v>
-      </c>
-      <c r="I46" t="n">
-        <v>0</v>
-      </c>
-      <c r="J46" t="inlineStr"/>
-      <c r="K46" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="L46" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M46" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" s="1" t="n">
-        <v>45</v>
-      </c>
-      <c r="B47" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="C47" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="D47" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="E47" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="F47" t="n">
-        <v>9380</v>
-      </c>
-      <c r="G47" t="n">
-        <v>12.69499999999997</v>
-      </c>
-      <c r="H47" t="n">
-        <v>0</v>
-      </c>
-      <c r="I47" t="n">
-        <v>0</v>
-      </c>
-      <c r="J47" t="inlineStr"/>
-      <c r="K47" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="L47" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M47" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" s="1" t="n">
-        <v>46</v>
-      </c>
-      <c r="B48" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="C48" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="D48" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="E48" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="F48" t="n">
-        <v>12886.62</v>
-      </c>
-      <c r="G48" t="n">
-        <v>12.69833333333331</v>
-      </c>
-      <c r="H48" t="n">
-        <v>0</v>
-      </c>
-      <c r="I48" t="n">
-        <v>0</v>
-      </c>
-      <c r="J48" t="inlineStr"/>
-      <c r="K48" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="L48" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M48" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" s="1" t="n">
-        <v>47</v>
-      </c>
-      <c r="B49" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="C49" t="n">
-        <v>12.4</v>
-      </c>
-      <c r="D49" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="E49" t="n">
-        <v>12.4</v>
-      </c>
-      <c r="F49" t="n">
-        <v>40489.2315</v>
-      </c>
-      <c r="G49" t="n">
-        <v>12.69999999999998</v>
-      </c>
-      <c r="H49" t="n">
-        <v>0</v>
-      </c>
-      <c r="I49" t="n">
-        <v>0</v>
-      </c>
-      <c r="J49" t="inlineStr"/>
-      <c r="K49" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="L49" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M49" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="50">
-      <c r="A50" s="1" t="n">
-        <v>48</v>
-      </c>
-      <c r="B50" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="C50" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="D50" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="E50" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="F50" t="n">
-        <v>2640</v>
-      </c>
-      <c r="G50" t="n">
-        <v>12.70333333333331</v>
-      </c>
-      <c r="H50" t="n">
-        <v>0</v>
-      </c>
-      <c r="I50" t="n">
-        <v>0</v>
-      </c>
-      <c r="J50" t="inlineStr"/>
-      <c r="K50" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="L50" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M50" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="51">
-      <c r="A51" s="1" t="n">
-        <v>49</v>
-      </c>
-      <c r="B51" t="n">
-        <v>12.6</v>
-      </c>
-      <c r="C51" t="n">
-        <v>12.6</v>
-      </c>
-      <c r="D51" t="n">
-        <v>12.6</v>
-      </c>
-      <c r="E51" t="n">
-        <v>12.6</v>
-      </c>
-      <c r="F51" t="n">
-        <v>11527.5396</v>
-      </c>
-      <c r="G51" t="n">
-        <v>12.70833333333331</v>
-      </c>
-      <c r="H51" t="n">
-        <v>1</v>
-      </c>
-      <c r="I51" t="n">
-        <v>0</v>
-      </c>
-      <c r="J51" t="n">
-        <v>12.6</v>
-      </c>
-      <c r="K51" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="L51" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M51" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="52">
-      <c r="A52" s="1" t="n">
-        <v>50</v>
-      </c>
-      <c r="B52" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="C52" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="D52" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="E52" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="F52" t="n">
-        <v>2640</v>
-      </c>
-      <c r="G52" t="n">
-        <v>12.70999999999998</v>
-      </c>
-      <c r="H52" t="n">
-        <v>1</v>
-      </c>
-      <c r="I52" t="n">
-        <v>0</v>
-      </c>
-      <c r="J52" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="K52" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="L52" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M52" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="53">
-      <c r="A53" s="1" t="n">
-        <v>51</v>
-      </c>
-      <c r="B53" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="C53" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="D53" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="E53" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="F53" t="n">
-        <v>45286.0001</v>
-      </c>
-      <c r="G53" t="n">
-        <v>12.71333333333331</v>
-      </c>
-      <c r="H53" t="n">
-        <v>1</v>
-      </c>
-      <c r="I53" t="n">
-        <v>0</v>
-      </c>
-      <c r="J53" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="K53" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="L53" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M53" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="54">
-      <c r="A54" s="1" t="n">
-        <v>52</v>
-      </c>
-      <c r="B54" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="C54" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="D54" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="E54" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="F54" t="n">
-        <v>48136.5387</v>
-      </c>
-      <c r="G54" t="n">
-        <v>12.71499999999998</v>
-      </c>
-      <c r="H54" t="n">
-        <v>1</v>
-      </c>
-      <c r="I54" t="n">
-        <v>0</v>
-      </c>
-      <c r="J54" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="K54" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="L54" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M54" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="55">
-      <c r="A55" s="1" t="n">
-        <v>53</v>
-      </c>
-      <c r="B55" t="n">
-        <v>12.6</v>
-      </c>
-      <c r="C55" t="n">
-        <v>12.6</v>
-      </c>
-      <c r="D55" t="n">
-        <v>12.6</v>
-      </c>
-      <c r="E55" t="n">
-        <v>12.6</v>
-      </c>
-      <c r="F55" t="n">
-        <v>59194.9443</v>
-      </c>
-      <c r="G55" t="n">
-        <v>12.71999999999998</v>
-      </c>
-      <c r="H55" t="n">
-        <v>1</v>
-      </c>
-      <c r="I55" t="n">
-        <v>0</v>
-      </c>
-      <c r="J55" t="n">
-        <v>12.6</v>
-      </c>
-      <c r="K55" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="L55" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M55" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="56">
-      <c r="A56" s="1" t="n">
-        <v>54</v>
-      </c>
-      <c r="B56" t="n">
-        <v>12.7</v>
-      </c>
-      <c r="C56" t="n">
-        <v>12.7</v>
-      </c>
-      <c r="D56" t="n">
-        <v>12.7</v>
-      </c>
-      <c r="E56" t="n">
-        <v>12.7</v>
-      </c>
-      <c r="F56" t="n">
-        <v>56642.9921</v>
-      </c>
-      <c r="G56" t="n">
-        <v>12.72666666666665</v>
-      </c>
-      <c r="H56" t="n">
-        <v>1</v>
-      </c>
-      <c r="I56" t="n">
-        <v>0</v>
-      </c>
-      <c r="J56" t="n">
-        <v>12.7</v>
-      </c>
-      <c r="K56" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="L56" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M56" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="57">
-      <c r="A57" s="1" t="n">
-        <v>55</v>
-      </c>
-      <c r="B57" t="n">
-        <v>12.7</v>
-      </c>
-      <c r="C57" t="n">
-        <v>12.6</v>
-      </c>
-      <c r="D57" t="n">
-        <v>12.7</v>
-      </c>
-      <c r="E57" t="n">
-        <v>12.6</v>
-      </c>
-      <c r="F57" t="n">
-        <v>18049.9546</v>
-      </c>
-      <c r="G57" t="n">
-        <v>12.73333333333331</v>
-      </c>
-      <c r="H57" t="n">
-        <v>1</v>
-      </c>
-      <c r="I57" t="n">
-        <v>0</v>
-      </c>
-      <c r="J57" t="n">
-        <v>12.7</v>
-      </c>
-      <c r="K57" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="L57" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M57" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="58">
-      <c r="A58" s="1" t="n">
-        <v>56</v>
-      </c>
-      <c r="B58" t="n">
-        <v>12.6</v>
-      </c>
-      <c r="C58" t="n">
-        <v>12.6</v>
-      </c>
-      <c r="D58" t="n">
-        <v>12.6</v>
-      </c>
-      <c r="E58" t="n">
-        <v>12.6</v>
-      </c>
-      <c r="F58" t="n">
-        <v>18210</v>
-      </c>
-      <c r="G58" t="n">
-        <v>12.73499999999998</v>
-      </c>
-      <c r="H58" t="n">
-        <v>0</v>
-      </c>
-      <c r="I58" t="n">
-        <v>0</v>
-      </c>
-      <c r="J58" t="inlineStr"/>
-      <c r="K58" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="L58" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M58" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="59">
-      <c r="A59" s="1" t="n">
-        <v>57</v>
-      </c>
-      <c r="B59" t="n">
-        <v>12.6</v>
-      </c>
-      <c r="C59" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="D59" t="n">
-        <v>12.6</v>
-      </c>
-      <c r="E59" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="F59" t="n">
-        <v>22962.7376</v>
-      </c>
-      <c r="G59" t="n">
-        <v>12.72833333333332</v>
-      </c>
-      <c r="H59" t="n">
-        <v>0</v>
-      </c>
-      <c r="I59" t="n">
-        <v>0</v>
-      </c>
-      <c r="J59" t="inlineStr"/>
-      <c r="K59" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="L59" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M59" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="60">
-      <c r="A60" s="1" t="n">
-        <v>58</v>
-      </c>
-      <c r="B60" t="n">
-        <v>12.6</v>
-      </c>
-      <c r="C60" t="n">
-        <v>12.9</v>
-      </c>
-      <c r="D60" t="n">
-        <v>12.9</v>
-      </c>
-      <c r="E60" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="F60" t="n">
-        <v>19209.4733</v>
-      </c>
-      <c r="G60" t="n">
-        <v>12.73333333333331</v>
-      </c>
-      <c r="H60" t="n">
-        <v>0</v>
-      </c>
-      <c r="I60" t="n">
-        <v>0</v>
-      </c>
-      <c r="J60" t="inlineStr"/>
-      <c r="K60" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="L60" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M60" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="61">
-      <c r="A61" s="1" t="n">
-        <v>59</v>
-      </c>
-      <c r="B61" t="n">
-        <v>12.6</v>
-      </c>
-      <c r="C61" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="D61" t="n">
-        <v>12.6</v>
-      </c>
-      <c r="E61" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="F61" t="n">
-        <v>4981.49287936508</v>
-      </c>
-      <c r="G61" t="n">
-        <v>12.73499999999998</v>
-      </c>
-      <c r="H61" t="n">
-        <v>1</v>
-      </c>
-      <c r="I61" t="n">
-        <v>0</v>
-      </c>
-      <c r="J61" t="n">
-        <v>12.6</v>
-      </c>
-      <c r="K61" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="L61" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M61" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="62">
-      <c r="A62" s="1" t="n">
-        <v>60</v>
-      </c>
-      <c r="B62" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="C62" t="n">
-        <v>12.4</v>
-      </c>
-      <c r="D62" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="E62" t="n">
-        <v>12.4</v>
-      </c>
-      <c r="F62" t="n">
-        <v>115075.1631</v>
-      </c>
-      <c r="G62" t="n">
-        <v>12.73333333333331</v>
-      </c>
-      <c r="H62" t="n">
-        <v>0</v>
-      </c>
-      <c r="I62" t="n">
-        <v>0</v>
-      </c>
-      <c r="J62" t="inlineStr"/>
-      <c r="K62" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="L62" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M62" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="63">
-      <c r="A63" s="1" t="n">
-        <v>61</v>
-      </c>
-      <c r="B63" t="n">
-        <v>12.4</v>
-      </c>
-      <c r="C63" t="n">
-        <v>12.4</v>
-      </c>
-      <c r="D63" t="n">
-        <v>12.4</v>
-      </c>
-      <c r="E63" t="n">
-        <v>12.4</v>
-      </c>
-      <c r="F63" t="n">
-        <v>7877.6222</v>
-      </c>
-      <c r="G63" t="n">
-        <v>12.73166666666665</v>
-      </c>
-      <c r="H63" t="n">
-        <v>0</v>
-      </c>
-      <c r="I63" t="n">
-        <v>0</v>
-      </c>
-      <c r="J63" t="inlineStr"/>
-      <c r="K63" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="L63" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M63" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="64">
-      <c r="A64" s="1" t="n">
-        <v>62</v>
-      </c>
-      <c r="B64" t="n">
-        <v>12.3</v>
-      </c>
-      <c r="C64" t="n">
-        <v>12.2</v>
-      </c>
-      <c r="D64" t="n">
-        <v>12.3</v>
-      </c>
-      <c r="E64" t="n">
-        <v>12.2</v>
-      </c>
-      <c r="F64" t="n">
-        <v>284384.3923</v>
-      </c>
-      <c r="G64" t="n">
-        <v>12.72666666666665</v>
-      </c>
-      <c r="H64" t="n">
-        <v>1</v>
-      </c>
-      <c r="I64" t="n">
-        <v>0</v>
-      </c>
-      <c r="J64" t="n">
-        <v>12.3</v>
-      </c>
-      <c r="K64" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="L64" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M64" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="65">
-      <c r="A65" s="1" t="n">
-        <v>63</v>
-      </c>
-      <c r="B65" t="n">
-        <v>12.2</v>
-      </c>
-      <c r="C65" t="n">
-        <v>12.1</v>
-      </c>
-      <c r="D65" t="n">
-        <v>12.2</v>
-      </c>
-      <c r="E65" t="n">
-        <v>12.1</v>
-      </c>
-      <c r="F65" t="n">
-        <v>33975.1401</v>
-      </c>
-      <c r="G65" t="n">
-        <v>12.71499999999998</v>
-      </c>
-      <c r="H65" t="n">
-        <v>1</v>
-      </c>
-      <c r="I65" t="n">
-        <v>0</v>
-      </c>
-      <c r="J65" t="n">
-        <v>12.2</v>
-      </c>
-      <c r="K65" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="L65" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M65" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="66">
-      <c r="A66" s="1" t="n">
-        <v>64</v>
-      </c>
-      <c r="B66" t="n">
-        <v>12.3</v>
-      </c>
-      <c r="C66" t="n">
-        <v>12.3</v>
-      </c>
-      <c r="D66" t="n">
-        <v>12.3</v>
-      </c>
-      <c r="E66" t="n">
-        <v>12.3</v>
-      </c>
-      <c r="F66" t="n">
-        <v>1112.1027</v>
-      </c>
-      <c r="G66" t="n">
-        <v>12.71166666666665</v>
-      </c>
-      <c r="H66" t="n">
-        <v>1</v>
-      </c>
-      <c r="I66" t="n">
-        <v>0</v>
-      </c>
-      <c r="J66" t="n">
-        <v>12.3</v>
-      </c>
-      <c r="K66" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="L66" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M66" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="67">
-      <c r="A67" s="1" t="n">
-        <v>65</v>
-      </c>
-      <c r="B67" t="n">
-        <v>12.4</v>
-      </c>
-      <c r="C67" t="n">
-        <v>12.3</v>
-      </c>
-      <c r="D67" t="n">
-        <v>12.4</v>
-      </c>
-      <c r="E67" t="n">
-        <v>12.3</v>
-      </c>
-      <c r="F67" t="n">
-        <v>119343.3896</v>
-      </c>
-      <c r="G67" t="n">
-        <v>12.70166666666665</v>
-      </c>
-      <c r="H67" t="n">
-        <v>1</v>
-      </c>
-      <c r="I67" t="n">
-        <v>0</v>
-      </c>
-      <c r="J67" t="n">
-        <v>12.4</v>
-      </c>
-      <c r="K67" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="L67" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M67" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="68">
-      <c r="A68" s="1" t="n">
-        <v>66</v>
-      </c>
-      <c r="B68" t="n">
-        <v>12.3</v>
-      </c>
-      <c r="C68" t="n">
-        <v>12.3</v>
-      </c>
-      <c r="D68" t="n">
-        <v>12.3</v>
-      </c>
-      <c r="E68" t="n">
-        <v>12.3</v>
-      </c>
-      <c r="F68" t="n">
-        <v>59725</v>
-      </c>
-      <c r="G68" t="n">
-        <v>12.68999999999998</v>
-      </c>
-      <c r="H68" t="n">
-        <v>1</v>
-      </c>
-      <c r="I68" t="n">
-        <v>0</v>
-      </c>
-      <c r="J68" t="n">
-        <v>12.3</v>
-      </c>
-      <c r="K68" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="L68" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M68" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="69">
-      <c r="A69" s="1" t="n">
-        <v>67</v>
-      </c>
-      <c r="B69" t="n">
-        <v>12.4</v>
-      </c>
-      <c r="C69" t="n">
-        <v>12.4</v>
-      </c>
-      <c r="D69" t="n">
-        <v>12.4</v>
-      </c>
-      <c r="E69" t="n">
-        <v>12.4</v>
-      </c>
-      <c r="F69" t="n">
-        <v>29591.6129</v>
-      </c>
-      <c r="G69" t="n">
-        <v>12.67999999999998</v>
-      </c>
-      <c r="H69" t="n">
-        <v>1</v>
-      </c>
-      <c r="I69" t="n">
-        <v>0</v>
-      </c>
-      <c r="J69" t="n">
-        <v>12.4</v>
-      </c>
-      <c r="K69" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="L69" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M69" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="70">
-      <c r="A70" s="1" t="n">
-        <v>68</v>
-      </c>
-      <c r="B70" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="C70" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="D70" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="E70" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="F70" t="n">
-        <v>25823.0322</v>
-      </c>
-      <c r="G70" t="n">
-        <v>12.67166666666665</v>
-      </c>
-      <c r="H70" t="n">
-        <v>1</v>
-      </c>
-      <c r="I70" t="n">
-        <v>0</v>
-      </c>
-      <c r="J70" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="K70" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="L70" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M70" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="71">
-      <c r="A71" s="1" t="n">
-        <v>69</v>
-      </c>
-      <c r="B71" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="C71" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="D71" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="E71" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="F71" t="n">
-        <v>12060</v>
-      </c>
-      <c r="G71" t="n">
-        <v>12.66333333333331</v>
-      </c>
-      <c r="H71" t="n">
-        <v>1</v>
-      </c>
-      <c r="I71" t="n">
-        <v>0</v>
-      </c>
-      <c r="J71" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="K71" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="L71" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
       <c r="M71" t="n">
         <v>1</v>
       </c>
@@ -3371,16 +2927,12 @@
         <v>0</v>
       </c>
       <c r="J72" t="n">
-        <v>12.4</v>
+        <v>12.5</v>
       </c>
       <c r="K72" t="n">
         <v>12.5</v>
       </c>
-      <c r="L72" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L72" t="inlineStr"/>
       <c r="M72" t="n">
         <v>1</v>
       </c>
@@ -3421,7 +2973,7 @@
       </c>
       <c r="L73" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="M73" t="n">
@@ -3451,20 +3003,18 @@
         <v>12.63833333333331</v>
       </c>
       <c r="H74" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I74" t="n">
         <v>0</v>
       </c>
-      <c r="J74" t="n">
-        <v>12.4</v>
-      </c>
+      <c r="J74" t="inlineStr"/>
       <c r="K74" t="n">
         <v>12.5</v>
       </c>
       <c r="L74" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="M74" t="n">
@@ -3494,22 +3044,14 @@
         <v>12.63166666666665</v>
       </c>
       <c r="H75" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I75" t="n">
         <v>0</v>
       </c>
-      <c r="J75" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="K75" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="L75" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J75" t="inlineStr"/>
+      <c r="K75" t="inlineStr"/>
+      <c r="L75" t="inlineStr"/>
       <c r="M75" t="n">
         <v>1</v>
       </c>
@@ -3537,22 +3079,14 @@
         <v>12.62499999999998</v>
       </c>
       <c r="H76" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I76" t="n">
         <v>0</v>
       </c>
-      <c r="J76" t="n">
-        <v>12.4</v>
-      </c>
-      <c r="K76" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="L76" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J76" t="inlineStr"/>
+      <c r="K76" t="inlineStr"/>
+      <c r="L76" t="inlineStr"/>
       <c r="M76" t="n">
         <v>1</v>
       </c>
@@ -3580,22 +3114,14 @@
         <v>12.61999999999998</v>
       </c>
       <c r="H77" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I77" t="n">
         <v>0</v>
       </c>
-      <c r="J77" t="n">
-        <v>12.4</v>
-      </c>
-      <c r="K77" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="L77" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J77" t="inlineStr"/>
+      <c r="K77" t="inlineStr"/>
+      <c r="L77" t="inlineStr"/>
       <c r="M77" t="n">
         <v>1</v>
       </c>
@@ -3629,16 +3155,12 @@
         <v>0</v>
       </c>
       <c r="J78" t="n">
-        <v>12.5</v>
+        <v>12.4</v>
       </c>
       <c r="K78" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="L78" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>12.4</v>
+      </c>
+      <c r="L78" t="inlineStr"/>
       <c r="M78" t="n">
         <v>1</v>
       </c>
@@ -3675,11 +3197,11 @@
         <v>12.5</v>
       </c>
       <c r="K79" t="n">
-        <v>12.5</v>
+        <v>12.4</v>
       </c>
       <c r="L79" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="M79" t="n">
@@ -3715,14 +3237,14 @@
         <v>0</v>
       </c>
       <c r="J80" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="K80" t="n">
         <v>12.4</v>
-      </c>
-      <c r="K80" t="n">
-        <v>12.5</v>
       </c>
       <c r="L80" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="M80" t="n">
@@ -3752,22 +3274,14 @@
         <v>12.59999999999998</v>
       </c>
       <c r="H81" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I81" t="n">
         <v>0</v>
       </c>
-      <c r="J81" t="n">
-        <v>12.4</v>
-      </c>
-      <c r="K81" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="L81" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J81" t="inlineStr"/>
+      <c r="K81" t="inlineStr"/>
+      <c r="L81" t="inlineStr"/>
       <c r="M81" t="n">
         <v>1</v>
       </c>
@@ -3795,22 +3309,14 @@
         <v>12.59166666666665</v>
       </c>
       <c r="H82" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I82" t="n">
         <v>0</v>
       </c>
-      <c r="J82" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="K82" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="L82" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J82" t="inlineStr"/>
+      <c r="K82" t="inlineStr"/>
+      <c r="L82" t="inlineStr"/>
       <c r="M82" t="n">
         <v>1</v>
       </c>
@@ -3838,22 +3344,14 @@
         <v>12.58333333333331</v>
       </c>
       <c r="H83" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I83" t="n">
         <v>0</v>
       </c>
-      <c r="J83" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="K83" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="L83" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J83" t="inlineStr"/>
+      <c r="K83" t="inlineStr"/>
+      <c r="L83" t="inlineStr"/>
       <c r="M83" t="n">
         <v>1</v>
       </c>
@@ -3881,22 +3379,14 @@
         <v>12.57166666666665</v>
       </c>
       <c r="H84" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I84" t="n">
         <v>0</v>
       </c>
-      <c r="J84" t="n">
-        <v>12.3</v>
-      </c>
-      <c r="K84" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="L84" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J84" t="inlineStr"/>
+      <c r="K84" t="inlineStr"/>
+      <c r="L84" t="inlineStr"/>
       <c r="M84" t="n">
         <v>1</v>
       </c>
@@ -3924,22 +3414,14 @@
         <v>12.56333333333331</v>
       </c>
       <c r="H85" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I85" t="n">
         <v>0</v>
       </c>
-      <c r="J85" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="K85" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="L85" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J85" t="inlineStr"/>
+      <c r="K85" t="inlineStr"/>
+      <c r="L85" t="inlineStr"/>
       <c r="M85" t="n">
         <v>1</v>
       </c>
@@ -3967,22 +3449,14 @@
         <v>12.55833333333331</v>
       </c>
       <c r="H86" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I86" t="n">
         <v>0</v>
       </c>
-      <c r="J86" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="K86" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="L86" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J86" t="inlineStr"/>
+      <c r="K86" t="inlineStr"/>
+      <c r="L86" t="inlineStr"/>
       <c r="M86" t="n">
         <v>1</v>
       </c>
@@ -4010,22 +3484,14 @@
         <v>12.55333333333331</v>
       </c>
       <c r="H87" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I87" t="n">
         <v>0</v>
       </c>
-      <c r="J87" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="K87" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="L87" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J87" t="inlineStr"/>
+      <c r="K87" t="inlineStr"/>
+      <c r="L87" t="inlineStr"/>
       <c r="M87" t="n">
         <v>1</v>
       </c>
@@ -4053,22 +3519,14 @@
         <v>12.54833333333331</v>
       </c>
       <c r="H88" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I88" t="n">
         <v>0</v>
       </c>
-      <c r="J88" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="K88" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="L88" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J88" t="inlineStr"/>
+      <c r="K88" t="inlineStr"/>
+      <c r="L88" t="inlineStr"/>
       <c r="M88" t="n">
         <v>1</v>
       </c>
@@ -4096,22 +3554,14 @@
         <v>12.54166666666665</v>
       </c>
       <c r="H89" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I89" t="n">
         <v>0</v>
       </c>
-      <c r="J89" t="n">
-        <v>12.4</v>
-      </c>
-      <c r="K89" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="L89" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J89" t="inlineStr"/>
+      <c r="K89" t="inlineStr"/>
+      <c r="L89" t="inlineStr"/>
       <c r="M89" t="n">
         <v>1</v>
       </c>
@@ -4139,22 +3589,14 @@
         <v>12.53499999999998</v>
       </c>
       <c r="H90" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I90" t="n">
         <v>0</v>
       </c>
-      <c r="J90" t="n">
-        <v>12.4</v>
-      </c>
-      <c r="K90" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="L90" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J90" t="inlineStr"/>
+      <c r="K90" t="inlineStr"/>
+      <c r="L90" t="inlineStr"/>
       <c r="M90" t="n">
         <v>1</v>
       </c>
@@ -4182,22 +3624,14 @@
         <v>12.53166666666665</v>
       </c>
       <c r="H91" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I91" t="n">
         <v>0</v>
       </c>
-      <c r="J91" t="n">
-        <v>12.6</v>
-      </c>
-      <c r="K91" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="L91" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J91" t="inlineStr"/>
+      <c r="K91" t="inlineStr"/>
+      <c r="L91" t="inlineStr"/>
       <c r="M91" t="n">
         <v>1</v>
       </c>
@@ -4225,22 +3659,14 @@
         <v>12.52833333333332</v>
       </c>
       <c r="H92" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I92" t="n">
         <v>0</v>
       </c>
-      <c r="J92" t="n">
-        <v>12.6</v>
-      </c>
-      <c r="K92" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="L92" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J92" t="inlineStr"/>
+      <c r="K92" t="inlineStr"/>
+      <c r="L92" t="inlineStr"/>
       <c r="M92" t="n">
         <v>1</v>
       </c>
@@ -4268,22 +3694,14 @@
         <v>12.51833333333332</v>
       </c>
       <c r="H93" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I93" t="n">
         <v>0</v>
       </c>
-      <c r="J93" t="n">
-        <v>12.4</v>
-      </c>
-      <c r="K93" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="L93" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J93" t="inlineStr"/>
+      <c r="K93" t="inlineStr"/>
+      <c r="L93" t="inlineStr"/>
       <c r="M93" t="n">
         <v>1</v>
       </c>
@@ -4311,22 +3729,14 @@
         <v>12.51166666666665</v>
       </c>
       <c r="H94" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I94" t="n">
         <v>0</v>
       </c>
-      <c r="J94" t="n">
-        <v>12.4</v>
-      </c>
-      <c r="K94" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="L94" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J94" t="inlineStr"/>
+      <c r="K94" t="inlineStr"/>
+      <c r="L94" t="inlineStr"/>
       <c r="M94" t="n">
         <v>1</v>
       </c>
@@ -4354,22 +3764,14 @@
         <v>12.50166666666665</v>
       </c>
       <c r="H95" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I95" t="n">
         <v>0</v>
       </c>
-      <c r="J95" t="n">
-        <v>12.4</v>
-      </c>
-      <c r="K95" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="L95" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J95" t="inlineStr"/>
+      <c r="K95" t="inlineStr"/>
+      <c r="L95" t="inlineStr"/>
       <c r="M95" t="n">
         <v>1</v>
       </c>
@@ -4397,22 +3799,14 @@
         <v>12.49666666666665</v>
       </c>
       <c r="H96" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I96" t="n">
         <v>0</v>
       </c>
-      <c r="J96" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="K96" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="L96" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J96" t="inlineStr"/>
+      <c r="K96" t="inlineStr"/>
+      <c r="L96" t="inlineStr"/>
       <c r="M96" t="n">
         <v>1</v>
       </c>
@@ -4440,22 +3834,14 @@
         <v>12.48833333333332</v>
       </c>
       <c r="H97" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I97" t="n">
         <v>0</v>
       </c>
-      <c r="J97" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="K97" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="L97" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J97" t="inlineStr"/>
+      <c r="K97" t="inlineStr"/>
+      <c r="L97" t="inlineStr"/>
       <c r="M97" t="n">
         <v>1</v>
       </c>
@@ -4483,22 +3869,14 @@
         <v>12.48499999999999</v>
       </c>
       <c r="H98" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I98" t="n">
         <v>0</v>
       </c>
-      <c r="J98" t="n">
-        <v>12.6</v>
-      </c>
-      <c r="K98" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="L98" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J98" t="inlineStr"/>
+      <c r="K98" t="inlineStr"/>
+      <c r="L98" t="inlineStr"/>
       <c r="M98" t="n">
         <v>1</v>
       </c>
@@ -4526,22 +3904,14 @@
         <v>12.47999999999999</v>
       </c>
       <c r="H99" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I99" t="n">
         <v>0</v>
       </c>
-      <c r="J99" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="K99" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="L99" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J99" t="inlineStr"/>
+      <c r="K99" t="inlineStr"/>
+      <c r="L99" t="inlineStr"/>
       <c r="M99" t="n">
         <v>1</v>
       </c>
@@ -4569,22 +3939,14 @@
         <v>12.47833333333332</v>
       </c>
       <c r="H100" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I100" t="n">
         <v>0</v>
       </c>
-      <c r="J100" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="K100" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="L100" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J100" t="inlineStr"/>
+      <c r="K100" t="inlineStr"/>
+      <c r="L100" t="inlineStr"/>
       <c r="M100" t="n">
         <v>1</v>
       </c>
@@ -4612,22 +3974,14 @@
         <v>12.47666666666665</v>
       </c>
       <c r="H101" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I101" t="n">
         <v>0</v>
       </c>
-      <c r="J101" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="K101" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="L101" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J101" t="inlineStr"/>
+      <c r="K101" t="inlineStr"/>
+      <c r="L101" t="inlineStr"/>
       <c r="M101" t="n">
         <v>1</v>
       </c>
@@ -4655,22 +4009,14 @@
         <v>12.47666666666665</v>
       </c>
       <c r="H102" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I102" t="n">
         <v>0</v>
       </c>
-      <c r="J102" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="K102" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="L102" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J102" t="inlineStr"/>
+      <c r="K102" t="inlineStr"/>
+      <c r="L102" t="inlineStr"/>
       <c r="M102" t="n">
         <v>1</v>
       </c>
@@ -4698,22 +4044,14 @@
         <v>12.47333333333332</v>
       </c>
       <c r="H103" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I103" t="n">
         <v>0</v>
       </c>
-      <c r="J103" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="K103" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="L103" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J103" t="inlineStr"/>
+      <c r="K103" t="inlineStr"/>
+      <c r="L103" t="inlineStr"/>
       <c r="M103" t="n">
         <v>1</v>
       </c>
@@ -4741,22 +4079,14 @@
         <v>12.46999999999998</v>
       </c>
       <c r="H104" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I104" t="n">
         <v>0</v>
       </c>
-      <c r="J104" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="K104" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="L104" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J104" t="inlineStr"/>
+      <c r="K104" t="inlineStr"/>
+      <c r="L104" t="inlineStr"/>
       <c r="M104" t="n">
         <v>1</v>
       </c>
@@ -4784,22 +4114,14 @@
         <v>12.46833333333332</v>
       </c>
       <c r="H105" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I105" t="n">
         <v>0</v>
       </c>
-      <c r="J105" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="K105" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="L105" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J105" t="inlineStr"/>
+      <c r="K105" t="inlineStr"/>
+      <c r="L105" t="inlineStr"/>
       <c r="M105" t="n">
         <v>1</v>
       </c>
@@ -4827,22 +4149,14 @@
         <v>12.46666666666665</v>
       </c>
       <c r="H106" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I106" t="n">
         <v>0</v>
       </c>
-      <c r="J106" t="n">
-        <v>12.4</v>
-      </c>
-      <c r="K106" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="L106" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J106" t="inlineStr"/>
+      <c r="K106" t="inlineStr"/>
+      <c r="L106" t="inlineStr"/>
       <c r="M106" t="n">
         <v>1</v>
       </c>
@@ -4870,22 +4184,14 @@
         <v>12.46666666666665</v>
       </c>
       <c r="H107" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I107" t="n">
         <v>0</v>
       </c>
-      <c r="J107" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="K107" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="L107" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J107" t="inlineStr"/>
+      <c r="K107" t="inlineStr"/>
+      <c r="L107" t="inlineStr"/>
       <c r="M107" t="n">
         <v>1</v>
       </c>
@@ -4913,22 +4219,14 @@
         <v>12.46499999999998</v>
       </c>
       <c r="H108" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I108" t="n">
         <v>0</v>
       </c>
-      <c r="J108" t="n">
-        <v>12.4</v>
-      </c>
-      <c r="K108" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="L108" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J108" t="inlineStr"/>
+      <c r="K108" t="inlineStr"/>
+      <c r="L108" t="inlineStr"/>
       <c r="M108" t="n">
         <v>1</v>
       </c>
@@ -4956,22 +4254,14 @@
         <v>12.46666666666665</v>
       </c>
       <c r="H109" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I109" t="n">
         <v>0</v>
       </c>
-      <c r="J109" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="K109" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="L109" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J109" t="inlineStr"/>
+      <c r="K109" t="inlineStr"/>
+      <c r="L109" t="inlineStr"/>
       <c r="M109" t="n">
         <v>1</v>
       </c>
@@ -4999,22 +4289,14 @@
         <v>12.46833333333332</v>
       </c>
       <c r="H110" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I110" t="n">
         <v>0</v>
       </c>
-      <c r="J110" t="n">
-        <v>12.6</v>
-      </c>
-      <c r="K110" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="L110" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J110" t="inlineStr"/>
+      <c r="K110" t="inlineStr"/>
+      <c r="L110" t="inlineStr"/>
       <c r="M110" t="n">
         <v>1</v>
       </c>
@@ -5042,22 +4324,14 @@
         <v>12.46499999999998</v>
       </c>
       <c r="H111" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I111" t="n">
         <v>0</v>
       </c>
-      <c r="J111" t="n">
-        <v>12.6</v>
-      </c>
-      <c r="K111" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="L111" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J111" t="inlineStr"/>
+      <c r="K111" t="inlineStr"/>
+      <c r="L111" t="inlineStr"/>
       <c r="M111" t="n">
         <v>1</v>
       </c>
@@ -5085,22 +4359,14 @@
         <v>12.46666666666665</v>
       </c>
       <c r="H112" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I112" t="n">
         <v>0</v>
       </c>
-      <c r="J112" t="n">
-        <v>12.6</v>
-      </c>
-      <c r="K112" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="L112" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J112" t="inlineStr"/>
+      <c r="K112" t="inlineStr"/>
+      <c r="L112" t="inlineStr"/>
       <c r="M112" t="n">
         <v>1</v>
       </c>
@@ -5128,22 +4394,14 @@
         <v>12.46666666666665</v>
       </c>
       <c r="H113" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I113" t="n">
         <v>0</v>
       </c>
-      <c r="J113" t="n">
-        <v>12.6</v>
-      </c>
-      <c r="K113" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="L113" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J113" t="inlineStr"/>
+      <c r="K113" t="inlineStr"/>
+      <c r="L113" t="inlineStr"/>
       <c r="M113" t="n">
         <v>1</v>
       </c>
@@ -5171,22 +4429,14 @@
         <v>12.46833333333332</v>
       </c>
       <c r="H114" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I114" t="n">
         <v>0</v>
       </c>
-      <c r="J114" t="n">
-        <v>12.6</v>
-      </c>
-      <c r="K114" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="L114" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J114" t="inlineStr"/>
+      <c r="K114" t="inlineStr"/>
+      <c r="L114" t="inlineStr"/>
       <c r="M114" t="n">
         <v>1</v>
       </c>
@@ -5214,22 +4464,14 @@
         <v>12.46666666666665</v>
       </c>
       <c r="H115" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I115" t="n">
         <v>0</v>
       </c>
-      <c r="J115" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="K115" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="L115" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J115" t="inlineStr"/>
+      <c r="K115" t="inlineStr"/>
+      <c r="L115" t="inlineStr"/>
       <c r="M115" t="n">
         <v>1</v>
       </c>
@@ -5257,22 +4499,14 @@
         <v>12.46499999999998</v>
       </c>
       <c r="H116" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I116" t="n">
         <v>0</v>
       </c>
-      <c r="J116" t="n">
-        <v>12.6</v>
-      </c>
-      <c r="K116" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="L116" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J116" t="inlineStr"/>
+      <c r="K116" t="inlineStr"/>
+      <c r="L116" t="inlineStr"/>
       <c r="M116" t="n">
         <v>1</v>
       </c>
@@ -5300,22 +4534,14 @@
         <v>12.46499999999998</v>
       </c>
       <c r="H117" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I117" t="n">
         <v>0</v>
       </c>
-      <c r="J117" t="n">
-        <v>12.6</v>
-      </c>
-      <c r="K117" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="L117" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J117" t="inlineStr"/>
+      <c r="K117" t="inlineStr"/>
+      <c r="L117" t="inlineStr"/>
       <c r="M117" t="n">
         <v>1</v>
       </c>
@@ -5343,22 +4569,14 @@
         <v>12.46333333333332</v>
       </c>
       <c r="H118" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I118" t="n">
         <v>0</v>
       </c>
-      <c r="J118" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="K118" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="L118" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J118" t="inlineStr"/>
+      <c r="K118" t="inlineStr"/>
+      <c r="L118" t="inlineStr"/>
       <c r="M118" t="n">
         <v>1</v>
       </c>
@@ -5386,22 +4604,14 @@
         <v>12.46666666666665</v>
       </c>
       <c r="H119" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I119" t="n">
         <v>0</v>
       </c>
-      <c r="J119" t="n">
-        <v>12.7</v>
-      </c>
-      <c r="K119" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="L119" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J119" t="inlineStr"/>
+      <c r="K119" t="inlineStr"/>
+      <c r="L119" t="inlineStr"/>
       <c r="M119" t="n">
         <v>1</v>
       </c>
@@ -5429,22 +4639,14 @@
         <v>12.45999999999998</v>
       </c>
       <c r="H120" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I120" t="n">
         <v>0</v>
       </c>
-      <c r="J120" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="K120" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="L120" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J120" t="inlineStr"/>
+      <c r="K120" t="inlineStr"/>
+      <c r="L120" t="inlineStr"/>
       <c r="M120" t="n">
         <v>1</v>
       </c>
@@ -5472,22 +4674,14 @@
         <v>12.45833333333332</v>
       </c>
       <c r="H121" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I121" t="n">
         <v>0</v>
       </c>
-      <c r="J121" t="n">
-        <v>12.4</v>
-      </c>
-      <c r="K121" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="L121" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J121" t="inlineStr"/>
+      <c r="K121" t="inlineStr"/>
+      <c r="L121" t="inlineStr"/>
       <c r="M121" t="n">
         <v>1</v>
       </c>
@@ -5515,22 +4709,14 @@
         <v>12.45999999999998</v>
       </c>
       <c r="H122" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I122" t="n">
         <v>0</v>
       </c>
-      <c r="J122" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="K122" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="L122" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J122" t="inlineStr"/>
+      <c r="K122" t="inlineStr"/>
+      <c r="L122" t="inlineStr"/>
       <c r="M122" t="n">
         <v>1</v>
       </c>
@@ -5558,22 +4744,14 @@
         <v>12.46666666666665</v>
       </c>
       <c r="H123" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I123" t="n">
         <v>0</v>
       </c>
-      <c r="J123" t="n">
-        <v>12.8</v>
-      </c>
-      <c r="K123" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="L123" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J123" t="inlineStr"/>
+      <c r="K123" t="inlineStr"/>
+      <c r="L123" t="inlineStr"/>
       <c r="M123" t="n">
         <v>1</v>
       </c>
@@ -5601,22 +4779,14 @@
         <v>12.47666666666665</v>
       </c>
       <c r="H124" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I124" t="n">
         <v>0</v>
       </c>
-      <c r="J124" t="n">
-        <v>12.8</v>
-      </c>
-      <c r="K124" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="L124" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J124" t="inlineStr"/>
+      <c r="K124" t="inlineStr"/>
+      <c r="L124" t="inlineStr"/>
       <c r="M124" t="n">
         <v>1</v>
       </c>
@@ -5644,22 +4814,14 @@
         <v>12.48999999999998</v>
       </c>
       <c r="H125" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I125" t="n">
         <v>0</v>
       </c>
-      <c r="J125" t="n">
-        <v>12.8</v>
-      </c>
-      <c r="K125" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="L125" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J125" t="inlineStr"/>
+      <c r="K125" t="inlineStr"/>
+      <c r="L125" t="inlineStr"/>
       <c r="M125" t="n">
         <v>1</v>
       </c>
@@ -5693,14 +4855,8 @@
         <v>0</v>
       </c>
       <c r="J126" t="inlineStr"/>
-      <c r="K126" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="L126" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K126" t="inlineStr"/>
+      <c r="L126" t="inlineStr"/>
       <c r="M126" t="n">
         <v>1</v>
       </c>
@@ -5734,14 +4890,8 @@
         <v>0</v>
       </c>
       <c r="J127" t="inlineStr"/>
-      <c r="K127" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="L127" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K127" t="inlineStr"/>
+      <c r="L127" t="inlineStr"/>
       <c r="M127" t="n">
         <v>1</v>
       </c>
@@ -5775,14 +4925,8 @@
         <v>0</v>
       </c>
       <c r="J128" t="inlineStr"/>
-      <c r="K128" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="L128" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K128" t="inlineStr"/>
+      <c r="L128" t="inlineStr"/>
       <c r="M128" t="n">
         <v>1</v>
       </c>
@@ -5816,14 +4960,8 @@
         <v>0</v>
       </c>
       <c r="J129" t="inlineStr"/>
-      <c r="K129" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="L129" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K129" t="inlineStr"/>
+      <c r="L129" t="inlineStr"/>
       <c r="M129" t="n">
         <v>1</v>
       </c>
@@ -5857,14 +4995,8 @@
         <v>0</v>
       </c>
       <c r="J130" t="inlineStr"/>
-      <c r="K130" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="L130" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K130" t="inlineStr"/>
+      <c r="L130" t="inlineStr"/>
       <c r="M130" t="n">
         <v>1</v>
       </c>
@@ -5895,17 +5027,11 @@
         <v>0</v>
       </c>
       <c r="I131" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J131" t="inlineStr"/>
-      <c r="K131" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="L131" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K131" t="inlineStr"/>
+      <c r="L131" t="inlineStr"/>
       <c r="M131" t="n">
         <v>1</v>
       </c>
@@ -5936,17 +5062,11 @@
         <v>0</v>
       </c>
       <c r="I132" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J132" t="inlineStr"/>
-      <c r="K132" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="L132" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K132" t="inlineStr"/>
+      <c r="L132" t="inlineStr"/>
       <c r="M132" t="n">
         <v>1</v>
       </c>
@@ -5977,17 +5097,11 @@
         <v>0</v>
       </c>
       <c r="I133" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J133" t="inlineStr"/>
-      <c r="K133" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="L133" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K133" t="inlineStr"/>
+      <c r="L133" t="inlineStr"/>
       <c r="M133" t="n">
         <v>1</v>
       </c>
@@ -6021,14 +5135,8 @@
         <v>0</v>
       </c>
       <c r="J134" t="inlineStr"/>
-      <c r="K134" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="L134" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K134" t="inlineStr"/>
+      <c r="L134" t="inlineStr"/>
       <c r="M134" t="n">
         <v>1</v>
       </c>
@@ -6062,14 +5170,8 @@
         <v>0</v>
       </c>
       <c r="J135" t="inlineStr"/>
-      <c r="K135" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="L135" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K135" t="inlineStr"/>
+      <c r="L135" t="inlineStr"/>
       <c r="M135" t="n">
         <v>1</v>
       </c>
@@ -6100,19 +5202,13 @@
         <v>0</v>
       </c>
       <c r="I136" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J136" t="inlineStr"/>
-      <c r="K136" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="L136" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
+      <c r="K136" t="inlineStr"/>
+      <c r="L136" t="inlineStr"/>
       <c r="M136" t="n">
-        <v>1.091</v>
+        <v>1</v>
       </c>
     </row>
     <row r="137">
@@ -7786,7 +6882,7 @@
         <v>0</v>
       </c>
       <c r="I184" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J184" t="inlineStr"/>
       <c r="K184" t="inlineStr"/>
@@ -7821,7 +6917,7 @@
         <v>0</v>
       </c>
       <c r="I185" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J185" t="inlineStr"/>
       <c r="K185" t="inlineStr"/>

--- a/BackTest/2019-10-19 BackTest RNT.xlsx
+++ b/BackTest/2019-10-19 BackTest RNT.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M251"/>
+  <dimension ref="A1:M252"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -433,22 +433,22 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>12.5</v>
+        <v>12.7</v>
       </c>
       <c r="C2" t="n">
-        <v>12.5</v>
+        <v>12.4</v>
       </c>
       <c r="D2" t="n">
-        <v>12.5</v>
+        <v>12.7</v>
       </c>
       <c r="E2" t="n">
-        <v>12.5</v>
+        <v>12.3</v>
       </c>
       <c r="F2" t="n">
-        <v>22004.899</v>
+        <v>147516.0611</v>
       </c>
       <c r="G2" t="n">
-        <v>12.38666666666665</v>
+        <v>12.38333333333332</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -480,7 +480,7 @@
         <v>12.5</v>
       </c>
       <c r="F3" t="n">
-        <v>26630.08</v>
+        <v>22004.899</v>
       </c>
       <c r="G3" t="n">
         <v>12.38666666666665</v>
@@ -515,10 +515,10 @@
         <v>12.5</v>
       </c>
       <c r="F4" t="n">
-        <v>2691.52</v>
+        <v>26630.08</v>
       </c>
       <c r="G4" t="n">
-        <v>12.38833333333332</v>
+        <v>12.38666666666665</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -541,19 +541,19 @@
         <v>12.5</v>
       </c>
       <c r="C5" t="n">
-        <v>12.8</v>
+        <v>12.5</v>
       </c>
       <c r="D5" t="n">
-        <v>12.8</v>
+        <v>12.5</v>
       </c>
       <c r="E5" t="n">
         <v>12.5</v>
       </c>
       <c r="F5" t="n">
-        <v>51</v>
+        <v>2691.52</v>
       </c>
       <c r="G5" t="n">
-        <v>12.39666666666665</v>
+        <v>12.38833333333332</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -576,19 +576,19 @@
         <v>12.5</v>
       </c>
       <c r="C6" t="n">
-        <v>12.5</v>
+        <v>12.8</v>
       </c>
       <c r="D6" t="n">
-        <v>12.5</v>
+        <v>12.8</v>
       </c>
       <c r="E6" t="n">
         <v>12.5</v>
       </c>
       <c r="F6" t="n">
-        <v>3216.29</v>
+        <v>51</v>
       </c>
       <c r="G6" t="n">
-        <v>12.39999999999998</v>
+        <v>12.39666666666665</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
@@ -608,22 +608,22 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>12.8</v>
+        <v>12.5</v>
       </c>
       <c r="C7" t="n">
-        <v>12.9</v>
+        <v>12.5</v>
       </c>
       <c r="D7" t="n">
-        <v>12.9</v>
+        <v>12.5</v>
       </c>
       <c r="E7" t="n">
-        <v>12.8</v>
+        <v>12.5</v>
       </c>
       <c r="F7" t="n">
-        <v>203793.3273</v>
+        <v>3216.29</v>
       </c>
       <c r="G7" t="n">
-        <v>12.40999999999998</v>
+        <v>12.39999999999998</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -643,22 +643,22 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>13</v>
+        <v>12.8</v>
       </c>
       <c r="C8" t="n">
-        <v>13</v>
+        <v>12.9</v>
       </c>
       <c r="D8" t="n">
-        <v>13</v>
+        <v>12.9</v>
       </c>
       <c r="E8" t="n">
-        <v>13</v>
+        <v>12.8</v>
       </c>
       <c r="F8" t="n">
-        <v>3192.5</v>
+        <v>203793.3273</v>
       </c>
       <c r="G8" t="n">
-        <v>12.41999999999998</v>
+        <v>12.40999999999998</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -684,16 +684,16 @@
         <v>13</v>
       </c>
       <c r="D9" t="n">
-        <v>13.2</v>
+        <v>13</v>
       </c>
       <c r="E9" t="n">
         <v>13</v>
       </c>
       <c r="F9" t="n">
-        <v>74962.91711969697</v>
+        <v>3192.5</v>
       </c>
       <c r="G9" t="n">
-        <v>12.43333333333332</v>
+        <v>12.41999999999998</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
@@ -719,16 +719,16 @@
         <v>13</v>
       </c>
       <c r="D10" t="n">
-        <v>13</v>
+        <v>13.2</v>
       </c>
       <c r="E10" t="n">
         <v>13</v>
       </c>
       <c r="F10" t="n">
-        <v>31555.0425</v>
+        <v>74962.91711969697</v>
       </c>
       <c r="G10" t="n">
-        <v>12.44666666666665</v>
+        <v>12.43333333333332</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -760,10 +760,10 @@
         <v>13</v>
       </c>
       <c r="F11" t="n">
-        <v>14703.8251</v>
+        <v>31555.0425</v>
       </c>
       <c r="G11" t="n">
-        <v>12.45999999999998</v>
+        <v>12.44666666666665</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -786,19 +786,19 @@
         <v>13</v>
       </c>
       <c r="C12" t="n">
-        <v>12.9</v>
+        <v>13</v>
       </c>
       <c r="D12" t="n">
         <v>13</v>
       </c>
       <c r="E12" t="n">
-        <v>12.9</v>
+        <v>13</v>
       </c>
       <c r="F12" t="n">
-        <v>123029.8431</v>
+        <v>14703.8251</v>
       </c>
       <c r="G12" t="n">
-        <v>12.47166666666665</v>
+        <v>12.45999999999998</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
@@ -818,28 +818,28 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>12.9</v>
+        <v>13</v>
       </c>
       <c r="C13" t="n">
         <v>12.9</v>
       </c>
       <c r="D13" t="n">
-        <v>12.9</v>
+        <v>13</v>
       </c>
       <c r="E13" t="n">
         <v>12.9</v>
       </c>
       <c r="F13" t="n">
-        <v>18310</v>
+        <v>123029.8431</v>
       </c>
       <c r="G13" t="n">
-        <v>12.48333333333331</v>
+        <v>12.47166666666665</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J13" t="inlineStr"/>
       <c r="K13" t="inlineStr"/>
@@ -865,10 +865,10 @@
         <v>12.9</v>
       </c>
       <c r="F14" t="n">
-        <v>20733.5107</v>
+        <v>18310</v>
       </c>
       <c r="G14" t="n">
-        <v>12.49499999999998</v>
+        <v>12.48333333333331</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -900,10 +900,10 @@
         <v>12.9</v>
       </c>
       <c r="F15" t="n">
-        <v>7611.1404</v>
+        <v>20733.5107</v>
       </c>
       <c r="G15" t="n">
-        <v>12.50666666666664</v>
+        <v>12.49499999999998</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
@@ -923,22 +923,22 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>12.8</v>
+        <v>12.9</v>
       </c>
       <c r="C16" t="n">
-        <v>12.8</v>
+        <v>12.9</v>
       </c>
       <c r="D16" t="n">
-        <v>12.8</v>
+        <v>12.9</v>
       </c>
       <c r="E16" t="n">
-        <v>12.8</v>
+        <v>12.9</v>
       </c>
       <c r="F16" t="n">
-        <v>51186.13</v>
+        <v>7611.1404</v>
       </c>
       <c r="G16" t="n">
-        <v>12.51499999999998</v>
+        <v>12.50666666666664</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -958,22 +958,22 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>12.7</v>
+        <v>12.8</v>
       </c>
       <c r="C17" t="n">
-        <v>12.7</v>
+        <v>12.8</v>
       </c>
       <c r="D17" t="n">
-        <v>12.7</v>
+        <v>12.8</v>
       </c>
       <c r="E17" t="n">
-        <v>12.7</v>
+        <v>12.8</v>
       </c>
       <c r="F17" t="n">
-        <v>45061.2773</v>
+        <v>51186.13</v>
       </c>
       <c r="G17" t="n">
-        <v>12.52333333333331</v>
+        <v>12.51499999999998</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -993,22 +993,22 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>12.8</v>
+        <v>12.7</v>
       </c>
       <c r="C18" t="n">
-        <v>12.8</v>
+        <v>12.7</v>
       </c>
       <c r="D18" t="n">
-        <v>12.8</v>
+        <v>12.7</v>
       </c>
       <c r="E18" t="n">
-        <v>12.8</v>
+        <v>12.7</v>
       </c>
       <c r="F18" t="n">
-        <v>12</v>
+        <v>45061.2773</v>
       </c>
       <c r="G18" t="n">
-        <v>12.53166666666664</v>
+        <v>12.52333333333331</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
@@ -1028,22 +1028,22 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>12.7</v>
+        <v>12.8</v>
       </c>
       <c r="C19" t="n">
-        <v>12.7</v>
+        <v>12.8</v>
       </c>
       <c r="D19" t="n">
-        <v>12.7</v>
+        <v>12.8</v>
       </c>
       <c r="E19" t="n">
-        <v>12.7</v>
+        <v>12.8</v>
       </c>
       <c r="F19" t="n">
-        <v>50000</v>
+        <v>12</v>
       </c>
       <c r="G19" t="n">
-        <v>12.53999999999998</v>
+        <v>12.53166666666664</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -1066,19 +1066,19 @@
         <v>12.7</v>
       </c>
       <c r="C20" t="n">
-        <v>12.6</v>
+        <v>12.7</v>
       </c>
       <c r="D20" t="n">
         <v>12.7</v>
       </c>
       <c r="E20" t="n">
-        <v>12.6</v>
+        <v>12.7</v>
       </c>
       <c r="F20" t="n">
-        <v>5000</v>
+        <v>50000</v>
       </c>
       <c r="G20" t="n">
-        <v>12.54666666666664</v>
+        <v>12.53999999999998</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -1098,22 +1098,22 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>12.8</v>
+        <v>12.7</v>
       </c>
       <c r="C21" t="n">
-        <v>12.8</v>
+        <v>12.6</v>
       </c>
       <c r="D21" t="n">
-        <v>12.8</v>
+        <v>12.7</v>
       </c>
       <c r="E21" t="n">
-        <v>12.8</v>
+        <v>12.6</v>
       </c>
       <c r="F21" t="n">
-        <v>7366.79</v>
+        <v>5000</v>
       </c>
       <c r="G21" t="n">
-        <v>12.55666666666664</v>
+        <v>12.54666666666664</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
@@ -1136,19 +1136,19 @@
         <v>12.8</v>
       </c>
       <c r="C22" t="n">
-        <v>13</v>
+        <v>12.8</v>
       </c>
       <c r="D22" t="n">
-        <v>13</v>
+        <v>12.8</v>
       </c>
       <c r="E22" t="n">
         <v>12.8</v>
       </c>
       <c r="F22" t="n">
-        <v>6000</v>
+        <v>7366.79</v>
       </c>
       <c r="G22" t="n">
-        <v>12.56833333333331</v>
+        <v>12.55666666666664</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -1168,7 +1168,7 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>12.9</v>
+        <v>12.8</v>
       </c>
       <c r="C23" t="n">
         <v>13</v>
@@ -1180,10 +1180,10 @@
         <v>12.8</v>
       </c>
       <c r="F23" t="n">
-        <v>594531.5437</v>
+        <v>6000</v>
       </c>
       <c r="G23" t="n">
-        <v>12.57833333333331</v>
+        <v>12.56833333333331</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -1203,7 +1203,7 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>13</v>
+        <v>12.9</v>
       </c>
       <c r="C24" t="n">
         <v>13</v>
@@ -1212,13 +1212,13 @@
         <v>13</v>
       </c>
       <c r="E24" t="n">
-        <v>13</v>
+        <v>12.8</v>
       </c>
       <c r="F24" t="n">
-        <v>31328.0501</v>
+        <v>594531.5437</v>
       </c>
       <c r="G24" t="n">
-        <v>12.58666666666664</v>
+        <v>12.57833333333331</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
@@ -1250,10 +1250,10 @@
         <v>13</v>
       </c>
       <c r="F25" t="n">
-        <v>2647.09</v>
+        <v>31328.0501</v>
       </c>
       <c r="G25" t="n">
-        <v>12.59666666666664</v>
+        <v>12.58666666666664</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -1273,28 +1273,28 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>12.9</v>
+        <v>13</v>
       </c>
       <c r="C26" t="n">
-        <v>12.8</v>
+        <v>13</v>
       </c>
       <c r="D26" t="n">
-        <v>12.9</v>
+        <v>13</v>
       </c>
       <c r="E26" t="n">
-        <v>12.8</v>
+        <v>13</v>
       </c>
       <c r="F26" t="n">
-        <v>53535.9048</v>
+        <v>2647.09</v>
       </c>
       <c r="G26" t="n">
-        <v>12.60166666666664</v>
+        <v>12.59666666666664</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J26" t="inlineStr"/>
       <c r="K26" t="inlineStr"/>
@@ -1308,22 +1308,22 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>12.8</v>
+        <v>12.9</v>
       </c>
       <c r="C27" t="n">
         <v>12.8</v>
       </c>
       <c r="D27" t="n">
-        <v>12.8</v>
+        <v>12.9</v>
       </c>
       <c r="E27" t="n">
         <v>12.8</v>
       </c>
       <c r="F27" t="n">
-        <v>42829.2265</v>
+        <v>53535.9048</v>
       </c>
       <c r="G27" t="n">
-        <v>12.60666666666664</v>
+        <v>12.60166666666664</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
@@ -1355,10 +1355,10 @@
         <v>12.8</v>
       </c>
       <c r="F28" t="n">
-        <v>47334.6741</v>
+        <v>42829.2265</v>
       </c>
       <c r="G28" t="n">
-        <v>12.61166666666664</v>
+        <v>12.60666666666664</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -1390,10 +1390,10 @@
         <v>12.8</v>
       </c>
       <c r="F29" t="n">
-        <v>36660.5059</v>
+        <v>47334.6741</v>
       </c>
       <c r="G29" t="n">
-        <v>12.61499999999997</v>
+        <v>12.61166666666664</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -1425,10 +1425,10 @@
         <v>12.8</v>
       </c>
       <c r="F30" t="n">
-        <v>655.9628</v>
+        <v>36660.5059</v>
       </c>
       <c r="G30" t="n">
-        <v>12.61999999999997</v>
+        <v>12.61499999999997</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -1460,10 +1460,10 @@
         <v>12.8</v>
       </c>
       <c r="F31" t="n">
-        <v>14604.2757</v>
+        <v>655.9628</v>
       </c>
       <c r="G31" t="n">
-        <v>12.62499999999997</v>
+        <v>12.61999999999997</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -1495,10 +1495,10 @@
         <v>12.8</v>
       </c>
       <c r="F32" t="n">
-        <v>21791.1093</v>
+        <v>14604.2757</v>
       </c>
       <c r="G32" t="n">
-        <v>12.62999999999997</v>
+        <v>12.62499999999997</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -1521,19 +1521,19 @@
         <v>12.8</v>
       </c>
       <c r="C33" t="n">
-        <v>13</v>
+        <v>12.8</v>
       </c>
       <c r="D33" t="n">
-        <v>13</v>
+        <v>12.8</v>
       </c>
       <c r="E33" t="n">
         <v>12.8</v>
       </c>
       <c r="F33" t="n">
-        <v>15549.4711</v>
+        <v>21791.1093</v>
       </c>
       <c r="G33" t="n">
-        <v>12.6383333333333</v>
+        <v>12.62999999999997</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -1556,19 +1556,19 @@
         <v>12.8</v>
       </c>
       <c r="C34" t="n">
-        <v>12.8</v>
+        <v>13</v>
       </c>
       <c r="D34" t="n">
-        <v>12.8</v>
+        <v>13</v>
       </c>
       <c r="E34" t="n">
         <v>12.8</v>
       </c>
       <c r="F34" t="n">
-        <v>86266.9745</v>
+        <v>15549.4711</v>
       </c>
       <c r="G34" t="n">
-        <v>12.6433333333333</v>
+        <v>12.6383333333333</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -1588,22 +1588,22 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>13</v>
+        <v>12.8</v>
       </c>
       <c r="C35" t="n">
-        <v>13</v>
+        <v>12.8</v>
       </c>
       <c r="D35" t="n">
-        <v>13</v>
+        <v>12.8</v>
       </c>
       <c r="E35" t="n">
-        <v>13</v>
+        <v>12.8</v>
       </c>
       <c r="F35" t="n">
-        <v>11.8461</v>
+        <v>86266.9745</v>
       </c>
       <c r="G35" t="n">
-        <v>12.6533333333333</v>
+        <v>12.6433333333333</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -1623,22 +1623,22 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>12.8</v>
+        <v>13</v>
       </c>
       <c r="C36" t="n">
-        <v>12.8</v>
+        <v>13</v>
       </c>
       <c r="D36" t="n">
-        <v>12.8</v>
+        <v>13</v>
       </c>
       <c r="E36" t="n">
-        <v>12.8</v>
+        <v>13</v>
       </c>
       <c r="F36" t="n">
-        <v>70961.43180000001</v>
+        <v>11.8461</v>
       </c>
       <c r="G36" t="n">
-        <v>12.6583333333333</v>
+        <v>12.6533333333333</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -1658,22 +1658,22 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>13</v>
+        <v>12.8</v>
       </c>
       <c r="C37" t="n">
-        <v>13</v>
+        <v>12.8</v>
       </c>
       <c r="D37" t="n">
-        <v>13</v>
+        <v>12.8</v>
       </c>
       <c r="E37" t="n">
-        <v>13</v>
+        <v>12.8</v>
       </c>
       <c r="F37" t="n">
-        <v>12</v>
+        <v>70961.43180000001</v>
       </c>
       <c r="G37" t="n">
-        <v>12.6683333333333</v>
+        <v>12.6583333333333</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -1693,22 +1693,22 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>12.9</v>
+        <v>13</v>
       </c>
       <c r="C38" t="n">
-        <v>12.8</v>
+        <v>13</v>
       </c>
       <c r="D38" t="n">
-        <v>12.9</v>
+        <v>13</v>
       </c>
       <c r="E38" t="n">
-        <v>12.8</v>
+        <v>13</v>
       </c>
       <c r="F38" t="n">
-        <v>132169.8246</v>
+        <v>12</v>
       </c>
       <c r="G38" t="n">
-        <v>12.67499999999997</v>
+        <v>12.6683333333333</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -1728,22 +1728,22 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>12.8</v>
+        <v>12.9</v>
       </c>
       <c r="C39" t="n">
         <v>12.8</v>
       </c>
       <c r="D39" t="n">
-        <v>12.8</v>
+        <v>12.9</v>
       </c>
       <c r="E39" t="n">
         <v>12.8</v>
       </c>
       <c r="F39" t="n">
-        <v>20000</v>
+        <v>132169.8246</v>
       </c>
       <c r="G39" t="n">
-        <v>12.6733333333333</v>
+        <v>12.67499999999997</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -1766,19 +1766,19 @@
         <v>12.8</v>
       </c>
       <c r="C40" t="n">
-        <v>12.6</v>
+        <v>12.8</v>
       </c>
       <c r="D40" t="n">
         <v>12.8</v>
       </c>
       <c r="E40" t="n">
-        <v>12.6</v>
+        <v>12.8</v>
       </c>
       <c r="F40" t="n">
-        <v>123503.8715</v>
+        <v>20000</v>
       </c>
       <c r="G40" t="n">
-        <v>12.67499999999997</v>
+        <v>12.6733333333333</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -1798,22 +1798,22 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>12.5</v>
+        <v>12.8</v>
       </c>
       <c r="C41" t="n">
         <v>12.6</v>
       </c>
       <c r="D41" t="n">
+        <v>12.8</v>
+      </c>
+      <c r="E41" t="n">
         <v>12.6</v>
       </c>
-      <c r="E41" t="n">
-        <v>12.5</v>
-      </c>
       <c r="F41" t="n">
-        <v>5381.56</v>
+        <v>123503.8715</v>
       </c>
       <c r="G41" t="n">
-        <v>12.67666666666664</v>
+        <v>12.67499999999997</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -1836,16 +1836,16 @@
         <v>12.5</v>
       </c>
       <c r="C42" t="n">
-        <v>12.5</v>
+        <v>12.6</v>
       </c>
       <c r="D42" t="n">
-        <v>12.5</v>
+        <v>12.6</v>
       </c>
       <c r="E42" t="n">
         <v>12.5</v>
       </c>
       <c r="F42" t="n">
-        <v>2911.52</v>
+        <v>5381.56</v>
       </c>
       <c r="G42" t="n">
         <v>12.67666666666664</v>
@@ -1868,22 +1868,22 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>12.6</v>
+        <v>12.5</v>
       </c>
       <c r="C43" t="n">
-        <v>12.7</v>
+        <v>12.5</v>
       </c>
       <c r="D43" t="n">
-        <v>12.7</v>
+        <v>12.5</v>
       </c>
       <c r="E43" t="n">
-        <v>12.6</v>
+        <v>12.5</v>
       </c>
       <c r="F43" t="n">
-        <v>7534.7497</v>
+        <v>2911.52</v>
       </c>
       <c r="G43" t="n">
-        <v>12.68166666666664</v>
+        <v>12.67666666666664</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -1903,7 +1903,7 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>12.7</v>
+        <v>12.6</v>
       </c>
       <c r="C44" t="n">
         <v>12.7</v>
@@ -1912,13 +1912,13 @@
         <v>12.7</v>
       </c>
       <c r="E44" t="n">
-        <v>12.7</v>
+        <v>12.6</v>
       </c>
       <c r="F44" t="n">
-        <v>3480</v>
+        <v>7534.7497</v>
       </c>
       <c r="G44" t="n">
-        <v>12.68666666666664</v>
+        <v>12.68166666666664</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -1941,19 +1941,19 @@
         <v>12.7</v>
       </c>
       <c r="C45" t="n">
-        <v>12.6</v>
+        <v>12.7</v>
       </c>
       <c r="D45" t="n">
         <v>12.7</v>
       </c>
       <c r="E45" t="n">
-        <v>12.6</v>
+        <v>12.7</v>
       </c>
       <c r="F45" t="n">
-        <v>4028.44</v>
+        <v>3480</v>
       </c>
       <c r="G45" t="n">
-        <v>12.69166666666664</v>
+        <v>12.68666666666664</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -1973,19 +1973,19 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
+        <v>12.7</v>
+      </c>
+      <c r="C46" t="n">
         <v>12.6</v>
       </c>
-      <c r="C46" t="n">
-        <v>12.5</v>
-      </c>
       <c r="D46" t="n">
+        <v>12.7</v>
+      </c>
+      <c r="E46" t="n">
         <v>12.6</v>
       </c>
-      <c r="E46" t="n">
-        <v>12.5</v>
-      </c>
       <c r="F46" t="n">
-        <v>153088.3466</v>
+        <v>4028.44</v>
       </c>
       <c r="G46" t="n">
         <v>12.69166666666664</v>
@@ -2008,22 +2008,22 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>12.5</v>
+        <v>12.6</v>
       </c>
       <c r="C47" t="n">
         <v>12.5</v>
       </c>
       <c r="D47" t="n">
-        <v>12.5</v>
+        <v>12.6</v>
       </c>
       <c r="E47" t="n">
         <v>12.5</v>
       </c>
       <c r="F47" t="n">
-        <v>9380</v>
+        <v>153088.3466</v>
       </c>
       <c r="G47" t="n">
-        <v>12.69499999999997</v>
+        <v>12.69166666666664</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
@@ -2055,10 +2055,10 @@
         <v>12.5</v>
       </c>
       <c r="F48" t="n">
-        <v>12886.62</v>
+        <v>9380</v>
       </c>
       <c r="G48" t="n">
-        <v>12.69833333333331</v>
+        <v>12.69499999999997</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
@@ -2081,19 +2081,19 @@
         <v>12.5</v>
       </c>
       <c r="C49" t="n">
-        <v>12.4</v>
+        <v>12.5</v>
       </c>
       <c r="D49" t="n">
         <v>12.5</v>
       </c>
       <c r="E49" t="n">
-        <v>12.4</v>
+        <v>12.5</v>
       </c>
       <c r="F49" t="n">
-        <v>40489.2315</v>
+        <v>12886.62</v>
       </c>
       <c r="G49" t="n">
-        <v>12.69999999999998</v>
+        <v>12.69833333333331</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
@@ -2116,19 +2116,19 @@
         <v>12.5</v>
       </c>
       <c r="C50" t="n">
-        <v>12.5</v>
+        <v>12.4</v>
       </c>
       <c r="D50" t="n">
         <v>12.5</v>
       </c>
       <c r="E50" t="n">
-        <v>12.5</v>
+        <v>12.4</v>
       </c>
       <c r="F50" t="n">
-        <v>2640</v>
+        <v>40489.2315</v>
       </c>
       <c r="G50" t="n">
-        <v>12.70333333333331</v>
+        <v>12.69999999999998</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
@@ -2148,22 +2148,22 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>12.6</v>
+        <v>12.5</v>
       </c>
       <c r="C51" t="n">
-        <v>12.6</v>
+        <v>12.5</v>
       </c>
       <c r="D51" t="n">
-        <v>12.6</v>
+        <v>12.5</v>
       </c>
       <c r="E51" t="n">
-        <v>12.6</v>
+        <v>12.5</v>
       </c>
       <c r="F51" t="n">
-        <v>11527.5396</v>
+        <v>2640</v>
       </c>
       <c r="G51" t="n">
-        <v>12.70833333333331</v>
+        <v>12.70333333333331</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
@@ -2183,22 +2183,22 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>12.5</v>
+        <v>12.6</v>
       </c>
       <c r="C52" t="n">
-        <v>12.5</v>
+        <v>12.6</v>
       </c>
       <c r="D52" t="n">
-        <v>12.5</v>
+        <v>12.6</v>
       </c>
       <c r="E52" t="n">
-        <v>12.5</v>
+        <v>12.6</v>
       </c>
       <c r="F52" t="n">
-        <v>2640</v>
+        <v>11527.5396</v>
       </c>
       <c r="G52" t="n">
-        <v>12.70999999999998</v>
+        <v>12.70833333333331</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
@@ -2230,10 +2230,10 @@
         <v>12.5</v>
       </c>
       <c r="F53" t="n">
-        <v>45286.0001</v>
+        <v>2640</v>
       </c>
       <c r="G53" t="n">
-        <v>12.71333333333331</v>
+        <v>12.70999999999998</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
@@ -2265,10 +2265,10 @@
         <v>12.5</v>
       </c>
       <c r="F54" t="n">
-        <v>48136.5387</v>
+        <v>45286.0001</v>
       </c>
       <c r="G54" t="n">
-        <v>12.71499999999998</v>
+        <v>12.71333333333331</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
@@ -2288,22 +2288,22 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>12.6</v>
+        <v>12.5</v>
       </c>
       <c r="C55" t="n">
-        <v>12.6</v>
+        <v>12.5</v>
       </c>
       <c r="D55" t="n">
-        <v>12.6</v>
+        <v>12.5</v>
       </c>
       <c r="E55" t="n">
-        <v>12.6</v>
+        <v>12.5</v>
       </c>
       <c r="F55" t="n">
-        <v>59194.9443</v>
+        <v>48136.5387</v>
       </c>
       <c r="G55" t="n">
-        <v>12.71999999999998</v>
+        <v>12.71499999999998</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
@@ -2323,22 +2323,22 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>12.7</v>
+        <v>12.6</v>
       </c>
       <c r="C56" t="n">
-        <v>12.7</v>
+        <v>12.6</v>
       </c>
       <c r="D56" t="n">
-        <v>12.7</v>
+        <v>12.6</v>
       </c>
       <c r="E56" t="n">
-        <v>12.7</v>
+        <v>12.6</v>
       </c>
       <c r="F56" t="n">
-        <v>56642.9921</v>
+        <v>59194.9443</v>
       </c>
       <c r="G56" t="n">
-        <v>12.72666666666665</v>
+        <v>12.71999999999998</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
@@ -2361,19 +2361,19 @@
         <v>12.7</v>
       </c>
       <c r="C57" t="n">
-        <v>12.6</v>
+        <v>12.7</v>
       </c>
       <c r="D57" t="n">
         <v>12.7</v>
       </c>
       <c r="E57" t="n">
-        <v>12.6</v>
+        <v>12.7</v>
       </c>
       <c r="F57" t="n">
-        <v>18049.9546</v>
+        <v>56642.9921</v>
       </c>
       <c r="G57" t="n">
-        <v>12.73333333333331</v>
+        <v>12.72666666666665</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
@@ -2393,22 +2393,22 @@
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>12.6</v>
+        <v>12.7</v>
       </c>
       <c r="C58" t="n">
         <v>12.6</v>
       </c>
       <c r="D58" t="n">
-        <v>12.6</v>
+        <v>12.7</v>
       </c>
       <c r="E58" t="n">
         <v>12.6</v>
       </c>
       <c r="F58" t="n">
-        <v>18210</v>
+        <v>18049.9546</v>
       </c>
       <c r="G58" t="n">
-        <v>12.73499999999998</v>
+        <v>12.73333333333331</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
@@ -2431,19 +2431,19 @@
         <v>12.6</v>
       </c>
       <c r="C59" t="n">
-        <v>12.5</v>
+        <v>12.6</v>
       </c>
       <c r="D59" t="n">
         <v>12.6</v>
       </c>
       <c r="E59" t="n">
-        <v>12.5</v>
+        <v>12.6</v>
       </c>
       <c r="F59" t="n">
-        <v>22962.7376</v>
+        <v>18210</v>
       </c>
       <c r="G59" t="n">
-        <v>12.72833333333332</v>
+        <v>12.73499999999998</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
@@ -2466,19 +2466,19 @@
         <v>12.6</v>
       </c>
       <c r="C60" t="n">
-        <v>12.9</v>
+        <v>12.5</v>
       </c>
       <c r="D60" t="n">
-        <v>12.9</v>
+        <v>12.6</v>
       </c>
       <c r="E60" t="n">
         <v>12.5</v>
       </c>
       <c r="F60" t="n">
-        <v>19209.4733</v>
+        <v>22962.7376</v>
       </c>
       <c r="G60" t="n">
-        <v>12.73333333333331</v>
+        <v>12.72833333333332</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
@@ -2501,19 +2501,19 @@
         <v>12.6</v>
       </c>
       <c r="C61" t="n">
-        <v>12.5</v>
+        <v>12.9</v>
       </c>
       <c r="D61" t="n">
-        <v>12.6</v>
+        <v>12.9</v>
       </c>
       <c r="E61" t="n">
         <v>12.5</v>
       </c>
       <c r="F61" t="n">
-        <v>4981.49287936508</v>
+        <v>19209.4733</v>
       </c>
       <c r="G61" t="n">
-        <v>12.73499999999998</v>
+        <v>12.73333333333331</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
@@ -2533,22 +2533,22 @@
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>12.5</v>
+        <v>12.6</v>
       </c>
       <c r="C62" t="n">
-        <v>12.4</v>
+        <v>12.5</v>
       </c>
       <c r="D62" t="n">
-        <v>12.5</v>
+        <v>12.6</v>
       </c>
       <c r="E62" t="n">
-        <v>12.4</v>
+        <v>12.5</v>
       </c>
       <c r="F62" t="n">
-        <v>115075.1631</v>
+        <v>4981.49287936508</v>
       </c>
       <c r="G62" t="n">
-        <v>12.73333333333331</v>
+        <v>12.73499999999998</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
@@ -2568,22 +2568,22 @@
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>12.4</v>
+        <v>12.5</v>
       </c>
       <c r="C63" t="n">
         <v>12.4</v>
       </c>
       <c r="D63" t="n">
-        <v>12.4</v>
+        <v>12.5</v>
       </c>
       <c r="E63" t="n">
         <v>12.4</v>
       </c>
       <c r="F63" t="n">
-        <v>7877.6222</v>
+        <v>115075.1631</v>
       </c>
       <c r="G63" t="n">
-        <v>12.73166666666665</v>
+        <v>12.73333333333331</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
@@ -2603,31 +2603,35 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>12.3</v>
+        <v>12.4</v>
       </c>
       <c r="C64" t="n">
-        <v>12.2</v>
+        <v>12.4</v>
       </c>
       <c r="D64" t="n">
-        <v>12.3</v>
+        <v>12.4</v>
       </c>
       <c r="E64" t="n">
-        <v>12.2</v>
+        <v>12.4</v>
       </c>
       <c r="F64" t="n">
-        <v>284384.3923</v>
+        <v>7877.6222</v>
       </c>
       <c r="G64" t="n">
-        <v>12.72666666666665</v>
+        <v>12.73166666666665</v>
       </c>
       <c r="H64" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I64" t="n">
         <v>0</v>
       </c>
-      <c r="J64" t="inlineStr"/>
-      <c r="K64" t="inlineStr"/>
+      <c r="J64" t="n">
+        <v>12.4</v>
+      </c>
+      <c r="K64" t="n">
+        <v>12.4</v>
+      </c>
       <c r="L64" t="inlineStr"/>
       <c r="M64" t="n">
         <v>1</v>
@@ -2638,22 +2642,22 @@
         <v>63</v>
       </c>
       <c r="B65" t="n">
+        <v>12.3</v>
+      </c>
+      <c r="C65" t="n">
         <v>12.2</v>
       </c>
-      <c r="C65" t="n">
-        <v>12.1</v>
-      </c>
       <c r="D65" t="n">
+        <v>12.3</v>
+      </c>
+      <c r="E65" t="n">
         <v>12.2</v>
       </c>
-      <c r="E65" t="n">
-        <v>12.1</v>
-      </c>
       <c r="F65" t="n">
-        <v>33975.1401</v>
+        <v>284384.3923</v>
       </c>
       <c r="G65" t="n">
-        <v>12.71499999999998</v>
+        <v>12.72666666666665</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
@@ -2662,8 +2666,14 @@
         <v>0</v>
       </c>
       <c r="J65" t="inlineStr"/>
-      <c r="K65" t="inlineStr"/>
-      <c r="L65" t="inlineStr"/>
+      <c r="K65" t="n">
+        <v>12.4</v>
+      </c>
+      <c r="L65" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="M65" t="n">
         <v>1</v>
       </c>
@@ -2673,22 +2683,22 @@
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>12.3</v>
+        <v>12.2</v>
       </c>
       <c r="C66" t="n">
-        <v>12.3</v>
+        <v>12.1</v>
       </c>
       <c r="D66" t="n">
-        <v>12.3</v>
+        <v>12.2</v>
       </c>
       <c r="E66" t="n">
-        <v>12.3</v>
+        <v>12.1</v>
       </c>
       <c r="F66" t="n">
-        <v>1112.1027</v>
+        <v>33975.1401</v>
       </c>
       <c r="G66" t="n">
-        <v>12.71166666666665</v>
+        <v>12.71499999999998</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
@@ -2697,8 +2707,14 @@
         <v>0</v>
       </c>
       <c r="J66" t="inlineStr"/>
-      <c r="K66" t="inlineStr"/>
-      <c r="L66" t="inlineStr"/>
+      <c r="K66" t="n">
+        <v>12.4</v>
+      </c>
+      <c r="L66" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M66" t="n">
         <v>1</v>
       </c>
@@ -2708,22 +2724,22 @@
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>12.4</v>
+        <v>12.3</v>
       </c>
       <c r="C67" t="n">
         <v>12.3</v>
       </c>
       <c r="D67" t="n">
-        <v>12.4</v>
+        <v>12.3</v>
       </c>
       <c r="E67" t="n">
         <v>12.3</v>
       </c>
       <c r="F67" t="n">
-        <v>119343.3896</v>
+        <v>1112.1027</v>
       </c>
       <c r="G67" t="n">
-        <v>12.70166666666665</v>
+        <v>12.71166666666665</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
@@ -2732,8 +2748,14 @@
         <v>0</v>
       </c>
       <c r="J67" t="inlineStr"/>
-      <c r="K67" t="inlineStr"/>
-      <c r="L67" t="inlineStr"/>
+      <c r="K67" t="n">
+        <v>12.4</v>
+      </c>
+      <c r="L67" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M67" t="n">
         <v>1</v>
       </c>
@@ -2743,32 +2765,40 @@
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>12.3</v>
+        <v>12.4</v>
       </c>
       <c r="C68" t="n">
         <v>12.3</v>
       </c>
       <c r="D68" t="n">
-        <v>12.3</v>
+        <v>12.4</v>
       </c>
       <c r="E68" t="n">
         <v>12.3</v>
       </c>
       <c r="F68" t="n">
-        <v>59725</v>
+        <v>119343.3896</v>
       </c>
       <c r="G68" t="n">
-        <v>12.68999999999998</v>
+        <v>12.70166666666665</v>
       </c>
       <c r="H68" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I68" t="n">
         <v>0</v>
       </c>
-      <c r="J68" t="inlineStr"/>
-      <c r="K68" t="inlineStr"/>
-      <c r="L68" t="inlineStr"/>
+      <c r="J68" t="n">
+        <v>12.3</v>
+      </c>
+      <c r="K68" t="n">
+        <v>12.4</v>
+      </c>
+      <c r="L68" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M68" t="n">
         <v>1</v>
       </c>
@@ -2778,36 +2808,38 @@
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>12.4</v>
+        <v>12.3</v>
       </c>
       <c r="C69" t="n">
-        <v>12.4</v>
+        <v>12.3</v>
       </c>
       <c r="D69" t="n">
-        <v>12.4</v>
+        <v>12.3</v>
       </c>
       <c r="E69" t="n">
-        <v>12.4</v>
+        <v>12.3</v>
       </c>
       <c r="F69" t="n">
-        <v>29591.6129</v>
+        <v>59725</v>
       </c>
       <c r="G69" t="n">
-        <v>12.67999999999998</v>
+        <v>12.68999999999998</v>
       </c>
       <c r="H69" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I69" t="n">
         <v>0</v>
       </c>
-      <c r="J69" t="n">
-        <v>12.3</v>
-      </c>
+      <c r="J69" t="inlineStr"/>
       <c r="K69" t="n">
-        <v>12.3</v>
-      </c>
-      <c r="L69" t="inlineStr"/>
+        <v>12.4</v>
+      </c>
+      <c r="L69" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M69" t="n">
         <v>1</v>
       </c>
@@ -2817,38 +2849,36 @@
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>12.5</v>
+        <v>12.4</v>
       </c>
       <c r="C70" t="n">
-        <v>12.5</v>
+        <v>12.4</v>
       </c>
       <c r="D70" t="n">
-        <v>12.5</v>
+        <v>12.4</v>
       </c>
       <c r="E70" t="n">
-        <v>12.5</v>
+        <v>12.4</v>
       </c>
       <c r="F70" t="n">
-        <v>25823.0322</v>
+        <v>29591.6129</v>
       </c>
       <c r="G70" t="n">
-        <v>12.67166666666665</v>
+        <v>12.67999999999998</v>
       </c>
       <c r="H70" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I70" t="n">
         <v>0</v>
       </c>
-      <c r="J70" t="n">
-        <v>12.4</v>
-      </c>
+      <c r="J70" t="inlineStr"/>
       <c r="K70" t="n">
-        <v>12.3</v>
+        <v>12.4</v>
       </c>
       <c r="L70" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M70" t="n">
@@ -2872,26 +2902,24 @@
         <v>12.5</v>
       </c>
       <c r="F71" t="n">
-        <v>12060</v>
+        <v>25823.0322</v>
       </c>
       <c r="G71" t="n">
-        <v>12.66333333333331</v>
+        <v>12.67166666666665</v>
       </c>
       <c r="H71" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I71" t="n">
         <v>0</v>
       </c>
-      <c r="J71" t="n">
-        <v>12.5</v>
-      </c>
+      <c r="J71" t="inlineStr"/>
       <c r="K71" t="n">
-        <v>12.3</v>
+        <v>12.4</v>
       </c>
       <c r="L71" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M71" t="n">
@@ -2903,36 +2931,38 @@
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>12.4</v>
+        <v>12.5</v>
       </c>
       <c r="C72" t="n">
-        <v>12.4</v>
+        <v>12.5</v>
       </c>
       <c r="D72" t="n">
-        <v>12.4</v>
+        <v>12.5</v>
       </c>
       <c r="E72" t="n">
-        <v>12.4</v>
+        <v>12.5</v>
       </c>
       <c r="F72" t="n">
-        <v>5190</v>
+        <v>12060</v>
       </c>
       <c r="G72" t="n">
-        <v>12.65499999999998</v>
+        <v>12.66333333333331</v>
       </c>
       <c r="H72" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I72" t="n">
         <v>0</v>
       </c>
-      <c r="J72" t="n">
-        <v>12.5</v>
-      </c>
+      <c r="J72" t="inlineStr"/>
       <c r="K72" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="L72" t="inlineStr"/>
+        <v>12.4</v>
+      </c>
+      <c r="L72" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M72" t="n">
         <v>1</v>
       </c>
@@ -2954,26 +2984,24 @@
         <v>12.4</v>
       </c>
       <c r="F73" t="n">
-        <v>5060.04</v>
+        <v>5190</v>
       </c>
       <c r="G73" t="n">
-        <v>12.64666666666665</v>
+        <v>12.65499999999998</v>
       </c>
       <c r="H73" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I73" t="n">
         <v>0</v>
       </c>
-      <c r="J73" t="n">
-        <v>12.4</v>
-      </c>
+      <c r="J73" t="inlineStr"/>
       <c r="K73" t="n">
-        <v>12.5</v>
+        <v>12.4</v>
       </c>
       <c r="L73" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M73" t="n">
@@ -2997,10 +3025,10 @@
         <v>12.4</v>
       </c>
       <c r="F74" t="n">
-        <v>2530</v>
+        <v>5060.04</v>
       </c>
       <c r="G74" t="n">
-        <v>12.63833333333331</v>
+        <v>12.64666666666665</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
@@ -3010,11 +3038,11 @@
       </c>
       <c r="J74" t="inlineStr"/>
       <c r="K74" t="n">
-        <v>12.5</v>
+        <v>12.4</v>
       </c>
       <c r="L74" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M74" t="n">
@@ -3026,22 +3054,22 @@
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>12.5</v>
+        <v>12.4</v>
       </c>
       <c r="C75" t="n">
-        <v>12.5</v>
+        <v>12.4</v>
       </c>
       <c r="D75" t="n">
-        <v>12.5</v>
+        <v>12.4</v>
       </c>
       <c r="E75" t="n">
-        <v>12.5</v>
+        <v>12.4</v>
       </c>
       <c r="F75" t="n">
-        <v>100</v>
+        <v>2530</v>
       </c>
       <c r="G75" t="n">
-        <v>12.63166666666665</v>
+        <v>12.63833333333331</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
@@ -3050,8 +3078,14 @@
         <v>0</v>
       </c>
       <c r="J75" t="inlineStr"/>
-      <c r="K75" t="inlineStr"/>
-      <c r="L75" t="inlineStr"/>
+      <c r="K75" t="n">
+        <v>12.4</v>
+      </c>
+      <c r="L75" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M75" t="n">
         <v>1</v>
       </c>
@@ -3061,22 +3095,22 @@
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>12.4</v>
+        <v>12.5</v>
       </c>
       <c r="C76" t="n">
-        <v>12.4</v>
+        <v>12.5</v>
       </c>
       <c r="D76" t="n">
-        <v>12.4</v>
+        <v>12.5</v>
       </c>
       <c r="E76" t="n">
-        <v>12.4</v>
+        <v>12.5</v>
       </c>
       <c r="F76" t="n">
-        <v>7690</v>
+        <v>100</v>
       </c>
       <c r="G76" t="n">
-        <v>12.62499999999998</v>
+        <v>12.63166666666665</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
@@ -3085,8 +3119,14 @@
         <v>0</v>
       </c>
       <c r="J76" t="inlineStr"/>
-      <c r="K76" t="inlineStr"/>
-      <c r="L76" t="inlineStr"/>
+      <c r="K76" t="n">
+        <v>12.4</v>
+      </c>
+      <c r="L76" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M76" t="n">
         <v>1</v>
       </c>
@@ -3108,10 +3148,10 @@
         <v>12.4</v>
       </c>
       <c r="F77" t="n">
-        <v>1076.7839</v>
+        <v>7690</v>
       </c>
       <c r="G77" t="n">
-        <v>12.61999999999998</v>
+        <v>12.62499999999998</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
@@ -3120,8 +3160,14 @@
         <v>0</v>
       </c>
       <c r="J77" t="inlineStr"/>
-      <c r="K77" t="inlineStr"/>
-      <c r="L77" t="inlineStr"/>
+      <c r="K77" t="n">
+        <v>12.4</v>
+      </c>
+      <c r="L77" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M77" t="n">
         <v>1</v>
       </c>
@@ -3131,36 +3177,38 @@
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>12.5</v>
+        <v>12.4</v>
       </c>
       <c r="C78" t="n">
-        <v>12.5</v>
+        <v>12.4</v>
       </c>
       <c r="D78" t="n">
-        <v>12.5</v>
+        <v>12.4</v>
       </c>
       <c r="E78" t="n">
-        <v>12.5</v>
+        <v>12.4</v>
       </c>
       <c r="F78" t="n">
-        <v>12</v>
+        <v>1076.7839</v>
       </c>
       <c r="G78" t="n">
-        <v>12.61499999999998</v>
+        <v>12.61999999999998</v>
       </c>
       <c r="H78" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I78" t="n">
         <v>0</v>
       </c>
-      <c r="J78" t="n">
-        <v>12.4</v>
-      </c>
+      <c r="J78" t="inlineStr"/>
       <c r="K78" t="n">
         <v>12.4</v>
       </c>
-      <c r="L78" t="inlineStr"/>
+      <c r="L78" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M78" t="n">
         <v>1</v>
       </c>
@@ -3182,26 +3230,24 @@
         <v>12.5</v>
       </c>
       <c r="F79" t="n">
-        <v>1956.7839</v>
+        <v>12</v>
       </c>
       <c r="G79" t="n">
-        <v>12.61166666666665</v>
+        <v>12.61499999999998</v>
       </c>
       <c r="H79" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I79" t="n">
         <v>0</v>
       </c>
-      <c r="J79" t="n">
-        <v>12.5</v>
-      </c>
+      <c r="J79" t="inlineStr"/>
       <c r="K79" t="n">
         <v>12.4</v>
       </c>
       <c r="L79" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M79" t="n">
@@ -3213,38 +3259,36 @@
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>12.4</v>
+        <v>12.5</v>
       </c>
       <c r="C80" t="n">
-        <v>12.4</v>
+        <v>12.5</v>
       </c>
       <c r="D80" t="n">
-        <v>12.4</v>
+        <v>12.5</v>
       </c>
       <c r="E80" t="n">
-        <v>12.4</v>
+        <v>12.5</v>
       </c>
       <c r="F80" t="n">
-        <v>8315.4216</v>
+        <v>1956.7839</v>
       </c>
       <c r="G80" t="n">
-        <v>12.60833333333331</v>
+        <v>12.61166666666665</v>
       </c>
       <c r="H80" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I80" t="n">
         <v>0</v>
       </c>
-      <c r="J80" t="n">
-        <v>12.5</v>
-      </c>
+      <c r="J80" t="inlineStr"/>
       <c r="K80" t="n">
         <v>12.4</v>
       </c>
       <c r="L80" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M80" t="n">
@@ -3259,19 +3303,19 @@
         <v>12.4</v>
       </c>
       <c r="C81" t="n">
-        <v>12.3</v>
+        <v>12.4</v>
       </c>
       <c r="D81" t="n">
         <v>12.4</v>
       </c>
       <c r="E81" t="n">
-        <v>12.3</v>
+        <v>12.4</v>
       </c>
       <c r="F81" t="n">
-        <v>14999.4074</v>
+        <v>8315.4216</v>
       </c>
       <c r="G81" t="n">
-        <v>12.59999999999998</v>
+        <v>12.60833333333331</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
@@ -3280,8 +3324,14 @@
         <v>0</v>
       </c>
       <c r="J81" t="inlineStr"/>
-      <c r="K81" t="inlineStr"/>
-      <c r="L81" t="inlineStr"/>
+      <c r="K81" t="n">
+        <v>12.4</v>
+      </c>
+      <c r="L81" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M81" t="n">
         <v>1</v>
       </c>
@@ -3291,22 +3341,22 @@
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>12.5</v>
+        <v>12.4</v>
       </c>
       <c r="C82" t="n">
-        <v>12.5</v>
+        <v>12.3</v>
       </c>
       <c r="D82" t="n">
-        <v>12.5</v>
+        <v>12.4</v>
       </c>
       <c r="E82" t="n">
-        <v>12.5</v>
+        <v>12.3</v>
       </c>
       <c r="F82" t="n">
-        <v>825.2</v>
+        <v>14999.4074</v>
       </c>
       <c r="G82" t="n">
-        <v>12.59166666666665</v>
+        <v>12.59999999999998</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
@@ -3315,8 +3365,14 @@
         <v>0</v>
       </c>
       <c r="J82" t="inlineStr"/>
-      <c r="K82" t="inlineStr"/>
-      <c r="L82" t="inlineStr"/>
+      <c r="K82" t="n">
+        <v>12.4</v>
+      </c>
+      <c r="L82" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M82" t="n">
         <v>1</v>
       </c>
@@ -3338,10 +3394,10 @@
         <v>12.5</v>
       </c>
       <c r="F83" t="n">
-        <v>80</v>
+        <v>825.2</v>
       </c>
       <c r="G83" t="n">
-        <v>12.58333333333331</v>
+        <v>12.59166666666665</v>
       </c>
       <c r="H83" t="n">
         <v>0</v>
@@ -3350,8 +3406,14 @@
         <v>0</v>
       </c>
       <c r="J83" t="inlineStr"/>
-      <c r="K83" t="inlineStr"/>
-      <c r="L83" t="inlineStr"/>
+      <c r="K83" t="n">
+        <v>12.4</v>
+      </c>
+      <c r="L83" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M83" t="n">
         <v>1</v>
       </c>
@@ -3361,22 +3423,22 @@
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>12.3</v>
+        <v>12.5</v>
       </c>
       <c r="C84" t="n">
-        <v>12.3</v>
+        <v>12.5</v>
       </c>
       <c r="D84" t="n">
-        <v>12.3</v>
+        <v>12.5</v>
       </c>
       <c r="E84" t="n">
-        <v>12.3</v>
+        <v>12.5</v>
       </c>
       <c r="F84" t="n">
-        <v>22000</v>
+        <v>80</v>
       </c>
       <c r="G84" t="n">
-        <v>12.57166666666665</v>
+        <v>12.58333333333331</v>
       </c>
       <c r="H84" t="n">
         <v>0</v>
@@ -3385,8 +3447,14 @@
         <v>0</v>
       </c>
       <c r="J84" t="inlineStr"/>
-      <c r="K84" t="inlineStr"/>
-      <c r="L84" t="inlineStr"/>
+      <c r="K84" t="n">
+        <v>12.4</v>
+      </c>
+      <c r="L84" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M84" t="n">
         <v>1</v>
       </c>
@@ -3396,22 +3464,22 @@
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>12.5</v>
+        <v>12.3</v>
       </c>
       <c r="C85" t="n">
-        <v>12.5</v>
+        <v>12.3</v>
       </c>
       <c r="D85" t="n">
-        <v>12.5</v>
+        <v>12.3</v>
       </c>
       <c r="E85" t="n">
-        <v>12.5</v>
+        <v>12.3</v>
       </c>
       <c r="F85" t="n">
-        <v>12</v>
+        <v>22000</v>
       </c>
       <c r="G85" t="n">
-        <v>12.56333333333331</v>
+        <v>12.57166666666665</v>
       </c>
       <c r="H85" t="n">
         <v>0</v>
@@ -3420,8 +3488,14 @@
         <v>0</v>
       </c>
       <c r="J85" t="inlineStr"/>
-      <c r="K85" t="inlineStr"/>
-      <c r="L85" t="inlineStr"/>
+      <c r="K85" t="n">
+        <v>12.4</v>
+      </c>
+      <c r="L85" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M85" t="n">
         <v>1</v>
       </c>
@@ -3443,10 +3517,10 @@
         <v>12.5</v>
       </c>
       <c r="F86" t="n">
-        <v>16469.2</v>
+        <v>12</v>
       </c>
       <c r="G86" t="n">
-        <v>12.55833333333331</v>
+        <v>12.56333333333331</v>
       </c>
       <c r="H86" t="n">
         <v>0</v>
@@ -3455,8 +3529,14 @@
         <v>0</v>
       </c>
       <c r="J86" t="inlineStr"/>
-      <c r="K86" t="inlineStr"/>
-      <c r="L86" t="inlineStr"/>
+      <c r="K86" t="n">
+        <v>12.4</v>
+      </c>
+      <c r="L86" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M86" t="n">
         <v>1</v>
       </c>
@@ -3478,10 +3558,10 @@
         <v>12.5</v>
       </c>
       <c r="F87" t="n">
-        <v>5230</v>
+        <v>16469.2</v>
       </c>
       <c r="G87" t="n">
-        <v>12.55333333333331</v>
+        <v>12.55833333333331</v>
       </c>
       <c r="H87" t="n">
         <v>0</v>
@@ -3490,8 +3570,14 @@
         <v>0</v>
       </c>
       <c r="J87" t="inlineStr"/>
-      <c r="K87" t="inlineStr"/>
-      <c r="L87" t="inlineStr"/>
+      <c r="K87" t="n">
+        <v>12.4</v>
+      </c>
+      <c r="L87" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M87" t="n">
         <v>1</v>
       </c>
@@ -3513,10 +3599,10 @@
         <v>12.5</v>
       </c>
       <c r="F88" t="n">
-        <v>3610</v>
+        <v>5230</v>
       </c>
       <c r="G88" t="n">
-        <v>12.54833333333331</v>
+        <v>12.55333333333331</v>
       </c>
       <c r="H88" t="n">
         <v>0</v>
@@ -3525,8 +3611,14 @@
         <v>0</v>
       </c>
       <c r="J88" t="inlineStr"/>
-      <c r="K88" t="inlineStr"/>
-      <c r="L88" t="inlineStr"/>
+      <c r="K88" t="n">
+        <v>12.4</v>
+      </c>
+      <c r="L88" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M88" t="n">
         <v>1</v>
       </c>
@@ -3536,22 +3628,22 @@
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>12.4</v>
+        <v>12.5</v>
       </c>
       <c r="C89" t="n">
-        <v>12.4</v>
+        <v>12.5</v>
       </c>
       <c r="D89" t="n">
-        <v>12.4</v>
+        <v>12.5</v>
       </c>
       <c r="E89" t="n">
-        <v>12.4</v>
+        <v>12.5</v>
       </c>
       <c r="F89" t="n">
-        <v>945.0377999999999</v>
+        <v>3610</v>
       </c>
       <c r="G89" t="n">
-        <v>12.54166666666665</v>
+        <v>12.54833333333331</v>
       </c>
       <c r="H89" t="n">
         <v>0</v>
@@ -3560,8 +3652,14 @@
         <v>0</v>
       </c>
       <c r="J89" t="inlineStr"/>
-      <c r="K89" t="inlineStr"/>
-      <c r="L89" t="inlineStr"/>
+      <c r="K89" t="n">
+        <v>12.4</v>
+      </c>
+      <c r="L89" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M89" t="n">
         <v>1</v>
       </c>
@@ -3583,10 +3681,10 @@
         <v>12.4</v>
       </c>
       <c r="F90" t="n">
-        <v>52063.2297</v>
+        <v>945.0377999999999</v>
       </c>
       <c r="G90" t="n">
-        <v>12.53499999999998</v>
+        <v>12.54166666666665</v>
       </c>
       <c r="H90" t="n">
         <v>0</v>
@@ -3595,8 +3693,14 @@
         <v>0</v>
       </c>
       <c r="J90" t="inlineStr"/>
-      <c r="K90" t="inlineStr"/>
-      <c r="L90" t="inlineStr"/>
+      <c r="K90" t="n">
+        <v>12.4</v>
+      </c>
+      <c r="L90" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M90" t="n">
         <v>1</v>
       </c>
@@ -3606,22 +3710,22 @@
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>12.6</v>
+        <v>12.4</v>
       </c>
       <c r="C91" t="n">
-        <v>12.6</v>
+        <v>12.4</v>
       </c>
       <c r="D91" t="n">
-        <v>12.6</v>
+        <v>12.4</v>
       </c>
       <c r="E91" t="n">
-        <v>12.6</v>
+        <v>12.4</v>
       </c>
       <c r="F91" t="n">
-        <v>1005.7142</v>
+        <v>52063.2297</v>
       </c>
       <c r="G91" t="n">
-        <v>12.53166666666665</v>
+        <v>12.53499999999998</v>
       </c>
       <c r="H91" t="n">
         <v>0</v>
@@ -3630,8 +3734,14 @@
         <v>0</v>
       </c>
       <c r="J91" t="inlineStr"/>
-      <c r="K91" t="inlineStr"/>
-      <c r="L91" t="inlineStr"/>
+      <c r="K91" t="n">
+        <v>12.4</v>
+      </c>
+      <c r="L91" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M91" t="n">
         <v>1</v>
       </c>
@@ -3653,10 +3763,10 @@
         <v>12.6</v>
       </c>
       <c r="F92" t="n">
-        <v>79.36507936507937</v>
+        <v>1005.7142</v>
       </c>
       <c r="G92" t="n">
-        <v>12.52833333333332</v>
+        <v>12.53166666666665</v>
       </c>
       <c r="H92" t="n">
         <v>0</v>
@@ -3665,8 +3775,14 @@
         <v>0</v>
       </c>
       <c r="J92" t="inlineStr"/>
-      <c r="K92" t="inlineStr"/>
-      <c r="L92" t="inlineStr"/>
+      <c r="K92" t="n">
+        <v>12.4</v>
+      </c>
+      <c r="L92" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M92" t="n">
         <v>1</v>
       </c>
@@ -3676,22 +3792,22 @@
         <v>91</v>
       </c>
       <c r="B93" t="n">
-        <v>12.4</v>
+        <v>12.6</v>
       </c>
       <c r="C93" t="n">
-        <v>12.4</v>
+        <v>12.6</v>
       </c>
       <c r="D93" t="n">
-        <v>12.4</v>
+        <v>12.6</v>
       </c>
       <c r="E93" t="n">
-        <v>12.4</v>
+        <v>12.6</v>
       </c>
       <c r="F93" t="n">
-        <v>3642.67</v>
+        <v>79.36507936507937</v>
       </c>
       <c r="G93" t="n">
-        <v>12.51833333333332</v>
+        <v>12.52833333333332</v>
       </c>
       <c r="H93" t="n">
         <v>0</v>
@@ -3700,8 +3816,14 @@
         <v>0</v>
       </c>
       <c r="J93" t="inlineStr"/>
-      <c r="K93" t="inlineStr"/>
-      <c r="L93" t="inlineStr"/>
+      <c r="K93" t="n">
+        <v>12.4</v>
+      </c>
+      <c r="L93" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M93" t="n">
         <v>1</v>
       </c>
@@ -3723,10 +3845,10 @@
         <v>12.4</v>
       </c>
       <c r="F94" t="n">
-        <v>10.9725</v>
+        <v>3642.67</v>
       </c>
       <c r="G94" t="n">
-        <v>12.51166666666665</v>
+        <v>12.51833333333332</v>
       </c>
       <c r="H94" t="n">
         <v>0</v>
@@ -3735,8 +3857,14 @@
         <v>0</v>
       </c>
       <c r="J94" t="inlineStr"/>
-      <c r="K94" t="inlineStr"/>
-      <c r="L94" t="inlineStr"/>
+      <c r="K94" t="n">
+        <v>12.4</v>
+      </c>
+      <c r="L94" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M94" t="n">
         <v>1</v>
       </c>
@@ -3758,10 +3886,10 @@
         <v>12.4</v>
       </c>
       <c r="F95" t="n">
-        <v>4859.0458</v>
+        <v>10.9725</v>
       </c>
       <c r="G95" t="n">
-        <v>12.50166666666665</v>
+        <v>12.51166666666665</v>
       </c>
       <c r="H95" t="n">
         <v>0</v>
@@ -3770,8 +3898,14 @@
         <v>0</v>
       </c>
       <c r="J95" t="inlineStr"/>
-      <c r="K95" t="inlineStr"/>
-      <c r="L95" t="inlineStr"/>
+      <c r="K95" t="n">
+        <v>12.4</v>
+      </c>
+      <c r="L95" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M95" t="n">
         <v>1</v>
       </c>
@@ -3781,22 +3915,22 @@
         <v>94</v>
       </c>
       <c r="B96" t="n">
-        <v>12.5</v>
+        <v>12.4</v>
       </c>
       <c r="C96" t="n">
-        <v>12.5</v>
+        <v>12.4</v>
       </c>
       <c r="D96" t="n">
-        <v>12.5</v>
+        <v>12.4</v>
       </c>
       <c r="E96" t="n">
-        <v>12.5</v>
+        <v>12.4</v>
       </c>
       <c r="F96" t="n">
-        <v>15187.92</v>
+        <v>4859.0458</v>
       </c>
       <c r="G96" t="n">
-        <v>12.49666666666665</v>
+        <v>12.50166666666665</v>
       </c>
       <c r="H96" t="n">
         <v>0</v>
@@ -3805,8 +3939,14 @@
         <v>0</v>
       </c>
       <c r="J96" t="inlineStr"/>
-      <c r="K96" t="inlineStr"/>
-      <c r="L96" t="inlineStr"/>
+      <c r="K96" t="n">
+        <v>12.4</v>
+      </c>
+      <c r="L96" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M96" t="n">
         <v>1</v>
       </c>
@@ -3828,10 +3968,10 @@
         <v>12.5</v>
       </c>
       <c r="F97" t="n">
-        <v>5910.82</v>
+        <v>15187.92</v>
       </c>
       <c r="G97" t="n">
-        <v>12.48833333333332</v>
+        <v>12.49666666666665</v>
       </c>
       <c r="H97" t="n">
         <v>0</v>
@@ -3840,8 +3980,14 @@
         <v>0</v>
       </c>
       <c r="J97" t="inlineStr"/>
-      <c r="K97" t="inlineStr"/>
-      <c r="L97" t="inlineStr"/>
+      <c r="K97" t="n">
+        <v>12.4</v>
+      </c>
+      <c r="L97" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M97" t="n">
         <v>1</v>
       </c>
@@ -3851,22 +3997,22 @@
         <v>96</v>
       </c>
       <c r="B98" t="n">
-        <v>12.6</v>
+        <v>12.5</v>
       </c>
       <c r="C98" t="n">
-        <v>12.6</v>
+        <v>12.5</v>
       </c>
       <c r="D98" t="n">
-        <v>12.6</v>
+        <v>12.5</v>
       </c>
       <c r="E98" t="n">
-        <v>12.6</v>
+        <v>12.5</v>
       </c>
       <c r="F98" t="n">
-        <v>1439.4546</v>
+        <v>5910.82</v>
       </c>
       <c r="G98" t="n">
-        <v>12.48499999999999</v>
+        <v>12.48833333333332</v>
       </c>
       <c r="H98" t="n">
         <v>0</v>
@@ -3875,8 +4021,14 @@
         <v>0</v>
       </c>
       <c r="J98" t="inlineStr"/>
-      <c r="K98" t="inlineStr"/>
-      <c r="L98" t="inlineStr"/>
+      <c r="K98" t="n">
+        <v>12.4</v>
+      </c>
+      <c r="L98" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M98" t="n">
         <v>1</v>
       </c>
@@ -3886,22 +4038,22 @@
         <v>97</v>
       </c>
       <c r="B99" t="n">
-        <v>12.5</v>
+        <v>12.6</v>
       </c>
       <c r="C99" t="n">
-        <v>12.5</v>
+        <v>12.6</v>
       </c>
       <c r="D99" t="n">
-        <v>12.5</v>
+        <v>12.6</v>
       </c>
       <c r="E99" t="n">
-        <v>12.5</v>
+        <v>12.6</v>
       </c>
       <c r="F99" t="n">
-        <v>32632.215</v>
+        <v>1439.4546</v>
       </c>
       <c r="G99" t="n">
-        <v>12.47999999999999</v>
+        <v>12.48499999999999</v>
       </c>
       <c r="H99" t="n">
         <v>0</v>
@@ -3910,8 +4062,14 @@
         <v>0</v>
       </c>
       <c r="J99" t="inlineStr"/>
-      <c r="K99" t="inlineStr"/>
-      <c r="L99" t="inlineStr"/>
+      <c r="K99" t="n">
+        <v>12.4</v>
+      </c>
+      <c r="L99" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M99" t="n">
         <v>1</v>
       </c>
@@ -3933,10 +4091,10 @@
         <v>12.5</v>
       </c>
       <c r="F100" t="n">
-        <v>2181.4</v>
+        <v>32632.215</v>
       </c>
       <c r="G100" t="n">
-        <v>12.47833333333332</v>
+        <v>12.47999999999999</v>
       </c>
       <c r="H100" t="n">
         <v>0</v>
@@ -3945,8 +4103,14 @@
         <v>0</v>
       </c>
       <c r="J100" t="inlineStr"/>
-      <c r="K100" t="inlineStr"/>
-      <c r="L100" t="inlineStr"/>
+      <c r="K100" t="n">
+        <v>12.4</v>
+      </c>
+      <c r="L100" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M100" t="n">
         <v>1</v>
       </c>
@@ -3968,10 +4132,10 @@
         <v>12.5</v>
       </c>
       <c r="F101" t="n">
-        <v>2497.69</v>
+        <v>2181.4</v>
       </c>
       <c r="G101" t="n">
-        <v>12.47666666666665</v>
+        <v>12.47833333333332</v>
       </c>
       <c r="H101" t="n">
         <v>0</v>
@@ -3980,8 +4144,14 @@
         <v>0</v>
       </c>
       <c r="J101" t="inlineStr"/>
-      <c r="K101" t="inlineStr"/>
-      <c r="L101" t="inlineStr"/>
+      <c r="K101" t="n">
+        <v>12.4</v>
+      </c>
+      <c r="L101" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M101" t="n">
         <v>1</v>
       </c>
@@ -4003,7 +4173,7 @@
         <v>12.5</v>
       </c>
       <c r="F102" t="n">
-        <v>7187.6</v>
+        <v>2497.69</v>
       </c>
       <c r="G102" t="n">
         <v>12.47666666666665</v>
@@ -4015,8 +4185,14 @@
         <v>0</v>
       </c>
       <c r="J102" t="inlineStr"/>
-      <c r="K102" t="inlineStr"/>
-      <c r="L102" t="inlineStr"/>
+      <c r="K102" t="n">
+        <v>12.4</v>
+      </c>
+      <c r="L102" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M102" t="n">
         <v>1</v>
       </c>
@@ -4038,10 +4214,10 @@
         <v>12.5</v>
       </c>
       <c r="F103" t="n">
-        <v>2814</v>
+        <v>7187.6</v>
       </c>
       <c r="G103" t="n">
-        <v>12.47333333333332</v>
+        <v>12.47666666666665</v>
       </c>
       <c r="H103" t="n">
         <v>0</v>
@@ -4050,8 +4226,14 @@
         <v>0</v>
       </c>
       <c r="J103" t="inlineStr"/>
-      <c r="K103" t="inlineStr"/>
-      <c r="L103" t="inlineStr"/>
+      <c r="K103" t="n">
+        <v>12.4</v>
+      </c>
+      <c r="L103" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M103" t="n">
         <v>1</v>
       </c>
@@ -4073,10 +4255,10 @@
         <v>12.5</v>
       </c>
       <c r="F104" t="n">
-        <v>9428.16</v>
+        <v>2814</v>
       </c>
       <c r="G104" t="n">
-        <v>12.46999999999998</v>
+        <v>12.47333333333332</v>
       </c>
       <c r="H104" t="n">
         <v>0</v>
@@ -4085,8 +4267,14 @@
         <v>0</v>
       </c>
       <c r="J104" t="inlineStr"/>
-      <c r="K104" t="inlineStr"/>
-      <c r="L104" t="inlineStr"/>
+      <c r="K104" t="n">
+        <v>12.4</v>
+      </c>
+      <c r="L104" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M104" t="n">
         <v>1</v>
       </c>
@@ -4108,10 +4296,10 @@
         <v>12.5</v>
       </c>
       <c r="F105" t="n">
-        <v>12160.195</v>
+        <v>9428.16</v>
       </c>
       <c r="G105" t="n">
-        <v>12.46833333333332</v>
+        <v>12.46999999999998</v>
       </c>
       <c r="H105" t="n">
         <v>0</v>
@@ -4120,8 +4308,14 @@
         <v>0</v>
       </c>
       <c r="J105" t="inlineStr"/>
-      <c r="K105" t="inlineStr"/>
-      <c r="L105" t="inlineStr"/>
+      <c r="K105" t="n">
+        <v>12.4</v>
+      </c>
+      <c r="L105" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M105" t="n">
         <v>1</v>
       </c>
@@ -4131,22 +4325,22 @@
         <v>104</v>
       </c>
       <c r="B106" t="n">
-        <v>12.4</v>
+        <v>12.5</v>
       </c>
       <c r="C106" t="n">
-        <v>12.4</v>
+        <v>12.5</v>
       </c>
       <c r="D106" t="n">
-        <v>12.4</v>
+        <v>12.5</v>
       </c>
       <c r="E106" t="n">
-        <v>12.4</v>
+        <v>12.5</v>
       </c>
       <c r="F106" t="n">
-        <v>103856.1077</v>
+        <v>12160.195</v>
       </c>
       <c r="G106" t="n">
-        <v>12.46666666666665</v>
+        <v>12.46833333333332</v>
       </c>
       <c r="H106" t="n">
         <v>0</v>
@@ -4155,8 +4349,14 @@
         <v>0</v>
       </c>
       <c r="J106" t="inlineStr"/>
-      <c r="K106" t="inlineStr"/>
-      <c r="L106" t="inlineStr"/>
+      <c r="K106" t="n">
+        <v>12.4</v>
+      </c>
+      <c r="L106" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M106" t="n">
         <v>1</v>
       </c>
@@ -4166,19 +4366,19 @@
         <v>105</v>
       </c>
       <c r="B107" t="n">
-        <v>12.5</v>
+        <v>12.4</v>
       </c>
       <c r="C107" t="n">
-        <v>12.5</v>
+        <v>12.4</v>
       </c>
       <c r="D107" t="n">
-        <v>12.5</v>
+        <v>12.4</v>
       </c>
       <c r="E107" t="n">
-        <v>12.5</v>
+        <v>12.4</v>
       </c>
       <c r="F107" t="n">
-        <v>10</v>
+        <v>103856.1077</v>
       </c>
       <c r="G107" t="n">
         <v>12.46666666666665</v>
@@ -4190,8 +4390,14 @@
         <v>0</v>
       </c>
       <c r="J107" t="inlineStr"/>
-      <c r="K107" t="inlineStr"/>
-      <c r="L107" t="inlineStr"/>
+      <c r="K107" t="n">
+        <v>12.4</v>
+      </c>
+      <c r="L107" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M107" t="n">
         <v>1</v>
       </c>
@@ -4201,22 +4407,22 @@
         <v>106</v>
       </c>
       <c r="B108" t="n">
-        <v>12.4</v>
+        <v>12.5</v>
       </c>
       <c r="C108" t="n">
-        <v>12.4</v>
+        <v>12.5</v>
       </c>
       <c r="D108" t="n">
-        <v>12.4</v>
+        <v>12.5</v>
       </c>
       <c r="E108" t="n">
-        <v>12.4</v>
+        <v>12.5</v>
       </c>
       <c r="F108" t="n">
-        <v>2244.28</v>
+        <v>10</v>
       </c>
       <c r="G108" t="n">
-        <v>12.46499999999998</v>
+        <v>12.46666666666665</v>
       </c>
       <c r="H108" t="n">
         <v>0</v>
@@ -4225,8 +4431,14 @@
         <v>0</v>
       </c>
       <c r="J108" t="inlineStr"/>
-      <c r="K108" t="inlineStr"/>
-      <c r="L108" t="inlineStr"/>
+      <c r="K108" t="n">
+        <v>12.4</v>
+      </c>
+      <c r="L108" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M108" t="n">
         <v>1</v>
       </c>
@@ -4236,22 +4448,22 @@
         <v>107</v>
       </c>
       <c r="B109" t="n">
-        <v>12.5</v>
+        <v>12.4</v>
       </c>
       <c r="C109" t="n">
-        <v>12.5</v>
+        <v>12.4</v>
       </c>
       <c r="D109" t="n">
-        <v>12.5</v>
+        <v>12.4</v>
       </c>
       <c r="E109" t="n">
-        <v>12.5</v>
+        <v>12.4</v>
       </c>
       <c r="F109" t="n">
-        <v>37.92</v>
+        <v>2244.28</v>
       </c>
       <c r="G109" t="n">
-        <v>12.46666666666665</v>
+        <v>12.46499999999998</v>
       </c>
       <c r="H109" t="n">
         <v>0</v>
@@ -4260,8 +4472,14 @@
         <v>0</v>
       </c>
       <c r="J109" t="inlineStr"/>
-      <c r="K109" t="inlineStr"/>
-      <c r="L109" t="inlineStr"/>
+      <c r="K109" t="n">
+        <v>12.4</v>
+      </c>
+      <c r="L109" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M109" t="n">
         <v>1</v>
       </c>
@@ -4271,22 +4489,22 @@
         <v>108</v>
       </c>
       <c r="B110" t="n">
-        <v>12.6</v>
+        <v>12.5</v>
       </c>
       <c r="C110" t="n">
-        <v>12.6</v>
+        <v>12.5</v>
       </c>
       <c r="D110" t="n">
-        <v>12.6</v>
+        <v>12.5</v>
       </c>
       <c r="E110" t="n">
-        <v>12.6</v>
+        <v>12.5</v>
       </c>
       <c r="F110" t="n">
-        <v>10</v>
+        <v>37.92</v>
       </c>
       <c r="G110" t="n">
-        <v>12.46833333333332</v>
+        <v>12.46666666666665</v>
       </c>
       <c r="H110" t="n">
         <v>0</v>
@@ -4295,8 +4513,14 @@
         <v>0</v>
       </c>
       <c r="J110" t="inlineStr"/>
-      <c r="K110" t="inlineStr"/>
-      <c r="L110" t="inlineStr"/>
+      <c r="K110" t="n">
+        <v>12.4</v>
+      </c>
+      <c r="L110" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M110" t="n">
         <v>1</v>
       </c>
@@ -4309,19 +4533,19 @@
         <v>12.6</v>
       </c>
       <c r="C111" t="n">
-        <v>12.4</v>
+        <v>12.6</v>
       </c>
       <c r="D111" t="n">
         <v>12.6</v>
       </c>
       <c r="E111" t="n">
-        <v>12.4</v>
+        <v>12.6</v>
       </c>
       <c r="F111" t="n">
-        <v>76654.2</v>
+        <v>10</v>
       </c>
       <c r="G111" t="n">
-        <v>12.46499999999998</v>
+        <v>12.46833333333332</v>
       </c>
       <c r="H111" t="n">
         <v>0</v>
@@ -4330,8 +4554,14 @@
         <v>0</v>
       </c>
       <c r="J111" t="inlineStr"/>
-      <c r="K111" t="inlineStr"/>
-      <c r="L111" t="inlineStr"/>
+      <c r="K111" t="n">
+        <v>12.4</v>
+      </c>
+      <c r="L111" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M111" t="n">
         <v>1</v>
       </c>
@@ -4344,19 +4574,19 @@
         <v>12.6</v>
       </c>
       <c r="C112" t="n">
-        <v>12.6</v>
+        <v>12.4</v>
       </c>
       <c r="D112" t="n">
         <v>12.6</v>
       </c>
       <c r="E112" t="n">
-        <v>12.6</v>
+        <v>12.4</v>
       </c>
       <c r="F112" t="n">
-        <v>13350.7334</v>
+        <v>76654.2</v>
       </c>
       <c r="G112" t="n">
-        <v>12.46666666666665</v>
+        <v>12.46499999999998</v>
       </c>
       <c r="H112" t="n">
         <v>0</v>
@@ -4365,8 +4595,14 @@
         <v>0</v>
       </c>
       <c r="J112" t="inlineStr"/>
-      <c r="K112" t="inlineStr"/>
-      <c r="L112" t="inlineStr"/>
+      <c r="K112" t="n">
+        <v>12.4</v>
+      </c>
+      <c r="L112" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M112" t="n">
         <v>1</v>
       </c>
@@ -4379,16 +4615,16 @@
         <v>12.6</v>
       </c>
       <c r="C113" t="n">
-        <v>12.5</v>
+        <v>12.6</v>
       </c>
       <c r="D113" t="n">
         <v>12.6</v>
       </c>
       <c r="E113" t="n">
-        <v>12.5</v>
+        <v>12.6</v>
       </c>
       <c r="F113" t="n">
-        <v>8689.266600000001</v>
+        <v>13350.7334</v>
       </c>
       <c r="G113" t="n">
         <v>12.46666666666665</v>
@@ -4400,8 +4636,14 @@
         <v>0</v>
       </c>
       <c r="J113" t="inlineStr"/>
-      <c r="K113" t="inlineStr"/>
-      <c r="L113" t="inlineStr"/>
+      <c r="K113" t="n">
+        <v>12.4</v>
+      </c>
+      <c r="L113" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M113" t="n">
         <v>1</v>
       </c>
@@ -4414,19 +4656,19 @@
         <v>12.6</v>
       </c>
       <c r="C114" t="n">
-        <v>12.6</v>
+        <v>12.5</v>
       </c>
       <c r="D114" t="n">
         <v>12.6</v>
       </c>
       <c r="E114" t="n">
-        <v>12.6</v>
+        <v>12.5</v>
       </c>
       <c r="F114" t="n">
-        <v>1003.1999</v>
+        <v>8689.266600000001</v>
       </c>
       <c r="G114" t="n">
-        <v>12.46833333333332</v>
+        <v>12.46666666666665</v>
       </c>
       <c r="H114" t="n">
         <v>0</v>
@@ -4435,8 +4677,14 @@
         <v>0</v>
       </c>
       <c r="J114" t="inlineStr"/>
-      <c r="K114" t="inlineStr"/>
-      <c r="L114" t="inlineStr"/>
+      <c r="K114" t="n">
+        <v>12.4</v>
+      </c>
+      <c r="L114" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M114" t="n">
         <v>1</v>
       </c>
@@ -4446,22 +4694,22 @@
         <v>113</v>
       </c>
       <c r="B115" t="n">
-        <v>12.5</v>
+        <v>12.6</v>
       </c>
       <c r="C115" t="n">
-        <v>12.5</v>
+        <v>12.6</v>
       </c>
       <c r="D115" t="n">
-        <v>12.5</v>
+        <v>12.6</v>
       </c>
       <c r="E115" t="n">
-        <v>12.5</v>
+        <v>12.6</v>
       </c>
       <c r="F115" t="n">
-        <v>5616.6</v>
+        <v>1003.1999</v>
       </c>
       <c r="G115" t="n">
-        <v>12.46666666666665</v>
+        <v>12.46833333333332</v>
       </c>
       <c r="H115" t="n">
         <v>0</v>
@@ -4470,8 +4718,14 @@
         <v>0</v>
       </c>
       <c r="J115" t="inlineStr"/>
-      <c r="K115" t="inlineStr"/>
-      <c r="L115" t="inlineStr"/>
+      <c r="K115" t="n">
+        <v>12.4</v>
+      </c>
+      <c r="L115" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M115" t="n">
         <v>1</v>
       </c>
@@ -4481,22 +4735,22 @@
         <v>114</v>
       </c>
       <c r="B116" t="n">
-        <v>12.6</v>
+        <v>12.5</v>
       </c>
       <c r="C116" t="n">
-        <v>12.6</v>
+        <v>12.5</v>
       </c>
       <c r="D116" t="n">
-        <v>12.6</v>
+        <v>12.5</v>
       </c>
       <c r="E116" t="n">
-        <v>12.6</v>
+        <v>12.5</v>
       </c>
       <c r="F116" t="n">
-        <v>49122.7777</v>
+        <v>5616.6</v>
       </c>
       <c r="G116" t="n">
-        <v>12.46499999999998</v>
+        <v>12.46666666666665</v>
       </c>
       <c r="H116" t="n">
         <v>0</v>
@@ -4505,8 +4759,14 @@
         <v>0</v>
       </c>
       <c r="J116" t="inlineStr"/>
-      <c r="K116" t="inlineStr"/>
-      <c r="L116" t="inlineStr"/>
+      <c r="K116" t="n">
+        <v>12.4</v>
+      </c>
+      <c r="L116" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M116" t="n">
         <v>1</v>
       </c>
@@ -4528,7 +4788,7 @@
         <v>12.6</v>
       </c>
       <c r="F117" t="n">
-        <v>4348.0158</v>
+        <v>49122.7777</v>
       </c>
       <c r="G117" t="n">
         <v>12.46499999999998</v>
@@ -4540,8 +4800,14 @@
         <v>0</v>
       </c>
       <c r="J117" t="inlineStr"/>
-      <c r="K117" t="inlineStr"/>
-      <c r="L117" t="inlineStr"/>
+      <c r="K117" t="n">
+        <v>12.4</v>
+      </c>
+      <c r="L117" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M117" t="n">
         <v>1</v>
       </c>
@@ -4551,22 +4817,22 @@
         <v>116</v>
       </c>
       <c r="B118" t="n">
-        <v>12.5</v>
+        <v>12.6</v>
       </c>
       <c r="C118" t="n">
-        <v>12.5</v>
+        <v>12.6</v>
       </c>
       <c r="D118" t="n">
-        <v>12.5</v>
+        <v>12.6</v>
       </c>
       <c r="E118" t="n">
-        <v>12.5</v>
+        <v>12.6</v>
       </c>
       <c r="F118" t="n">
-        <v>4337.1458</v>
+        <v>4348.0158</v>
       </c>
       <c r="G118" t="n">
-        <v>12.46333333333332</v>
+        <v>12.46499999999998</v>
       </c>
       <c r="H118" t="n">
         <v>0</v>
@@ -4575,8 +4841,14 @@
         <v>0</v>
       </c>
       <c r="J118" t="inlineStr"/>
-      <c r="K118" t="inlineStr"/>
-      <c r="L118" t="inlineStr"/>
+      <c r="K118" t="n">
+        <v>12.4</v>
+      </c>
+      <c r="L118" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M118" t="n">
         <v>1</v>
       </c>
@@ -4586,22 +4858,22 @@
         <v>117</v>
       </c>
       <c r="B119" t="n">
-        <v>12.7</v>
+        <v>12.5</v>
       </c>
       <c r="C119" t="n">
-        <v>12.7</v>
+        <v>12.5</v>
       </c>
       <c r="D119" t="n">
-        <v>12.7</v>
+        <v>12.5</v>
       </c>
       <c r="E119" t="n">
-        <v>12.7</v>
+        <v>12.5</v>
       </c>
       <c r="F119" t="n">
-        <v>30</v>
+        <v>4337.1458</v>
       </c>
       <c r="G119" t="n">
-        <v>12.46666666666665</v>
+        <v>12.46333333333332</v>
       </c>
       <c r="H119" t="n">
         <v>0</v>
@@ -4610,8 +4882,14 @@
         <v>0</v>
       </c>
       <c r="J119" t="inlineStr"/>
-      <c r="K119" t="inlineStr"/>
-      <c r="L119" t="inlineStr"/>
+      <c r="K119" t="n">
+        <v>12.4</v>
+      </c>
+      <c r="L119" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M119" t="n">
         <v>1</v>
       </c>
@@ -4621,22 +4899,22 @@
         <v>118</v>
       </c>
       <c r="B120" t="n">
-        <v>12.5</v>
+        <v>12.7</v>
       </c>
       <c r="C120" t="n">
-        <v>12.5</v>
+        <v>12.7</v>
       </c>
       <c r="D120" t="n">
-        <v>12.5</v>
+        <v>12.7</v>
       </c>
       <c r="E120" t="n">
-        <v>12.5</v>
+        <v>12.7</v>
       </c>
       <c r="F120" t="n">
-        <v>1087.3309</v>
+        <v>30</v>
       </c>
       <c r="G120" t="n">
-        <v>12.45999999999998</v>
+        <v>12.46666666666665</v>
       </c>
       <c r="H120" t="n">
         <v>0</v>
@@ -4645,8 +4923,14 @@
         <v>0</v>
       </c>
       <c r="J120" t="inlineStr"/>
-      <c r="K120" t="inlineStr"/>
-      <c r="L120" t="inlineStr"/>
+      <c r="K120" t="n">
+        <v>12.4</v>
+      </c>
+      <c r="L120" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M120" t="n">
         <v>1</v>
       </c>
@@ -4656,22 +4940,22 @@
         <v>119</v>
       </c>
       <c r="B121" t="n">
-        <v>12.4</v>
+        <v>12.5</v>
       </c>
       <c r="C121" t="n">
-        <v>12.4</v>
+        <v>12.5</v>
       </c>
       <c r="D121" t="n">
-        <v>12.4</v>
+        <v>12.5</v>
       </c>
       <c r="E121" t="n">
-        <v>12.4</v>
+        <v>12.5</v>
       </c>
       <c r="F121" t="n">
-        <v>70143.45940000001</v>
+        <v>1087.3309</v>
       </c>
       <c r="G121" t="n">
-        <v>12.45833333333332</v>
+        <v>12.45999999999998</v>
       </c>
       <c r="H121" t="n">
         <v>0</v>
@@ -4680,8 +4964,14 @@
         <v>0</v>
       </c>
       <c r="J121" t="inlineStr"/>
-      <c r="K121" t="inlineStr"/>
-      <c r="L121" t="inlineStr"/>
+      <c r="K121" t="n">
+        <v>12.4</v>
+      </c>
+      <c r="L121" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M121" t="n">
         <v>1</v>
       </c>
@@ -4691,22 +4981,22 @@
         <v>120</v>
       </c>
       <c r="B122" t="n">
-        <v>12.5</v>
+        <v>12.4</v>
       </c>
       <c r="C122" t="n">
-        <v>12.5</v>
+        <v>12.4</v>
       </c>
       <c r="D122" t="n">
-        <v>12.5</v>
+        <v>12.4</v>
       </c>
       <c r="E122" t="n">
-        <v>12.5</v>
+        <v>12.4</v>
       </c>
       <c r="F122" t="n">
-        <v>5120.042</v>
+        <v>70143.45940000001</v>
       </c>
       <c r="G122" t="n">
-        <v>12.45999999999998</v>
+        <v>12.45833333333332</v>
       </c>
       <c r="H122" t="n">
         <v>0</v>
@@ -4715,8 +5005,14 @@
         <v>0</v>
       </c>
       <c r="J122" t="inlineStr"/>
-      <c r="K122" t="inlineStr"/>
-      <c r="L122" t="inlineStr"/>
+      <c r="K122" t="n">
+        <v>12.4</v>
+      </c>
+      <c r="L122" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M122" t="n">
         <v>1</v>
       </c>
@@ -4726,22 +5022,22 @@
         <v>121</v>
       </c>
       <c r="B123" t="n">
-        <v>12.8</v>
+        <v>12.5</v>
       </c>
       <c r="C123" t="n">
-        <v>12.8</v>
+        <v>12.5</v>
       </c>
       <c r="D123" t="n">
-        <v>12.8</v>
+        <v>12.5</v>
       </c>
       <c r="E123" t="n">
-        <v>12.8</v>
+        <v>12.5</v>
       </c>
       <c r="F123" t="n">
-        <v>12</v>
+        <v>5120.042</v>
       </c>
       <c r="G123" t="n">
-        <v>12.46666666666665</v>
+        <v>12.45999999999998</v>
       </c>
       <c r="H123" t="n">
         <v>0</v>
@@ -4750,8 +5046,14 @@
         <v>0</v>
       </c>
       <c r="J123" t="inlineStr"/>
-      <c r="K123" t="inlineStr"/>
-      <c r="L123" t="inlineStr"/>
+      <c r="K123" t="n">
+        <v>12.4</v>
+      </c>
+      <c r="L123" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M123" t="n">
         <v>1</v>
       </c>
@@ -4773,10 +5075,10 @@
         <v>12.8</v>
       </c>
       <c r="F124" t="n">
-        <v>14527.578075</v>
+        <v>12</v>
       </c>
       <c r="G124" t="n">
-        <v>12.47666666666665</v>
+        <v>12.46666666666665</v>
       </c>
       <c r="H124" t="n">
         <v>0</v>
@@ -4785,8 +5087,14 @@
         <v>0</v>
       </c>
       <c r="J124" t="inlineStr"/>
-      <c r="K124" t="inlineStr"/>
-      <c r="L124" t="inlineStr"/>
+      <c r="K124" t="n">
+        <v>12.4</v>
+      </c>
+      <c r="L124" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M124" t="n">
         <v>1</v>
       </c>
@@ -4799,19 +5107,19 @@
         <v>12.8</v>
       </c>
       <c r="C125" t="n">
-        <v>12.9</v>
+        <v>12.8</v>
       </c>
       <c r="D125" t="n">
-        <v>12.9</v>
+        <v>12.8</v>
       </c>
       <c r="E125" t="n">
         <v>12.8</v>
       </c>
       <c r="F125" t="n">
-        <v>26109.84823197674</v>
+        <v>14527.578075</v>
       </c>
       <c r="G125" t="n">
-        <v>12.48999999999998</v>
+        <v>12.47666666666665</v>
       </c>
       <c r="H125" t="n">
         <v>0</v>
@@ -4820,8 +5128,14 @@
         <v>0</v>
       </c>
       <c r="J125" t="inlineStr"/>
-      <c r="K125" t="inlineStr"/>
-      <c r="L125" t="inlineStr"/>
+      <c r="K125" t="n">
+        <v>12.4</v>
+      </c>
+      <c r="L125" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M125" t="n">
         <v>1</v>
       </c>
@@ -4843,10 +5157,10 @@
         <v>12.8</v>
       </c>
       <c r="F126" t="n">
-        <v>14877.13178294574</v>
+        <v>26109.84823197674</v>
       </c>
       <c r="G126" t="n">
-        <v>12.49999999999998</v>
+        <v>12.48999999999998</v>
       </c>
       <c r="H126" t="n">
         <v>0</v>
@@ -4855,8 +5169,14 @@
         <v>0</v>
       </c>
       <c r="J126" t="inlineStr"/>
-      <c r="K126" t="inlineStr"/>
-      <c r="L126" t="inlineStr"/>
+      <c r="K126" t="n">
+        <v>12.4</v>
+      </c>
+      <c r="L126" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M126" t="n">
         <v>1</v>
       </c>
@@ -4878,10 +5198,10 @@
         <v>12.8</v>
       </c>
       <c r="F127" t="n">
-        <v>95963.9534</v>
+        <v>14877.13178294574</v>
       </c>
       <c r="G127" t="n">
-        <v>12.50999999999998</v>
+        <v>12.49999999999998</v>
       </c>
       <c r="H127" t="n">
         <v>0</v>
@@ -4890,8 +5210,14 @@
         <v>0</v>
       </c>
       <c r="J127" t="inlineStr"/>
-      <c r="K127" t="inlineStr"/>
-      <c r="L127" t="inlineStr"/>
+      <c r="K127" t="n">
+        <v>12.4</v>
+      </c>
+      <c r="L127" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M127" t="n">
         <v>1</v>
       </c>
@@ -4901,22 +5227,22 @@
         <v>126</v>
       </c>
       <c r="B128" t="n">
+        <v>12.8</v>
+      </c>
+      <c r="C128" t="n">
         <v>12.9</v>
       </c>
-      <c r="C128" t="n">
-        <v>13.1</v>
-      </c>
       <c r="D128" t="n">
-        <v>13.1</v>
+        <v>12.9</v>
       </c>
       <c r="E128" t="n">
-        <v>12.9</v>
+        <v>12.8</v>
       </c>
       <c r="F128" t="n">
-        <v>246115.6039</v>
+        <v>95963.9534</v>
       </c>
       <c r="G128" t="n">
-        <v>12.52333333333332</v>
+        <v>12.50999999999998</v>
       </c>
       <c r="H128" t="n">
         <v>0</v>
@@ -4925,8 +5251,14 @@
         <v>0</v>
       </c>
       <c r="J128" t="inlineStr"/>
-      <c r="K128" t="inlineStr"/>
-      <c r="L128" t="inlineStr"/>
+      <c r="K128" t="n">
+        <v>12.4</v>
+      </c>
+      <c r="L128" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M128" t="n">
         <v>1</v>
       </c>
@@ -4936,22 +5268,22 @@
         <v>127</v>
       </c>
       <c r="B129" t="n">
+        <v>12.9</v>
+      </c>
+      <c r="C129" t="n">
         <v>13.1</v>
       </c>
-      <c r="C129" t="n">
-        <v>13.6</v>
-      </c>
       <c r="D129" t="n">
-        <v>13.6</v>
+        <v>13.1</v>
       </c>
       <c r="E129" t="n">
-        <v>13.1</v>
+        <v>12.9</v>
       </c>
       <c r="F129" t="n">
-        <v>644423.0066639705</v>
+        <v>246115.6039</v>
       </c>
       <c r="G129" t="n">
-        <v>12.54333333333332</v>
+        <v>12.52333333333332</v>
       </c>
       <c r="H129" t="n">
         <v>0</v>
@@ -4960,8 +5292,14 @@
         <v>0</v>
       </c>
       <c r="J129" t="inlineStr"/>
-      <c r="K129" t="inlineStr"/>
-      <c r="L129" t="inlineStr"/>
+      <c r="K129" t="n">
+        <v>12.4</v>
+      </c>
+      <c r="L129" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M129" t="n">
         <v>1</v>
       </c>
@@ -4971,7 +5309,7 @@
         <v>128</v>
       </c>
       <c r="B130" t="n">
-        <v>13.4</v>
+        <v>13.1</v>
       </c>
       <c r="C130" t="n">
         <v>13.6</v>
@@ -4980,13 +5318,13 @@
         <v>13.6</v>
       </c>
       <c r="E130" t="n">
-        <v>13.4</v>
+        <v>13.1</v>
       </c>
       <c r="F130" t="n">
-        <v>246778.8681360294</v>
+        <v>644423.0066639705</v>
       </c>
       <c r="G130" t="n">
-        <v>12.56166666666665</v>
+        <v>12.54333333333332</v>
       </c>
       <c r="H130" t="n">
         <v>0</v>
@@ -4995,8 +5333,14 @@
         <v>0</v>
       </c>
       <c r="J130" t="inlineStr"/>
-      <c r="K130" t="inlineStr"/>
-      <c r="L130" t="inlineStr"/>
+      <c r="K130" t="n">
+        <v>12.4</v>
+      </c>
+      <c r="L130" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M130" t="n">
         <v>1</v>
       </c>
@@ -5006,32 +5350,38 @@
         <v>129</v>
       </c>
       <c r="B131" t="n">
-        <v>13.7</v>
+        <v>13.4</v>
       </c>
       <c r="C131" t="n">
-        <v>13.9</v>
+        <v>13.6</v>
       </c>
       <c r="D131" t="n">
-        <v>14.1</v>
+        <v>13.6</v>
       </c>
       <c r="E131" t="n">
-        <v>13.7</v>
+        <v>13.4</v>
       </c>
       <c r="F131" t="n">
-        <v>349400.1855</v>
+        <v>246778.8681360294</v>
       </c>
       <c r="G131" t="n">
-        <v>12.58499999999998</v>
+        <v>12.56166666666665</v>
       </c>
       <c r="H131" t="n">
         <v>0</v>
       </c>
       <c r="I131" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J131" t="inlineStr"/>
-      <c r="K131" t="inlineStr"/>
-      <c r="L131" t="inlineStr"/>
+      <c r="K131" t="n">
+        <v>12.4</v>
+      </c>
+      <c r="L131" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M131" t="n">
         <v>1</v>
       </c>
@@ -5044,19 +5394,19 @@
         <v>13.7</v>
       </c>
       <c r="C132" t="n">
-        <v>13.6</v>
+        <v>13.9</v>
       </c>
       <c r="D132" t="n">
+        <v>14.1</v>
+      </c>
+      <c r="E132" t="n">
         <v>13.7</v>
       </c>
-      <c r="E132" t="n">
-        <v>13.6</v>
-      </c>
       <c r="F132" t="n">
-        <v>59928.07598832116</v>
+        <v>349400.1855</v>
       </c>
       <c r="G132" t="n">
-        <v>12.60499999999998</v>
+        <v>12.58499999999998</v>
       </c>
       <c r="H132" t="n">
         <v>0</v>
@@ -5065,10 +5415,16 @@
         <v>1</v>
       </c>
       <c r="J132" t="inlineStr"/>
-      <c r="K132" t="inlineStr"/>
-      <c r="L132" t="inlineStr"/>
+      <c r="K132" t="n">
+        <v>12.4</v>
+      </c>
+      <c r="L132" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
       <c r="M132" t="n">
-        <v>1</v>
+        <v>1.115967741935484</v>
       </c>
     </row>
     <row r="133">
@@ -5076,22 +5432,22 @@
         <v>131</v>
       </c>
       <c r="B133" t="n">
-        <v>13.3</v>
+        <v>13.7</v>
       </c>
       <c r="C133" t="n">
-        <v>13.7</v>
+        <v>13.6</v>
       </c>
       <c r="D133" t="n">
         <v>13.7</v>
       </c>
       <c r="E133" t="n">
-        <v>13.3</v>
+        <v>13.6</v>
       </c>
       <c r="F133" t="n">
-        <v>41003.1533</v>
+        <v>59928.07598832116</v>
       </c>
       <c r="G133" t="n">
-        <v>12.62666666666665</v>
+        <v>12.60499999999998</v>
       </c>
       <c r="H133" t="n">
         <v>0</v>
@@ -5111,22 +5467,22 @@
         <v>132</v>
       </c>
       <c r="B134" t="n">
-        <v>13.6</v>
+        <v>13.3</v>
       </c>
       <c r="C134" t="n">
-        <v>14.2</v>
+        <v>13.7</v>
       </c>
       <c r="D134" t="n">
-        <v>14.2</v>
+        <v>13.7</v>
       </c>
       <c r="E134" t="n">
-        <v>13.6</v>
+        <v>13.3</v>
       </c>
       <c r="F134" t="n">
-        <v>739702.3709</v>
+        <v>41003.1533</v>
       </c>
       <c r="G134" t="n">
-        <v>12.65666666666665</v>
+        <v>12.62666666666665</v>
       </c>
       <c r="H134" t="n">
         <v>0</v>
@@ -5146,22 +5502,22 @@
         <v>133</v>
       </c>
       <c r="B135" t="n">
-        <v>14.3</v>
+        <v>13.6</v>
       </c>
       <c r="C135" t="n">
         <v>14.2</v>
       </c>
       <c r="D135" t="n">
-        <v>14.3</v>
+        <v>14.2</v>
       </c>
       <c r="E135" t="n">
-        <v>14.2</v>
+        <v>13.6</v>
       </c>
       <c r="F135" t="n">
-        <v>198712.2573</v>
+        <v>739702.3709</v>
       </c>
       <c r="G135" t="n">
-        <v>12.68499999999999</v>
+        <v>12.65666666666665</v>
       </c>
       <c r="H135" t="n">
         <v>0</v>
@@ -5181,22 +5537,22 @@
         <v>134</v>
       </c>
       <c r="B136" t="n">
-        <v>13.9</v>
+        <v>14.3</v>
       </c>
       <c r="C136" t="n">
-        <v>13.7</v>
+        <v>14.2</v>
       </c>
       <c r="D136" t="n">
-        <v>13.9</v>
+        <v>14.3</v>
       </c>
       <c r="E136" t="n">
-        <v>13.7</v>
+        <v>14.2</v>
       </c>
       <c r="F136" t="n">
-        <v>95677.1444</v>
+        <v>198712.2573</v>
       </c>
       <c r="G136" t="n">
-        <v>12.70666666666665</v>
+        <v>12.68499999999999</v>
       </c>
       <c r="H136" t="n">
         <v>0</v>
@@ -5216,22 +5572,22 @@
         <v>135</v>
       </c>
       <c r="B137" t="n">
-        <v>13.8</v>
+        <v>13.9</v>
       </c>
       <c r="C137" t="n">
         <v>13.7</v>
       </c>
       <c r="D137" t="n">
-        <v>13.8</v>
+        <v>13.9</v>
       </c>
       <c r="E137" t="n">
         <v>13.7</v>
       </c>
       <c r="F137" t="n">
-        <v>7191.152378260869</v>
+        <v>95677.1444</v>
       </c>
       <c r="G137" t="n">
-        <v>12.72833333333332</v>
+        <v>12.70666666666665</v>
       </c>
       <c r="H137" t="n">
         <v>0</v>
@@ -5251,7 +5607,7 @@
         <v>136</v>
       </c>
       <c r="B138" t="n">
-        <v>13.7</v>
+        <v>13.8</v>
       </c>
       <c r="C138" t="n">
         <v>13.7</v>
@@ -5263,10 +5619,10 @@
         <v>13.7</v>
       </c>
       <c r="F138" t="n">
-        <v>105485.1139471014</v>
+        <v>7191.152378260869</v>
       </c>
       <c r="G138" t="n">
-        <v>12.74833333333332</v>
+        <v>12.72833333333332</v>
       </c>
       <c r="H138" t="n">
         <v>0</v>
@@ -5286,22 +5642,22 @@
         <v>137</v>
       </c>
       <c r="B139" t="n">
-        <v>13.6</v>
+        <v>13.7</v>
       </c>
       <c r="C139" t="n">
-        <v>13.8</v>
+        <v>13.7</v>
       </c>
       <c r="D139" t="n">
         <v>13.8</v>
       </c>
       <c r="E139" t="n">
-        <v>13.6</v>
+        <v>13.7</v>
       </c>
       <c r="F139" t="n">
-        <v>416494.0668</v>
+        <v>105485.1139471014</v>
       </c>
       <c r="G139" t="n">
-        <v>12.76999999999999</v>
+        <v>12.74833333333332</v>
       </c>
       <c r="H139" t="n">
         <v>0</v>
@@ -5321,22 +5677,22 @@
         <v>138</v>
       </c>
       <c r="B140" t="n">
-        <v>13.7</v>
+        <v>13.6</v>
       </c>
       <c r="C140" t="n">
-        <v>13.7</v>
+        <v>13.8</v>
       </c>
       <c r="D140" t="n">
         <v>13.8</v>
       </c>
       <c r="E140" t="n">
-        <v>13.7</v>
+        <v>13.6</v>
       </c>
       <c r="F140" t="n">
-        <v>103606.9486</v>
+        <v>416494.0668</v>
       </c>
       <c r="G140" t="n">
-        <v>12.79166666666666</v>
+        <v>12.76999999999999</v>
       </c>
       <c r="H140" t="n">
         <v>0</v>
@@ -5359,19 +5715,19 @@
         <v>13.7</v>
       </c>
       <c r="C141" t="n">
-        <v>13.6</v>
+        <v>13.7</v>
       </c>
       <c r="D141" t="n">
+        <v>13.8</v>
+      </c>
+      <c r="E141" t="n">
         <v>13.7</v>
       </c>
-      <c r="E141" t="n">
-        <v>13.5</v>
-      </c>
       <c r="F141" t="n">
-        <v>142039.9707</v>
+        <v>103606.9486</v>
       </c>
       <c r="G141" t="n">
-        <v>12.81333333333333</v>
+        <v>12.79166666666666</v>
       </c>
       <c r="H141" t="n">
         <v>0</v>
@@ -5391,22 +5747,22 @@
         <v>140</v>
       </c>
       <c r="B142" t="n">
-        <v>13.6</v>
+        <v>13.7</v>
       </c>
       <c r="C142" t="n">
         <v>13.6</v>
       </c>
       <c r="D142" t="n">
-        <v>13.6</v>
+        <v>13.7</v>
       </c>
       <c r="E142" t="n">
-        <v>13.6</v>
+        <v>13.5</v>
       </c>
       <c r="F142" t="n">
-        <v>31852.3</v>
+        <v>142039.9707</v>
       </c>
       <c r="G142" t="n">
-        <v>12.83166666666666</v>
+        <v>12.81333333333333</v>
       </c>
       <c r="H142" t="n">
         <v>0</v>
@@ -5438,10 +5794,10 @@
         <v>13.6</v>
       </c>
       <c r="F143" t="n">
-        <v>26338.0542</v>
+        <v>31852.3</v>
       </c>
       <c r="G143" t="n">
-        <v>12.84999999999999</v>
+        <v>12.83166666666666</v>
       </c>
       <c r="H143" t="n">
         <v>0</v>
@@ -5461,22 +5817,22 @@
         <v>142</v>
       </c>
       <c r="B144" t="n">
-        <v>13.5</v>
+        <v>13.6</v>
       </c>
       <c r="C144" t="n">
-        <v>13.4</v>
+        <v>13.6</v>
       </c>
       <c r="D144" t="n">
         <v>13.6</v>
       </c>
       <c r="E144" t="n">
-        <v>13.4</v>
+        <v>13.6</v>
       </c>
       <c r="F144" t="n">
-        <v>169308.3166</v>
+        <v>26338.0542</v>
       </c>
       <c r="G144" t="n">
-        <v>12.86833333333333</v>
+        <v>12.84999999999999</v>
       </c>
       <c r="H144" t="n">
         <v>0</v>
@@ -5496,22 +5852,22 @@
         <v>143</v>
       </c>
       <c r="B145" t="n">
-        <v>13.4</v>
+        <v>13.5</v>
       </c>
       <c r="C145" t="n">
         <v>13.4</v>
       </c>
       <c r="D145" t="n">
-        <v>13.4</v>
+        <v>13.6</v>
       </c>
       <c r="E145" t="n">
         <v>13.4</v>
       </c>
       <c r="F145" t="n">
-        <v>264567.8892</v>
+        <v>169308.3166</v>
       </c>
       <c r="G145" t="n">
-        <v>12.88333333333333</v>
+        <v>12.86833333333333</v>
       </c>
       <c r="H145" t="n">
         <v>0</v>
@@ -5543,10 +5899,10 @@
         <v>13.4</v>
       </c>
       <c r="F146" t="n">
-        <v>128845.6894</v>
+        <v>264567.8892</v>
       </c>
       <c r="G146" t="n">
-        <v>12.89833333333332</v>
+        <v>12.88333333333333</v>
       </c>
       <c r="H146" t="n">
         <v>0</v>
@@ -5569,19 +5925,19 @@
         <v>13.4</v>
       </c>
       <c r="C147" t="n">
-        <v>13.5</v>
+        <v>13.4</v>
       </c>
       <c r="D147" t="n">
-        <v>13.5</v>
+        <v>13.4</v>
       </c>
       <c r="E147" t="n">
         <v>13.4</v>
       </c>
       <c r="F147" t="n">
-        <v>1737.5835</v>
+        <v>128845.6894</v>
       </c>
       <c r="G147" t="n">
-        <v>12.91499999999999</v>
+        <v>12.89833333333332</v>
       </c>
       <c r="H147" t="n">
         <v>0</v>
@@ -5601,7 +5957,7 @@
         <v>146</v>
       </c>
       <c r="B148" t="n">
-        <v>13.5</v>
+        <v>13.4</v>
       </c>
       <c r="C148" t="n">
         <v>13.5</v>
@@ -5610,13 +5966,13 @@
         <v>13.5</v>
       </c>
       <c r="E148" t="n">
-        <v>13.5</v>
+        <v>13.4</v>
       </c>
       <c r="F148" t="n">
-        <v>18974.2962</v>
+        <v>1737.5835</v>
       </c>
       <c r="G148" t="n">
-        <v>12.93166666666666</v>
+        <v>12.91499999999999</v>
       </c>
       <c r="H148" t="n">
         <v>0</v>
@@ -5636,22 +5992,22 @@
         <v>147</v>
       </c>
       <c r="B149" t="n">
-        <v>13.6</v>
+        <v>13.5</v>
       </c>
       <c r="C149" t="n">
-        <v>13.7</v>
+        <v>13.5</v>
       </c>
       <c r="D149" t="n">
-        <v>13.7</v>
+        <v>13.5</v>
       </c>
       <c r="E149" t="n">
         <v>13.5</v>
       </c>
       <c r="F149" t="n">
-        <v>23393.1513</v>
+        <v>18974.2962</v>
       </c>
       <c r="G149" t="n">
-        <v>12.95333333333333</v>
+        <v>12.93166666666666</v>
       </c>
       <c r="H149" t="n">
         <v>0</v>
@@ -5671,7 +6027,7 @@
         <v>148</v>
       </c>
       <c r="B150" t="n">
-        <v>13.7</v>
+        <v>13.6</v>
       </c>
       <c r="C150" t="n">
         <v>13.7</v>
@@ -5680,13 +6036,13 @@
         <v>13.7</v>
       </c>
       <c r="E150" t="n">
-        <v>13.7</v>
+        <v>13.5</v>
       </c>
       <c r="F150" t="n">
-        <v>1657.2262</v>
+        <v>23393.1513</v>
       </c>
       <c r="G150" t="n">
-        <v>12.97499999999999</v>
+        <v>12.95333333333333</v>
       </c>
       <c r="H150" t="n">
         <v>0</v>
@@ -5709,19 +6065,19 @@
         <v>13.7</v>
       </c>
       <c r="C151" t="n">
-        <v>13.8</v>
+        <v>13.7</v>
       </c>
       <c r="D151" t="n">
-        <v>13.8</v>
+        <v>13.7</v>
       </c>
       <c r="E151" t="n">
         <v>13.7</v>
       </c>
       <c r="F151" t="n">
-        <v>94387.54240000001</v>
+        <v>1657.2262</v>
       </c>
       <c r="G151" t="n">
-        <v>12.99499999999999</v>
+        <v>12.97499999999999</v>
       </c>
       <c r="H151" t="n">
         <v>0</v>
@@ -5741,10 +6097,10 @@
         <v>150</v>
       </c>
       <c r="B152" t="n">
+        <v>13.7</v>
+      </c>
+      <c r="C152" t="n">
         <v>13.8</v>
-      </c>
-      <c r="C152" t="n">
-        <v>13.7</v>
       </c>
       <c r="D152" t="n">
         <v>13.8</v>
@@ -5753,10 +6109,10 @@
         <v>13.7</v>
       </c>
       <c r="F152" t="n">
-        <v>21536.8368</v>
+        <v>94387.54240000001</v>
       </c>
       <c r="G152" t="n">
-        <v>13.01333333333333</v>
+        <v>12.99499999999999</v>
       </c>
       <c r="H152" t="n">
         <v>0</v>
@@ -5776,22 +6132,22 @@
         <v>151</v>
       </c>
       <c r="B153" t="n">
+        <v>13.8</v>
+      </c>
+      <c r="C153" t="n">
         <v>13.7</v>
       </c>
-      <c r="C153" t="n">
-        <v>13.6</v>
-      </c>
       <c r="D153" t="n">
+        <v>13.8</v>
+      </c>
+      <c r="E153" t="n">
         <v>13.7</v>
       </c>
-      <c r="E153" t="n">
-        <v>13.6</v>
-      </c>
       <c r="F153" t="n">
-        <v>90985.6882</v>
+        <v>21536.8368</v>
       </c>
       <c r="G153" t="n">
-        <v>13.03333333333333</v>
+        <v>13.01333333333333</v>
       </c>
       <c r="H153" t="n">
         <v>0</v>
@@ -5811,22 +6167,22 @@
         <v>152</v>
       </c>
       <c r="B154" t="n">
-        <v>13.5</v>
+        <v>13.7</v>
       </c>
       <c r="C154" t="n">
-        <v>13.4</v>
+        <v>13.6</v>
       </c>
       <c r="D154" t="n">
-        <v>13.5</v>
+        <v>13.7</v>
       </c>
       <c r="E154" t="n">
-        <v>13.4</v>
+        <v>13.6</v>
       </c>
       <c r="F154" t="n">
-        <v>23774.3714</v>
+        <v>90985.6882</v>
       </c>
       <c r="G154" t="n">
-        <v>13.04999999999999</v>
+        <v>13.03333333333333</v>
       </c>
       <c r="H154" t="n">
         <v>0</v>
@@ -5846,22 +6202,22 @@
         <v>153</v>
       </c>
       <c r="B155" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="C155" t="n">
         <v>13.4</v>
       </c>
-      <c r="C155" t="n">
-        <v>13.6</v>
-      </c>
       <c r="D155" t="n">
-        <v>13.6</v>
+        <v>13.5</v>
       </c>
       <c r="E155" t="n">
         <v>13.4</v>
       </c>
       <c r="F155" t="n">
-        <v>4836.98</v>
+        <v>23774.3714</v>
       </c>
       <c r="G155" t="n">
-        <v>13.06999999999999</v>
+        <v>13.04999999999999</v>
       </c>
       <c r="H155" t="n">
         <v>0</v>
@@ -5881,22 +6237,22 @@
         <v>154</v>
       </c>
       <c r="B156" t="n">
-        <v>13.5</v>
+        <v>13.4</v>
       </c>
       <c r="C156" t="n">
-        <v>13.4</v>
+        <v>13.6</v>
       </c>
       <c r="D156" t="n">
-        <v>13.5</v>
+        <v>13.6</v>
       </c>
       <c r="E156" t="n">
         <v>13.4</v>
       </c>
       <c r="F156" t="n">
-        <v>18847.44</v>
+        <v>4836.98</v>
       </c>
       <c r="G156" t="n">
-        <v>13.085</v>
+        <v>13.06999999999999</v>
       </c>
       <c r="H156" t="n">
         <v>0</v>
@@ -5916,22 +6272,22 @@
         <v>155</v>
       </c>
       <c r="B157" t="n">
-        <v>13.4</v>
+        <v>13.5</v>
       </c>
       <c r="C157" t="n">
         <v>13.4</v>
       </c>
       <c r="D157" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="E157" t="n">
         <v>13.4</v>
       </c>
-      <c r="E157" t="n">
-        <v>13.3</v>
-      </c>
       <c r="F157" t="n">
-        <v>69990.0082</v>
+        <v>18847.44</v>
       </c>
       <c r="G157" t="n">
-        <v>13.09999999999999</v>
+        <v>13.085</v>
       </c>
       <c r="H157" t="n">
         <v>0</v>
@@ -5954,19 +6310,19 @@
         <v>13.4</v>
       </c>
       <c r="C158" t="n">
-        <v>13.5</v>
+        <v>13.4</v>
       </c>
       <c r="D158" t="n">
-        <v>13.5</v>
+        <v>13.4</v>
       </c>
       <c r="E158" t="n">
         <v>13.3</v>
       </c>
       <c r="F158" t="n">
-        <v>73427.38</v>
+        <v>69990.0082</v>
       </c>
       <c r="G158" t="n">
-        <v>13.11499999999999</v>
+        <v>13.09999999999999</v>
       </c>
       <c r="H158" t="n">
         <v>0</v>
@@ -5986,22 +6342,22 @@
         <v>157</v>
       </c>
       <c r="B159" t="n">
-        <v>13.3</v>
+        <v>13.4</v>
       </c>
       <c r="C159" t="n">
-        <v>13.3</v>
+        <v>13.5</v>
       </c>
       <c r="D159" t="n">
-        <v>13.3</v>
+        <v>13.5</v>
       </c>
       <c r="E159" t="n">
         <v>13.3</v>
       </c>
       <c r="F159" t="n">
-        <v>286191.8748142857</v>
+        <v>73427.38</v>
       </c>
       <c r="G159" t="n">
-        <v>13.12833333333333</v>
+        <v>13.11499999999999</v>
       </c>
       <c r="H159" t="n">
         <v>0</v>
@@ -6033,10 +6389,10 @@
         <v>13.3</v>
       </c>
       <c r="F160" t="n">
-        <v>36559.43348571428</v>
+        <v>286191.8748142857</v>
       </c>
       <c r="G160" t="n">
-        <v>13.14166666666666</v>
+        <v>13.12833333333333</v>
       </c>
       <c r="H160" t="n">
         <v>0</v>
@@ -6068,19 +6424,23 @@
         <v>13.3</v>
       </c>
       <c r="F161" t="n">
-        <v>1159.5383</v>
+        <v>36559.43348571428</v>
       </c>
       <c r="G161" t="n">
-        <v>13.15499999999999</v>
+        <v>13.14166666666666</v>
       </c>
       <c r="H161" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I161" t="n">
         <v>0</v>
       </c>
-      <c r="J161" t="inlineStr"/>
-      <c r="K161" t="inlineStr"/>
+      <c r="J161" t="n">
+        <v>13.3</v>
+      </c>
+      <c r="K161" t="n">
+        <v>13.3</v>
+      </c>
       <c r="L161" t="inlineStr"/>
       <c r="M161" t="n">
         <v>1</v>
@@ -6094,29 +6454,37 @@
         <v>13.3</v>
       </c>
       <c r="C162" t="n">
-        <v>13.5</v>
+        <v>13.3</v>
       </c>
       <c r="D162" t="n">
-        <v>13.5</v>
+        <v>13.3</v>
       </c>
       <c r="E162" t="n">
-        <v>13.2</v>
+        <v>13.3</v>
       </c>
       <c r="F162" t="n">
-        <v>106193.106</v>
+        <v>1159.5383</v>
       </c>
       <c r="G162" t="n">
-        <v>13.17166666666666</v>
+        <v>13.15499999999999</v>
       </c>
       <c r="H162" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I162" t="n">
         <v>0</v>
       </c>
-      <c r="J162" t="inlineStr"/>
-      <c r="K162" t="inlineStr"/>
-      <c r="L162" t="inlineStr"/>
+      <c r="J162" t="n">
+        <v>13.3</v>
+      </c>
+      <c r="K162" t="n">
+        <v>13.3</v>
+      </c>
+      <c r="L162" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M162" t="n">
         <v>1</v>
       </c>
@@ -6126,7 +6494,7 @@
         <v>161</v>
       </c>
       <c r="B163" t="n">
-        <v>13.5</v>
+        <v>13.3</v>
       </c>
       <c r="C163" t="n">
         <v>13.5</v>
@@ -6135,23 +6503,31 @@
         <v>13.5</v>
       </c>
       <c r="E163" t="n">
-        <v>13.5</v>
+        <v>13.2</v>
       </c>
       <c r="F163" t="n">
-        <v>260</v>
+        <v>106193.106</v>
       </c>
       <c r="G163" t="n">
-        <v>13.18833333333333</v>
+        <v>13.17166666666666</v>
       </c>
       <c r="H163" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I163" t="n">
         <v>0</v>
       </c>
-      <c r="J163" t="inlineStr"/>
-      <c r="K163" t="inlineStr"/>
-      <c r="L163" t="inlineStr"/>
+      <c r="J163" t="n">
+        <v>13.3</v>
+      </c>
+      <c r="K163" t="n">
+        <v>13.3</v>
+      </c>
+      <c r="L163" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="M163" t="n">
         <v>1</v>
       </c>
@@ -6161,32 +6537,40 @@
         <v>162</v>
       </c>
       <c r="B164" t="n">
-        <v>13.4</v>
+        <v>13.5</v>
       </c>
       <c r="C164" t="n">
-        <v>13.4</v>
+        <v>13.5</v>
       </c>
       <c r="D164" t="n">
-        <v>13.4</v>
+        <v>13.5</v>
       </c>
       <c r="E164" t="n">
-        <v>13.4</v>
+        <v>13.5</v>
       </c>
       <c r="F164" t="n">
-        <v>36260</v>
+        <v>260</v>
       </c>
       <c r="G164" t="n">
-        <v>13.20333333333332</v>
+        <v>13.18833333333333</v>
       </c>
       <c r="H164" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I164" t="n">
         <v>0</v>
       </c>
-      <c r="J164" t="inlineStr"/>
-      <c r="K164" t="inlineStr"/>
-      <c r="L164" t="inlineStr"/>
+      <c r="J164" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="K164" t="n">
+        <v>13.3</v>
+      </c>
+      <c r="L164" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M164" t="n">
         <v>1</v>
       </c>
@@ -6196,32 +6580,40 @@
         <v>163</v>
       </c>
       <c r="B165" t="n">
-        <v>13.5</v>
+        <v>13.4</v>
       </c>
       <c r="C165" t="n">
         <v>13.4</v>
       </c>
       <c r="D165" t="n">
-        <v>13.5</v>
+        <v>13.4</v>
       </c>
       <c r="E165" t="n">
         <v>13.4</v>
       </c>
       <c r="F165" t="n">
-        <v>112277.6225</v>
+        <v>36260</v>
       </c>
       <c r="G165" t="n">
-        <v>13.21833333333332</v>
+        <v>13.20333333333332</v>
       </c>
       <c r="H165" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I165" t="n">
         <v>0</v>
       </c>
-      <c r="J165" t="inlineStr"/>
-      <c r="K165" t="inlineStr"/>
-      <c r="L165" t="inlineStr"/>
+      <c r="J165" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="K165" t="n">
+        <v>13.3</v>
+      </c>
+      <c r="L165" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M165" t="n">
         <v>1</v>
       </c>
@@ -6231,22 +6623,22 @@
         <v>164</v>
       </c>
       <c r="B166" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="C166" t="n">
         <v>13.4</v>
       </c>
-      <c r="C166" t="n">
-        <v>13.6</v>
-      </c>
       <c r="D166" t="n">
-        <v>13.6</v>
+        <v>13.5</v>
       </c>
       <c r="E166" t="n">
         <v>13.4</v>
       </c>
       <c r="F166" t="n">
-        <v>52889.7897</v>
+        <v>112277.6225</v>
       </c>
       <c r="G166" t="n">
-        <v>13.23833333333332</v>
+        <v>13.21833333333332</v>
       </c>
       <c r="H166" t="n">
         <v>0</v>
@@ -6255,8 +6647,14 @@
         <v>0</v>
       </c>
       <c r="J166" t="inlineStr"/>
-      <c r="K166" t="inlineStr"/>
-      <c r="L166" t="inlineStr"/>
+      <c r="K166" t="n">
+        <v>13.3</v>
+      </c>
+      <c r="L166" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M166" t="n">
         <v>1</v>
       </c>
@@ -6266,22 +6664,22 @@
         <v>165</v>
       </c>
       <c r="B167" t="n">
-        <v>13.5</v>
+        <v>13.4</v>
       </c>
       <c r="C167" t="n">
-        <v>13.3</v>
+        <v>13.6</v>
       </c>
       <c r="D167" t="n">
-        <v>13.5</v>
+        <v>13.6</v>
       </c>
       <c r="E167" t="n">
-        <v>13.3</v>
+        <v>13.4</v>
       </c>
       <c r="F167" t="n">
-        <v>85729.32000000001</v>
+        <v>52889.7897</v>
       </c>
       <c r="G167" t="n">
-        <v>13.25166666666666</v>
+        <v>13.23833333333332</v>
       </c>
       <c r="H167" t="n">
         <v>0</v>
@@ -6290,8 +6688,14 @@
         <v>0</v>
       </c>
       <c r="J167" t="inlineStr"/>
-      <c r="K167" t="inlineStr"/>
-      <c r="L167" t="inlineStr"/>
+      <c r="K167" t="n">
+        <v>13.3</v>
+      </c>
+      <c r="L167" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M167" t="n">
         <v>1</v>
       </c>
@@ -6313,10 +6717,10 @@
         <v>13.3</v>
       </c>
       <c r="F168" t="n">
-        <v>73788.9452</v>
+        <v>85729.32000000001</v>
       </c>
       <c r="G168" t="n">
-        <v>13.26666666666666</v>
+        <v>13.25166666666666</v>
       </c>
       <c r="H168" t="n">
         <v>0</v>
@@ -6325,8 +6729,14 @@
         <v>0</v>
       </c>
       <c r="J168" t="inlineStr"/>
-      <c r="K168" t="inlineStr"/>
-      <c r="L168" t="inlineStr"/>
+      <c r="K168" t="n">
+        <v>13.3</v>
+      </c>
+      <c r="L168" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M168" t="n">
         <v>1</v>
       </c>
@@ -6339,19 +6749,19 @@
         <v>13.5</v>
       </c>
       <c r="C169" t="n">
-        <v>13.5</v>
+        <v>13.3</v>
       </c>
       <c r="D169" t="n">
         <v>13.5</v>
       </c>
       <c r="E169" t="n">
-        <v>13.5</v>
+        <v>13.3</v>
       </c>
       <c r="F169" t="n">
-        <v>17408</v>
+        <v>73788.9452</v>
       </c>
       <c r="G169" t="n">
-        <v>13.28333333333332</v>
+        <v>13.26666666666666</v>
       </c>
       <c r="H169" t="n">
         <v>0</v>
@@ -6360,8 +6770,14 @@
         <v>0</v>
       </c>
       <c r="J169" t="inlineStr"/>
-      <c r="K169" t="inlineStr"/>
-      <c r="L169" t="inlineStr"/>
+      <c r="K169" t="n">
+        <v>13.3</v>
+      </c>
+      <c r="L169" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M169" t="n">
         <v>1</v>
       </c>
@@ -6374,19 +6790,19 @@
         <v>13.5</v>
       </c>
       <c r="C170" t="n">
-        <v>13.4</v>
+        <v>13.5</v>
       </c>
       <c r="D170" t="n">
         <v>13.5</v>
       </c>
       <c r="E170" t="n">
-        <v>13.4</v>
+        <v>13.5</v>
       </c>
       <c r="F170" t="n">
-        <v>16556.6854</v>
+        <v>17408</v>
       </c>
       <c r="G170" t="n">
-        <v>13.29666666666666</v>
+        <v>13.28333333333332</v>
       </c>
       <c r="H170" t="n">
         <v>0</v>
@@ -6395,8 +6811,14 @@
         <v>0</v>
       </c>
       <c r="J170" t="inlineStr"/>
-      <c r="K170" t="inlineStr"/>
-      <c r="L170" t="inlineStr"/>
+      <c r="K170" t="n">
+        <v>13.3</v>
+      </c>
+      <c r="L170" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M170" t="n">
         <v>1</v>
       </c>
@@ -6406,22 +6828,22 @@
         <v>169</v>
       </c>
       <c r="B171" t="n">
-        <v>13.4</v>
+        <v>13.5</v>
       </c>
       <c r="C171" t="n">
         <v>13.4</v>
       </c>
       <c r="D171" t="n">
-        <v>13.4</v>
+        <v>13.5</v>
       </c>
       <c r="E171" t="n">
         <v>13.4</v>
       </c>
       <c r="F171" t="n">
-        <v>16220</v>
+        <v>16556.6854</v>
       </c>
       <c r="G171" t="n">
-        <v>13.31333333333332</v>
+        <v>13.29666666666666</v>
       </c>
       <c r="H171" t="n">
         <v>0</v>
@@ -6430,8 +6852,14 @@
         <v>0</v>
       </c>
       <c r="J171" t="inlineStr"/>
-      <c r="K171" t="inlineStr"/>
-      <c r="L171" t="inlineStr"/>
+      <c r="K171" t="n">
+        <v>13.3</v>
+      </c>
+      <c r="L171" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M171" t="n">
         <v>1</v>
       </c>
@@ -6441,22 +6869,22 @@
         <v>170</v>
       </c>
       <c r="B172" t="n">
-        <v>13.5</v>
+        <v>13.4</v>
       </c>
       <c r="C172" t="n">
-        <v>13.5</v>
+        <v>13.4</v>
       </c>
       <c r="D172" t="n">
-        <v>13.5</v>
+        <v>13.4</v>
       </c>
       <c r="E172" t="n">
-        <v>13.5</v>
+        <v>13.4</v>
       </c>
       <c r="F172" t="n">
-        <v>51.4074</v>
+        <v>16220</v>
       </c>
       <c r="G172" t="n">
-        <v>13.32833333333332</v>
+        <v>13.31333333333332</v>
       </c>
       <c r="H172" t="n">
         <v>0</v>
@@ -6465,8 +6893,14 @@
         <v>0</v>
       </c>
       <c r="J172" t="inlineStr"/>
-      <c r="K172" t="inlineStr"/>
-      <c r="L172" t="inlineStr"/>
+      <c r="K172" t="n">
+        <v>13.3</v>
+      </c>
+      <c r="L172" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M172" t="n">
         <v>1</v>
       </c>
@@ -6476,22 +6910,22 @@
         <v>171</v>
       </c>
       <c r="B173" t="n">
-        <v>13.4</v>
+        <v>13.5</v>
       </c>
       <c r="C173" t="n">
-        <v>13.4</v>
+        <v>13.5</v>
       </c>
       <c r="D173" t="n">
-        <v>13.4</v>
+        <v>13.5</v>
       </c>
       <c r="E173" t="n">
-        <v>13.4</v>
+        <v>13.5</v>
       </c>
       <c r="F173" t="n">
-        <v>6863.27</v>
+        <v>51.4074</v>
       </c>
       <c r="G173" t="n">
-        <v>13.34333333333332</v>
+        <v>13.32833333333332</v>
       </c>
       <c r="H173" t="n">
         <v>0</v>
@@ -6500,8 +6934,14 @@
         <v>0</v>
       </c>
       <c r="J173" t="inlineStr"/>
-      <c r="K173" t="inlineStr"/>
-      <c r="L173" t="inlineStr"/>
+      <c r="K173" t="n">
+        <v>13.3</v>
+      </c>
+      <c r="L173" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M173" t="n">
         <v>1</v>
       </c>
@@ -6523,10 +6963,10 @@
         <v>13.4</v>
       </c>
       <c r="F174" t="n">
-        <v>3256.73</v>
+        <v>6863.27</v>
       </c>
       <c r="G174" t="n">
-        <v>13.35666666666665</v>
+        <v>13.34333333333332</v>
       </c>
       <c r="H174" t="n">
         <v>0</v>
@@ -6535,8 +6975,14 @@
         <v>0</v>
       </c>
       <c r="J174" t="inlineStr"/>
-      <c r="K174" t="inlineStr"/>
-      <c r="L174" t="inlineStr"/>
+      <c r="K174" t="n">
+        <v>13.3</v>
+      </c>
+      <c r="L174" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M174" t="n">
         <v>1</v>
       </c>
@@ -6546,22 +6992,22 @@
         <v>173</v>
       </c>
       <c r="B175" t="n">
-        <v>13.3</v>
+        <v>13.4</v>
       </c>
       <c r="C175" t="n">
-        <v>13.3</v>
+        <v>13.4</v>
       </c>
       <c r="D175" t="n">
-        <v>13.3</v>
+        <v>13.4</v>
       </c>
       <c r="E175" t="n">
-        <v>13.1</v>
+        <v>13.4</v>
       </c>
       <c r="F175" t="n">
-        <v>173070.0249</v>
+        <v>3256.73</v>
       </c>
       <c r="G175" t="n">
-        <v>13.36999999999999</v>
+        <v>13.35666666666665</v>
       </c>
       <c r="H175" t="n">
         <v>0</v>
@@ -6570,8 +7016,14 @@
         <v>0</v>
       </c>
       <c r="J175" t="inlineStr"/>
-      <c r="K175" t="inlineStr"/>
-      <c r="L175" t="inlineStr"/>
+      <c r="K175" t="n">
+        <v>13.3</v>
+      </c>
+      <c r="L175" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M175" t="n">
         <v>1</v>
       </c>
@@ -6581,22 +7033,22 @@
         <v>174</v>
       </c>
       <c r="B176" t="n">
-        <v>13.4</v>
+        <v>13.3</v>
       </c>
       <c r="C176" t="n">
-        <v>13.4</v>
+        <v>13.3</v>
       </c>
       <c r="D176" t="n">
-        <v>13.5</v>
+        <v>13.3</v>
       </c>
       <c r="E176" t="n">
-        <v>13.4</v>
+        <v>13.1</v>
       </c>
       <c r="F176" t="n">
-        <v>75594.62119999999</v>
+        <v>173070.0249</v>
       </c>
       <c r="G176" t="n">
-        <v>13.38333333333332</v>
+        <v>13.36999999999999</v>
       </c>
       <c r="H176" t="n">
         <v>0</v>
@@ -6605,8 +7057,14 @@
         <v>0</v>
       </c>
       <c r="J176" t="inlineStr"/>
-      <c r="K176" t="inlineStr"/>
-      <c r="L176" t="inlineStr"/>
+      <c r="K176" t="n">
+        <v>13.3</v>
+      </c>
+      <c r="L176" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M176" t="n">
         <v>1</v>
       </c>
@@ -6616,22 +7074,22 @@
         <v>175</v>
       </c>
       <c r="B177" t="n">
-        <v>13.3</v>
+        <v>13.4</v>
       </c>
       <c r="C177" t="n">
-        <v>13.3</v>
+        <v>13.4</v>
       </c>
       <c r="D177" t="n">
-        <v>13.3</v>
+        <v>13.5</v>
       </c>
       <c r="E177" t="n">
-        <v>13.3</v>
+        <v>13.4</v>
       </c>
       <c r="F177" t="n">
-        <v>51.2781</v>
+        <v>75594.62119999999</v>
       </c>
       <c r="G177" t="n">
-        <v>13.39499999999999</v>
+        <v>13.38333333333332</v>
       </c>
       <c r="H177" t="n">
         <v>0</v>
@@ -6640,8 +7098,14 @@
         <v>0</v>
       </c>
       <c r="J177" t="inlineStr"/>
-      <c r="K177" t="inlineStr"/>
-      <c r="L177" t="inlineStr"/>
+      <c r="K177" t="n">
+        <v>13.3</v>
+      </c>
+      <c r="L177" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M177" t="n">
         <v>1</v>
       </c>
@@ -6654,19 +7118,19 @@
         <v>13.3</v>
       </c>
       <c r="C178" t="n">
-        <v>13.5</v>
+        <v>13.3</v>
       </c>
       <c r="D178" t="n">
-        <v>13.5</v>
+        <v>13.3</v>
       </c>
       <c r="E178" t="n">
         <v>13.3</v>
       </c>
       <c r="F178" t="n">
-        <v>62214.2659</v>
+        <v>51.2781</v>
       </c>
       <c r="G178" t="n">
-        <v>13.41166666666665</v>
+        <v>13.39499999999999</v>
       </c>
       <c r="H178" t="n">
         <v>0</v>
@@ -6675,8 +7139,14 @@
         <v>0</v>
       </c>
       <c r="J178" t="inlineStr"/>
-      <c r="K178" t="inlineStr"/>
-      <c r="L178" t="inlineStr"/>
+      <c r="K178" t="n">
+        <v>13.3</v>
+      </c>
+      <c r="L178" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M178" t="n">
         <v>1</v>
       </c>
@@ -6686,22 +7156,22 @@
         <v>177</v>
       </c>
       <c r="B179" t="n">
+        <v>13.3</v>
+      </c>
+      <c r="C179" t="n">
         <v>13.5</v>
       </c>
-      <c r="C179" t="n">
-        <v>13.8</v>
-      </c>
       <c r="D179" t="n">
-        <v>13.8</v>
+        <v>13.5</v>
       </c>
       <c r="E179" t="n">
-        <v>13.5</v>
+        <v>13.3</v>
       </c>
       <c r="F179" t="n">
-        <v>368297.7938</v>
+        <v>62214.2659</v>
       </c>
       <c r="G179" t="n">
-        <v>13.42999999999998</v>
+        <v>13.41166666666665</v>
       </c>
       <c r="H179" t="n">
         <v>0</v>
@@ -6710,8 +7180,14 @@
         <v>0</v>
       </c>
       <c r="J179" t="inlineStr"/>
-      <c r="K179" t="inlineStr"/>
-      <c r="L179" t="inlineStr"/>
+      <c r="K179" t="n">
+        <v>13.3</v>
+      </c>
+      <c r="L179" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M179" t="n">
         <v>1</v>
       </c>
@@ -6721,22 +7197,22 @@
         <v>178</v>
       </c>
       <c r="B180" t="n">
-        <v>13.9</v>
+        <v>13.5</v>
       </c>
       <c r="C180" t="n">
-        <v>14</v>
+        <v>13.8</v>
       </c>
       <c r="D180" t="n">
-        <v>14</v>
+        <v>13.8</v>
       </c>
       <c r="E180" t="n">
-        <v>13.8</v>
+        <v>13.5</v>
       </c>
       <c r="F180" t="n">
-        <v>149243.5526</v>
+        <v>368297.7938</v>
       </c>
       <c r="G180" t="n">
-        <v>13.45499999999998</v>
+        <v>13.42999999999998</v>
       </c>
       <c r="H180" t="n">
         <v>0</v>
@@ -6745,8 +7221,14 @@
         <v>0</v>
       </c>
       <c r="J180" t="inlineStr"/>
-      <c r="K180" t="inlineStr"/>
-      <c r="L180" t="inlineStr"/>
+      <c r="K180" t="n">
+        <v>13.3</v>
+      </c>
+      <c r="L180" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M180" t="n">
         <v>1</v>
       </c>
@@ -6756,22 +7238,22 @@
         <v>179</v>
       </c>
       <c r="B181" t="n">
-        <v>14</v>
+        <v>13.9</v>
       </c>
       <c r="C181" t="n">
         <v>14</v>
       </c>
       <c r="D181" t="n">
-        <v>14.1</v>
+        <v>14</v>
       </c>
       <c r="E181" t="n">
-        <v>14</v>
+        <v>13.8</v>
       </c>
       <c r="F181" t="n">
-        <v>294104.067</v>
+        <v>149243.5526</v>
       </c>
       <c r="G181" t="n">
-        <v>13.48166666666665</v>
+        <v>13.45499999999998</v>
       </c>
       <c r="H181" t="n">
         <v>0</v>
@@ -6780,8 +7262,14 @@
         <v>0</v>
       </c>
       <c r="J181" t="inlineStr"/>
-      <c r="K181" t="inlineStr"/>
-      <c r="L181" t="inlineStr"/>
+      <c r="K181" t="n">
+        <v>13.3</v>
+      </c>
+      <c r="L181" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M181" t="n">
         <v>1</v>
       </c>
@@ -6794,19 +7282,19 @@
         <v>14</v>
       </c>
       <c r="C182" t="n">
-        <v>14.2</v>
+        <v>14</v>
       </c>
       <c r="D182" t="n">
-        <v>14.3</v>
+        <v>14.1</v>
       </c>
       <c r="E182" t="n">
         <v>14</v>
       </c>
       <c r="F182" t="n">
-        <v>385450.2265615385</v>
+        <v>294104.067</v>
       </c>
       <c r="G182" t="n">
-        <v>13.50999999999999</v>
+        <v>13.48166666666665</v>
       </c>
       <c r="H182" t="n">
         <v>0</v>
@@ -6815,8 +7303,14 @@
         <v>0</v>
       </c>
       <c r="J182" t="inlineStr"/>
-      <c r="K182" t="inlineStr"/>
-      <c r="L182" t="inlineStr"/>
+      <c r="K182" t="n">
+        <v>13.3</v>
+      </c>
+      <c r="L182" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M182" t="n">
         <v>1</v>
       </c>
@@ -6826,22 +7320,22 @@
         <v>181</v>
       </c>
       <c r="B183" t="n">
-        <v>14.3</v>
+        <v>14</v>
       </c>
       <c r="C183" t="n">
-        <v>14.3</v>
+        <v>14.2</v>
       </c>
       <c r="D183" t="n">
         <v>14.3</v>
       </c>
       <c r="E183" t="n">
-        <v>14.2</v>
+        <v>14</v>
       </c>
       <c r="F183" t="n">
-        <v>193175.0285</v>
+        <v>385450.2265615385</v>
       </c>
       <c r="G183" t="n">
-        <v>13.53499999999999</v>
+        <v>13.50999999999999</v>
       </c>
       <c r="H183" t="n">
         <v>0</v>
@@ -6850,8 +7344,14 @@
         <v>0</v>
       </c>
       <c r="J183" t="inlineStr"/>
-      <c r="K183" t="inlineStr"/>
-      <c r="L183" t="inlineStr"/>
+      <c r="K183" t="n">
+        <v>13.3</v>
+      </c>
+      <c r="L183" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M183" t="n">
         <v>1</v>
       </c>
@@ -6864,29 +7364,35 @@
         <v>14.3</v>
       </c>
       <c r="C184" t="n">
-        <v>14.1</v>
+        <v>14.3</v>
       </c>
       <c r="D184" t="n">
         <v>14.3</v>
       </c>
       <c r="E184" t="n">
-        <v>13.9</v>
+        <v>14.2</v>
       </c>
       <c r="F184" t="n">
-        <v>284920.8378</v>
+        <v>193175.0285</v>
       </c>
       <c r="G184" t="n">
-        <v>13.55666666666665</v>
+        <v>13.53499999999999</v>
       </c>
       <c r="H184" t="n">
         <v>0</v>
       </c>
       <c r="I184" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J184" t="inlineStr"/>
-      <c r="K184" t="inlineStr"/>
-      <c r="L184" t="inlineStr"/>
+      <c r="K184" t="n">
+        <v>13.3</v>
+      </c>
+      <c r="L184" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M184" t="n">
         <v>1</v>
       </c>
@@ -6896,32 +7402,38 @@
         <v>183</v>
       </c>
       <c r="B185" t="n">
+        <v>14.3</v>
+      </c>
+      <c r="C185" t="n">
         <v>14.1</v>
       </c>
-      <c r="C185" t="n">
-        <v>13.8</v>
-      </c>
       <c r="D185" t="n">
-        <v>14.1</v>
+        <v>14.3</v>
       </c>
       <c r="E185" t="n">
-        <v>13.8</v>
+        <v>13.9</v>
       </c>
       <c r="F185" t="n">
-        <v>354348.264</v>
+        <v>284920.8378</v>
       </c>
       <c r="G185" t="n">
-        <v>13.57166666666665</v>
+        <v>13.55666666666665</v>
       </c>
       <c r="H185" t="n">
         <v>0</v>
       </c>
       <c r="I185" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J185" t="inlineStr"/>
-      <c r="K185" t="inlineStr"/>
-      <c r="L185" t="inlineStr"/>
+      <c r="K185" t="n">
+        <v>13.3</v>
+      </c>
+      <c r="L185" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M185" t="n">
         <v>1</v>
       </c>
@@ -6931,22 +7443,22 @@
         <v>184</v>
       </c>
       <c r="B186" t="n">
-        <v>13.9</v>
+        <v>14.1</v>
       </c>
       <c r="C186" t="n">
-        <v>14.2</v>
+        <v>13.8</v>
       </c>
       <c r="D186" t="n">
-        <v>14.2</v>
+        <v>14.1</v>
       </c>
       <c r="E186" t="n">
-        <v>13.9</v>
+        <v>13.8</v>
       </c>
       <c r="F186" t="n">
-        <v>405970.82</v>
+        <v>354348.264</v>
       </c>
       <c r="G186" t="n">
-        <v>13.59333333333332</v>
+        <v>13.57166666666665</v>
       </c>
       <c r="H186" t="n">
         <v>0</v>
@@ -6955,8 +7467,14 @@
         <v>0</v>
       </c>
       <c r="J186" t="inlineStr"/>
-      <c r="K186" t="inlineStr"/>
-      <c r="L186" t="inlineStr"/>
+      <c r="K186" t="n">
+        <v>13.3</v>
+      </c>
+      <c r="L186" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M186" t="n">
         <v>1</v>
       </c>
@@ -6966,22 +7484,22 @@
         <v>185</v>
       </c>
       <c r="B187" t="n">
-        <v>14.1</v>
+        <v>13.9</v>
       </c>
       <c r="C187" t="n">
-        <v>14</v>
+        <v>14.2</v>
       </c>
       <c r="D187" t="n">
         <v>14.2</v>
       </c>
       <c r="E187" t="n">
-        <v>14</v>
+        <v>13.9</v>
       </c>
       <c r="F187" t="n">
-        <v>34452.8152</v>
+        <v>405970.82</v>
       </c>
       <c r="G187" t="n">
-        <v>13.61166666666665</v>
+        <v>13.59333333333332</v>
       </c>
       <c r="H187" t="n">
         <v>0</v>
@@ -6990,8 +7508,14 @@
         <v>0</v>
       </c>
       <c r="J187" t="inlineStr"/>
-      <c r="K187" t="inlineStr"/>
-      <c r="L187" t="inlineStr"/>
+      <c r="K187" t="n">
+        <v>13.3</v>
+      </c>
+      <c r="L187" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M187" t="n">
         <v>1</v>
       </c>
@@ -7007,16 +7531,16 @@
         <v>14</v>
       </c>
       <c r="D188" t="n">
-        <v>14.1</v>
+        <v>14.2</v>
       </c>
       <c r="E188" t="n">
         <v>14</v>
       </c>
       <c r="F188" t="n">
-        <v>55878.8711</v>
+        <v>34452.8152</v>
       </c>
       <c r="G188" t="n">
-        <v>13.62666666666665</v>
+        <v>13.61166666666665</v>
       </c>
       <c r="H188" t="n">
         <v>0</v>
@@ -7025,8 +7549,14 @@
         <v>0</v>
       </c>
       <c r="J188" t="inlineStr"/>
-      <c r="K188" t="inlineStr"/>
-      <c r="L188" t="inlineStr"/>
+      <c r="K188" t="n">
+        <v>13.3</v>
+      </c>
+      <c r="L188" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M188" t="n">
         <v>1</v>
       </c>
@@ -7036,22 +7566,22 @@
         <v>187</v>
       </c>
       <c r="B189" t="n">
-        <v>14</v>
+        <v>14.1</v>
       </c>
       <c r="C189" t="n">
         <v>14</v>
       </c>
       <c r="D189" t="n">
-        <v>14</v>
+        <v>14.1</v>
       </c>
       <c r="E189" t="n">
         <v>14</v>
       </c>
       <c r="F189" t="n">
-        <v>169714.2832</v>
+        <v>55878.8711</v>
       </c>
       <c r="G189" t="n">
-        <v>13.63333333333332</v>
+        <v>13.62666666666665</v>
       </c>
       <c r="H189" t="n">
         <v>0</v>
@@ -7060,8 +7590,14 @@
         <v>0</v>
       </c>
       <c r="J189" t="inlineStr"/>
-      <c r="K189" t="inlineStr"/>
-      <c r="L189" t="inlineStr"/>
+      <c r="K189" t="n">
+        <v>13.3</v>
+      </c>
+      <c r="L189" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M189" t="n">
         <v>1</v>
       </c>
@@ -7074,19 +7610,19 @@
         <v>14</v>
       </c>
       <c r="C190" t="n">
-        <v>13.8</v>
+        <v>14</v>
       </c>
       <c r="D190" t="n">
         <v>14</v>
       </c>
       <c r="E190" t="n">
-        <v>13.8</v>
+        <v>14</v>
       </c>
       <c r="F190" t="n">
-        <v>292348.8585</v>
+        <v>169714.2832</v>
       </c>
       <c r="G190" t="n">
-        <v>13.63666666666665</v>
+        <v>13.63333333333332</v>
       </c>
       <c r="H190" t="n">
         <v>0</v>
@@ -7095,8 +7631,14 @@
         <v>0</v>
       </c>
       <c r="J190" t="inlineStr"/>
-      <c r="K190" t="inlineStr"/>
-      <c r="L190" t="inlineStr"/>
+      <c r="K190" t="n">
+        <v>13.3</v>
+      </c>
+      <c r="L190" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M190" t="n">
         <v>1</v>
       </c>
@@ -7118,10 +7660,10 @@
         <v>13.8</v>
       </c>
       <c r="F191" t="n">
-        <v>227007.4411</v>
+        <v>292348.8585</v>
       </c>
       <c r="G191" t="n">
-        <v>13.63499999999999</v>
+        <v>13.63666666666665</v>
       </c>
       <c r="H191" t="n">
         <v>0</v>
@@ -7130,8 +7672,14 @@
         <v>0</v>
       </c>
       <c r="J191" t="inlineStr"/>
-      <c r="K191" t="inlineStr"/>
-      <c r="L191" t="inlineStr"/>
+      <c r="K191" t="n">
+        <v>13.3</v>
+      </c>
+      <c r="L191" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M191" t="n">
         <v>1</v>
       </c>
@@ -7141,22 +7689,22 @@
         <v>190</v>
       </c>
       <c r="B192" t="n">
-        <v>13.8</v>
+        <v>14</v>
       </c>
       <c r="C192" t="n">
         <v>13.8</v>
       </c>
       <c r="D192" t="n">
-        <v>13.8</v>
+        <v>14</v>
       </c>
       <c r="E192" t="n">
         <v>13.8</v>
       </c>
       <c r="F192" t="n">
-        <v>3116.27</v>
+        <v>227007.4411</v>
       </c>
       <c r="G192" t="n">
-        <v>13.63833333333332</v>
+        <v>13.63499999999999</v>
       </c>
       <c r="H192" t="n">
         <v>0</v>
@@ -7165,8 +7713,14 @@
         <v>0</v>
       </c>
       <c r="J192" t="inlineStr"/>
-      <c r="K192" t="inlineStr"/>
-      <c r="L192" t="inlineStr"/>
+      <c r="K192" t="n">
+        <v>13.3</v>
+      </c>
+      <c r="L192" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M192" t="n">
         <v>1</v>
       </c>
@@ -7188,10 +7742,10 @@
         <v>13.8</v>
       </c>
       <c r="F193" t="n">
-        <v>7252.56</v>
+        <v>3116.27</v>
       </c>
       <c r="G193" t="n">
-        <v>13.63999999999998</v>
+        <v>13.63833333333332</v>
       </c>
       <c r="H193" t="n">
         <v>0</v>
@@ -7200,8 +7754,14 @@
         <v>0</v>
       </c>
       <c r="J193" t="inlineStr"/>
-      <c r="K193" t="inlineStr"/>
-      <c r="L193" t="inlineStr"/>
+      <c r="K193" t="n">
+        <v>13.3</v>
+      </c>
+      <c r="L193" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M193" t="n">
         <v>1</v>
       </c>
@@ -7214,19 +7774,19 @@
         <v>13.8</v>
       </c>
       <c r="C194" t="n">
-        <v>13.7</v>
+        <v>13.8</v>
       </c>
       <c r="D194" t="n">
         <v>13.8</v>
       </c>
       <c r="E194" t="n">
-        <v>13.7</v>
+        <v>13.8</v>
       </c>
       <c r="F194" t="n">
-        <v>174676.8266</v>
+        <v>7252.56</v>
       </c>
       <c r="G194" t="n">
-        <v>13.63166666666665</v>
+        <v>13.63999999999998</v>
       </c>
       <c r="H194" t="n">
         <v>0</v>
@@ -7235,8 +7795,14 @@
         <v>0</v>
       </c>
       <c r="J194" t="inlineStr"/>
-      <c r="K194" t="inlineStr"/>
-      <c r="L194" t="inlineStr"/>
+      <c r="K194" t="n">
+        <v>13.3</v>
+      </c>
+      <c r="L194" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M194" t="n">
         <v>1</v>
       </c>
@@ -7246,22 +7812,22 @@
         <v>193</v>
       </c>
       <c r="B195" t="n">
-        <v>13.9</v>
+        <v>13.8</v>
       </c>
       <c r="C195" t="n">
-        <v>13.9</v>
+        <v>13.7</v>
       </c>
       <c r="D195" t="n">
-        <v>13.9</v>
+        <v>13.8</v>
       </c>
       <c r="E195" t="n">
-        <v>13.9</v>
+        <v>13.7</v>
       </c>
       <c r="F195" t="n">
-        <v>10</v>
+        <v>174676.8266</v>
       </c>
       <c r="G195" t="n">
-        <v>13.62666666666665</v>
+        <v>13.63166666666665</v>
       </c>
       <c r="H195" t="n">
         <v>0</v>
@@ -7270,8 +7836,14 @@
         <v>0</v>
       </c>
       <c r="J195" t="inlineStr"/>
-      <c r="K195" t="inlineStr"/>
-      <c r="L195" t="inlineStr"/>
+      <c r="K195" t="n">
+        <v>13.3</v>
+      </c>
+      <c r="L195" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M195" t="n">
         <v>1</v>
       </c>
@@ -7293,10 +7865,10 @@
         <v>13.9</v>
       </c>
       <c r="F196" t="n">
-        <v>28617.6978</v>
+        <v>10</v>
       </c>
       <c r="G196" t="n">
-        <v>13.62999999999998</v>
+        <v>13.62666666666665</v>
       </c>
       <c r="H196" t="n">
         <v>0</v>
@@ -7305,8 +7877,14 @@
         <v>0</v>
       </c>
       <c r="J196" t="inlineStr"/>
-      <c r="K196" t="inlineStr"/>
-      <c r="L196" t="inlineStr"/>
+      <c r="K196" t="n">
+        <v>13.3</v>
+      </c>
+      <c r="L196" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M196" t="n">
         <v>1</v>
       </c>
@@ -7328,10 +7906,10 @@
         <v>13.9</v>
       </c>
       <c r="F197" t="n">
-        <v>10190</v>
+        <v>28617.6978</v>
       </c>
       <c r="G197" t="n">
-        <v>13.63333333333331</v>
+        <v>13.62999999999998</v>
       </c>
       <c r="H197" t="n">
         <v>0</v>
@@ -7340,8 +7918,14 @@
         <v>0</v>
       </c>
       <c r="J197" t="inlineStr"/>
-      <c r="K197" t="inlineStr"/>
-      <c r="L197" t="inlineStr"/>
+      <c r="K197" t="n">
+        <v>13.3</v>
+      </c>
+      <c r="L197" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M197" t="n">
         <v>1</v>
       </c>
@@ -7351,7 +7935,7 @@
         <v>196</v>
       </c>
       <c r="B198" t="n">
-        <v>13.8</v>
+        <v>13.9</v>
       </c>
       <c r="C198" t="n">
         <v>13.9</v>
@@ -7360,13 +7944,13 @@
         <v>13.9</v>
       </c>
       <c r="E198" t="n">
-        <v>13.8</v>
+        <v>13.9</v>
       </c>
       <c r="F198" t="n">
-        <v>67961.6951</v>
+        <v>10190</v>
       </c>
       <c r="G198" t="n">
-        <v>13.63666666666665</v>
+        <v>13.63333333333331</v>
       </c>
       <c r="H198" t="n">
         <v>0</v>
@@ -7375,8 +7959,14 @@
         <v>0</v>
       </c>
       <c r="J198" t="inlineStr"/>
-      <c r="K198" t="inlineStr"/>
-      <c r="L198" t="inlineStr"/>
+      <c r="K198" t="n">
+        <v>13.3</v>
+      </c>
+      <c r="L198" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M198" t="n">
         <v>1</v>
       </c>
@@ -7386,7 +7976,7 @@
         <v>197</v>
       </c>
       <c r="B199" t="n">
-        <v>13.9</v>
+        <v>13.8</v>
       </c>
       <c r="C199" t="n">
         <v>13.9</v>
@@ -7395,13 +7985,13 @@
         <v>13.9</v>
       </c>
       <c r="E199" t="n">
-        <v>13.9</v>
+        <v>13.8</v>
       </c>
       <c r="F199" t="n">
-        <v>4999.6035</v>
+        <v>67961.6951</v>
       </c>
       <c r="G199" t="n">
-        <v>13.63833333333331</v>
+        <v>13.63666666666665</v>
       </c>
       <c r="H199" t="n">
         <v>0</v>
@@ -7410,8 +8000,14 @@
         <v>0</v>
       </c>
       <c r="J199" t="inlineStr"/>
-      <c r="K199" t="inlineStr"/>
-      <c r="L199" t="inlineStr"/>
+      <c r="K199" t="n">
+        <v>13.3</v>
+      </c>
+      <c r="L199" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M199" t="n">
         <v>1</v>
       </c>
@@ -7433,10 +8029,10 @@
         <v>13.9</v>
       </c>
       <c r="F200" t="n">
-        <v>31424.3567</v>
+        <v>4999.6035</v>
       </c>
       <c r="G200" t="n">
-        <v>13.64166666666664</v>
+        <v>13.63833333333331</v>
       </c>
       <c r="H200" t="n">
         <v>0</v>
@@ -7445,8 +8041,14 @@
         <v>0</v>
       </c>
       <c r="J200" t="inlineStr"/>
-      <c r="K200" t="inlineStr"/>
-      <c r="L200" t="inlineStr"/>
+      <c r="K200" t="n">
+        <v>13.3</v>
+      </c>
+      <c r="L200" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M200" t="n">
         <v>1</v>
       </c>
@@ -7459,19 +8061,19 @@
         <v>13.9</v>
       </c>
       <c r="C201" t="n">
-        <v>13.7</v>
+        <v>13.9</v>
       </c>
       <c r="D201" t="n">
         <v>13.9</v>
       </c>
       <c r="E201" t="n">
-        <v>13.7</v>
+        <v>13.9</v>
       </c>
       <c r="F201" t="n">
-        <v>71620.7884</v>
+        <v>31424.3567</v>
       </c>
       <c r="G201" t="n">
-        <v>13.64333333333331</v>
+        <v>13.64166666666664</v>
       </c>
       <c r="H201" t="n">
         <v>0</v>
@@ -7480,8 +8082,14 @@
         <v>0</v>
       </c>
       <c r="J201" t="inlineStr"/>
-      <c r="K201" t="inlineStr"/>
-      <c r="L201" t="inlineStr"/>
+      <c r="K201" t="n">
+        <v>13.3</v>
+      </c>
+      <c r="L201" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M201" t="n">
         <v>1</v>
       </c>
@@ -7491,22 +8099,22 @@
         <v>200</v>
       </c>
       <c r="B202" t="n">
-        <v>13.7</v>
+        <v>13.9</v>
       </c>
       <c r="C202" t="n">
         <v>13.7</v>
       </c>
       <c r="D202" t="n">
-        <v>13.7</v>
+        <v>13.9</v>
       </c>
       <c r="E202" t="n">
         <v>13.7</v>
       </c>
       <c r="F202" t="n">
-        <v>70503.8101</v>
+        <v>71620.7884</v>
       </c>
       <c r="G202" t="n">
-        <v>13.64499999999998</v>
+        <v>13.64333333333331</v>
       </c>
       <c r="H202" t="n">
         <v>0</v>
@@ -7515,8 +8123,14 @@
         <v>0</v>
       </c>
       <c r="J202" t="inlineStr"/>
-      <c r="K202" t="inlineStr"/>
-      <c r="L202" t="inlineStr"/>
+      <c r="K202" t="n">
+        <v>13.3</v>
+      </c>
+      <c r="L202" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M202" t="n">
         <v>1</v>
       </c>
@@ -7538,10 +8152,10 @@
         <v>13.7</v>
       </c>
       <c r="F203" t="n">
-        <v>1127.8715</v>
+        <v>70503.8101</v>
       </c>
       <c r="G203" t="n">
-        <v>13.64666666666665</v>
+        <v>13.64499999999998</v>
       </c>
       <c r="H203" t="n">
         <v>0</v>
@@ -7550,8 +8164,14 @@
         <v>0</v>
       </c>
       <c r="J203" t="inlineStr"/>
-      <c r="K203" t="inlineStr"/>
-      <c r="L203" t="inlineStr"/>
+      <c r="K203" t="n">
+        <v>13.3</v>
+      </c>
+      <c r="L203" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M203" t="n">
         <v>1</v>
       </c>
@@ -7561,22 +8181,22 @@
         <v>202</v>
       </c>
       <c r="B204" t="n">
-        <v>14</v>
+        <v>13.7</v>
       </c>
       <c r="C204" t="n">
-        <v>14</v>
+        <v>13.7</v>
       </c>
       <c r="D204" t="n">
-        <v>14</v>
+        <v>13.7</v>
       </c>
       <c r="E204" t="n">
-        <v>14</v>
+        <v>13.7</v>
       </c>
       <c r="F204" t="n">
-        <v>12</v>
+        <v>1127.8715</v>
       </c>
       <c r="G204" t="n">
-        <v>13.65666666666664</v>
+        <v>13.64666666666665</v>
       </c>
       <c r="H204" t="n">
         <v>0</v>
@@ -7585,8 +8205,14 @@
         <v>0</v>
       </c>
       <c r="J204" t="inlineStr"/>
-      <c r="K204" t="inlineStr"/>
-      <c r="L204" t="inlineStr"/>
+      <c r="K204" t="n">
+        <v>13.3</v>
+      </c>
+      <c r="L204" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M204" t="n">
         <v>1</v>
       </c>
@@ -7596,22 +8222,22 @@
         <v>203</v>
       </c>
       <c r="B205" t="n">
-        <v>13.8</v>
+        <v>14</v>
       </c>
       <c r="C205" t="n">
-        <v>13.8</v>
+        <v>14</v>
       </c>
       <c r="D205" t="n">
-        <v>13.8</v>
+        <v>14</v>
       </c>
       <c r="E205" t="n">
-        <v>13.8</v>
+        <v>14</v>
       </c>
       <c r="F205" t="n">
-        <v>3748.8837</v>
+        <v>12</v>
       </c>
       <c r="G205" t="n">
-        <v>13.66333333333331</v>
+        <v>13.65666666666664</v>
       </c>
       <c r="H205" t="n">
         <v>0</v>
@@ -7620,8 +8246,14 @@
         <v>0</v>
       </c>
       <c r="J205" t="inlineStr"/>
-      <c r="K205" t="inlineStr"/>
-      <c r="L205" t="inlineStr"/>
+      <c r="K205" t="n">
+        <v>13.3</v>
+      </c>
+      <c r="L205" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M205" t="n">
         <v>1</v>
       </c>
@@ -7643,10 +8275,10 @@
         <v>13.8</v>
       </c>
       <c r="F206" t="n">
-        <v>178766.3336</v>
+        <v>3748.8837</v>
       </c>
       <c r="G206" t="n">
-        <v>13.66999999999998</v>
+        <v>13.66333333333331</v>
       </c>
       <c r="H206" t="n">
         <v>0</v>
@@ -7655,8 +8287,14 @@
         <v>0</v>
       </c>
       <c r="J206" t="inlineStr"/>
-      <c r="K206" t="inlineStr"/>
-      <c r="L206" t="inlineStr"/>
+      <c r="K206" t="n">
+        <v>13.3</v>
+      </c>
+      <c r="L206" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M206" t="n">
         <v>1</v>
       </c>
@@ -7678,10 +8316,10 @@
         <v>13.8</v>
       </c>
       <c r="F207" t="n">
-        <v>37123.1428</v>
+        <v>178766.3336</v>
       </c>
       <c r="G207" t="n">
-        <v>13.67499999999998</v>
+        <v>13.66999999999998</v>
       </c>
       <c r="H207" t="n">
         <v>0</v>
@@ -7690,8 +8328,14 @@
         <v>0</v>
       </c>
       <c r="J207" t="inlineStr"/>
-      <c r="K207" t="inlineStr"/>
-      <c r="L207" t="inlineStr"/>
+      <c r="K207" t="n">
+        <v>13.3</v>
+      </c>
+      <c r="L207" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M207" t="n">
         <v>1</v>
       </c>
@@ -7701,22 +8345,22 @@
         <v>206</v>
       </c>
       <c r="B208" t="n">
-        <v>14</v>
+        <v>13.8</v>
       </c>
       <c r="C208" t="n">
-        <v>14</v>
+        <v>13.8</v>
       </c>
       <c r="D208" t="n">
-        <v>14</v>
+        <v>13.8</v>
       </c>
       <c r="E208" t="n">
-        <v>14</v>
+        <v>13.8</v>
       </c>
       <c r="F208" t="n">
-        <v>60</v>
+        <v>37123.1428</v>
       </c>
       <c r="G208" t="n">
-        <v>13.68333333333331</v>
+        <v>13.67499999999998</v>
       </c>
       <c r="H208" t="n">
         <v>0</v>
@@ -7725,8 +8369,14 @@
         <v>0</v>
       </c>
       <c r="J208" t="inlineStr"/>
-      <c r="K208" t="inlineStr"/>
-      <c r="L208" t="inlineStr"/>
+      <c r="K208" t="n">
+        <v>13.3</v>
+      </c>
+      <c r="L208" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M208" t="n">
         <v>1</v>
       </c>
@@ -7736,22 +8386,22 @@
         <v>207</v>
       </c>
       <c r="B209" t="n">
-        <v>13.9</v>
+        <v>14</v>
       </c>
       <c r="C209" t="n">
-        <v>13.9</v>
+        <v>14</v>
       </c>
       <c r="D209" t="n">
-        <v>13.9</v>
+        <v>14</v>
       </c>
       <c r="E209" t="n">
-        <v>13.9</v>
+        <v>14</v>
       </c>
       <c r="F209" t="n">
-        <v>178</v>
+        <v>60</v>
       </c>
       <c r="G209" t="n">
-        <v>13.68666666666664</v>
+        <v>13.68333333333331</v>
       </c>
       <c r="H209" t="n">
         <v>0</v>
@@ -7760,8 +8410,14 @@
         <v>0</v>
       </c>
       <c r="J209" t="inlineStr"/>
-      <c r="K209" t="inlineStr"/>
-      <c r="L209" t="inlineStr"/>
+      <c r="K209" t="n">
+        <v>13.3</v>
+      </c>
+      <c r="L209" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M209" t="n">
         <v>1</v>
       </c>
@@ -7783,10 +8439,10 @@
         <v>13.9</v>
       </c>
       <c r="F210" t="n">
-        <v>381</v>
+        <v>178</v>
       </c>
       <c r="G210" t="n">
-        <v>13.68999999999997</v>
+        <v>13.68666666666664</v>
       </c>
       <c r="H210" t="n">
         <v>0</v>
@@ -7795,8 +8451,14 @@
         <v>0</v>
       </c>
       <c r="J210" t="inlineStr"/>
-      <c r="K210" t="inlineStr"/>
-      <c r="L210" t="inlineStr"/>
+      <c r="K210" t="n">
+        <v>13.3</v>
+      </c>
+      <c r="L210" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M210" t="n">
         <v>1</v>
       </c>
@@ -7806,7 +8468,7 @@
         <v>209</v>
       </c>
       <c r="B211" t="n">
-        <v>13.8</v>
+        <v>13.9</v>
       </c>
       <c r="C211" t="n">
         <v>13.9</v>
@@ -7815,13 +8477,13 @@
         <v>13.9</v>
       </c>
       <c r="E211" t="n">
-        <v>13.8</v>
+        <v>13.9</v>
       </c>
       <c r="F211" t="n">
-        <v>152004.3884</v>
+        <v>381</v>
       </c>
       <c r="G211" t="n">
-        <v>13.69166666666664</v>
+        <v>13.68999999999997</v>
       </c>
       <c r="H211" t="n">
         <v>0</v>
@@ -7830,8 +8492,14 @@
         <v>0</v>
       </c>
       <c r="J211" t="inlineStr"/>
-      <c r="K211" t="inlineStr"/>
-      <c r="L211" t="inlineStr"/>
+      <c r="K211" t="n">
+        <v>13.3</v>
+      </c>
+      <c r="L211" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M211" t="n">
         <v>1</v>
       </c>
@@ -7841,7 +8509,7 @@
         <v>210</v>
       </c>
       <c r="B212" t="n">
-        <v>13.9</v>
+        <v>13.8</v>
       </c>
       <c r="C212" t="n">
         <v>13.9</v>
@@ -7850,13 +8518,13 @@
         <v>13.9</v>
       </c>
       <c r="E212" t="n">
-        <v>13.9</v>
+        <v>13.8</v>
       </c>
       <c r="F212" t="n">
-        <v>28514.7764</v>
+        <v>152004.3884</v>
       </c>
       <c r="G212" t="n">
-        <v>13.69499999999997</v>
+        <v>13.69166666666664</v>
       </c>
       <c r="H212" t="n">
         <v>0</v>
@@ -7865,8 +8533,14 @@
         <v>0</v>
       </c>
       <c r="J212" t="inlineStr"/>
-      <c r="K212" t="inlineStr"/>
-      <c r="L212" t="inlineStr"/>
+      <c r="K212" t="n">
+        <v>13.3</v>
+      </c>
+      <c r="L212" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M212" t="n">
         <v>1</v>
       </c>
@@ -7876,22 +8550,22 @@
         <v>211</v>
       </c>
       <c r="B213" t="n">
-        <v>14</v>
+        <v>13.9</v>
       </c>
       <c r="C213" t="n">
         <v>13.9</v>
       </c>
       <c r="D213" t="n">
-        <v>14</v>
+        <v>13.9</v>
       </c>
       <c r="E213" t="n">
         <v>13.9</v>
       </c>
       <c r="F213" t="n">
-        <v>11513</v>
+        <v>28514.7764</v>
       </c>
       <c r="G213" t="n">
-        <v>13.69999999999997</v>
+        <v>13.69499999999997</v>
       </c>
       <c r="H213" t="n">
         <v>0</v>
@@ -7900,8 +8574,14 @@
         <v>0</v>
       </c>
       <c r="J213" t="inlineStr"/>
-      <c r="K213" t="inlineStr"/>
-      <c r="L213" t="inlineStr"/>
+      <c r="K213" t="n">
+        <v>13.3</v>
+      </c>
+      <c r="L213" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M213" t="n">
         <v>1</v>
       </c>
@@ -7914,19 +8594,19 @@
         <v>14</v>
       </c>
       <c r="C214" t="n">
-        <v>14</v>
+        <v>13.9</v>
       </c>
       <c r="D214" t="n">
         <v>14</v>
       </c>
       <c r="E214" t="n">
-        <v>14</v>
+        <v>13.9</v>
       </c>
       <c r="F214" t="n">
-        <v>24764.8213</v>
+        <v>11513</v>
       </c>
       <c r="G214" t="n">
-        <v>13.70999999999997</v>
+        <v>13.69999999999997</v>
       </c>
       <c r="H214" t="n">
         <v>0</v>
@@ -7935,8 +8615,14 @@
         <v>0</v>
       </c>
       <c r="J214" t="inlineStr"/>
-      <c r="K214" t="inlineStr"/>
-      <c r="L214" t="inlineStr"/>
+      <c r="K214" t="n">
+        <v>13.3</v>
+      </c>
+      <c r="L214" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M214" t="n">
         <v>1</v>
       </c>
@@ -7946,22 +8632,22 @@
         <v>213</v>
       </c>
       <c r="B215" t="n">
-        <v>13.9</v>
+        <v>14</v>
       </c>
       <c r="C215" t="n">
-        <v>13.9</v>
+        <v>14</v>
       </c>
       <c r="D215" t="n">
-        <v>13.9</v>
+        <v>14</v>
       </c>
       <c r="E215" t="n">
-        <v>13.9</v>
+        <v>14</v>
       </c>
       <c r="F215" t="n">
-        <v>8525</v>
+        <v>24764.8213</v>
       </c>
       <c r="G215" t="n">
-        <v>13.71499999999997</v>
+        <v>13.70999999999997</v>
       </c>
       <c r="H215" t="n">
         <v>0</v>
@@ -7970,8 +8656,14 @@
         <v>0</v>
       </c>
       <c r="J215" t="inlineStr"/>
-      <c r="K215" t="inlineStr"/>
-      <c r="L215" t="inlineStr"/>
+      <c r="K215" t="n">
+        <v>13.3</v>
+      </c>
+      <c r="L215" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M215" t="n">
         <v>1</v>
       </c>
@@ -7981,22 +8673,22 @@
         <v>214</v>
       </c>
       <c r="B216" t="n">
-        <v>13.8</v>
+        <v>13.9</v>
       </c>
       <c r="C216" t="n">
-        <v>13.8</v>
+        <v>13.9</v>
       </c>
       <c r="D216" t="n">
-        <v>13.8</v>
+        <v>13.9</v>
       </c>
       <c r="E216" t="n">
-        <v>13.8</v>
+        <v>13.9</v>
       </c>
       <c r="F216" t="n">
-        <v>2225.2289</v>
+        <v>8525</v>
       </c>
       <c r="G216" t="n">
-        <v>13.72166666666664</v>
+        <v>13.71499999999997</v>
       </c>
       <c r="H216" t="n">
         <v>0</v>
@@ -8005,8 +8697,14 @@
         <v>0</v>
       </c>
       <c r="J216" t="inlineStr"/>
-      <c r="K216" t="inlineStr"/>
-      <c r="L216" t="inlineStr"/>
+      <c r="K216" t="n">
+        <v>13.3</v>
+      </c>
+      <c r="L216" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M216" t="n">
         <v>1</v>
       </c>
@@ -8019,19 +8717,19 @@
         <v>13.8</v>
       </c>
       <c r="C217" t="n">
-        <v>13.7</v>
+        <v>13.8</v>
       </c>
       <c r="D217" t="n">
         <v>13.8</v>
       </c>
       <c r="E217" t="n">
-        <v>13.7</v>
+        <v>13.8</v>
       </c>
       <c r="F217" t="n">
-        <v>75245.67999999999</v>
+        <v>2225.2289</v>
       </c>
       <c r="G217" t="n">
-        <v>13.72666666666664</v>
+        <v>13.72166666666664</v>
       </c>
       <c r="H217" t="n">
         <v>0</v>
@@ -8040,8 +8738,14 @@
         <v>0</v>
       </c>
       <c r="J217" t="inlineStr"/>
-      <c r="K217" t="inlineStr"/>
-      <c r="L217" t="inlineStr"/>
+      <c r="K217" t="n">
+        <v>13.3</v>
+      </c>
+      <c r="L217" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M217" t="n">
         <v>1</v>
       </c>
@@ -8063,10 +8767,10 @@
         <v>13.7</v>
       </c>
       <c r="F218" t="n">
-        <v>49831.66</v>
+        <v>75245.67999999999</v>
       </c>
       <c r="G218" t="n">
-        <v>13.72999999999997</v>
+        <v>13.72666666666664</v>
       </c>
       <c r="H218" t="n">
         <v>0</v>
@@ -8075,8 +8779,14 @@
         <v>0</v>
       </c>
       <c r="J218" t="inlineStr"/>
-      <c r="K218" t="inlineStr"/>
-      <c r="L218" t="inlineStr"/>
+      <c r="K218" t="n">
+        <v>13.3</v>
+      </c>
+      <c r="L218" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M218" t="n">
         <v>1</v>
       </c>
@@ -8089,19 +8799,19 @@
         <v>13.8</v>
       </c>
       <c r="C219" t="n">
-        <v>13.8</v>
+        <v>13.7</v>
       </c>
       <c r="D219" t="n">
         <v>13.8</v>
       </c>
       <c r="E219" t="n">
-        <v>13.8</v>
+        <v>13.7</v>
       </c>
       <c r="F219" t="n">
-        <v>9163.115900000001</v>
+        <v>49831.66</v>
       </c>
       <c r="G219" t="n">
-        <v>13.73833333333331</v>
+        <v>13.72999999999997</v>
       </c>
       <c r="H219" t="n">
         <v>0</v>
@@ -8110,8 +8820,14 @@
         <v>0</v>
       </c>
       <c r="J219" t="inlineStr"/>
-      <c r="K219" t="inlineStr"/>
-      <c r="L219" t="inlineStr"/>
+      <c r="K219" t="n">
+        <v>13.3</v>
+      </c>
+      <c r="L219" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M219" t="n">
         <v>1</v>
       </c>
@@ -8121,22 +8837,22 @@
         <v>218</v>
       </c>
       <c r="B220" t="n">
-        <v>13.7</v>
+        <v>13.8</v>
       </c>
       <c r="C220" t="n">
-        <v>13.6</v>
+        <v>13.8</v>
       </c>
       <c r="D220" t="n">
-        <v>13.7</v>
+        <v>13.8</v>
       </c>
       <c r="E220" t="n">
-        <v>13.6</v>
+        <v>13.8</v>
       </c>
       <c r="F220" t="n">
-        <v>20171.85</v>
+        <v>9163.115900000001</v>
       </c>
       <c r="G220" t="n">
-        <v>13.74333333333331</v>
+        <v>13.73833333333331</v>
       </c>
       <c r="H220" t="n">
         <v>0</v>
@@ -8145,8 +8861,14 @@
         <v>0</v>
       </c>
       <c r="J220" t="inlineStr"/>
-      <c r="K220" t="inlineStr"/>
-      <c r="L220" t="inlineStr"/>
+      <c r="K220" t="n">
+        <v>13.3</v>
+      </c>
+      <c r="L220" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M220" t="n">
         <v>1</v>
       </c>
@@ -8156,22 +8878,22 @@
         <v>219</v>
       </c>
       <c r="B221" t="n">
-        <v>13.6</v>
+        <v>13.7</v>
       </c>
       <c r="C221" t="n">
         <v>13.6</v>
       </c>
       <c r="D221" t="n">
-        <v>13.6</v>
+        <v>13.7</v>
       </c>
       <c r="E221" t="n">
         <v>13.6</v>
       </c>
       <c r="F221" t="n">
-        <v>13149.1615</v>
+        <v>20171.85</v>
       </c>
       <c r="G221" t="n">
-        <v>13.74833333333331</v>
+        <v>13.74333333333331</v>
       </c>
       <c r="H221" t="n">
         <v>0</v>
@@ -8180,8 +8902,14 @@
         <v>0</v>
       </c>
       <c r="J221" t="inlineStr"/>
-      <c r="K221" t="inlineStr"/>
-      <c r="L221" t="inlineStr"/>
+      <c r="K221" t="n">
+        <v>13.3</v>
+      </c>
+      <c r="L221" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M221" t="n">
         <v>1</v>
       </c>
@@ -8191,22 +8919,22 @@
         <v>220</v>
       </c>
       <c r="B222" t="n">
-        <v>13.8</v>
+        <v>13.6</v>
       </c>
       <c r="C222" t="n">
-        <v>13.9</v>
+        <v>13.6</v>
       </c>
       <c r="D222" t="n">
-        <v>13.9</v>
+        <v>13.6</v>
       </c>
       <c r="E222" t="n">
-        <v>13.8</v>
+        <v>13.6</v>
       </c>
       <c r="F222" t="n">
-        <v>11000</v>
+        <v>13149.1615</v>
       </c>
       <c r="G222" t="n">
-        <v>13.75499999999998</v>
+        <v>13.74833333333331</v>
       </c>
       <c r="H222" t="n">
         <v>0</v>
@@ -8215,8 +8943,14 @@
         <v>0</v>
       </c>
       <c r="J222" t="inlineStr"/>
-      <c r="K222" t="inlineStr"/>
-      <c r="L222" t="inlineStr"/>
+      <c r="K222" t="n">
+        <v>13.3</v>
+      </c>
+      <c r="L222" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M222" t="n">
         <v>1</v>
       </c>
@@ -8229,19 +8963,19 @@
         <v>13.8</v>
       </c>
       <c r="C223" t="n">
-        <v>13.8</v>
+        <v>13.9</v>
       </c>
       <c r="D223" t="n">
-        <v>13.8</v>
+        <v>13.9</v>
       </c>
       <c r="E223" t="n">
         <v>13.8</v>
       </c>
       <c r="F223" t="n">
-        <v>5500</v>
+        <v>11000</v>
       </c>
       <c r="G223" t="n">
-        <v>13.75999999999997</v>
+        <v>13.75499999999998</v>
       </c>
       <c r="H223" t="n">
         <v>0</v>
@@ -8250,8 +8984,14 @@
         <v>0</v>
       </c>
       <c r="J223" t="inlineStr"/>
-      <c r="K223" t="inlineStr"/>
-      <c r="L223" t="inlineStr"/>
+      <c r="K223" t="n">
+        <v>13.3</v>
+      </c>
+      <c r="L223" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M223" t="n">
         <v>1</v>
       </c>
@@ -8273,10 +9013,10 @@
         <v>13.8</v>
       </c>
       <c r="F224" t="n">
-        <v>8250</v>
+        <v>5500</v>
       </c>
       <c r="G224" t="n">
-        <v>13.76666666666664</v>
+        <v>13.75999999999997</v>
       </c>
       <c r="H224" t="n">
         <v>0</v>
@@ -8285,8 +9025,14 @@
         <v>0</v>
       </c>
       <c r="J224" t="inlineStr"/>
-      <c r="K224" t="inlineStr"/>
-      <c r="L224" t="inlineStr"/>
+      <c r="K224" t="n">
+        <v>13.3</v>
+      </c>
+      <c r="L224" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M224" t="n">
         <v>1</v>
       </c>
@@ -8308,10 +9054,10 @@
         <v>13.8</v>
       </c>
       <c r="F225" t="n">
-        <v>14309.7101</v>
+        <v>8250</v>
       </c>
       <c r="G225" t="n">
-        <v>13.77333333333331</v>
+        <v>13.76666666666664</v>
       </c>
       <c r="H225" t="n">
         <v>0</v>
@@ -8320,8 +9066,14 @@
         <v>0</v>
       </c>
       <c r="J225" t="inlineStr"/>
-      <c r="K225" t="inlineStr"/>
-      <c r="L225" t="inlineStr"/>
+      <c r="K225" t="n">
+        <v>13.3</v>
+      </c>
+      <c r="L225" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M225" t="n">
         <v>1</v>
       </c>
@@ -8343,10 +9095,10 @@
         <v>13.8</v>
       </c>
       <c r="F226" t="n">
-        <v>5719.2411</v>
+        <v>14309.7101</v>
       </c>
       <c r="G226" t="n">
-        <v>13.77666666666664</v>
+        <v>13.77333333333331</v>
       </c>
       <c r="H226" t="n">
         <v>0</v>
@@ -8355,8 +9107,14 @@
         <v>0</v>
       </c>
       <c r="J226" t="inlineStr"/>
-      <c r="K226" t="inlineStr"/>
-      <c r="L226" t="inlineStr"/>
+      <c r="K226" t="n">
+        <v>13.3</v>
+      </c>
+      <c r="L226" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M226" t="n">
         <v>1</v>
       </c>
@@ -8378,10 +9136,10 @@
         <v>13.8</v>
       </c>
       <c r="F227" t="n">
-        <v>59224.8893</v>
+        <v>5719.2411</v>
       </c>
       <c r="G227" t="n">
-        <v>13.78499999999997</v>
+        <v>13.77666666666664</v>
       </c>
       <c r="H227" t="n">
         <v>0</v>
@@ -8390,8 +9148,14 @@
         <v>0</v>
       </c>
       <c r="J227" t="inlineStr"/>
-      <c r="K227" t="inlineStr"/>
-      <c r="L227" t="inlineStr"/>
+      <c r="K227" t="n">
+        <v>13.3</v>
+      </c>
+      <c r="L227" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M227" t="n">
         <v>1</v>
       </c>
@@ -8413,10 +9177,10 @@
         <v>13.8</v>
       </c>
       <c r="F228" t="n">
-        <v>33</v>
+        <v>59224.8893</v>
       </c>
       <c r="G228" t="n">
-        <v>13.79333333333331</v>
+        <v>13.78499999999997</v>
       </c>
       <c r="H228" t="n">
         <v>0</v>
@@ -8425,8 +9189,14 @@
         <v>0</v>
       </c>
       <c r="J228" t="inlineStr"/>
-      <c r="K228" t="inlineStr"/>
-      <c r="L228" t="inlineStr"/>
+      <c r="K228" t="n">
+        <v>13.3</v>
+      </c>
+      <c r="L228" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M228" t="n">
         <v>1</v>
       </c>
@@ -8436,22 +9206,22 @@
         <v>227</v>
       </c>
       <c r="B229" t="n">
-        <v>13.6</v>
+        <v>13.8</v>
       </c>
       <c r="C229" t="n">
-        <v>13.6</v>
+        <v>13.8</v>
       </c>
       <c r="D229" t="n">
-        <v>13.6</v>
+        <v>13.8</v>
       </c>
       <c r="E229" t="n">
-        <v>13.6</v>
+        <v>13.8</v>
       </c>
       <c r="F229" t="n">
-        <v>13611.0383</v>
+        <v>33</v>
       </c>
       <c r="G229" t="n">
-        <v>13.79499999999998</v>
+        <v>13.79333333333331</v>
       </c>
       <c r="H229" t="n">
         <v>0</v>
@@ -8460,8 +9230,14 @@
         <v>0</v>
       </c>
       <c r="J229" t="inlineStr"/>
-      <c r="K229" t="inlineStr"/>
-      <c r="L229" t="inlineStr"/>
+      <c r="K229" t="n">
+        <v>13.3</v>
+      </c>
+      <c r="L229" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M229" t="n">
         <v>1</v>
       </c>
@@ -8471,22 +9247,22 @@
         <v>228</v>
       </c>
       <c r="B230" t="n">
-        <v>13.7</v>
+        <v>13.6</v>
       </c>
       <c r="C230" t="n">
-        <v>13.7</v>
+        <v>13.6</v>
       </c>
       <c r="D230" t="n">
-        <v>13.7</v>
+        <v>13.6</v>
       </c>
       <c r="E230" t="n">
-        <v>13.7</v>
+        <v>13.6</v>
       </c>
       <c r="F230" t="n">
-        <v>29933.3576</v>
+        <v>13611.0383</v>
       </c>
       <c r="G230" t="n">
-        <v>13.79999999999998</v>
+        <v>13.79499999999998</v>
       </c>
       <c r="H230" t="n">
         <v>0</v>
@@ -8495,8 +9271,14 @@
         <v>0</v>
       </c>
       <c r="J230" t="inlineStr"/>
-      <c r="K230" t="inlineStr"/>
-      <c r="L230" t="inlineStr"/>
+      <c r="K230" t="n">
+        <v>13.3</v>
+      </c>
+      <c r="L230" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M230" t="n">
         <v>1</v>
       </c>
@@ -8506,22 +9288,22 @@
         <v>229</v>
       </c>
       <c r="B231" t="n">
-        <v>13.6</v>
+        <v>13.7</v>
       </c>
       <c r="C231" t="n">
-        <v>13.6</v>
+        <v>13.7</v>
       </c>
       <c r="D231" t="n">
-        <v>13.6</v>
+        <v>13.7</v>
       </c>
       <c r="E231" t="n">
-        <v>13.6</v>
+        <v>13.7</v>
       </c>
       <c r="F231" t="n">
-        <v>37937.7047</v>
+        <v>29933.3576</v>
       </c>
       <c r="G231" t="n">
-        <v>13.80333333333331</v>
+        <v>13.79999999999998</v>
       </c>
       <c r="H231" t="n">
         <v>0</v>
@@ -8530,8 +9312,14 @@
         <v>0</v>
       </c>
       <c r="J231" t="inlineStr"/>
-      <c r="K231" t="inlineStr"/>
-      <c r="L231" t="inlineStr"/>
+      <c r="K231" t="n">
+        <v>13.3</v>
+      </c>
+      <c r="L231" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M231" t="n">
         <v>1</v>
       </c>
@@ -8541,22 +9329,22 @@
         <v>230</v>
       </c>
       <c r="B232" t="n">
-        <v>13.7</v>
+        <v>13.6</v>
       </c>
       <c r="C232" t="n">
-        <v>13.7</v>
+        <v>13.6</v>
       </c>
       <c r="D232" t="n">
-        <v>13.7</v>
+        <v>13.6</v>
       </c>
       <c r="E232" t="n">
-        <v>13.7</v>
+        <v>13.6</v>
       </c>
       <c r="F232" t="n">
-        <v>12</v>
+        <v>37937.7047</v>
       </c>
       <c r="G232" t="n">
-        <v>13.80666666666664</v>
+        <v>13.80333333333331</v>
       </c>
       <c r="H232" t="n">
         <v>0</v>
@@ -8565,8 +9353,14 @@
         <v>0</v>
       </c>
       <c r="J232" t="inlineStr"/>
-      <c r="K232" t="inlineStr"/>
-      <c r="L232" t="inlineStr"/>
+      <c r="K232" t="n">
+        <v>13.3</v>
+      </c>
+      <c r="L232" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M232" t="n">
         <v>1</v>
       </c>
@@ -8576,22 +9370,22 @@
         <v>231</v>
       </c>
       <c r="B233" t="n">
-        <v>13.6</v>
+        <v>13.7</v>
       </c>
       <c r="C233" t="n">
-        <v>13.2</v>
+        <v>13.7</v>
       </c>
       <c r="D233" t="n">
-        <v>13.6</v>
+        <v>13.7</v>
       </c>
       <c r="E233" t="n">
-        <v>13.2</v>
+        <v>13.7</v>
       </c>
       <c r="F233" t="n">
-        <v>488033.2873</v>
+        <v>12</v>
       </c>
       <c r="G233" t="n">
-        <v>13.80333333333331</v>
+        <v>13.80666666666664</v>
       </c>
       <c r="H233" t="n">
         <v>0</v>
@@ -8600,8 +9394,14 @@
         <v>0</v>
       </c>
       <c r="J233" t="inlineStr"/>
-      <c r="K233" t="inlineStr"/>
-      <c r="L233" t="inlineStr"/>
+      <c r="K233" t="n">
+        <v>13.3</v>
+      </c>
+      <c r="L233" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M233" t="n">
         <v>1</v>
       </c>
@@ -8611,22 +9411,22 @@
         <v>232</v>
       </c>
       <c r="B234" t="n">
-        <v>13.3</v>
+        <v>13.6</v>
       </c>
       <c r="C234" t="n">
-        <v>13.5</v>
+        <v>13.2</v>
       </c>
       <c r="D234" t="n">
-        <v>13.5</v>
+        <v>13.6</v>
       </c>
       <c r="E234" t="n">
-        <v>13.3</v>
+        <v>13.2</v>
       </c>
       <c r="F234" t="n">
-        <v>34767.155</v>
+        <v>488033.2873</v>
       </c>
       <c r="G234" t="n">
-        <v>13.80499999999998</v>
+        <v>13.80333333333331</v>
       </c>
       <c r="H234" t="n">
         <v>0</v>
@@ -8635,8 +9435,14 @@
         <v>0</v>
       </c>
       <c r="J234" t="inlineStr"/>
-      <c r="K234" t="inlineStr"/>
-      <c r="L234" t="inlineStr"/>
+      <c r="K234" t="n">
+        <v>13.3</v>
+      </c>
+      <c r="L234" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M234" t="n">
         <v>1</v>
       </c>
@@ -8646,22 +9452,22 @@
         <v>233</v>
       </c>
       <c r="B235" t="n">
-        <v>13.6</v>
+        <v>13.3</v>
       </c>
       <c r="C235" t="n">
-        <v>13.6</v>
+        <v>13.5</v>
       </c>
       <c r="D235" t="n">
-        <v>13.6</v>
+        <v>13.5</v>
       </c>
       <c r="E235" t="n">
-        <v>13.6</v>
+        <v>13.3</v>
       </c>
       <c r="F235" t="n">
-        <v>12</v>
+        <v>34767.155</v>
       </c>
       <c r="G235" t="n">
-        <v>13.80999999999998</v>
+        <v>13.80499999999998</v>
       </c>
       <c r="H235" t="n">
         <v>0</v>
@@ -8670,8 +9476,14 @@
         <v>0</v>
       </c>
       <c r="J235" t="inlineStr"/>
-      <c r="K235" t="inlineStr"/>
-      <c r="L235" t="inlineStr"/>
+      <c r="K235" t="n">
+        <v>13.3</v>
+      </c>
+      <c r="L235" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M235" t="n">
         <v>1</v>
       </c>
@@ -8681,7 +9493,7 @@
         <v>234</v>
       </c>
       <c r="B236" t="n">
-        <v>13.5</v>
+        <v>13.6</v>
       </c>
       <c r="C236" t="n">
         <v>13.6</v>
@@ -8690,13 +9502,13 @@
         <v>13.6</v>
       </c>
       <c r="E236" t="n">
-        <v>13.5</v>
+        <v>13.6</v>
       </c>
       <c r="F236" t="n">
-        <v>126686.6342</v>
+        <v>12</v>
       </c>
       <c r="G236" t="n">
-        <v>13.81333333333331</v>
+        <v>13.80999999999998</v>
       </c>
       <c r="H236" t="n">
         <v>0</v>
@@ -8705,8 +9517,14 @@
         <v>0</v>
       </c>
       <c r="J236" t="inlineStr"/>
-      <c r="K236" t="inlineStr"/>
-      <c r="L236" t="inlineStr"/>
+      <c r="K236" t="n">
+        <v>13.3</v>
+      </c>
+      <c r="L236" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M236" t="n">
         <v>1</v>
       </c>
@@ -8716,22 +9534,22 @@
         <v>235</v>
       </c>
       <c r="B237" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="C237" t="n">
         <v>13.6</v>
       </c>
-      <c r="C237" t="n">
-        <v>13.8</v>
-      </c>
       <c r="D237" t="n">
-        <v>13.8</v>
+        <v>13.6</v>
       </c>
       <c r="E237" t="n">
-        <v>13.6</v>
+        <v>13.5</v>
       </c>
       <c r="F237" t="n">
-        <v>374544.4823</v>
+        <v>126686.6342</v>
       </c>
       <c r="G237" t="n">
-        <v>13.82166666666665</v>
+        <v>13.81333333333331</v>
       </c>
       <c r="H237" t="n">
         <v>0</v>
@@ -8740,8 +9558,14 @@
         <v>0</v>
       </c>
       <c r="J237" t="inlineStr"/>
-      <c r="K237" t="inlineStr"/>
-      <c r="L237" t="inlineStr"/>
+      <c r="K237" t="n">
+        <v>13.3</v>
+      </c>
+      <c r="L237" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M237" t="n">
         <v>1</v>
       </c>
@@ -8751,22 +9575,22 @@
         <v>236</v>
       </c>
       <c r="B238" t="n">
-        <v>13.7</v>
+        <v>13.6</v>
       </c>
       <c r="C238" t="n">
-        <v>13.7</v>
+        <v>13.8</v>
       </c>
       <c r="D238" t="n">
-        <v>13.7</v>
+        <v>13.8</v>
       </c>
       <c r="E238" t="n">
-        <v>13.7</v>
+        <v>13.6</v>
       </c>
       <c r="F238" t="n">
-        <v>21011.4617</v>
+        <v>374544.4823</v>
       </c>
       <c r="G238" t="n">
-        <v>13.82499999999998</v>
+        <v>13.82166666666665</v>
       </c>
       <c r="H238" t="n">
         <v>0</v>
@@ -8775,8 +9599,14 @@
         <v>0</v>
       </c>
       <c r="J238" t="inlineStr"/>
-      <c r="K238" t="inlineStr"/>
-      <c r="L238" t="inlineStr"/>
+      <c r="K238" t="n">
+        <v>13.3</v>
+      </c>
+      <c r="L238" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M238" t="n">
         <v>1</v>
       </c>
@@ -8786,19 +9616,19 @@
         <v>237</v>
       </c>
       <c r="B239" t="n">
-        <v>13.8</v>
+        <v>13.7</v>
       </c>
       <c r="C239" t="n">
-        <v>13.8</v>
+        <v>13.7</v>
       </c>
       <c r="D239" t="n">
-        <v>13.8</v>
+        <v>13.7</v>
       </c>
       <c r="E239" t="n">
         <v>13.7</v>
       </c>
       <c r="F239" t="n">
-        <v>46131.792</v>
+        <v>21011.4617</v>
       </c>
       <c r="G239" t="n">
         <v>13.82499999999998</v>
@@ -8810,8 +9640,14 @@
         <v>0</v>
       </c>
       <c r="J239" t="inlineStr"/>
-      <c r="K239" t="inlineStr"/>
-      <c r="L239" t="inlineStr"/>
+      <c r="K239" t="n">
+        <v>13.3</v>
+      </c>
+      <c r="L239" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M239" t="n">
         <v>1</v>
       </c>
@@ -8833,10 +9669,10 @@
         <v>13.7</v>
       </c>
       <c r="F240" t="n">
-        <v>14795.8547</v>
+        <v>46131.792</v>
       </c>
       <c r="G240" t="n">
-        <v>13.82166666666665</v>
+        <v>13.82499999999998</v>
       </c>
       <c r="H240" t="n">
         <v>0</v>
@@ -8845,8 +9681,14 @@
         <v>0</v>
       </c>
       <c r="J240" t="inlineStr"/>
-      <c r="K240" t="inlineStr"/>
-      <c r="L240" t="inlineStr"/>
+      <c r="K240" t="n">
+        <v>13.3</v>
+      </c>
+      <c r="L240" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M240" t="n">
         <v>1</v>
       </c>
@@ -8856,22 +9698,22 @@
         <v>239</v>
       </c>
       <c r="B241" t="n">
-        <v>13.6</v>
+        <v>13.8</v>
       </c>
       <c r="C241" t="n">
-        <v>13.6</v>
+        <v>13.8</v>
       </c>
       <c r="D241" t="n">
-        <v>13.6</v>
+        <v>13.8</v>
       </c>
       <c r="E241" t="n">
-        <v>13.6</v>
+        <v>13.7</v>
       </c>
       <c r="F241" t="n">
-        <v>25527.8818</v>
+        <v>14795.8547</v>
       </c>
       <c r="G241" t="n">
-        <v>13.81499999999998</v>
+        <v>13.82166666666665</v>
       </c>
       <c r="H241" t="n">
         <v>0</v>
@@ -8880,8 +9722,14 @@
         <v>0</v>
       </c>
       <c r="J241" t="inlineStr"/>
-      <c r="K241" t="inlineStr"/>
-      <c r="L241" t="inlineStr"/>
+      <c r="K241" t="n">
+        <v>13.3</v>
+      </c>
+      <c r="L241" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M241" t="n">
         <v>1</v>
       </c>
@@ -8891,22 +9739,22 @@
         <v>240</v>
       </c>
       <c r="B242" t="n">
-        <v>13.7</v>
+        <v>13.6</v>
       </c>
       <c r="C242" t="n">
-        <v>13.7</v>
+        <v>13.6</v>
       </c>
       <c r="D242" t="n">
-        <v>13.7</v>
+        <v>13.6</v>
       </c>
       <c r="E242" t="n">
-        <v>13.7</v>
+        <v>13.6</v>
       </c>
       <c r="F242" t="n">
-        <v>11270.59</v>
+        <v>25527.8818</v>
       </c>
       <c r="G242" t="n">
-        <v>13.80666666666665</v>
+        <v>13.81499999999998</v>
       </c>
       <c r="H242" t="n">
         <v>0</v>
@@ -8915,8 +9763,14 @@
         <v>0</v>
       </c>
       <c r="J242" t="inlineStr"/>
-      <c r="K242" t="inlineStr"/>
-      <c r="L242" t="inlineStr"/>
+      <c r="K242" t="n">
+        <v>13.3</v>
+      </c>
+      <c r="L242" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M242" t="n">
         <v>1</v>
       </c>
@@ -8938,10 +9792,10 @@
         <v>13.7</v>
       </c>
       <c r="F243" t="n">
-        <v>3854.3684</v>
+        <v>11270.59</v>
       </c>
       <c r="G243" t="n">
-        <v>13.79666666666665</v>
+        <v>13.80666666666665</v>
       </c>
       <c r="H243" t="n">
         <v>0</v>
@@ -8950,8 +9804,14 @@
         <v>0</v>
       </c>
       <c r="J243" t="inlineStr"/>
-      <c r="K243" t="inlineStr"/>
-      <c r="L243" t="inlineStr"/>
+      <c r="K243" t="n">
+        <v>13.3</v>
+      </c>
+      <c r="L243" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M243" t="n">
         <v>1</v>
       </c>
@@ -8964,19 +9824,19 @@
         <v>13.7</v>
       </c>
       <c r="C244" t="n">
-        <v>13.8</v>
+        <v>13.7</v>
       </c>
       <c r="D244" t="n">
-        <v>13.8</v>
+        <v>13.7</v>
       </c>
       <c r="E244" t="n">
         <v>13.7</v>
       </c>
       <c r="F244" t="n">
-        <v>16593.3227</v>
+        <v>3854.3684</v>
       </c>
       <c r="G244" t="n">
-        <v>13.79166666666665</v>
+        <v>13.79666666666665</v>
       </c>
       <c r="H244" t="n">
         <v>0</v>
@@ -8985,8 +9845,14 @@
         <v>0</v>
       </c>
       <c r="J244" t="inlineStr"/>
-      <c r="K244" t="inlineStr"/>
-      <c r="L244" t="inlineStr"/>
+      <c r="K244" t="n">
+        <v>13.3</v>
+      </c>
+      <c r="L244" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M244" t="n">
         <v>1</v>
       </c>
@@ -8999,19 +9865,19 @@
         <v>13.7</v>
       </c>
       <c r="C245" t="n">
-        <v>13.7</v>
+        <v>13.8</v>
       </c>
       <c r="D245" t="n">
-        <v>13.7</v>
+        <v>13.8</v>
       </c>
       <c r="E245" t="n">
         <v>13.7</v>
       </c>
       <c r="F245" t="n">
-        <v>19281.4688</v>
+        <v>16593.3227</v>
       </c>
       <c r="G245" t="n">
-        <v>13.78999999999998</v>
+        <v>13.79166666666665</v>
       </c>
       <c r="H245" t="n">
         <v>0</v>
@@ -9020,8 +9886,14 @@
         <v>0</v>
       </c>
       <c r="J245" t="inlineStr"/>
-      <c r="K245" t="inlineStr"/>
-      <c r="L245" t="inlineStr"/>
+      <c r="K245" t="n">
+        <v>13.3</v>
+      </c>
+      <c r="L245" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M245" t="n">
         <v>1</v>
       </c>
@@ -9040,13 +9912,13 @@
         <v>13.7</v>
       </c>
       <c r="E246" t="n">
-        <v>13.6</v>
+        <v>13.7</v>
       </c>
       <c r="F246" t="n">
-        <v>84163.9552</v>
+        <v>19281.4688</v>
       </c>
       <c r="G246" t="n">
-        <v>13.78166666666665</v>
+        <v>13.78999999999998</v>
       </c>
       <c r="H246" t="n">
         <v>0</v>
@@ -9055,8 +9927,14 @@
         <v>0</v>
       </c>
       <c r="J246" t="inlineStr"/>
-      <c r="K246" t="inlineStr"/>
-      <c r="L246" t="inlineStr"/>
+      <c r="K246" t="n">
+        <v>13.3</v>
+      </c>
+      <c r="L246" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M246" t="n">
         <v>1</v>
       </c>
@@ -9066,22 +9944,22 @@
         <v>245</v>
       </c>
       <c r="B247" t="n">
-        <v>13.6</v>
+        <v>13.7</v>
       </c>
       <c r="C247" t="n">
-        <v>13.6</v>
+        <v>13.7</v>
       </c>
       <c r="D247" t="n">
-        <v>13.6</v>
+        <v>13.7</v>
       </c>
       <c r="E247" t="n">
         <v>13.6</v>
       </c>
       <c r="F247" t="n">
-        <v>53878.9198</v>
+        <v>84163.9552</v>
       </c>
       <c r="G247" t="n">
-        <v>13.77499999999998</v>
+        <v>13.78166666666665</v>
       </c>
       <c r="H247" t="n">
         <v>0</v>
@@ -9090,8 +9968,14 @@
         <v>0</v>
       </c>
       <c r="J247" t="inlineStr"/>
-      <c r="K247" t="inlineStr"/>
-      <c r="L247" t="inlineStr"/>
+      <c r="K247" t="n">
+        <v>13.3</v>
+      </c>
+      <c r="L247" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M247" t="n">
         <v>1</v>
       </c>
@@ -9113,10 +9997,10 @@
         <v>13.6</v>
       </c>
       <c r="F248" t="n">
-        <v>47557.5405</v>
+        <v>53878.9198</v>
       </c>
       <c r="G248" t="n">
-        <v>13.76833333333332</v>
+        <v>13.77499999999998</v>
       </c>
       <c r="H248" t="n">
         <v>0</v>
@@ -9125,8 +10009,14 @@
         <v>0</v>
       </c>
       <c r="J248" t="inlineStr"/>
-      <c r="K248" t="inlineStr"/>
-      <c r="L248" t="inlineStr"/>
+      <c r="K248" t="n">
+        <v>13.3</v>
+      </c>
+      <c r="L248" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M248" t="n">
         <v>1</v>
       </c>
@@ -9148,10 +10038,10 @@
         <v>13.6</v>
       </c>
       <c r="F249" t="n">
-        <v>20885.5401</v>
+        <v>47557.5405</v>
       </c>
       <c r="G249" t="n">
-        <v>13.76166666666665</v>
+        <v>13.76833333333332</v>
       </c>
       <c r="H249" t="n">
         <v>0</v>
@@ -9160,8 +10050,14 @@
         <v>0</v>
       </c>
       <c r="J249" t="inlineStr"/>
-      <c r="K249" t="inlineStr"/>
-      <c r="L249" t="inlineStr"/>
+      <c r="K249" t="n">
+        <v>13.3</v>
+      </c>
+      <c r="L249" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M249" t="n">
         <v>1</v>
       </c>
@@ -9183,10 +10079,10 @@
         <v>13.6</v>
       </c>
       <c r="F250" t="n">
-        <v>22890.7695</v>
+        <v>20885.5401</v>
       </c>
       <c r="G250" t="n">
-        <v>13.75833333333332</v>
+        <v>13.76166666666665</v>
       </c>
       <c r="H250" t="n">
         <v>0</v>
@@ -9195,8 +10091,14 @@
         <v>0</v>
       </c>
       <c r="J250" t="inlineStr"/>
-      <c r="K250" t="inlineStr"/>
-      <c r="L250" t="inlineStr"/>
+      <c r="K250" t="n">
+        <v>13.3</v>
+      </c>
+      <c r="L250" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M250" t="n">
         <v>1</v>
       </c>
@@ -9218,21 +10120,68 @@
         <v>13.6</v>
       </c>
       <c r="F251" t="n">
+        <v>22890.7695</v>
+      </c>
+      <c r="G251" t="n">
+        <v>13.75833333333332</v>
+      </c>
+      <c r="H251" t="n">
+        <v>0</v>
+      </c>
+      <c r="I251" t="n">
+        <v>0</v>
+      </c>
+      <c r="J251" t="inlineStr"/>
+      <c r="K251" t="n">
+        <v>13.3</v>
+      </c>
+      <c r="L251" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M251" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="252">
+      <c r="A252" s="1" t="n">
+        <v>250</v>
+      </c>
+      <c r="B252" t="n">
+        <v>13.6</v>
+      </c>
+      <c r="C252" t="n">
+        <v>13.6</v>
+      </c>
+      <c r="D252" t="n">
+        <v>13.6</v>
+      </c>
+      <c r="E252" t="n">
+        <v>13.6</v>
+      </c>
+      <c r="F252" t="n">
         <v>21760.5336</v>
       </c>
-      <c r="G251" t="n">
+      <c r="G252" t="n">
         <v>13.75499999999999</v>
       </c>
-      <c r="H251" t="n">
-        <v>0</v>
-      </c>
-      <c r="I251" t="n">
-        <v>0</v>
-      </c>
-      <c r="J251" t="inlineStr"/>
-      <c r="K251" t="inlineStr"/>
-      <c r="L251" t="inlineStr"/>
-      <c r="M251" t="n">
+      <c r="H252" t="n">
+        <v>0</v>
+      </c>
+      <c r="I252" t="n">
+        <v>0</v>
+      </c>
+      <c r="J252" t="inlineStr"/>
+      <c r="K252" t="n">
+        <v>13.3</v>
+      </c>
+      <c r="L252" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M252" t="n">
         <v>1</v>
       </c>
     </row>

--- a/BackTest/2019-10-19 BackTest RNT.xlsx
+++ b/BackTest/2019-10-19 BackTest RNT.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M252"/>
+  <dimension ref="A1:N262"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -394,35 +394,40 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
+          <t>CMO</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>MA60</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>low_check</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>high_check</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>BuyPrice</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>bprelay</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>Condition</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>Profits</t>
         </is>
@@ -448,18 +453,21 @@
         <v>147516.0611</v>
       </c>
       <c r="G2" t="n">
+        <v>12.38666666666668</v>
+      </c>
+      <c r="H2" t="n">
         <v>12.38333333333332</v>
       </c>
-      <c r="H2" t="n">
-        <v>0</v>
-      </c>
       <c r="I2" t="n">
         <v>0</v>
       </c>
-      <c r="J2" t="inlineStr"/>
+      <c r="J2" t="n">
+        <v>0</v>
+      </c>
       <c r="K2" t="inlineStr"/>
       <c r="L2" t="inlineStr"/>
-      <c r="M2" t="n">
+      <c r="M2" t="inlineStr"/>
+      <c r="N2" t="n">
         <v>1</v>
       </c>
     </row>
@@ -483,18 +491,25 @@
         <v>22004.899</v>
       </c>
       <c r="G3" t="n">
+        <v>12.40000000000001</v>
+      </c>
+      <c r="H3" t="n">
         <v>12.38666666666665</v>
       </c>
-      <c r="H3" t="n">
-        <v>0</v>
-      </c>
       <c r="I3" t="n">
-        <v>0</v>
-      </c>
-      <c r="J3" t="inlineStr"/>
-      <c r="K3" t="inlineStr"/>
-      <c r="L3" t="inlineStr"/>
-      <c r="M3" t="n">
+        <v>1</v>
+      </c>
+      <c r="J3" t="n">
+        <v>0</v>
+      </c>
+      <c r="K3" t="n">
+        <v>12.4</v>
+      </c>
+      <c r="L3" t="n">
+        <v>12.4</v>
+      </c>
+      <c r="M3" t="inlineStr"/>
+      <c r="N3" t="n">
         <v>1</v>
       </c>
     </row>
@@ -518,18 +533,29 @@
         <v>26630.08</v>
       </c>
       <c r="G4" t="n">
+        <v>12.41333333333334</v>
+      </c>
+      <c r="H4" t="n">
         <v>12.38666666666665</v>
       </c>
-      <c r="H4" t="n">
-        <v>0</v>
-      </c>
       <c r="I4" t="n">
-        <v>0</v>
-      </c>
-      <c r="J4" t="inlineStr"/>
-      <c r="K4" t="inlineStr"/>
-      <c r="L4" t="inlineStr"/>
-      <c r="M4" t="n">
+        <v>1</v>
+      </c>
+      <c r="J4" t="n">
+        <v>0</v>
+      </c>
+      <c r="K4" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="L4" t="n">
+        <v>12.4</v>
+      </c>
+      <c r="M4" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="N4" t="n">
         <v>1</v>
       </c>
     </row>
@@ -553,18 +579,29 @@
         <v>2691.52</v>
       </c>
       <c r="G5" t="n">
+        <v>12.42666666666667</v>
+      </c>
+      <c r="H5" t="n">
         <v>12.38833333333332</v>
       </c>
-      <c r="H5" t="n">
-        <v>0</v>
-      </c>
       <c r="I5" t="n">
-        <v>0</v>
-      </c>
-      <c r="J5" t="inlineStr"/>
-      <c r="K5" t="inlineStr"/>
-      <c r="L5" t="inlineStr"/>
-      <c r="M5" t="n">
+        <v>1</v>
+      </c>
+      <c r="J5" t="n">
+        <v>0</v>
+      </c>
+      <c r="K5" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="L5" t="n">
+        <v>12.4</v>
+      </c>
+      <c r="M5" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="N5" t="n">
         <v>1</v>
       </c>
     </row>
@@ -588,18 +625,29 @@
         <v>51</v>
       </c>
       <c r="G6" t="n">
+        <v>12.46000000000001</v>
+      </c>
+      <c r="H6" t="n">
         <v>12.39666666666665</v>
       </c>
-      <c r="H6" t="n">
-        <v>0</v>
-      </c>
       <c r="I6" t="n">
-        <v>0</v>
-      </c>
-      <c r="J6" t="inlineStr"/>
-      <c r="K6" t="inlineStr"/>
-      <c r="L6" t="inlineStr"/>
-      <c r="M6" t="n">
+        <v>1</v>
+      </c>
+      <c r="J6" t="n">
+        <v>0</v>
+      </c>
+      <c r="K6" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="L6" t="n">
+        <v>12.4</v>
+      </c>
+      <c r="M6" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
+      <c r="N6" t="n">
         <v>1</v>
       </c>
     </row>
@@ -623,18 +671,29 @@
         <v>3216.29</v>
       </c>
       <c r="G7" t="n">
+        <v>12.47333333333334</v>
+      </c>
+      <c r="H7" t="n">
         <v>12.39999999999998</v>
       </c>
-      <c r="H7" t="n">
-        <v>0</v>
-      </c>
       <c r="I7" t="n">
-        <v>0</v>
-      </c>
-      <c r="J7" t="inlineStr"/>
-      <c r="K7" t="inlineStr"/>
-      <c r="L7" t="inlineStr"/>
-      <c r="M7" t="n">
+        <v>1</v>
+      </c>
+      <c r="J7" t="n">
+        <v>0</v>
+      </c>
+      <c r="K7" t="n">
+        <v>12.8</v>
+      </c>
+      <c r="L7" t="n">
+        <v>12.4</v>
+      </c>
+      <c r="M7" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N7" t="n">
         <v>1</v>
       </c>
     </row>
@@ -658,18 +717,29 @@
         <v>203793.3273</v>
       </c>
       <c r="G8" t="n">
+        <v>12.50666666666667</v>
+      </c>
+      <c r="H8" t="n">
         <v>12.40999999999998</v>
       </c>
-      <c r="H8" t="n">
-        <v>0</v>
-      </c>
       <c r="I8" t="n">
-        <v>0</v>
-      </c>
-      <c r="J8" t="inlineStr"/>
-      <c r="K8" t="inlineStr"/>
-      <c r="L8" t="inlineStr"/>
-      <c r="M8" t="n">
+        <v>1</v>
+      </c>
+      <c r="J8" t="n">
+        <v>0</v>
+      </c>
+      <c r="K8" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="L8" t="n">
+        <v>12.4</v>
+      </c>
+      <c r="M8" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N8" t="n">
         <v>1</v>
       </c>
     </row>
@@ -693,18 +763,27 @@
         <v>3192.5</v>
       </c>
       <c r="G9" t="n">
+        <v>12.55333333333334</v>
+      </c>
+      <c r="H9" t="n">
         <v>12.41999999999998</v>
       </c>
-      <c r="H9" t="n">
-        <v>0</v>
-      </c>
       <c r="I9" t="n">
         <v>0</v>
       </c>
-      <c r="J9" t="inlineStr"/>
+      <c r="J9" t="n">
+        <v>0</v>
+      </c>
       <c r="K9" t="inlineStr"/>
-      <c r="L9" t="inlineStr"/>
-      <c r="M9" t="n">
+      <c r="L9" t="n">
+        <v>12.4</v>
+      </c>
+      <c r="M9" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N9" t="n">
         <v>1</v>
       </c>
     </row>
@@ -728,18 +807,27 @@
         <v>74962.91711969697</v>
       </c>
       <c r="G10" t="n">
+        <v>12.59333333333334</v>
+      </c>
+      <c r="H10" t="n">
         <v>12.43333333333332</v>
       </c>
-      <c r="H10" t="n">
-        <v>0</v>
-      </c>
       <c r="I10" t="n">
         <v>0</v>
       </c>
-      <c r="J10" t="inlineStr"/>
+      <c r="J10" t="n">
+        <v>0</v>
+      </c>
       <c r="K10" t="inlineStr"/>
-      <c r="L10" t="inlineStr"/>
-      <c r="M10" t="n">
+      <c r="L10" t="n">
+        <v>12.4</v>
+      </c>
+      <c r="M10" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N10" t="n">
         <v>1</v>
       </c>
     </row>
@@ -763,18 +851,27 @@
         <v>31555.0425</v>
       </c>
       <c r="G11" t="n">
+        <v>12.64</v>
+      </c>
+      <c r="H11" t="n">
         <v>12.44666666666665</v>
       </c>
-      <c r="H11" t="n">
-        <v>0</v>
-      </c>
       <c r="I11" t="n">
         <v>0</v>
       </c>
-      <c r="J11" t="inlineStr"/>
+      <c r="J11" t="n">
+        <v>0</v>
+      </c>
       <c r="K11" t="inlineStr"/>
-      <c r="L11" t="inlineStr"/>
-      <c r="M11" t="n">
+      <c r="L11" t="n">
+        <v>12.4</v>
+      </c>
+      <c r="M11" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N11" t="n">
         <v>1</v>
       </c>
     </row>
@@ -798,18 +895,27 @@
         <v>14703.8251</v>
       </c>
       <c r="G12" t="n">
+        <v>12.68666666666667</v>
+      </c>
+      <c r="H12" t="n">
         <v>12.45999999999998</v>
       </c>
-      <c r="H12" t="n">
-        <v>0</v>
-      </c>
       <c r="I12" t="n">
         <v>0</v>
       </c>
-      <c r="J12" t="inlineStr"/>
+      <c r="J12" t="n">
+        <v>0</v>
+      </c>
       <c r="K12" t="inlineStr"/>
-      <c r="L12" t="inlineStr"/>
-      <c r="M12" t="n">
+      <c r="L12" t="n">
+        <v>12.4</v>
+      </c>
+      <c r="M12" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N12" t="n">
         <v>1</v>
       </c>
     </row>
@@ -833,18 +939,27 @@
         <v>123029.8431</v>
       </c>
       <c r="G13" t="n">
+        <v>12.73333333333334</v>
+      </c>
+      <c r="H13" t="n">
         <v>12.47166666666665</v>
       </c>
-      <c r="H13" t="n">
-        <v>0</v>
-      </c>
       <c r="I13" t="n">
-        <v>1</v>
-      </c>
-      <c r="J13" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J13" t="n">
+        <v>0</v>
+      </c>
       <c r="K13" t="inlineStr"/>
-      <c r="L13" t="inlineStr"/>
-      <c r="M13" t="n">
+      <c r="L13" t="n">
+        <v>12.4</v>
+      </c>
+      <c r="M13" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N13" t="n">
         <v>1</v>
       </c>
     </row>
@@ -868,18 +983,27 @@
         <v>18310</v>
       </c>
       <c r="G14" t="n">
+        <v>12.76</v>
+      </c>
+      <c r="H14" t="n">
         <v>12.48333333333331</v>
       </c>
-      <c r="H14" t="n">
-        <v>0</v>
-      </c>
       <c r="I14" t="n">
         <v>0</v>
       </c>
-      <c r="J14" t="inlineStr"/>
+      <c r="J14" t="n">
+        <v>0</v>
+      </c>
       <c r="K14" t="inlineStr"/>
-      <c r="L14" t="inlineStr"/>
-      <c r="M14" t="n">
+      <c r="L14" t="n">
+        <v>12.4</v>
+      </c>
+      <c r="M14" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N14" t="n">
         <v>1</v>
       </c>
     </row>
@@ -903,18 +1027,27 @@
         <v>20733.5107</v>
       </c>
       <c r="G15" t="n">
+        <v>12.76</v>
+      </c>
+      <c r="H15" t="n">
         <v>12.49499999999998</v>
       </c>
-      <c r="H15" t="n">
-        <v>0</v>
-      </c>
       <c r="I15" t="n">
         <v>0</v>
       </c>
-      <c r="J15" t="inlineStr"/>
+      <c r="J15" t="n">
+        <v>0</v>
+      </c>
       <c r="K15" t="inlineStr"/>
-      <c r="L15" t="inlineStr"/>
-      <c r="M15" t="n">
+      <c r="L15" t="n">
+        <v>12.4</v>
+      </c>
+      <c r="M15" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N15" t="n">
         <v>1</v>
       </c>
     </row>
@@ -938,18 +1071,27 @@
         <v>7611.1404</v>
       </c>
       <c r="G16" t="n">
+        <v>12.78</v>
+      </c>
+      <c r="H16" t="n">
         <v>12.50666666666664</v>
       </c>
-      <c r="H16" t="n">
-        <v>0</v>
-      </c>
       <c r="I16" t="n">
         <v>0</v>
       </c>
-      <c r="J16" t="inlineStr"/>
+      <c r="J16" t="n">
+        <v>0</v>
+      </c>
       <c r="K16" t="inlineStr"/>
-      <c r="L16" t="inlineStr"/>
-      <c r="M16" t="n">
+      <c r="L16" t="n">
+        <v>12.4</v>
+      </c>
+      <c r="M16" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N16" t="n">
         <v>1</v>
       </c>
     </row>
@@ -973,18 +1115,27 @@
         <v>51186.13</v>
       </c>
       <c r="G17" t="n">
+        <v>12.80666666666667</v>
+      </c>
+      <c r="H17" t="n">
         <v>12.51499999999998</v>
       </c>
-      <c r="H17" t="n">
-        <v>0</v>
-      </c>
       <c r="I17" t="n">
         <v>0</v>
       </c>
-      <c r="J17" t="inlineStr"/>
+      <c r="J17" t="n">
+        <v>0</v>
+      </c>
       <c r="K17" t="inlineStr"/>
-      <c r="L17" t="inlineStr"/>
-      <c r="M17" t="n">
+      <c r="L17" t="n">
+        <v>12.4</v>
+      </c>
+      <c r="M17" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N17" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1008,18 +1159,27 @@
         <v>45061.2773</v>
       </c>
       <c r="G18" t="n">
+        <v>12.82</v>
+      </c>
+      <c r="H18" t="n">
         <v>12.52333333333331</v>
       </c>
-      <c r="H18" t="n">
-        <v>0</v>
-      </c>
       <c r="I18" t="n">
         <v>0</v>
       </c>
-      <c r="J18" t="inlineStr"/>
+      <c r="J18" t="n">
+        <v>0</v>
+      </c>
       <c r="K18" t="inlineStr"/>
-      <c r="L18" t="inlineStr"/>
-      <c r="M18" t="n">
+      <c r="L18" t="n">
+        <v>12.4</v>
+      </c>
+      <c r="M18" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N18" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1043,18 +1203,27 @@
         <v>12</v>
       </c>
       <c r="G19" t="n">
+        <v>12.84000000000001</v>
+      </c>
+      <c r="H19" t="n">
         <v>12.53166666666664</v>
       </c>
-      <c r="H19" t="n">
-        <v>0</v>
-      </c>
       <c r="I19" t="n">
         <v>0</v>
       </c>
-      <c r="J19" t="inlineStr"/>
+      <c r="J19" t="n">
+        <v>0</v>
+      </c>
       <c r="K19" t="inlineStr"/>
-      <c r="L19" t="inlineStr"/>
-      <c r="M19" t="n">
+      <c r="L19" t="n">
+        <v>12.4</v>
+      </c>
+      <c r="M19" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N19" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1078,18 +1247,27 @@
         <v>50000</v>
       </c>
       <c r="G20" t="n">
+        <v>12.85333333333334</v>
+      </c>
+      <c r="H20" t="n">
         <v>12.53999999999998</v>
       </c>
-      <c r="H20" t="n">
-        <v>0</v>
-      </c>
       <c r="I20" t="n">
         <v>0</v>
       </c>
-      <c r="J20" t="inlineStr"/>
+      <c r="J20" t="n">
+        <v>0</v>
+      </c>
       <c r="K20" t="inlineStr"/>
-      <c r="L20" t="inlineStr"/>
-      <c r="M20" t="n">
+      <c r="L20" t="n">
+        <v>12.4</v>
+      </c>
+      <c r="M20" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N20" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1113,18 +1291,29 @@
         <v>5000</v>
       </c>
       <c r="G21" t="n">
+        <v>12.84</v>
+      </c>
+      <c r="H21" t="n">
         <v>12.54666666666664</v>
       </c>
-      <c r="H21" t="n">
-        <v>0</v>
-      </c>
       <c r="I21" t="n">
-        <v>0</v>
-      </c>
-      <c r="J21" t="inlineStr"/>
-      <c r="K21" t="inlineStr"/>
-      <c r="L21" t="inlineStr"/>
-      <c r="M21" t="n">
+        <v>1</v>
+      </c>
+      <c r="J21" t="n">
+        <v>0</v>
+      </c>
+      <c r="K21" t="n">
+        <v>12.7</v>
+      </c>
+      <c r="L21" t="n">
+        <v>12.4</v>
+      </c>
+      <c r="M21" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N21" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1148,18 +1337,29 @@
         <v>7366.79</v>
       </c>
       <c r="G22" t="n">
+        <v>12.86</v>
+      </c>
+      <c r="H22" t="n">
         <v>12.55666666666664</v>
       </c>
-      <c r="H22" t="n">
-        <v>0</v>
-      </c>
       <c r="I22" t="n">
-        <v>0</v>
-      </c>
-      <c r="J22" t="inlineStr"/>
-      <c r="K22" t="inlineStr"/>
-      <c r="L22" t="inlineStr"/>
-      <c r="M22" t="n">
+        <v>1</v>
+      </c>
+      <c r="J22" t="n">
+        <v>0</v>
+      </c>
+      <c r="K22" t="n">
+        <v>12.6</v>
+      </c>
+      <c r="L22" t="n">
+        <v>12.4</v>
+      </c>
+      <c r="M22" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N22" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1183,18 +1383,29 @@
         <v>6000</v>
       </c>
       <c r="G23" t="n">
+        <v>12.86666666666667</v>
+      </c>
+      <c r="H23" t="n">
         <v>12.56833333333331</v>
       </c>
-      <c r="H23" t="n">
-        <v>0</v>
-      </c>
       <c r="I23" t="n">
-        <v>0</v>
-      </c>
-      <c r="J23" t="inlineStr"/>
-      <c r="K23" t="inlineStr"/>
-      <c r="L23" t="inlineStr"/>
-      <c r="M23" t="n">
+        <v>1</v>
+      </c>
+      <c r="J23" t="n">
+        <v>0</v>
+      </c>
+      <c r="K23" t="n">
+        <v>12.8</v>
+      </c>
+      <c r="L23" t="n">
+        <v>12.4</v>
+      </c>
+      <c r="M23" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N23" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1218,18 +1429,27 @@
         <v>594531.5437</v>
       </c>
       <c r="G24" t="n">
+        <v>12.86666666666667</v>
+      </c>
+      <c r="H24" t="n">
         <v>12.57833333333331</v>
       </c>
-      <c r="H24" t="n">
-        <v>0</v>
-      </c>
       <c r="I24" t="n">
         <v>0</v>
       </c>
-      <c r="J24" t="inlineStr"/>
+      <c r="J24" t="n">
+        <v>0</v>
+      </c>
       <c r="K24" t="inlineStr"/>
-      <c r="L24" t="inlineStr"/>
-      <c r="M24" t="n">
+      <c r="L24" t="n">
+        <v>12.4</v>
+      </c>
+      <c r="M24" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N24" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1253,18 +1473,27 @@
         <v>31328.0501</v>
       </c>
       <c r="G25" t="n">
+        <v>12.86666666666667</v>
+      </c>
+      <c r="H25" t="n">
         <v>12.58666666666664</v>
       </c>
-      <c r="H25" t="n">
-        <v>0</v>
-      </c>
       <c r="I25" t="n">
         <v>0</v>
       </c>
-      <c r="J25" t="inlineStr"/>
+      <c r="J25" t="n">
+        <v>0</v>
+      </c>
       <c r="K25" t="inlineStr"/>
-      <c r="L25" t="inlineStr"/>
-      <c r="M25" t="n">
+      <c r="L25" t="n">
+        <v>12.4</v>
+      </c>
+      <c r="M25" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N25" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1288,18 +1517,27 @@
         <v>2647.09</v>
       </c>
       <c r="G26" t="n">
+        <v>12.86666666666667</v>
+      </c>
+      <c r="H26" t="n">
         <v>12.59666666666664</v>
       </c>
-      <c r="H26" t="n">
-        <v>0</v>
-      </c>
       <c r="I26" t="n">
-        <v>1</v>
-      </c>
-      <c r="J26" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J26" t="n">
+        <v>0</v>
+      </c>
       <c r="K26" t="inlineStr"/>
-      <c r="L26" t="inlineStr"/>
-      <c r="M26" t="n">
+      <c r="L26" t="n">
+        <v>12.4</v>
+      </c>
+      <c r="M26" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N26" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1323,18 +1561,27 @@
         <v>53535.9048</v>
       </c>
       <c r="G27" t="n">
+        <v>12.85333333333334</v>
+      </c>
+      <c r="H27" t="n">
         <v>12.60166666666664</v>
       </c>
-      <c r="H27" t="n">
-        <v>0</v>
-      </c>
       <c r="I27" t="n">
         <v>0</v>
       </c>
-      <c r="J27" t="inlineStr"/>
+      <c r="J27" t="n">
+        <v>0</v>
+      </c>
       <c r="K27" t="inlineStr"/>
-      <c r="L27" t="inlineStr"/>
-      <c r="M27" t="n">
+      <c r="L27" t="n">
+        <v>12.4</v>
+      </c>
+      <c r="M27" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N27" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1358,18 +1605,27 @@
         <v>42829.2265</v>
       </c>
       <c r="G28" t="n">
+        <v>12.84666666666667</v>
+      </c>
+      <c r="H28" t="n">
         <v>12.60666666666664</v>
       </c>
-      <c r="H28" t="n">
-        <v>0</v>
-      </c>
       <c r="I28" t="n">
         <v>0</v>
       </c>
-      <c r="J28" t="inlineStr"/>
+      <c r="J28" t="n">
+        <v>0</v>
+      </c>
       <c r="K28" t="inlineStr"/>
-      <c r="L28" t="inlineStr"/>
-      <c r="M28" t="n">
+      <c r="L28" t="n">
+        <v>12.4</v>
+      </c>
+      <c r="M28" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N28" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1393,18 +1649,27 @@
         <v>47334.6741</v>
       </c>
       <c r="G29" t="n">
+        <v>12.84000000000001</v>
+      </c>
+      <c r="H29" t="n">
         <v>12.61166666666664</v>
       </c>
-      <c r="H29" t="n">
-        <v>0</v>
-      </c>
       <c r="I29" t="n">
         <v>0</v>
       </c>
-      <c r="J29" t="inlineStr"/>
+      <c r="J29" t="n">
+        <v>0</v>
+      </c>
       <c r="K29" t="inlineStr"/>
-      <c r="L29" t="inlineStr"/>
-      <c r="M29" t="n">
+      <c r="L29" t="n">
+        <v>12.4</v>
+      </c>
+      <c r="M29" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N29" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1428,18 +1693,27 @@
         <v>36660.5059</v>
       </c>
       <c r="G30" t="n">
+        <v>12.83333333333334</v>
+      </c>
+      <c r="H30" t="n">
         <v>12.61499999999997</v>
       </c>
-      <c r="H30" t="n">
-        <v>0</v>
-      </c>
       <c r="I30" t="n">
         <v>0</v>
       </c>
-      <c r="J30" t="inlineStr"/>
+      <c r="J30" t="n">
+        <v>0</v>
+      </c>
       <c r="K30" t="inlineStr"/>
-      <c r="L30" t="inlineStr"/>
-      <c r="M30" t="n">
+      <c r="L30" t="n">
+        <v>12.4</v>
+      </c>
+      <c r="M30" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N30" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1463,18 +1737,27 @@
         <v>655.9628</v>
       </c>
       <c r="G31" t="n">
+        <v>12.82666666666667</v>
+      </c>
+      <c r="H31" t="n">
         <v>12.61999999999997</v>
       </c>
-      <c r="H31" t="n">
-        <v>0</v>
-      </c>
       <c r="I31" t="n">
         <v>0</v>
       </c>
-      <c r="J31" t="inlineStr"/>
+      <c r="J31" t="n">
+        <v>0</v>
+      </c>
       <c r="K31" t="inlineStr"/>
-      <c r="L31" t="inlineStr"/>
-      <c r="M31" t="n">
+      <c r="L31" t="n">
+        <v>12.4</v>
+      </c>
+      <c r="M31" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N31" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1498,18 +1781,27 @@
         <v>14604.2757</v>
       </c>
       <c r="G32" t="n">
+        <v>12.82666666666667</v>
+      </c>
+      <c r="H32" t="n">
         <v>12.62499999999997</v>
       </c>
-      <c r="H32" t="n">
-        <v>0</v>
-      </c>
       <c r="I32" t="n">
         <v>0</v>
       </c>
-      <c r="J32" t="inlineStr"/>
+      <c r="J32" t="n">
+        <v>0</v>
+      </c>
       <c r="K32" t="inlineStr"/>
-      <c r="L32" t="inlineStr"/>
-      <c r="M32" t="n">
+      <c r="L32" t="n">
+        <v>12.4</v>
+      </c>
+      <c r="M32" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N32" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1533,18 +1825,27 @@
         <v>21791.1093</v>
       </c>
       <c r="G33" t="n">
+        <v>12.83333333333334</v>
+      </c>
+      <c r="H33" t="n">
         <v>12.62999999999997</v>
       </c>
-      <c r="H33" t="n">
-        <v>0</v>
-      </c>
       <c r="I33" t="n">
         <v>0</v>
       </c>
-      <c r="J33" t="inlineStr"/>
+      <c r="J33" t="n">
+        <v>0</v>
+      </c>
       <c r="K33" t="inlineStr"/>
-      <c r="L33" t="inlineStr"/>
-      <c r="M33" t="n">
+      <c r="L33" t="n">
+        <v>12.4</v>
+      </c>
+      <c r="M33" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N33" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1568,18 +1869,27 @@
         <v>15549.4711</v>
       </c>
       <c r="G34" t="n">
+        <v>12.84666666666667</v>
+      </c>
+      <c r="H34" t="n">
         <v>12.6383333333333</v>
       </c>
-      <c r="H34" t="n">
-        <v>0</v>
-      </c>
       <c r="I34" t="n">
         <v>0</v>
       </c>
-      <c r="J34" t="inlineStr"/>
+      <c r="J34" t="n">
+        <v>0</v>
+      </c>
       <c r="K34" t="inlineStr"/>
-      <c r="L34" t="inlineStr"/>
-      <c r="M34" t="n">
+      <c r="L34" t="n">
+        <v>12.4</v>
+      </c>
+      <c r="M34" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N34" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1603,18 +1913,27 @@
         <v>86266.9745</v>
       </c>
       <c r="G35" t="n">
+        <v>12.85333333333334</v>
+      </c>
+      <c r="H35" t="n">
         <v>12.6433333333333</v>
       </c>
-      <c r="H35" t="n">
-        <v>0</v>
-      </c>
       <c r="I35" t="n">
         <v>0</v>
       </c>
-      <c r="J35" t="inlineStr"/>
+      <c r="J35" t="n">
+        <v>0</v>
+      </c>
       <c r="K35" t="inlineStr"/>
-      <c r="L35" t="inlineStr"/>
-      <c r="M35" t="n">
+      <c r="L35" t="n">
+        <v>12.4</v>
+      </c>
+      <c r="M35" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N35" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1638,18 +1957,27 @@
         <v>11.8461</v>
       </c>
       <c r="G36" t="n">
+        <v>12.88000000000001</v>
+      </c>
+      <c r="H36" t="n">
         <v>12.6533333333333</v>
       </c>
-      <c r="H36" t="n">
-        <v>0</v>
-      </c>
       <c r="I36" t="n">
         <v>0</v>
       </c>
-      <c r="J36" t="inlineStr"/>
+      <c r="J36" t="n">
+        <v>0</v>
+      </c>
       <c r="K36" t="inlineStr"/>
-      <c r="L36" t="inlineStr"/>
-      <c r="M36" t="n">
+      <c r="L36" t="n">
+        <v>12.4</v>
+      </c>
+      <c r="M36" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N36" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1673,18 +2001,27 @@
         <v>70961.43180000001</v>
       </c>
       <c r="G37" t="n">
+        <v>12.88000000000001</v>
+      </c>
+      <c r="H37" t="n">
         <v>12.6583333333333</v>
       </c>
-      <c r="H37" t="n">
-        <v>0</v>
-      </c>
       <c r="I37" t="n">
         <v>0</v>
       </c>
-      <c r="J37" t="inlineStr"/>
+      <c r="J37" t="n">
+        <v>0</v>
+      </c>
       <c r="K37" t="inlineStr"/>
-      <c r="L37" t="inlineStr"/>
-      <c r="M37" t="n">
+      <c r="L37" t="n">
+        <v>12.4</v>
+      </c>
+      <c r="M37" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N37" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1708,18 +2045,27 @@
         <v>12</v>
       </c>
       <c r="G38" t="n">
+        <v>12.88000000000001</v>
+      </c>
+      <c r="H38" t="n">
         <v>12.6683333333333</v>
       </c>
-      <c r="H38" t="n">
-        <v>0</v>
-      </c>
       <c r="I38" t="n">
         <v>0</v>
       </c>
-      <c r="J38" t="inlineStr"/>
+      <c r="J38" t="n">
+        <v>0</v>
+      </c>
       <c r="K38" t="inlineStr"/>
-      <c r="L38" t="inlineStr"/>
-      <c r="M38" t="n">
+      <c r="L38" t="n">
+        <v>12.4</v>
+      </c>
+      <c r="M38" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N38" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1743,18 +2089,27 @@
         <v>132169.8246</v>
       </c>
       <c r="G39" t="n">
+        <v>12.86666666666668</v>
+      </c>
+      <c r="H39" t="n">
         <v>12.67499999999997</v>
       </c>
-      <c r="H39" t="n">
-        <v>0</v>
-      </c>
       <c r="I39" t="n">
         <v>0</v>
       </c>
-      <c r="J39" t="inlineStr"/>
+      <c r="J39" t="n">
+        <v>0</v>
+      </c>
       <c r="K39" t="inlineStr"/>
-      <c r="L39" t="inlineStr"/>
-      <c r="M39" t="n">
+      <c r="L39" t="n">
+        <v>12.4</v>
+      </c>
+      <c r="M39" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N39" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1778,18 +2133,27 @@
         <v>20000</v>
       </c>
       <c r="G40" t="n">
+        <v>12.85333333333334</v>
+      </c>
+      <c r="H40" t="n">
         <v>12.6733333333333</v>
       </c>
-      <c r="H40" t="n">
-        <v>0</v>
-      </c>
       <c r="I40" t="n">
         <v>0</v>
       </c>
-      <c r="J40" t="inlineStr"/>
+      <c r="J40" t="n">
+        <v>0</v>
+      </c>
       <c r="K40" t="inlineStr"/>
-      <c r="L40" t="inlineStr"/>
-      <c r="M40" t="n">
+      <c r="L40" t="n">
+        <v>12.4</v>
+      </c>
+      <c r="M40" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N40" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1813,18 +2177,27 @@
         <v>123503.8715</v>
       </c>
       <c r="G41" t="n">
+        <v>12.82666666666668</v>
+      </c>
+      <c r="H41" t="n">
         <v>12.67499999999997</v>
       </c>
-      <c r="H41" t="n">
-        <v>0</v>
-      </c>
       <c r="I41" t="n">
         <v>0</v>
       </c>
-      <c r="J41" t="inlineStr"/>
+      <c r="J41" t="n">
+        <v>0</v>
+      </c>
       <c r="K41" t="inlineStr"/>
-      <c r="L41" t="inlineStr"/>
-      <c r="M41" t="n">
+      <c r="L41" t="n">
+        <v>12.4</v>
+      </c>
+      <c r="M41" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N41" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1848,18 +2221,27 @@
         <v>5381.56</v>
       </c>
       <c r="G42" t="n">
+        <v>12.81333333333334</v>
+      </c>
+      <c r="H42" t="n">
         <v>12.67666666666664</v>
       </c>
-      <c r="H42" t="n">
-        <v>0</v>
-      </c>
       <c r="I42" t="n">
         <v>0</v>
       </c>
-      <c r="J42" t="inlineStr"/>
+      <c r="J42" t="n">
+        <v>0</v>
+      </c>
       <c r="K42" t="inlineStr"/>
-      <c r="L42" t="inlineStr"/>
-      <c r="M42" t="n">
+      <c r="L42" t="n">
+        <v>12.4</v>
+      </c>
+      <c r="M42" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N42" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1883,18 +2265,27 @@
         <v>2911.52</v>
       </c>
       <c r="G43" t="n">
+        <v>12.79333333333334</v>
+      </c>
+      <c r="H43" t="n">
         <v>12.67666666666664</v>
       </c>
-      <c r="H43" t="n">
-        <v>0</v>
-      </c>
       <c r="I43" t="n">
         <v>0</v>
       </c>
-      <c r="J43" t="inlineStr"/>
+      <c r="J43" t="n">
+        <v>0</v>
+      </c>
       <c r="K43" t="inlineStr"/>
-      <c r="L43" t="inlineStr"/>
-      <c r="M43" t="n">
+      <c r="L43" t="n">
+        <v>12.4</v>
+      </c>
+      <c r="M43" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N43" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1918,18 +2309,27 @@
         <v>7534.7497</v>
       </c>
       <c r="G44" t="n">
+        <v>12.78666666666667</v>
+      </c>
+      <c r="H44" t="n">
         <v>12.68166666666664</v>
       </c>
-      <c r="H44" t="n">
-        <v>0</v>
-      </c>
       <c r="I44" t="n">
         <v>0</v>
       </c>
-      <c r="J44" t="inlineStr"/>
+      <c r="J44" t="n">
+        <v>0</v>
+      </c>
       <c r="K44" t="inlineStr"/>
-      <c r="L44" t="inlineStr"/>
-      <c r="M44" t="n">
+      <c r="L44" t="n">
+        <v>12.4</v>
+      </c>
+      <c r="M44" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N44" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1953,18 +2353,29 @@
         <v>3480</v>
       </c>
       <c r="G45" t="n">
+        <v>12.78</v>
+      </c>
+      <c r="H45" t="n">
         <v>12.68666666666664</v>
       </c>
-      <c r="H45" t="n">
-        <v>0</v>
-      </c>
       <c r="I45" t="n">
-        <v>0</v>
-      </c>
-      <c r="J45" t="inlineStr"/>
-      <c r="K45" t="inlineStr"/>
-      <c r="L45" t="inlineStr"/>
-      <c r="M45" t="n">
+        <v>1</v>
+      </c>
+      <c r="J45" t="n">
+        <v>0</v>
+      </c>
+      <c r="K45" t="n">
+        <v>12.7</v>
+      </c>
+      <c r="L45" t="n">
+        <v>12.4</v>
+      </c>
+      <c r="M45" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N45" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1988,18 +2399,27 @@
         <v>4028.44</v>
       </c>
       <c r="G46" t="n">
+        <v>12.76666666666667</v>
+      </c>
+      <c r="H46" t="n">
         <v>12.69166666666664</v>
       </c>
-      <c r="H46" t="n">
-        <v>0</v>
-      </c>
       <c r="I46" t="n">
         <v>0</v>
       </c>
-      <c r="J46" t="inlineStr"/>
+      <c r="J46" t="n">
+        <v>0</v>
+      </c>
       <c r="K46" t="inlineStr"/>
-      <c r="L46" t="inlineStr"/>
-      <c r="M46" t="n">
+      <c r="L46" t="n">
+        <v>12.4</v>
+      </c>
+      <c r="M46" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N46" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2023,18 +2443,27 @@
         <v>153088.3466</v>
       </c>
       <c r="G47" t="n">
+        <v>12.74666666666667</v>
+      </c>
+      <c r="H47" t="n">
         <v>12.69166666666664</v>
       </c>
-      <c r="H47" t="n">
-        <v>0</v>
-      </c>
       <c r="I47" t="n">
         <v>0</v>
       </c>
-      <c r="J47" t="inlineStr"/>
+      <c r="J47" t="n">
+        <v>0</v>
+      </c>
       <c r="K47" t="inlineStr"/>
-      <c r="L47" t="inlineStr"/>
-      <c r="M47" t="n">
+      <c r="L47" t="n">
+        <v>12.4</v>
+      </c>
+      <c r="M47" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N47" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2058,18 +2487,27 @@
         <v>9380</v>
       </c>
       <c r="G48" t="n">
+        <v>12.72666666666667</v>
+      </c>
+      <c r="H48" t="n">
         <v>12.69499999999997</v>
       </c>
-      <c r="H48" t="n">
-        <v>0</v>
-      </c>
       <c r="I48" t="n">
         <v>0</v>
       </c>
-      <c r="J48" t="inlineStr"/>
+      <c r="J48" t="n">
+        <v>0</v>
+      </c>
       <c r="K48" t="inlineStr"/>
-      <c r="L48" t="inlineStr"/>
-      <c r="M48" t="n">
+      <c r="L48" t="n">
+        <v>12.4</v>
+      </c>
+      <c r="M48" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N48" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2093,18 +2531,27 @@
         <v>12886.62</v>
       </c>
       <c r="G49" t="n">
+        <v>12.69333333333334</v>
+      </c>
+      <c r="H49" t="n">
         <v>12.69833333333331</v>
       </c>
-      <c r="H49" t="n">
-        <v>0</v>
-      </c>
       <c r="I49" t="n">
         <v>0</v>
       </c>
-      <c r="J49" t="inlineStr"/>
+      <c r="J49" t="n">
+        <v>0</v>
+      </c>
       <c r="K49" t="inlineStr"/>
-      <c r="L49" t="inlineStr"/>
-      <c r="M49" t="n">
+      <c r="L49" t="n">
+        <v>12.4</v>
+      </c>
+      <c r="M49" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N49" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2128,18 +2575,27 @@
         <v>40489.2315</v>
       </c>
       <c r="G50" t="n">
+        <v>12.66666666666667</v>
+      </c>
+      <c r="H50" t="n">
         <v>12.69999999999998</v>
       </c>
-      <c r="H50" t="n">
-        <v>0</v>
-      </c>
       <c r="I50" t="n">
         <v>0</v>
       </c>
-      <c r="J50" t="inlineStr"/>
+      <c r="J50" t="n">
+        <v>0</v>
+      </c>
       <c r="K50" t="inlineStr"/>
-      <c r="L50" t="inlineStr"/>
-      <c r="M50" t="n">
+      <c r="L50" t="n">
+        <v>12.4</v>
+      </c>
+      <c r="M50" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N50" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2163,18 +2619,27 @@
         <v>2640</v>
       </c>
       <c r="G51" t="n">
+        <v>12.63333333333333</v>
+      </c>
+      <c r="H51" t="n">
         <v>12.70333333333331</v>
       </c>
-      <c r="H51" t="n">
-        <v>0</v>
-      </c>
       <c r="I51" t="n">
         <v>0</v>
       </c>
-      <c r="J51" t="inlineStr"/>
+      <c r="J51" t="n">
+        <v>0</v>
+      </c>
       <c r="K51" t="inlineStr"/>
-      <c r="L51" t="inlineStr"/>
-      <c r="M51" t="n">
+      <c r="L51" t="n">
+        <v>12.4</v>
+      </c>
+      <c r="M51" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N51" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2198,18 +2663,27 @@
         <v>11527.5396</v>
       </c>
       <c r="G52" t="n">
+        <v>12.62</v>
+      </c>
+      <c r="H52" t="n">
         <v>12.70833333333331</v>
       </c>
-      <c r="H52" t="n">
-        <v>0</v>
-      </c>
       <c r="I52" t="n">
         <v>0</v>
       </c>
-      <c r="J52" t="inlineStr"/>
+      <c r="J52" t="n">
+        <v>0</v>
+      </c>
       <c r="K52" t="inlineStr"/>
-      <c r="L52" t="inlineStr"/>
-      <c r="M52" t="n">
+      <c r="L52" t="n">
+        <v>12.4</v>
+      </c>
+      <c r="M52" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N52" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2233,18 +2707,27 @@
         <v>2640</v>
       </c>
       <c r="G53" t="n">
+        <v>12.58666666666667</v>
+      </c>
+      <c r="H53" t="n">
         <v>12.70999999999998</v>
       </c>
-      <c r="H53" t="n">
-        <v>0</v>
-      </c>
       <c r="I53" t="n">
         <v>0</v>
       </c>
-      <c r="J53" t="inlineStr"/>
+      <c r="J53" t="n">
+        <v>0</v>
+      </c>
       <c r="K53" t="inlineStr"/>
-      <c r="L53" t="inlineStr"/>
-      <c r="M53" t="n">
+      <c r="L53" t="n">
+        <v>12.4</v>
+      </c>
+      <c r="M53" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N53" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2268,18 +2751,27 @@
         <v>45286.0001</v>
       </c>
       <c r="G54" t="n">
+        <v>12.56666666666667</v>
+      </c>
+      <c r="H54" t="n">
         <v>12.71333333333331</v>
       </c>
-      <c r="H54" t="n">
-        <v>0</v>
-      </c>
       <c r="I54" t="n">
         <v>0</v>
       </c>
-      <c r="J54" t="inlineStr"/>
+      <c r="J54" t="n">
+        <v>0</v>
+      </c>
       <c r="K54" t="inlineStr"/>
-      <c r="L54" t="inlineStr"/>
-      <c r="M54" t="n">
+      <c r="L54" t="n">
+        <v>12.4</v>
+      </c>
+      <c r="M54" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N54" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2303,18 +2795,27 @@
         <v>48136.5387</v>
       </c>
       <c r="G55" t="n">
+        <v>12.54666666666667</v>
+      </c>
+      <c r="H55" t="n">
         <v>12.71499999999998</v>
       </c>
-      <c r="H55" t="n">
-        <v>0</v>
-      </c>
       <c r="I55" t="n">
         <v>0</v>
       </c>
-      <c r="J55" t="inlineStr"/>
+      <c r="J55" t="n">
+        <v>0</v>
+      </c>
       <c r="K55" t="inlineStr"/>
-      <c r="L55" t="inlineStr"/>
-      <c r="M55" t="n">
+      <c r="L55" t="n">
+        <v>12.4</v>
+      </c>
+      <c r="M55" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N55" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2338,18 +2839,27 @@
         <v>59194.9443</v>
       </c>
       <c r="G56" t="n">
+        <v>12.54666666666667</v>
+      </c>
+      <c r="H56" t="n">
         <v>12.71999999999998</v>
       </c>
-      <c r="H56" t="n">
-        <v>0</v>
-      </c>
       <c r="I56" t="n">
         <v>0</v>
       </c>
-      <c r="J56" t="inlineStr"/>
+      <c r="J56" t="n">
+        <v>0</v>
+      </c>
       <c r="K56" t="inlineStr"/>
-      <c r="L56" t="inlineStr"/>
-      <c r="M56" t="n">
+      <c r="L56" t="n">
+        <v>12.4</v>
+      </c>
+      <c r="M56" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N56" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2373,18 +2883,27 @@
         <v>56642.9921</v>
       </c>
       <c r="G57" t="n">
+        <v>12.55333333333333</v>
+      </c>
+      <c r="H57" t="n">
         <v>12.72666666666665</v>
       </c>
-      <c r="H57" t="n">
-        <v>0</v>
-      </c>
       <c r="I57" t="n">
         <v>0</v>
       </c>
-      <c r="J57" t="inlineStr"/>
+      <c r="J57" t="n">
+        <v>0</v>
+      </c>
       <c r="K57" t="inlineStr"/>
-      <c r="L57" t="inlineStr"/>
-      <c r="M57" t="n">
+      <c r="L57" t="n">
+        <v>12.4</v>
+      </c>
+      <c r="M57" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N57" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2408,18 +2927,27 @@
         <v>18049.9546</v>
       </c>
       <c r="G58" t="n">
+        <v>12.56</v>
+      </c>
+      <c r="H58" t="n">
         <v>12.73333333333331</v>
       </c>
-      <c r="H58" t="n">
-        <v>0</v>
-      </c>
       <c r="I58" t="n">
         <v>0</v>
       </c>
-      <c r="J58" t="inlineStr"/>
+      <c r="J58" t="n">
+        <v>0</v>
+      </c>
       <c r="K58" t="inlineStr"/>
-      <c r="L58" t="inlineStr"/>
-      <c r="M58" t="n">
+      <c r="L58" t="n">
+        <v>12.4</v>
+      </c>
+      <c r="M58" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N58" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2443,18 +2971,27 @@
         <v>18210</v>
       </c>
       <c r="G59" t="n">
+        <v>12.55333333333333</v>
+      </c>
+      <c r="H59" t="n">
         <v>12.73499999999998</v>
       </c>
-      <c r="H59" t="n">
-        <v>0</v>
-      </c>
       <c r="I59" t="n">
         <v>0</v>
       </c>
-      <c r="J59" t="inlineStr"/>
+      <c r="J59" t="n">
+        <v>0</v>
+      </c>
       <c r="K59" t="inlineStr"/>
-      <c r="L59" t="inlineStr"/>
-      <c r="M59" t="n">
+      <c r="L59" t="n">
+        <v>12.4</v>
+      </c>
+      <c r="M59" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N59" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2478,18 +3015,27 @@
         <v>22962.7376</v>
       </c>
       <c r="G60" t="n">
+        <v>12.54</v>
+      </c>
+      <c r="H60" t="n">
         <v>12.72833333333332</v>
       </c>
-      <c r="H60" t="n">
-        <v>0</v>
-      </c>
       <c r="I60" t="n">
         <v>0</v>
       </c>
-      <c r="J60" t="inlineStr"/>
+      <c r="J60" t="n">
+        <v>0</v>
+      </c>
       <c r="K60" t="inlineStr"/>
-      <c r="L60" t="inlineStr"/>
-      <c r="M60" t="n">
+      <c r="L60" t="n">
+        <v>12.4</v>
+      </c>
+      <c r="M60" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N60" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2513,18 +3059,27 @@
         <v>19209.4733</v>
       </c>
       <c r="G61" t="n">
+        <v>12.56</v>
+      </c>
+      <c r="H61" t="n">
         <v>12.73333333333331</v>
       </c>
-      <c r="H61" t="n">
-        <v>0</v>
-      </c>
       <c r="I61" t="n">
         <v>0</v>
       </c>
-      <c r="J61" t="inlineStr"/>
+      <c r="J61" t="n">
+        <v>0</v>
+      </c>
       <c r="K61" t="inlineStr"/>
-      <c r="L61" t="inlineStr"/>
-      <c r="M61" t="n">
+      <c r="L61" t="n">
+        <v>12.4</v>
+      </c>
+      <c r="M61" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N61" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2548,18 +3103,27 @@
         <v>4981.49287936508</v>
       </c>
       <c r="G62" t="n">
+        <v>12.56</v>
+      </c>
+      <c r="H62" t="n">
         <v>12.73499999999998</v>
       </c>
-      <c r="H62" t="n">
-        <v>0</v>
-      </c>
       <c r="I62" t="n">
         <v>0</v>
       </c>
-      <c r="J62" t="inlineStr"/>
+      <c r="J62" t="n">
+        <v>0</v>
+      </c>
       <c r="K62" t="inlineStr"/>
-      <c r="L62" t="inlineStr"/>
-      <c r="M62" t="n">
+      <c r="L62" t="n">
+        <v>12.4</v>
+      </c>
+      <c r="M62" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N62" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2583,18 +3147,27 @@
         <v>115075.1631</v>
       </c>
       <c r="G63" t="n">
+        <v>12.55333333333333</v>
+      </c>
+      <c r="H63" t="n">
         <v>12.73333333333331</v>
       </c>
-      <c r="H63" t="n">
-        <v>0</v>
-      </c>
       <c r="I63" t="n">
         <v>0</v>
       </c>
-      <c r="J63" t="inlineStr"/>
+      <c r="J63" t="n">
+        <v>0</v>
+      </c>
       <c r="K63" t="inlineStr"/>
-      <c r="L63" t="inlineStr"/>
-      <c r="M63" t="n">
+      <c r="L63" t="n">
+        <v>12.4</v>
+      </c>
+      <c r="M63" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N63" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2618,22 +3191,27 @@
         <v>7877.6222</v>
       </c>
       <c r="G64" t="n">
+        <v>12.54666666666667</v>
+      </c>
+      <c r="H64" t="n">
         <v>12.73166666666665</v>
       </c>
-      <c r="H64" t="n">
-        <v>1</v>
-      </c>
       <c r="I64" t="n">
         <v>0</v>
       </c>
       <c r="J64" t="n">
-        <v>12.4</v>
-      </c>
-      <c r="K64" t="n">
-        <v>12.4</v>
-      </c>
-      <c r="L64" t="inlineStr"/>
-      <c r="M64" t="n">
+        <v>0</v>
+      </c>
+      <c r="K64" t="inlineStr"/>
+      <c r="L64" t="n">
+        <v>12.4</v>
+      </c>
+      <c r="M64" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N64" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2657,24 +3235,27 @@
         <v>284384.3923</v>
       </c>
       <c r="G65" t="n">
+        <v>12.53333333333333</v>
+      </c>
+      <c r="H65" t="n">
         <v>12.72666666666665</v>
       </c>
-      <c r="H65" t="n">
-        <v>0</v>
-      </c>
       <c r="I65" t="n">
         <v>0</v>
       </c>
-      <c r="J65" t="inlineStr"/>
-      <c r="K65" t="n">
-        <v>12.4</v>
-      </c>
-      <c r="L65" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
-      <c r="M65" t="n">
+      <c r="J65" t="n">
+        <v>0</v>
+      </c>
+      <c r="K65" t="inlineStr"/>
+      <c r="L65" t="n">
+        <v>12.4</v>
+      </c>
+      <c r="M65" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N65" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2698,24 +3279,27 @@
         <v>33975.1401</v>
       </c>
       <c r="G66" t="n">
+        <v>12.50666666666667</v>
+      </c>
+      <c r="H66" t="n">
         <v>12.71499999999998</v>
       </c>
-      <c r="H66" t="n">
-        <v>0</v>
-      </c>
       <c r="I66" t="n">
         <v>0</v>
       </c>
-      <c r="J66" t="inlineStr"/>
-      <c r="K66" t="n">
-        <v>12.4</v>
-      </c>
-      <c r="L66" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M66" t="n">
+      <c r="J66" t="n">
+        <v>0</v>
+      </c>
+      <c r="K66" t="inlineStr"/>
+      <c r="L66" t="n">
+        <v>12.4</v>
+      </c>
+      <c r="M66" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N66" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2739,24 +3323,27 @@
         <v>1112.1027</v>
       </c>
       <c r="G67" t="n">
+        <v>12.48666666666667</v>
+      </c>
+      <c r="H67" t="n">
         <v>12.71166666666665</v>
       </c>
-      <c r="H67" t="n">
-        <v>0</v>
-      </c>
       <c r="I67" t="n">
         <v>0</v>
       </c>
-      <c r="J67" t="inlineStr"/>
-      <c r="K67" t="n">
-        <v>12.4</v>
-      </c>
-      <c r="L67" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M67" t="n">
+      <c r="J67" t="n">
+        <v>0</v>
+      </c>
+      <c r="K67" t="inlineStr"/>
+      <c r="L67" t="n">
+        <v>12.4</v>
+      </c>
+      <c r="M67" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N67" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2780,26 +3367,27 @@
         <v>119343.3896</v>
       </c>
       <c r="G68" t="n">
+        <v>12.47333333333333</v>
+      </c>
+      <c r="H68" t="n">
         <v>12.70166666666665</v>
       </c>
-      <c r="H68" t="n">
-        <v>1</v>
-      </c>
       <c r="I68" t="n">
         <v>0</v>
       </c>
       <c r="J68" t="n">
-        <v>12.3</v>
-      </c>
-      <c r="K68" t="n">
-        <v>12.4</v>
-      </c>
-      <c r="L68" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M68" t="n">
+        <v>0</v>
+      </c>
+      <c r="K68" t="inlineStr"/>
+      <c r="L68" t="n">
+        <v>12.4</v>
+      </c>
+      <c r="M68" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N68" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2823,24 +3411,27 @@
         <v>59725</v>
       </c>
       <c r="G69" t="n">
+        <v>12.46</v>
+      </c>
+      <c r="H69" t="n">
         <v>12.68999999999998</v>
       </c>
-      <c r="H69" t="n">
-        <v>0</v>
-      </c>
       <c r="I69" t="n">
         <v>0</v>
       </c>
-      <c r="J69" t="inlineStr"/>
-      <c r="K69" t="n">
-        <v>12.4</v>
-      </c>
-      <c r="L69" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M69" t="n">
+      <c r="J69" t="n">
+        <v>0</v>
+      </c>
+      <c r="K69" t="inlineStr"/>
+      <c r="L69" t="n">
+        <v>12.4</v>
+      </c>
+      <c r="M69" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N69" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2864,24 +3455,27 @@
         <v>29591.6129</v>
       </c>
       <c r="G70" t="n">
+        <v>12.45333333333334</v>
+      </c>
+      <c r="H70" t="n">
         <v>12.67999999999998</v>
       </c>
-      <c r="H70" t="n">
-        <v>0</v>
-      </c>
       <c r="I70" t="n">
         <v>0</v>
       </c>
-      <c r="J70" t="inlineStr"/>
-      <c r="K70" t="n">
-        <v>12.4</v>
-      </c>
-      <c r="L70" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M70" t="n">
+      <c r="J70" t="n">
+        <v>0</v>
+      </c>
+      <c r="K70" t="inlineStr"/>
+      <c r="L70" t="n">
+        <v>12.4</v>
+      </c>
+      <c r="M70" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N70" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2905,24 +3499,27 @@
         <v>25823.0322</v>
       </c>
       <c r="G71" t="n">
+        <v>12.44666666666667</v>
+      </c>
+      <c r="H71" t="n">
         <v>12.67166666666665</v>
       </c>
-      <c r="H71" t="n">
-        <v>0</v>
-      </c>
       <c r="I71" t="n">
         <v>0</v>
       </c>
-      <c r="J71" t="inlineStr"/>
-      <c r="K71" t="n">
-        <v>12.4</v>
-      </c>
-      <c r="L71" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M71" t="n">
+      <c r="J71" t="n">
+        <v>0</v>
+      </c>
+      <c r="K71" t="inlineStr"/>
+      <c r="L71" t="n">
+        <v>12.4</v>
+      </c>
+      <c r="M71" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N71" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2946,24 +3543,27 @@
         <v>12060</v>
       </c>
       <c r="G72" t="n">
+        <v>12.43333333333334</v>
+      </c>
+      <c r="H72" t="n">
         <v>12.66333333333331</v>
       </c>
-      <c r="H72" t="n">
-        <v>0</v>
-      </c>
       <c r="I72" t="n">
         <v>0</v>
       </c>
-      <c r="J72" t="inlineStr"/>
-      <c r="K72" t="n">
-        <v>12.4</v>
-      </c>
-      <c r="L72" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M72" t="n">
+      <c r="J72" t="n">
+        <v>0</v>
+      </c>
+      <c r="K72" t="inlineStr"/>
+      <c r="L72" t="n">
+        <v>12.4</v>
+      </c>
+      <c r="M72" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N72" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2987,24 +3587,27 @@
         <v>5190</v>
       </c>
       <c r="G73" t="n">
+        <v>12.42000000000001</v>
+      </c>
+      <c r="H73" t="n">
         <v>12.65499999999998</v>
       </c>
-      <c r="H73" t="n">
-        <v>0</v>
-      </c>
       <c r="I73" t="n">
         <v>0</v>
       </c>
-      <c r="J73" t="inlineStr"/>
-      <c r="K73" t="n">
-        <v>12.4</v>
-      </c>
-      <c r="L73" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M73" t="n">
+      <c r="J73" t="n">
+        <v>0</v>
+      </c>
+      <c r="K73" t="inlineStr"/>
+      <c r="L73" t="n">
+        <v>12.4</v>
+      </c>
+      <c r="M73" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N73" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3028,24 +3631,27 @@
         <v>5060.04</v>
       </c>
       <c r="G74" t="n">
+        <v>12.40666666666667</v>
+      </c>
+      <c r="H74" t="n">
         <v>12.64666666666665</v>
       </c>
-      <c r="H74" t="n">
-        <v>0</v>
-      </c>
       <c r="I74" t="n">
         <v>0</v>
       </c>
-      <c r="J74" t="inlineStr"/>
-      <c r="K74" t="n">
-        <v>12.4</v>
-      </c>
-      <c r="L74" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M74" t="n">
+      <c r="J74" t="n">
+        <v>0</v>
+      </c>
+      <c r="K74" t="inlineStr"/>
+      <c r="L74" t="n">
+        <v>12.4</v>
+      </c>
+      <c r="M74" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N74" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3069,24 +3675,27 @@
         <v>2530</v>
       </c>
       <c r="G75" t="n">
+        <v>12.40000000000001</v>
+      </c>
+      <c r="H75" t="n">
         <v>12.63833333333331</v>
       </c>
-      <c r="H75" t="n">
-        <v>0</v>
-      </c>
       <c r="I75" t="n">
         <v>0</v>
       </c>
-      <c r="J75" t="inlineStr"/>
-      <c r="K75" t="n">
-        <v>12.4</v>
-      </c>
-      <c r="L75" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M75" t="n">
+      <c r="J75" t="n">
+        <v>0</v>
+      </c>
+      <c r="K75" t="inlineStr"/>
+      <c r="L75" t="n">
+        <v>12.4</v>
+      </c>
+      <c r="M75" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N75" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3110,24 +3719,27 @@
         <v>100</v>
       </c>
       <c r="G76" t="n">
+        <v>12.37333333333334</v>
+      </c>
+      <c r="H76" t="n">
         <v>12.63166666666665</v>
       </c>
-      <c r="H76" t="n">
-        <v>0</v>
-      </c>
       <c r="I76" t="n">
         <v>0</v>
       </c>
-      <c r="J76" t="inlineStr"/>
-      <c r="K76" t="n">
-        <v>12.4</v>
-      </c>
-      <c r="L76" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M76" t="n">
+      <c r="J76" t="n">
+        <v>0</v>
+      </c>
+      <c r="K76" t="inlineStr"/>
+      <c r="L76" t="n">
+        <v>12.4</v>
+      </c>
+      <c r="M76" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N76" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3151,24 +3763,27 @@
         <v>7690</v>
       </c>
       <c r="G77" t="n">
+        <v>12.36666666666667</v>
+      </c>
+      <c r="H77" t="n">
         <v>12.62499999999998</v>
       </c>
-      <c r="H77" t="n">
-        <v>0</v>
-      </c>
       <c r="I77" t="n">
         <v>0</v>
       </c>
-      <c r="J77" t="inlineStr"/>
-      <c r="K77" t="n">
-        <v>12.4</v>
-      </c>
-      <c r="L77" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M77" t="n">
+      <c r="J77" t="n">
+        <v>0</v>
+      </c>
+      <c r="K77" t="inlineStr"/>
+      <c r="L77" t="n">
+        <v>12.4</v>
+      </c>
+      <c r="M77" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N77" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3192,24 +3807,27 @@
         <v>1076.7839</v>
       </c>
       <c r="G78" t="n">
+        <v>12.36666666666667</v>
+      </c>
+      <c r="H78" t="n">
         <v>12.61999999999998</v>
       </c>
-      <c r="H78" t="n">
-        <v>0</v>
-      </c>
       <c r="I78" t="n">
         <v>0</v>
       </c>
-      <c r="J78" t="inlineStr"/>
-      <c r="K78" t="n">
-        <v>12.4</v>
-      </c>
-      <c r="L78" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M78" t="n">
+      <c r="J78" t="n">
+        <v>0</v>
+      </c>
+      <c r="K78" t="inlineStr"/>
+      <c r="L78" t="n">
+        <v>12.4</v>
+      </c>
+      <c r="M78" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N78" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3233,24 +3851,27 @@
         <v>12</v>
       </c>
       <c r="G79" t="n">
+        <v>12.37333333333334</v>
+      </c>
+      <c r="H79" t="n">
         <v>12.61499999999998</v>
       </c>
-      <c r="H79" t="n">
-        <v>0</v>
-      </c>
       <c r="I79" t="n">
         <v>0</v>
       </c>
-      <c r="J79" t="inlineStr"/>
-      <c r="K79" t="n">
-        <v>12.4</v>
-      </c>
-      <c r="L79" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M79" t="n">
+      <c r="J79" t="n">
+        <v>0</v>
+      </c>
+      <c r="K79" t="inlineStr"/>
+      <c r="L79" t="n">
+        <v>12.4</v>
+      </c>
+      <c r="M79" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N79" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3274,24 +3895,27 @@
         <v>1956.7839</v>
       </c>
       <c r="G80" t="n">
+        <v>12.39333333333334</v>
+      </c>
+      <c r="H80" t="n">
         <v>12.61166666666665</v>
       </c>
-      <c r="H80" t="n">
-        <v>0</v>
-      </c>
       <c r="I80" t="n">
         <v>0</v>
       </c>
-      <c r="J80" t="inlineStr"/>
-      <c r="K80" t="n">
-        <v>12.4</v>
-      </c>
-      <c r="L80" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M80" t="n">
+      <c r="J80" t="n">
+        <v>0</v>
+      </c>
+      <c r="K80" t="inlineStr"/>
+      <c r="L80" t="n">
+        <v>12.4</v>
+      </c>
+      <c r="M80" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N80" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3315,24 +3939,27 @@
         <v>8315.4216</v>
       </c>
       <c r="G81" t="n">
+        <v>12.41333333333334</v>
+      </c>
+      <c r="H81" t="n">
         <v>12.60833333333331</v>
       </c>
-      <c r="H81" t="n">
-        <v>0</v>
-      </c>
       <c r="I81" t="n">
         <v>0</v>
       </c>
-      <c r="J81" t="inlineStr"/>
-      <c r="K81" t="n">
-        <v>12.4</v>
-      </c>
-      <c r="L81" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M81" t="n">
+      <c r="J81" t="n">
+        <v>0</v>
+      </c>
+      <c r="K81" t="inlineStr"/>
+      <c r="L81" t="n">
+        <v>12.4</v>
+      </c>
+      <c r="M81" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N81" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3356,24 +3983,27 @@
         <v>14999.4074</v>
       </c>
       <c r="G82" t="n">
+        <v>12.41333333333334</v>
+      </c>
+      <c r="H82" t="n">
         <v>12.59999999999998</v>
       </c>
-      <c r="H82" t="n">
-        <v>0</v>
-      </c>
       <c r="I82" t="n">
         <v>0</v>
       </c>
-      <c r="J82" t="inlineStr"/>
-      <c r="K82" t="n">
-        <v>12.4</v>
-      </c>
-      <c r="L82" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M82" t="n">
+      <c r="J82" t="n">
+        <v>0</v>
+      </c>
+      <c r="K82" t="inlineStr"/>
+      <c r="L82" t="n">
+        <v>12.4</v>
+      </c>
+      <c r="M82" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N82" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3397,24 +4027,27 @@
         <v>825.2</v>
       </c>
       <c r="G83" t="n">
+        <v>12.42666666666667</v>
+      </c>
+      <c r="H83" t="n">
         <v>12.59166666666665</v>
       </c>
-      <c r="H83" t="n">
-        <v>0</v>
-      </c>
       <c r="I83" t="n">
         <v>0</v>
       </c>
-      <c r="J83" t="inlineStr"/>
-      <c r="K83" t="n">
-        <v>12.4</v>
-      </c>
-      <c r="L83" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M83" t="n">
+      <c r="J83" t="n">
+        <v>0</v>
+      </c>
+      <c r="K83" t="inlineStr"/>
+      <c r="L83" t="n">
+        <v>12.4</v>
+      </c>
+      <c r="M83" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N83" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3438,24 +4071,27 @@
         <v>80</v>
       </c>
       <c r="G84" t="n">
+        <v>12.44</v>
+      </c>
+      <c r="H84" t="n">
         <v>12.58333333333331</v>
       </c>
-      <c r="H84" t="n">
-        <v>0</v>
-      </c>
       <c r="I84" t="n">
         <v>0</v>
       </c>
-      <c r="J84" t="inlineStr"/>
-      <c r="K84" t="n">
-        <v>12.4</v>
-      </c>
-      <c r="L84" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M84" t="n">
+      <c r="J84" t="n">
+        <v>0</v>
+      </c>
+      <c r="K84" t="inlineStr"/>
+      <c r="L84" t="n">
+        <v>12.4</v>
+      </c>
+      <c r="M84" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N84" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3479,24 +4115,27 @@
         <v>22000</v>
       </c>
       <c r="G85" t="n">
+        <v>12.43333333333334</v>
+      </c>
+      <c r="H85" t="n">
         <v>12.57166666666665</v>
       </c>
-      <c r="H85" t="n">
-        <v>0</v>
-      </c>
       <c r="I85" t="n">
         <v>0</v>
       </c>
-      <c r="J85" t="inlineStr"/>
-      <c r="K85" t="n">
-        <v>12.4</v>
-      </c>
-      <c r="L85" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M85" t="n">
+      <c r="J85" t="n">
+        <v>0</v>
+      </c>
+      <c r="K85" t="inlineStr"/>
+      <c r="L85" t="n">
+        <v>12.4</v>
+      </c>
+      <c r="M85" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N85" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3520,24 +4159,27 @@
         <v>12</v>
       </c>
       <c r="G86" t="n">
+        <v>12.43333333333334</v>
+      </c>
+      <c r="H86" t="n">
         <v>12.56333333333331</v>
       </c>
-      <c r="H86" t="n">
-        <v>0</v>
-      </c>
       <c r="I86" t="n">
         <v>0</v>
       </c>
-      <c r="J86" t="inlineStr"/>
-      <c r="K86" t="n">
-        <v>12.4</v>
-      </c>
-      <c r="L86" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M86" t="n">
+      <c r="J86" t="n">
+        <v>0</v>
+      </c>
+      <c r="K86" t="inlineStr"/>
+      <c r="L86" t="n">
+        <v>12.4</v>
+      </c>
+      <c r="M86" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N86" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3561,24 +4203,27 @@
         <v>16469.2</v>
       </c>
       <c r="G87" t="n">
+        <v>12.43333333333334</v>
+      </c>
+      <c r="H87" t="n">
         <v>12.55833333333331</v>
       </c>
-      <c r="H87" t="n">
-        <v>0</v>
-      </c>
       <c r="I87" t="n">
         <v>0</v>
       </c>
-      <c r="J87" t="inlineStr"/>
-      <c r="K87" t="n">
-        <v>12.4</v>
-      </c>
-      <c r="L87" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M87" t="n">
+      <c r="J87" t="n">
+        <v>0</v>
+      </c>
+      <c r="K87" t="inlineStr"/>
+      <c r="L87" t="n">
+        <v>12.4</v>
+      </c>
+      <c r="M87" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N87" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3602,24 +4247,27 @@
         <v>5230</v>
       </c>
       <c r="G88" t="n">
+        <v>12.44</v>
+      </c>
+      <c r="H88" t="n">
         <v>12.55333333333331</v>
       </c>
-      <c r="H88" t="n">
-        <v>0</v>
-      </c>
       <c r="I88" t="n">
         <v>0</v>
       </c>
-      <c r="J88" t="inlineStr"/>
-      <c r="K88" t="n">
-        <v>12.4</v>
-      </c>
-      <c r="L88" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M88" t="n">
+      <c r="J88" t="n">
+        <v>0</v>
+      </c>
+      <c r="K88" t="inlineStr"/>
+      <c r="L88" t="n">
+        <v>12.4</v>
+      </c>
+      <c r="M88" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N88" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3643,24 +4291,27 @@
         <v>3610</v>
       </c>
       <c r="G89" t="n">
+        <v>12.44666666666667</v>
+      </c>
+      <c r="H89" t="n">
         <v>12.54833333333331</v>
       </c>
-      <c r="H89" t="n">
-        <v>0</v>
-      </c>
       <c r="I89" t="n">
         <v>0</v>
       </c>
-      <c r="J89" t="inlineStr"/>
-      <c r="K89" t="n">
-        <v>12.4</v>
-      </c>
-      <c r="L89" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M89" t="n">
+      <c r="J89" t="n">
+        <v>0</v>
+      </c>
+      <c r="K89" t="inlineStr"/>
+      <c r="L89" t="n">
+        <v>12.4</v>
+      </c>
+      <c r="M89" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N89" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3684,24 +4335,27 @@
         <v>945.0377999999999</v>
       </c>
       <c r="G90" t="n">
+        <v>12.44666666666667</v>
+      </c>
+      <c r="H90" t="n">
         <v>12.54166666666665</v>
       </c>
-      <c r="H90" t="n">
-        <v>0</v>
-      </c>
       <c r="I90" t="n">
         <v>0</v>
       </c>
-      <c r="J90" t="inlineStr"/>
-      <c r="K90" t="n">
-        <v>12.4</v>
-      </c>
-      <c r="L90" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M90" t="n">
+      <c r="J90" t="n">
+        <v>0</v>
+      </c>
+      <c r="K90" t="inlineStr"/>
+      <c r="L90" t="n">
+        <v>12.4</v>
+      </c>
+      <c r="M90" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N90" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3725,24 +4379,27 @@
         <v>52063.2297</v>
       </c>
       <c r="G91" t="n">
+        <v>12.44</v>
+      </c>
+      <c r="H91" t="n">
         <v>12.53499999999998</v>
       </c>
-      <c r="H91" t="n">
-        <v>0</v>
-      </c>
       <c r="I91" t="n">
         <v>0</v>
       </c>
-      <c r="J91" t="inlineStr"/>
-      <c r="K91" t="n">
-        <v>12.4</v>
-      </c>
-      <c r="L91" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M91" t="n">
+      <c r="J91" t="n">
+        <v>0</v>
+      </c>
+      <c r="K91" t="inlineStr"/>
+      <c r="L91" t="n">
+        <v>12.4</v>
+      </c>
+      <c r="M91" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N91" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3766,24 +4423,27 @@
         <v>1005.7142</v>
       </c>
       <c r="G92" t="n">
+        <v>12.45333333333334</v>
+      </c>
+      <c r="H92" t="n">
         <v>12.53166666666665</v>
       </c>
-      <c r="H92" t="n">
-        <v>0</v>
-      </c>
       <c r="I92" t="n">
         <v>0</v>
       </c>
-      <c r="J92" t="inlineStr"/>
-      <c r="K92" t="n">
-        <v>12.4</v>
-      </c>
-      <c r="L92" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M92" t="n">
+      <c r="J92" t="n">
+        <v>0</v>
+      </c>
+      <c r="K92" t="inlineStr"/>
+      <c r="L92" t="n">
+        <v>12.4</v>
+      </c>
+      <c r="M92" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N92" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3807,24 +4467,27 @@
         <v>79.36507936507937</v>
       </c>
       <c r="G93" t="n">
+        <v>12.46666666666667</v>
+      </c>
+      <c r="H93" t="n">
         <v>12.52833333333332</v>
       </c>
-      <c r="H93" t="n">
-        <v>0</v>
-      </c>
       <c r="I93" t="n">
         <v>0</v>
       </c>
-      <c r="J93" t="inlineStr"/>
-      <c r="K93" t="n">
-        <v>12.4</v>
-      </c>
-      <c r="L93" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M93" t="n">
+      <c r="J93" t="n">
+        <v>0</v>
+      </c>
+      <c r="K93" t="inlineStr"/>
+      <c r="L93" t="n">
+        <v>12.4</v>
+      </c>
+      <c r="M93" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N93" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3848,24 +4511,27 @@
         <v>3642.67</v>
       </c>
       <c r="G94" t="n">
+        <v>12.46</v>
+      </c>
+      <c r="H94" t="n">
         <v>12.51833333333332</v>
       </c>
-      <c r="H94" t="n">
-        <v>0</v>
-      </c>
       <c r="I94" t="n">
         <v>0</v>
       </c>
-      <c r="J94" t="inlineStr"/>
-      <c r="K94" t="n">
-        <v>12.4</v>
-      </c>
-      <c r="L94" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M94" t="n">
+      <c r="J94" t="n">
+        <v>0</v>
+      </c>
+      <c r="K94" t="inlineStr"/>
+      <c r="L94" t="n">
+        <v>12.4</v>
+      </c>
+      <c r="M94" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N94" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3889,24 +4555,27 @@
         <v>10.9725</v>
       </c>
       <c r="G95" t="n">
+        <v>12.45333333333334</v>
+      </c>
+      <c r="H95" t="n">
         <v>12.51166666666665</v>
       </c>
-      <c r="H95" t="n">
-        <v>0</v>
-      </c>
       <c r="I95" t="n">
         <v>0</v>
       </c>
-      <c r="J95" t="inlineStr"/>
-      <c r="K95" t="n">
-        <v>12.4</v>
-      </c>
-      <c r="L95" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M95" t="n">
+      <c r="J95" t="n">
+        <v>0</v>
+      </c>
+      <c r="K95" t="inlineStr"/>
+      <c r="L95" t="n">
+        <v>12.4</v>
+      </c>
+      <c r="M95" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N95" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3930,24 +4599,27 @@
         <v>4859.0458</v>
       </c>
       <c r="G96" t="n">
+        <v>12.45333333333334</v>
+      </c>
+      <c r="H96" t="n">
         <v>12.50166666666665</v>
       </c>
-      <c r="H96" t="n">
-        <v>0</v>
-      </c>
       <c r="I96" t="n">
         <v>0</v>
       </c>
-      <c r="J96" t="inlineStr"/>
-      <c r="K96" t="n">
-        <v>12.4</v>
-      </c>
-      <c r="L96" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M96" t="n">
+      <c r="J96" t="n">
+        <v>0</v>
+      </c>
+      <c r="K96" t="inlineStr"/>
+      <c r="L96" t="n">
+        <v>12.4</v>
+      </c>
+      <c r="M96" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N96" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3971,24 +4643,29 @@
         <v>15187.92</v>
       </c>
       <c r="G97" t="n">
+        <v>12.46666666666667</v>
+      </c>
+      <c r="H97" t="n">
         <v>12.49666666666665</v>
       </c>
-      <c r="H97" t="n">
-        <v>0</v>
-      </c>
       <c r="I97" t="n">
-        <v>0</v>
-      </c>
-      <c r="J97" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J97" t="n">
+        <v>0</v>
+      </c>
       <c r="K97" t="n">
         <v>12.4</v>
       </c>
-      <c r="L97" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M97" t="n">
+      <c r="L97" t="n">
+        <v>12.4</v>
+      </c>
+      <c r="M97" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N97" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4012,24 +4689,27 @@
         <v>5910.82</v>
       </c>
       <c r="G98" t="n">
+        <v>12.46666666666667</v>
+      </c>
+      <c r="H98" t="n">
         <v>12.48833333333332</v>
       </c>
-      <c r="H98" t="n">
-        <v>0</v>
-      </c>
       <c r="I98" t="n">
         <v>0</v>
       </c>
-      <c r="J98" t="inlineStr"/>
-      <c r="K98" t="n">
-        <v>12.4</v>
-      </c>
-      <c r="L98" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M98" t="n">
+      <c r="J98" t="n">
+        <v>0</v>
+      </c>
+      <c r="K98" t="inlineStr"/>
+      <c r="L98" t="n">
+        <v>12.4</v>
+      </c>
+      <c r="M98" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N98" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4053,24 +4733,29 @@
         <v>1439.4546</v>
       </c>
       <c r="G99" t="n">
+        <v>12.47333333333334</v>
+      </c>
+      <c r="H99" t="n">
         <v>12.48499999999999</v>
       </c>
-      <c r="H99" t="n">
-        <v>0</v>
-      </c>
       <c r="I99" t="n">
-        <v>0</v>
-      </c>
-      <c r="J99" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J99" t="n">
+        <v>0</v>
+      </c>
       <c r="K99" t="n">
-        <v>12.4</v>
-      </c>
-      <c r="L99" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M99" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="L99" t="n">
+        <v>12.4</v>
+      </c>
+      <c r="M99" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N99" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4094,24 +4779,27 @@
         <v>32632.215</v>
       </c>
       <c r="G100" t="n">
+        <v>12.48666666666667</v>
+      </c>
+      <c r="H100" t="n">
         <v>12.47999999999999</v>
       </c>
-      <c r="H100" t="n">
-        <v>0</v>
-      </c>
       <c r="I100" t="n">
         <v>0</v>
       </c>
-      <c r="J100" t="inlineStr"/>
-      <c r="K100" t="n">
-        <v>12.4</v>
-      </c>
-      <c r="L100" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M100" t="n">
+      <c r="J100" t="n">
+        <v>0</v>
+      </c>
+      <c r="K100" t="inlineStr"/>
+      <c r="L100" t="n">
+        <v>12.4</v>
+      </c>
+      <c r="M100" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N100" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4135,24 +4823,27 @@
         <v>2181.4</v>
       </c>
       <c r="G101" t="n">
+        <v>12.48666666666667</v>
+      </c>
+      <c r="H101" t="n">
         <v>12.47833333333332</v>
       </c>
-      <c r="H101" t="n">
-        <v>0</v>
-      </c>
       <c r="I101" t="n">
         <v>0</v>
       </c>
-      <c r="J101" t="inlineStr"/>
-      <c r="K101" t="n">
-        <v>12.4</v>
-      </c>
-      <c r="L101" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M101" t="n">
+      <c r="J101" t="n">
+        <v>0</v>
+      </c>
+      <c r="K101" t="inlineStr"/>
+      <c r="L101" t="n">
+        <v>12.4</v>
+      </c>
+      <c r="M101" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N101" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4176,24 +4867,27 @@
         <v>2497.69</v>
       </c>
       <c r="G102" t="n">
+        <v>12.48666666666667</v>
+      </c>
+      <c r="H102" t="n">
         <v>12.47666666666665</v>
       </c>
-      <c r="H102" t="n">
-        <v>0</v>
-      </c>
       <c r="I102" t="n">
         <v>0</v>
       </c>
-      <c r="J102" t="inlineStr"/>
-      <c r="K102" t="n">
-        <v>12.4</v>
-      </c>
-      <c r="L102" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M102" t="n">
+      <c r="J102" t="n">
+        <v>0</v>
+      </c>
+      <c r="K102" t="inlineStr"/>
+      <c r="L102" t="n">
+        <v>12.4</v>
+      </c>
+      <c r="M102" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N102" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4217,24 +4911,27 @@
         <v>7187.6</v>
       </c>
       <c r="G103" t="n">
+        <v>12.48666666666667</v>
+      </c>
+      <c r="H103" t="n">
         <v>12.47666666666665</v>
       </c>
-      <c r="H103" t="n">
-        <v>0</v>
-      </c>
       <c r="I103" t="n">
         <v>0</v>
       </c>
-      <c r="J103" t="inlineStr"/>
-      <c r="K103" t="n">
-        <v>12.4</v>
-      </c>
-      <c r="L103" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M103" t="n">
+      <c r="J103" t="n">
+        <v>0</v>
+      </c>
+      <c r="K103" t="inlineStr"/>
+      <c r="L103" t="n">
+        <v>12.4</v>
+      </c>
+      <c r="M103" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N103" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4258,24 +4955,27 @@
         <v>2814</v>
       </c>
       <c r="G104" t="n">
+        <v>12.48666666666667</v>
+      </c>
+      <c r="H104" t="n">
         <v>12.47333333333332</v>
       </c>
-      <c r="H104" t="n">
-        <v>0</v>
-      </c>
       <c r="I104" t="n">
         <v>0</v>
       </c>
-      <c r="J104" t="inlineStr"/>
-      <c r="K104" t="n">
-        <v>12.4</v>
-      </c>
-      <c r="L104" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M104" t="n">
+      <c r="J104" t="n">
+        <v>0</v>
+      </c>
+      <c r="K104" t="inlineStr"/>
+      <c r="L104" t="n">
+        <v>12.4</v>
+      </c>
+      <c r="M104" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N104" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4299,24 +4999,27 @@
         <v>9428.16</v>
       </c>
       <c r="G105" t="n">
+        <v>12.49333333333334</v>
+      </c>
+      <c r="H105" t="n">
         <v>12.46999999999998</v>
       </c>
-      <c r="H105" t="n">
-        <v>0</v>
-      </c>
       <c r="I105" t="n">
         <v>0</v>
       </c>
-      <c r="J105" t="inlineStr"/>
-      <c r="K105" t="n">
-        <v>12.4</v>
-      </c>
-      <c r="L105" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M105" t="n">
+      <c r="J105" t="n">
+        <v>0</v>
+      </c>
+      <c r="K105" t="inlineStr"/>
+      <c r="L105" t="n">
+        <v>12.4</v>
+      </c>
+      <c r="M105" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N105" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4340,24 +5043,29 @@
         <v>12160.195</v>
       </c>
       <c r="G106" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="H106" t="n">
         <v>12.46833333333332</v>
       </c>
-      <c r="H106" t="n">
-        <v>0</v>
-      </c>
       <c r="I106" t="n">
-        <v>0</v>
-      </c>
-      <c r="J106" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J106" t="n">
+        <v>0</v>
+      </c>
       <c r="K106" t="n">
-        <v>12.4</v>
-      </c>
-      <c r="L106" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M106" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="L106" t="n">
+        <v>12.4</v>
+      </c>
+      <c r="M106" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N106" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4381,24 +5089,29 @@
         <v>103856.1077</v>
       </c>
       <c r="G107" t="n">
+        <v>12.48666666666667</v>
+      </c>
+      <c r="H107" t="n">
         <v>12.46666666666665</v>
       </c>
-      <c r="H107" t="n">
-        <v>0</v>
-      </c>
       <c r="I107" t="n">
-        <v>0</v>
-      </c>
-      <c r="J107" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J107" t="n">
+        <v>0</v>
+      </c>
       <c r="K107" t="n">
-        <v>12.4</v>
-      </c>
-      <c r="L107" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M107" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="L107" t="n">
+        <v>12.4</v>
+      </c>
+      <c r="M107" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N107" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4422,24 +5135,29 @@
         <v>10</v>
       </c>
       <c r="G108" t="n">
+        <v>12.48</v>
+      </c>
+      <c r="H108" t="n">
         <v>12.46666666666665</v>
       </c>
-      <c r="H108" t="n">
-        <v>0</v>
-      </c>
       <c r="I108" t="n">
-        <v>0</v>
-      </c>
-      <c r="J108" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J108" t="n">
+        <v>0</v>
+      </c>
       <c r="K108" t="n">
         <v>12.4</v>
       </c>
-      <c r="L108" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M108" t="n">
+      <c r="L108" t="n">
+        <v>12.4</v>
+      </c>
+      <c r="M108" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N108" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4463,24 +5181,29 @@
         <v>2244.28</v>
       </c>
       <c r="G109" t="n">
+        <v>12.48</v>
+      </c>
+      <c r="H109" t="n">
         <v>12.46499999999998</v>
       </c>
-      <c r="H109" t="n">
-        <v>0</v>
-      </c>
       <c r="I109" t="n">
-        <v>0</v>
-      </c>
-      <c r="J109" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J109" t="n">
+        <v>0</v>
+      </c>
       <c r="K109" t="n">
-        <v>12.4</v>
-      </c>
-      <c r="L109" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M109" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="L109" t="n">
+        <v>12.4</v>
+      </c>
+      <c r="M109" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N109" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4504,24 +5227,29 @@
         <v>37.92</v>
       </c>
       <c r="G110" t="n">
+        <v>12.48666666666667</v>
+      </c>
+      <c r="H110" t="n">
         <v>12.46666666666665</v>
       </c>
-      <c r="H110" t="n">
-        <v>0</v>
-      </c>
       <c r="I110" t="n">
-        <v>0</v>
-      </c>
-      <c r="J110" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J110" t="n">
+        <v>0</v>
+      </c>
       <c r="K110" t="n">
         <v>12.4</v>
       </c>
-      <c r="L110" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M110" t="n">
+      <c r="L110" t="n">
+        <v>12.4</v>
+      </c>
+      <c r="M110" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N110" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4545,24 +5273,29 @@
         <v>10</v>
       </c>
       <c r="G111" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="H111" t="n">
         <v>12.46833333333332</v>
       </c>
-      <c r="H111" t="n">
-        <v>0</v>
-      </c>
       <c r="I111" t="n">
-        <v>0</v>
-      </c>
-      <c r="J111" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J111" t="n">
+        <v>0</v>
+      </c>
       <c r="K111" t="n">
-        <v>12.4</v>
-      </c>
-      <c r="L111" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M111" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="L111" t="n">
+        <v>12.4</v>
+      </c>
+      <c r="M111" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N111" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4586,24 +5319,29 @@
         <v>76654.2</v>
       </c>
       <c r="G112" t="n">
+        <v>12.49333333333334</v>
+      </c>
+      <c r="H112" t="n">
         <v>12.46499999999998</v>
       </c>
-      <c r="H112" t="n">
-        <v>0</v>
-      </c>
       <c r="I112" t="n">
-        <v>0</v>
-      </c>
-      <c r="J112" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J112" t="n">
+        <v>0</v>
+      </c>
       <c r="K112" t="n">
-        <v>12.4</v>
-      </c>
-      <c r="L112" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M112" t="n">
+        <v>12.6</v>
+      </c>
+      <c r="L112" t="n">
+        <v>12.4</v>
+      </c>
+      <c r="M112" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N112" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4627,24 +5365,27 @@
         <v>13350.7334</v>
       </c>
       <c r="G113" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="H113" t="n">
         <v>12.46666666666665</v>
       </c>
-      <c r="H113" t="n">
-        <v>0</v>
-      </c>
       <c r="I113" t="n">
         <v>0</v>
       </c>
-      <c r="J113" t="inlineStr"/>
-      <c r="K113" t="n">
-        <v>12.4</v>
-      </c>
-      <c r="L113" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M113" t="n">
+      <c r="J113" t="n">
+        <v>0</v>
+      </c>
+      <c r="K113" t="inlineStr"/>
+      <c r="L113" t="n">
+        <v>12.4</v>
+      </c>
+      <c r="M113" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N113" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4668,24 +5409,27 @@
         <v>8689.266600000001</v>
       </c>
       <c r="G114" t="n">
+        <v>12.49333333333334</v>
+      </c>
+      <c r="H114" t="n">
         <v>12.46666666666665</v>
       </c>
-      <c r="H114" t="n">
-        <v>0</v>
-      </c>
       <c r="I114" t="n">
         <v>0</v>
       </c>
-      <c r="J114" t="inlineStr"/>
-      <c r="K114" t="n">
-        <v>12.4</v>
-      </c>
-      <c r="L114" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M114" t="n">
+      <c r="J114" t="n">
+        <v>0</v>
+      </c>
+      <c r="K114" t="inlineStr"/>
+      <c r="L114" t="n">
+        <v>12.4</v>
+      </c>
+      <c r="M114" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N114" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4709,24 +5453,27 @@
         <v>1003.1999</v>
       </c>
       <c r="G115" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="H115" t="n">
         <v>12.46833333333332</v>
       </c>
-      <c r="H115" t="n">
-        <v>0</v>
-      </c>
       <c r="I115" t="n">
         <v>0</v>
       </c>
-      <c r="J115" t="inlineStr"/>
-      <c r="K115" t="n">
-        <v>12.4</v>
-      </c>
-      <c r="L115" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M115" t="n">
+      <c r="J115" t="n">
+        <v>0</v>
+      </c>
+      <c r="K115" t="inlineStr"/>
+      <c r="L115" t="n">
+        <v>12.4</v>
+      </c>
+      <c r="M115" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N115" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4750,24 +5497,27 @@
         <v>5616.6</v>
       </c>
       <c r="G116" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="H116" t="n">
         <v>12.46666666666665</v>
       </c>
-      <c r="H116" t="n">
-        <v>0</v>
-      </c>
       <c r="I116" t="n">
         <v>0</v>
       </c>
-      <c r="J116" t="inlineStr"/>
-      <c r="K116" t="n">
-        <v>12.4</v>
-      </c>
-      <c r="L116" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M116" t="n">
+      <c r="J116" t="n">
+        <v>0</v>
+      </c>
+      <c r="K116" t="inlineStr"/>
+      <c r="L116" t="n">
+        <v>12.4</v>
+      </c>
+      <c r="M116" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N116" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4791,24 +5541,29 @@
         <v>49122.7777</v>
       </c>
       <c r="G117" t="n">
+        <v>12.50666666666667</v>
+      </c>
+      <c r="H117" t="n">
         <v>12.46499999999998</v>
       </c>
-      <c r="H117" t="n">
-        <v>0</v>
-      </c>
       <c r="I117" t="n">
-        <v>0</v>
-      </c>
-      <c r="J117" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J117" t="n">
+        <v>0</v>
+      </c>
       <c r="K117" t="n">
-        <v>12.4</v>
-      </c>
-      <c r="L117" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M117" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="L117" t="n">
+        <v>12.4</v>
+      </c>
+      <c r="M117" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N117" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4832,24 +5587,29 @@
         <v>4348.0158</v>
       </c>
       <c r="G118" t="n">
+        <v>12.51333333333333</v>
+      </c>
+      <c r="H118" t="n">
         <v>12.46499999999998</v>
       </c>
-      <c r="H118" t="n">
-        <v>0</v>
-      </c>
       <c r="I118" t="n">
-        <v>0</v>
-      </c>
-      <c r="J118" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J118" t="n">
+        <v>0</v>
+      </c>
       <c r="K118" t="n">
-        <v>12.4</v>
-      </c>
-      <c r="L118" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M118" t="n">
+        <v>12.6</v>
+      </c>
+      <c r="L118" t="n">
+        <v>12.4</v>
+      </c>
+      <c r="M118" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N118" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4873,24 +5633,29 @@
         <v>4337.1458</v>
       </c>
       <c r="G119" t="n">
+        <v>12.51333333333333</v>
+      </c>
+      <c r="H119" t="n">
         <v>12.46333333333332</v>
       </c>
-      <c r="H119" t="n">
-        <v>0</v>
-      </c>
       <c r="I119" t="n">
-        <v>0</v>
-      </c>
-      <c r="J119" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J119" t="n">
+        <v>0</v>
+      </c>
       <c r="K119" t="n">
-        <v>12.4</v>
-      </c>
-      <c r="L119" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M119" t="n">
+        <v>12.6</v>
+      </c>
+      <c r="L119" t="n">
+        <v>12.4</v>
+      </c>
+      <c r="M119" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N119" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4914,24 +5679,29 @@
         <v>30</v>
       </c>
       <c r="G120" t="n">
+        <v>12.52666666666667</v>
+      </c>
+      <c r="H120" t="n">
         <v>12.46666666666665</v>
       </c>
-      <c r="H120" t="n">
-        <v>0</v>
-      </c>
       <c r="I120" t="n">
-        <v>0</v>
-      </c>
-      <c r="J120" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J120" t="n">
+        <v>0</v>
+      </c>
       <c r="K120" t="n">
-        <v>12.4</v>
-      </c>
-      <c r="L120" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M120" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="L120" t="n">
+        <v>12.4</v>
+      </c>
+      <c r="M120" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N120" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4955,24 +5725,29 @@
         <v>1087.3309</v>
       </c>
       <c r="G121" t="n">
+        <v>12.52666666666667</v>
+      </c>
+      <c r="H121" t="n">
         <v>12.45999999999998</v>
       </c>
-      <c r="H121" t="n">
-        <v>0</v>
-      </c>
       <c r="I121" t="n">
-        <v>0</v>
-      </c>
-      <c r="J121" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J121" t="n">
+        <v>0</v>
+      </c>
       <c r="K121" t="n">
-        <v>12.4</v>
-      </c>
-      <c r="L121" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M121" t="n">
+        <v>12.7</v>
+      </c>
+      <c r="L121" t="n">
+        <v>12.4</v>
+      </c>
+      <c r="M121" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N121" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4996,24 +5771,29 @@
         <v>70143.45940000001</v>
       </c>
       <c r="G122" t="n">
+        <v>12.52666666666667</v>
+      </c>
+      <c r="H122" t="n">
         <v>12.45833333333332</v>
       </c>
-      <c r="H122" t="n">
-        <v>0</v>
-      </c>
       <c r="I122" t="n">
-        <v>0</v>
-      </c>
-      <c r="J122" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J122" t="n">
+        <v>0</v>
+      </c>
       <c r="K122" t="n">
-        <v>12.4</v>
-      </c>
-      <c r="L122" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M122" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="L122" t="n">
+        <v>12.4</v>
+      </c>
+      <c r="M122" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N122" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5037,24 +5817,29 @@
         <v>5120.042</v>
       </c>
       <c r="G123" t="n">
+        <v>12.52666666666667</v>
+      </c>
+      <c r="H123" t="n">
         <v>12.45999999999998</v>
       </c>
-      <c r="H123" t="n">
-        <v>0</v>
-      </c>
       <c r="I123" t="n">
-        <v>0</v>
-      </c>
-      <c r="J123" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J123" t="n">
+        <v>0</v>
+      </c>
       <c r="K123" t="n">
         <v>12.4</v>
       </c>
-      <c r="L123" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M123" t="n">
+      <c r="L123" t="n">
+        <v>12.4</v>
+      </c>
+      <c r="M123" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N123" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5078,24 +5863,29 @@
         <v>12</v>
       </c>
       <c r="G124" t="n">
+        <v>12.55333333333333</v>
+      </c>
+      <c r="H124" t="n">
         <v>12.46666666666665</v>
       </c>
-      <c r="H124" t="n">
-        <v>0</v>
-      </c>
       <c r="I124" t="n">
-        <v>0</v>
-      </c>
-      <c r="J124" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J124" t="n">
+        <v>0</v>
+      </c>
       <c r="K124" t="n">
-        <v>12.4</v>
-      </c>
-      <c r="L124" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M124" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="L124" t="n">
+        <v>12.4</v>
+      </c>
+      <c r="M124" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N124" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5119,24 +5909,29 @@
         <v>14527.578075</v>
       </c>
       <c r="G125" t="n">
+        <v>12.57333333333333</v>
+      </c>
+      <c r="H125" t="n">
         <v>12.47666666666665</v>
       </c>
-      <c r="H125" t="n">
-        <v>0</v>
-      </c>
       <c r="I125" t="n">
-        <v>0</v>
-      </c>
-      <c r="J125" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J125" t="n">
+        <v>0</v>
+      </c>
       <c r="K125" t="n">
-        <v>12.4</v>
-      </c>
-      <c r="L125" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M125" t="n">
+        <v>12.8</v>
+      </c>
+      <c r="L125" t="n">
+        <v>12.4</v>
+      </c>
+      <c r="M125" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N125" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5160,24 +5955,27 @@
         <v>26109.84823197674</v>
       </c>
       <c r="G126" t="n">
+        <v>12.59333333333334</v>
+      </c>
+      <c r="H126" t="n">
         <v>12.48999999999998</v>
       </c>
-      <c r="H126" t="n">
-        <v>0</v>
-      </c>
       <c r="I126" t="n">
         <v>0</v>
       </c>
-      <c r="J126" t="inlineStr"/>
-      <c r="K126" t="n">
-        <v>12.4</v>
-      </c>
-      <c r="L126" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M126" t="n">
+      <c r="J126" t="n">
+        <v>0</v>
+      </c>
+      <c r="K126" t="inlineStr"/>
+      <c r="L126" t="n">
+        <v>12.4</v>
+      </c>
+      <c r="M126" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N126" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5201,24 +5999,27 @@
         <v>14877.13178294574</v>
       </c>
       <c r="G127" t="n">
+        <v>12.62666666666667</v>
+      </c>
+      <c r="H127" t="n">
         <v>12.49999999999998</v>
       </c>
-      <c r="H127" t="n">
-        <v>0</v>
-      </c>
       <c r="I127" t="n">
         <v>0</v>
       </c>
-      <c r="J127" t="inlineStr"/>
-      <c r="K127" t="n">
-        <v>12.4</v>
-      </c>
-      <c r="L127" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M127" t="n">
+      <c r="J127" t="n">
+        <v>0</v>
+      </c>
+      <c r="K127" t="inlineStr"/>
+      <c r="L127" t="n">
+        <v>12.4</v>
+      </c>
+      <c r="M127" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N127" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5242,24 +6043,27 @@
         <v>95963.9534</v>
       </c>
       <c r="G128" t="n">
+        <v>12.64666666666667</v>
+      </c>
+      <c r="H128" t="n">
         <v>12.50999999999998</v>
       </c>
-      <c r="H128" t="n">
-        <v>0</v>
-      </c>
       <c r="I128" t="n">
         <v>0</v>
       </c>
-      <c r="J128" t="inlineStr"/>
-      <c r="K128" t="n">
-        <v>12.4</v>
-      </c>
-      <c r="L128" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M128" t="n">
+      <c r="J128" t="n">
+        <v>0</v>
+      </c>
+      <c r="K128" t="inlineStr"/>
+      <c r="L128" t="n">
+        <v>12.4</v>
+      </c>
+      <c r="M128" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N128" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5283,24 +6087,27 @@
         <v>246115.6039</v>
       </c>
       <c r="G129" t="n">
+        <v>12.68666666666667</v>
+      </c>
+      <c r="H129" t="n">
         <v>12.52333333333332</v>
       </c>
-      <c r="H129" t="n">
-        <v>0</v>
-      </c>
       <c r="I129" t="n">
         <v>0</v>
       </c>
-      <c r="J129" t="inlineStr"/>
-      <c r="K129" t="n">
-        <v>12.4</v>
-      </c>
-      <c r="L129" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M129" t="n">
+      <c r="J129" t="n">
+        <v>0</v>
+      </c>
+      <c r="K129" t="inlineStr"/>
+      <c r="L129" t="n">
+        <v>12.4</v>
+      </c>
+      <c r="M129" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N129" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5324,24 +6131,27 @@
         <v>644423.0066639705</v>
       </c>
       <c r="G130" t="n">
+        <v>12.75333333333334</v>
+      </c>
+      <c r="H130" t="n">
         <v>12.54333333333332</v>
       </c>
-      <c r="H130" t="n">
-        <v>0</v>
-      </c>
       <c r="I130" t="n">
         <v>0</v>
       </c>
-      <c r="J130" t="inlineStr"/>
-      <c r="K130" t="n">
-        <v>12.4</v>
-      </c>
-      <c r="L130" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M130" t="n">
+      <c r="J130" t="n">
+        <v>0</v>
+      </c>
+      <c r="K130" t="inlineStr"/>
+      <c r="L130" t="n">
+        <v>12.4</v>
+      </c>
+      <c r="M130" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N130" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5365,24 +6175,27 @@
         <v>246778.8681360294</v>
       </c>
       <c r="G131" t="n">
+        <v>12.82666666666667</v>
+      </c>
+      <c r="H131" t="n">
         <v>12.56166666666665</v>
       </c>
-      <c r="H131" t="n">
-        <v>0</v>
-      </c>
       <c r="I131" t="n">
         <v>0</v>
       </c>
-      <c r="J131" t="inlineStr"/>
-      <c r="K131" t="n">
-        <v>12.4</v>
-      </c>
-      <c r="L131" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M131" t="n">
+      <c r="J131" t="n">
+        <v>0</v>
+      </c>
+      <c r="K131" t="inlineStr"/>
+      <c r="L131" t="n">
+        <v>12.4</v>
+      </c>
+      <c r="M131" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N131" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5406,25 +6219,28 @@
         <v>349400.1855</v>
       </c>
       <c r="G132" t="n">
+        <v>12.91333333333334</v>
+      </c>
+      <c r="H132" t="n">
         <v>12.58499999999998</v>
       </c>
-      <c r="H132" t="n">
-        <v>0</v>
-      </c>
       <c r="I132" t="n">
-        <v>1</v>
-      </c>
-      <c r="J132" t="inlineStr"/>
-      <c r="K132" t="n">
-        <v>12.4</v>
-      </c>
-      <c r="L132" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="M132" t="n">
-        <v>1.115967741935484</v>
+        <v>0</v>
+      </c>
+      <c r="J132" t="n">
+        <v>0</v>
+      </c>
+      <c r="K132" t="inlineStr"/>
+      <c r="L132" t="n">
+        <v>12.4</v>
+      </c>
+      <c r="M132" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N132" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="133">
@@ -5447,18 +6263,27 @@
         <v>59928.07598832116</v>
       </c>
       <c r="G133" t="n">
+        <v>12.98</v>
+      </c>
+      <c r="H133" t="n">
         <v>12.60499999999998</v>
       </c>
-      <c r="H133" t="n">
-        <v>0</v>
-      </c>
       <c r="I133" t="n">
-        <v>1</v>
-      </c>
-      <c r="J133" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J133" t="n">
+        <v>0</v>
+      </c>
       <c r="K133" t="inlineStr"/>
-      <c r="L133" t="inlineStr"/>
-      <c r="M133" t="n">
+      <c r="L133" t="n">
+        <v>12.4</v>
+      </c>
+      <c r="M133" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N133" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5482,18 +6307,27 @@
         <v>41003.1533</v>
       </c>
       <c r="G134" t="n">
+        <v>13.06</v>
+      </c>
+      <c r="H134" t="n">
         <v>12.62666666666665</v>
       </c>
-      <c r="H134" t="n">
-        <v>0</v>
-      </c>
       <c r="I134" t="n">
         <v>0</v>
       </c>
-      <c r="J134" t="inlineStr"/>
+      <c r="J134" t="n">
+        <v>0</v>
+      </c>
       <c r="K134" t="inlineStr"/>
-      <c r="L134" t="inlineStr"/>
-      <c r="M134" t="n">
+      <c r="L134" t="n">
+        <v>12.4</v>
+      </c>
+      <c r="M134" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N134" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5517,18 +6351,27 @@
         <v>739702.3709</v>
       </c>
       <c r="G135" t="n">
+        <v>13.16</v>
+      </c>
+      <c r="H135" t="n">
         <v>12.65666666666665</v>
       </c>
-      <c r="H135" t="n">
-        <v>0</v>
-      </c>
       <c r="I135" t="n">
         <v>0</v>
       </c>
-      <c r="J135" t="inlineStr"/>
+      <c r="J135" t="n">
+        <v>0</v>
+      </c>
       <c r="K135" t="inlineStr"/>
-      <c r="L135" t="inlineStr"/>
-      <c r="M135" t="n">
+      <c r="L135" t="n">
+        <v>12.4</v>
+      </c>
+      <c r="M135" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N135" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5552,18 +6395,27 @@
         <v>198712.2573</v>
       </c>
       <c r="G136" t="n">
+        <v>13.27333333333334</v>
+      </c>
+      <c r="H136" t="n">
         <v>12.68499999999999</v>
       </c>
-      <c r="H136" t="n">
-        <v>0</v>
-      </c>
       <c r="I136" t="n">
         <v>0</v>
       </c>
-      <c r="J136" t="inlineStr"/>
+      <c r="J136" t="n">
+        <v>0</v>
+      </c>
       <c r="K136" t="inlineStr"/>
-      <c r="L136" t="inlineStr"/>
-      <c r="M136" t="n">
+      <c r="L136" t="n">
+        <v>12.4</v>
+      </c>
+      <c r="M136" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N136" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5587,18 +6439,27 @@
         <v>95677.1444</v>
       </c>
       <c r="G137" t="n">
+        <v>13.36</v>
+      </c>
+      <c r="H137" t="n">
         <v>12.70666666666665</v>
       </c>
-      <c r="H137" t="n">
-        <v>0</v>
-      </c>
       <c r="I137" t="n">
         <v>0</v>
       </c>
-      <c r="J137" t="inlineStr"/>
+      <c r="J137" t="n">
+        <v>0</v>
+      </c>
       <c r="K137" t="inlineStr"/>
-      <c r="L137" t="inlineStr"/>
-      <c r="M137" t="n">
+      <c r="L137" t="n">
+        <v>12.4</v>
+      </c>
+      <c r="M137" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N137" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5622,18 +6483,27 @@
         <v>7191.152378260869</v>
       </c>
       <c r="G138" t="n">
+        <v>13.44</v>
+      </c>
+      <c r="H138" t="n">
         <v>12.72833333333332</v>
       </c>
-      <c r="H138" t="n">
-        <v>0</v>
-      </c>
       <c r="I138" t="n">
         <v>0</v>
       </c>
-      <c r="J138" t="inlineStr"/>
+      <c r="J138" t="n">
+        <v>0</v>
+      </c>
       <c r="K138" t="inlineStr"/>
-      <c r="L138" t="inlineStr"/>
-      <c r="M138" t="n">
+      <c r="L138" t="n">
+        <v>12.4</v>
+      </c>
+      <c r="M138" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N138" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5657,18 +6527,27 @@
         <v>105485.1139471014</v>
       </c>
       <c r="G139" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="H139" t="n">
         <v>12.74833333333332</v>
       </c>
-      <c r="H139" t="n">
-        <v>0</v>
-      </c>
       <c r="I139" t="n">
         <v>0</v>
       </c>
-      <c r="J139" t="inlineStr"/>
+      <c r="J139" t="n">
+        <v>0</v>
+      </c>
       <c r="K139" t="inlineStr"/>
-      <c r="L139" t="inlineStr"/>
-      <c r="M139" t="n">
+      <c r="L139" t="n">
+        <v>12.4</v>
+      </c>
+      <c r="M139" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N139" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5692,18 +6571,27 @@
         <v>416494.0668</v>
       </c>
       <c r="G140" t="n">
+        <v>13.56666666666666</v>
+      </c>
+      <c r="H140" t="n">
         <v>12.76999999999999</v>
       </c>
-      <c r="H140" t="n">
-        <v>0</v>
-      </c>
       <c r="I140" t="n">
         <v>0</v>
       </c>
-      <c r="J140" t="inlineStr"/>
+      <c r="J140" t="n">
+        <v>0</v>
+      </c>
       <c r="K140" t="inlineStr"/>
-      <c r="L140" t="inlineStr"/>
-      <c r="M140" t="n">
+      <c r="L140" t="n">
+        <v>12.4</v>
+      </c>
+      <c r="M140" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N140" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5727,18 +6615,27 @@
         <v>103606.9486</v>
       </c>
       <c r="G141" t="n">
+        <v>13.62</v>
+      </c>
+      <c r="H141" t="n">
         <v>12.79166666666666</v>
       </c>
-      <c r="H141" t="n">
-        <v>0</v>
-      </c>
       <c r="I141" t="n">
         <v>0</v>
       </c>
-      <c r="J141" t="inlineStr"/>
+      <c r="J141" t="n">
+        <v>0</v>
+      </c>
       <c r="K141" t="inlineStr"/>
-      <c r="L141" t="inlineStr"/>
-      <c r="M141" t="n">
+      <c r="L141" t="n">
+        <v>12.4</v>
+      </c>
+      <c r="M141" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N141" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5762,18 +6659,27 @@
         <v>142039.9707</v>
       </c>
       <c r="G142" t="n">
+        <v>13.66666666666666</v>
+      </c>
+      <c r="H142" t="n">
         <v>12.81333333333333</v>
       </c>
-      <c r="H142" t="n">
-        <v>0</v>
-      </c>
       <c r="I142" t="n">
         <v>0</v>
       </c>
-      <c r="J142" t="inlineStr"/>
+      <c r="J142" t="n">
+        <v>0</v>
+      </c>
       <c r="K142" t="inlineStr"/>
-      <c r="L142" t="inlineStr"/>
-      <c r="M142" t="n">
+      <c r="L142" t="n">
+        <v>12.4</v>
+      </c>
+      <c r="M142" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N142" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5797,18 +6703,27 @@
         <v>31852.3</v>
       </c>
       <c r="G143" t="n">
+        <v>13.71333333333333</v>
+      </c>
+      <c r="H143" t="n">
         <v>12.83166666666666</v>
       </c>
-      <c r="H143" t="n">
-        <v>0</v>
-      </c>
       <c r="I143" t="n">
         <v>0</v>
       </c>
-      <c r="J143" t="inlineStr"/>
+      <c r="J143" t="n">
+        <v>0</v>
+      </c>
       <c r="K143" t="inlineStr"/>
-      <c r="L143" t="inlineStr"/>
-      <c r="M143" t="n">
+      <c r="L143" t="n">
+        <v>12.4</v>
+      </c>
+      <c r="M143" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N143" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5832,18 +6747,27 @@
         <v>26338.0542</v>
       </c>
       <c r="G144" t="n">
+        <v>13.74666666666666</v>
+      </c>
+      <c r="H144" t="n">
         <v>12.84999999999999</v>
       </c>
-      <c r="H144" t="n">
-        <v>0</v>
-      </c>
       <c r="I144" t="n">
         <v>0</v>
       </c>
-      <c r="J144" t="inlineStr"/>
+      <c r="J144" t="n">
+        <v>0</v>
+      </c>
       <c r="K144" t="inlineStr"/>
-      <c r="L144" t="inlineStr"/>
-      <c r="M144" t="n">
+      <c r="L144" t="n">
+        <v>12.4</v>
+      </c>
+      <c r="M144" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N144" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5867,18 +6791,27 @@
         <v>169308.3166</v>
       </c>
       <c r="G145" t="n">
+        <v>13.73333333333333</v>
+      </c>
+      <c r="H145" t="n">
         <v>12.86833333333333</v>
       </c>
-      <c r="H145" t="n">
-        <v>0</v>
-      </c>
       <c r="I145" t="n">
         <v>0</v>
       </c>
-      <c r="J145" t="inlineStr"/>
+      <c r="J145" t="n">
+        <v>0</v>
+      </c>
       <c r="K145" t="inlineStr"/>
-      <c r="L145" t="inlineStr"/>
-      <c r="M145" t="n">
+      <c r="L145" t="n">
+        <v>12.4</v>
+      </c>
+      <c r="M145" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N145" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5902,18 +6835,27 @@
         <v>264567.8892</v>
       </c>
       <c r="G146" t="n">
+        <v>13.72</v>
+      </c>
+      <c r="H146" t="n">
         <v>12.88333333333333</v>
       </c>
-      <c r="H146" t="n">
-        <v>0</v>
-      </c>
       <c r="I146" t="n">
         <v>0</v>
       </c>
-      <c r="J146" t="inlineStr"/>
+      <c r="J146" t="n">
+        <v>0</v>
+      </c>
       <c r="K146" t="inlineStr"/>
-      <c r="L146" t="inlineStr"/>
-      <c r="M146" t="n">
+      <c r="L146" t="n">
+        <v>12.4</v>
+      </c>
+      <c r="M146" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N146" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5937,18 +6879,27 @@
         <v>128845.6894</v>
       </c>
       <c r="G147" t="n">
+        <v>13.68666666666666</v>
+      </c>
+      <c r="H147" t="n">
         <v>12.89833333333332</v>
       </c>
-      <c r="H147" t="n">
-        <v>0</v>
-      </c>
       <c r="I147" t="n">
         <v>0</v>
       </c>
-      <c r="J147" t="inlineStr"/>
+      <c r="J147" t="n">
+        <v>0</v>
+      </c>
       <c r="K147" t="inlineStr"/>
-      <c r="L147" t="inlineStr"/>
-      <c r="M147" t="n">
+      <c r="L147" t="n">
+        <v>12.4</v>
+      </c>
+      <c r="M147" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N147" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5972,18 +6923,27 @@
         <v>1737.5835</v>
       </c>
       <c r="G148" t="n">
+        <v>13.68</v>
+      </c>
+      <c r="H148" t="n">
         <v>12.91499999999999</v>
       </c>
-      <c r="H148" t="n">
-        <v>0</v>
-      </c>
       <c r="I148" t="n">
         <v>0</v>
       </c>
-      <c r="J148" t="inlineStr"/>
+      <c r="J148" t="n">
+        <v>0</v>
+      </c>
       <c r="K148" t="inlineStr"/>
-      <c r="L148" t="inlineStr"/>
-      <c r="M148" t="n">
+      <c r="L148" t="n">
+        <v>12.4</v>
+      </c>
+      <c r="M148" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N148" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6007,18 +6967,27 @@
         <v>18974.2962</v>
       </c>
       <c r="G149" t="n">
+        <v>13.66666666666666</v>
+      </c>
+      <c r="H149" t="n">
         <v>12.93166666666666</v>
       </c>
-      <c r="H149" t="n">
-        <v>0</v>
-      </c>
       <c r="I149" t="n">
         <v>0</v>
       </c>
-      <c r="J149" t="inlineStr"/>
+      <c r="J149" t="n">
+        <v>0</v>
+      </c>
       <c r="K149" t="inlineStr"/>
-      <c r="L149" t="inlineStr"/>
-      <c r="M149" t="n">
+      <c r="L149" t="n">
+        <v>12.4</v>
+      </c>
+      <c r="M149" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N149" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6042,18 +7011,27 @@
         <v>23393.1513</v>
       </c>
       <c r="G150" t="n">
+        <v>13.63333333333333</v>
+      </c>
+      <c r="H150" t="n">
         <v>12.95333333333333</v>
       </c>
-      <c r="H150" t="n">
-        <v>0</v>
-      </c>
       <c r="I150" t="n">
         <v>0</v>
       </c>
-      <c r="J150" t="inlineStr"/>
+      <c r="J150" t="n">
+        <v>0</v>
+      </c>
       <c r="K150" t="inlineStr"/>
-      <c r="L150" t="inlineStr"/>
-      <c r="M150" t="n">
+      <c r="L150" t="n">
+        <v>12.4</v>
+      </c>
+      <c r="M150" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N150" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6077,18 +7055,27 @@
         <v>1657.2262</v>
       </c>
       <c r="G151" t="n">
+        <v>13.6</v>
+      </c>
+      <c r="H151" t="n">
         <v>12.97499999999999</v>
       </c>
-      <c r="H151" t="n">
-        <v>0</v>
-      </c>
       <c r="I151" t="n">
         <v>0</v>
       </c>
-      <c r="J151" t="inlineStr"/>
+      <c r="J151" t="n">
+        <v>0</v>
+      </c>
       <c r="K151" t="inlineStr"/>
-      <c r="L151" t="inlineStr"/>
-      <c r="M151" t="n">
+      <c r="L151" t="n">
+        <v>12.4</v>
+      </c>
+      <c r="M151" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N151" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6112,19 +7099,28 @@
         <v>94387.54240000001</v>
       </c>
       <c r="G152" t="n">
+        <v>13.60666666666667</v>
+      </c>
+      <c r="H152" t="n">
         <v>12.99499999999999</v>
       </c>
-      <c r="H152" t="n">
-        <v>0</v>
-      </c>
       <c r="I152" t="n">
         <v>0</v>
       </c>
-      <c r="J152" t="inlineStr"/>
+      <c r="J152" t="n">
+        <v>1</v>
+      </c>
       <c r="K152" t="inlineStr"/>
-      <c r="L152" t="inlineStr"/>
-      <c r="M152" t="n">
-        <v>1</v>
+      <c r="L152" t="n">
+        <v>12.4</v>
+      </c>
+      <c r="M152" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="N152" t="n">
+        <v>1.107903225806452</v>
       </c>
     </row>
     <row r="153">
@@ -6147,18 +7143,21 @@
         <v>21536.8368</v>
       </c>
       <c r="G153" t="n">
+        <v>13.60666666666667</v>
+      </c>
+      <c r="H153" t="n">
         <v>13.01333333333333</v>
       </c>
-      <c r="H153" t="n">
-        <v>0</v>
-      </c>
       <c r="I153" t="n">
         <v>0</v>
       </c>
-      <c r="J153" t="inlineStr"/>
+      <c r="J153" t="n">
+        <v>1</v>
+      </c>
       <c r="K153" t="inlineStr"/>
       <c r="L153" t="inlineStr"/>
-      <c r="M153" t="n">
+      <c r="M153" t="inlineStr"/>
+      <c r="N153" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6182,18 +7181,21 @@
         <v>90985.6882</v>
       </c>
       <c r="G154" t="n">
+        <v>13.6</v>
+      </c>
+      <c r="H154" t="n">
         <v>13.03333333333333</v>
       </c>
-      <c r="H154" t="n">
-        <v>0</v>
-      </c>
       <c r="I154" t="n">
         <v>0</v>
       </c>
-      <c r="J154" t="inlineStr"/>
+      <c r="J154" t="n">
+        <v>1</v>
+      </c>
       <c r="K154" t="inlineStr"/>
       <c r="L154" t="inlineStr"/>
-      <c r="M154" t="n">
+      <c r="M154" t="inlineStr"/>
+      <c r="N154" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6217,18 +7219,21 @@
         <v>23774.3714</v>
       </c>
       <c r="G155" t="n">
+        <v>13.57333333333333</v>
+      </c>
+      <c r="H155" t="n">
         <v>13.04999999999999</v>
       </c>
-      <c r="H155" t="n">
-        <v>0</v>
-      </c>
       <c r="I155" t="n">
         <v>0</v>
       </c>
-      <c r="J155" t="inlineStr"/>
+      <c r="J155" t="n">
+        <v>1</v>
+      </c>
       <c r="K155" t="inlineStr"/>
       <c r="L155" t="inlineStr"/>
-      <c r="M155" t="n">
+      <c r="M155" t="inlineStr"/>
+      <c r="N155" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6252,18 +7257,21 @@
         <v>4836.98</v>
       </c>
       <c r="G156" t="n">
+        <v>13.56666666666667</v>
+      </c>
+      <c r="H156" t="n">
         <v>13.06999999999999</v>
       </c>
-      <c r="H156" t="n">
-        <v>0</v>
-      </c>
       <c r="I156" t="n">
         <v>0</v>
       </c>
-      <c r="J156" t="inlineStr"/>
+      <c r="J156" t="n">
+        <v>1</v>
+      </c>
       <c r="K156" t="inlineStr"/>
       <c r="L156" t="inlineStr"/>
-      <c r="M156" t="n">
+      <c r="M156" t="inlineStr"/>
+      <c r="N156" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6287,18 +7295,21 @@
         <v>18847.44</v>
       </c>
       <c r="G157" t="n">
+        <v>13.55333333333333</v>
+      </c>
+      <c r="H157" t="n">
         <v>13.085</v>
       </c>
-      <c r="H157" t="n">
-        <v>0</v>
-      </c>
       <c r="I157" t="n">
         <v>0</v>
       </c>
-      <c r="J157" t="inlineStr"/>
+      <c r="J157" t="n">
+        <v>1</v>
+      </c>
       <c r="K157" t="inlineStr"/>
       <c r="L157" t="inlineStr"/>
-      <c r="M157" t="n">
+      <c r="M157" t="inlineStr"/>
+      <c r="N157" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6322,18 +7333,21 @@
         <v>69990.0082</v>
       </c>
       <c r="G158" t="n">
+        <v>13.54</v>
+      </c>
+      <c r="H158" t="n">
         <v>13.09999999999999</v>
       </c>
-      <c r="H158" t="n">
-        <v>0</v>
-      </c>
       <c r="I158" t="n">
         <v>0</v>
       </c>
-      <c r="J158" t="inlineStr"/>
+      <c r="J158" t="n">
+        <v>1</v>
+      </c>
       <c r="K158" t="inlineStr"/>
       <c r="L158" t="inlineStr"/>
-      <c r="M158" t="n">
+      <c r="M158" t="inlineStr"/>
+      <c r="N158" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6357,18 +7371,21 @@
         <v>73427.38</v>
       </c>
       <c r="G159" t="n">
+        <v>13.53333333333333</v>
+      </c>
+      <c r="H159" t="n">
         <v>13.11499999999999</v>
       </c>
-      <c r="H159" t="n">
-        <v>0</v>
-      </c>
       <c r="I159" t="n">
         <v>0</v>
       </c>
-      <c r="J159" t="inlineStr"/>
+      <c r="J159" t="n">
+        <v>1</v>
+      </c>
       <c r="K159" t="inlineStr"/>
       <c r="L159" t="inlineStr"/>
-      <c r="M159" t="n">
+      <c r="M159" t="inlineStr"/>
+      <c r="N159" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6392,18 +7409,21 @@
         <v>286191.8748142857</v>
       </c>
       <c r="G160" t="n">
+        <v>13.52666666666667</v>
+      </c>
+      <c r="H160" t="n">
         <v>13.12833333333333</v>
       </c>
-      <c r="H160" t="n">
-        <v>0</v>
-      </c>
       <c r="I160" t="n">
         <v>0</v>
       </c>
-      <c r="J160" t="inlineStr"/>
+      <c r="J160" t="n">
+        <v>0</v>
+      </c>
       <c r="K160" t="inlineStr"/>
       <c r="L160" t="inlineStr"/>
-      <c r="M160" t="n">
+      <c r="M160" t="inlineStr"/>
+      <c r="N160" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6427,22 +7447,21 @@
         <v>36559.43348571428</v>
       </c>
       <c r="G161" t="n">
+        <v>13.52</v>
+      </c>
+      <c r="H161" t="n">
         <v>13.14166666666666</v>
       </c>
-      <c r="H161" t="n">
-        <v>1</v>
-      </c>
       <c r="I161" t="n">
         <v>0</v>
       </c>
       <c r="J161" t="n">
-        <v>13.3</v>
-      </c>
-      <c r="K161" t="n">
-        <v>13.3</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="K161" t="inlineStr"/>
       <c r="L161" t="inlineStr"/>
-      <c r="M161" t="n">
+      <c r="M161" t="inlineStr"/>
+      <c r="N161" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6466,26 +7485,21 @@
         <v>1159.5383</v>
       </c>
       <c r="G162" t="n">
+        <v>13.51333333333334</v>
+      </c>
+      <c r="H162" t="n">
         <v>13.15499999999999</v>
       </c>
-      <c r="H162" t="n">
-        <v>1</v>
-      </c>
       <c r="I162" t="n">
         <v>0</v>
       </c>
       <c r="J162" t="n">
-        <v>13.3</v>
-      </c>
-      <c r="K162" t="n">
-        <v>13.3</v>
-      </c>
-      <c r="L162" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="M162" t="n">
+        <v>0</v>
+      </c>
+      <c r="K162" t="inlineStr"/>
+      <c r="L162" t="inlineStr"/>
+      <c r="M162" t="inlineStr"/>
+      <c r="N162" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6509,26 +7523,21 @@
         <v>106193.106</v>
       </c>
       <c r="G163" t="n">
+        <v>13.51333333333334</v>
+      </c>
+      <c r="H163" t="n">
         <v>13.17166666666666</v>
       </c>
-      <c r="H163" t="n">
-        <v>1</v>
-      </c>
       <c r="I163" t="n">
         <v>0</v>
       </c>
       <c r="J163" t="n">
-        <v>13.3</v>
-      </c>
-      <c r="K163" t="n">
-        <v>13.3</v>
-      </c>
-      <c r="L163" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
-      <c r="M163" t="n">
+        <v>0</v>
+      </c>
+      <c r="K163" t="inlineStr"/>
+      <c r="L163" t="inlineStr"/>
+      <c r="M163" t="inlineStr"/>
+      <c r="N163" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6552,26 +7561,21 @@
         <v>260</v>
       </c>
       <c r="G164" t="n">
+        <v>13.51333333333334</v>
+      </c>
+      <c r="H164" t="n">
         <v>13.18833333333333</v>
       </c>
-      <c r="H164" t="n">
-        <v>1</v>
-      </c>
       <c r="I164" t="n">
         <v>0</v>
       </c>
       <c r="J164" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="K164" t="n">
-        <v>13.3</v>
-      </c>
-      <c r="L164" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M164" t="n">
+        <v>0</v>
+      </c>
+      <c r="K164" t="inlineStr"/>
+      <c r="L164" t="inlineStr"/>
+      <c r="M164" t="inlineStr"/>
+      <c r="N164" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6595,26 +7599,21 @@
         <v>36260</v>
       </c>
       <c r="G165" t="n">
+        <v>13.49333333333334</v>
+      </c>
+      <c r="H165" t="n">
         <v>13.20333333333332</v>
       </c>
-      <c r="H165" t="n">
-        <v>1</v>
-      </c>
       <c r="I165" t="n">
         <v>0</v>
       </c>
       <c r="J165" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="K165" t="n">
-        <v>13.3</v>
-      </c>
-      <c r="L165" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M165" t="n">
+        <v>0</v>
+      </c>
+      <c r="K165" t="inlineStr"/>
+      <c r="L165" t="inlineStr"/>
+      <c r="M165" t="inlineStr"/>
+      <c r="N165" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6638,24 +7637,21 @@
         <v>112277.6225</v>
       </c>
       <c r="G166" t="n">
+        <v>13.47333333333334</v>
+      </c>
+      <c r="H166" t="n">
         <v>13.21833333333332</v>
       </c>
-      <c r="H166" t="n">
-        <v>0</v>
-      </c>
       <c r="I166" t="n">
         <v>0</v>
       </c>
-      <c r="J166" t="inlineStr"/>
-      <c r="K166" t="n">
-        <v>13.3</v>
-      </c>
-      <c r="L166" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M166" t="n">
+      <c r="J166" t="n">
+        <v>0</v>
+      </c>
+      <c r="K166" t="inlineStr"/>
+      <c r="L166" t="inlineStr"/>
+      <c r="M166" t="inlineStr"/>
+      <c r="N166" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6679,24 +7675,21 @@
         <v>52889.7897</v>
       </c>
       <c r="G167" t="n">
+        <v>13.46</v>
+      </c>
+      <c r="H167" t="n">
         <v>13.23833333333332</v>
       </c>
-      <c r="H167" t="n">
-        <v>0</v>
-      </c>
       <c r="I167" t="n">
         <v>0</v>
       </c>
-      <c r="J167" t="inlineStr"/>
-      <c r="K167" t="n">
-        <v>13.3</v>
-      </c>
-      <c r="L167" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M167" t="n">
+      <c r="J167" t="n">
+        <v>0</v>
+      </c>
+      <c r="K167" t="inlineStr"/>
+      <c r="L167" t="inlineStr"/>
+      <c r="M167" t="inlineStr"/>
+      <c r="N167" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6720,24 +7713,21 @@
         <v>85729.32000000001</v>
       </c>
       <c r="G168" t="n">
+        <v>13.43333333333334</v>
+      </c>
+      <c r="H168" t="n">
         <v>13.25166666666666</v>
       </c>
-      <c r="H168" t="n">
-        <v>0</v>
-      </c>
       <c r="I168" t="n">
         <v>0</v>
       </c>
-      <c r="J168" t="inlineStr"/>
-      <c r="K168" t="n">
-        <v>13.3</v>
-      </c>
-      <c r="L168" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M168" t="n">
+      <c r="J168" t="n">
+        <v>0</v>
+      </c>
+      <c r="K168" t="inlineStr"/>
+      <c r="L168" t="inlineStr"/>
+      <c r="M168" t="inlineStr"/>
+      <c r="N168" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6761,24 +7751,21 @@
         <v>73788.9452</v>
       </c>
       <c r="G169" t="n">
+        <v>13.41333333333334</v>
+      </c>
+      <c r="H169" t="n">
         <v>13.26666666666666</v>
       </c>
-      <c r="H169" t="n">
-        <v>0</v>
-      </c>
       <c r="I169" t="n">
         <v>0</v>
       </c>
-      <c r="J169" t="inlineStr"/>
-      <c r="K169" t="n">
-        <v>13.3</v>
-      </c>
-      <c r="L169" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M169" t="n">
+      <c r="J169" t="n">
+        <v>0</v>
+      </c>
+      <c r="K169" t="inlineStr"/>
+      <c r="L169" t="inlineStr"/>
+      <c r="M169" t="inlineStr"/>
+      <c r="N169" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6802,24 +7789,21 @@
         <v>17408</v>
       </c>
       <c r="G170" t="n">
+        <v>13.42000000000001</v>
+      </c>
+      <c r="H170" t="n">
         <v>13.28333333333332</v>
       </c>
-      <c r="H170" t="n">
-        <v>0</v>
-      </c>
       <c r="I170" t="n">
         <v>0</v>
       </c>
-      <c r="J170" t="inlineStr"/>
-      <c r="K170" t="n">
-        <v>13.3</v>
-      </c>
-      <c r="L170" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M170" t="n">
+      <c r="J170" t="n">
+        <v>0</v>
+      </c>
+      <c r="K170" t="inlineStr"/>
+      <c r="L170" t="inlineStr"/>
+      <c r="M170" t="inlineStr"/>
+      <c r="N170" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6843,24 +7827,21 @@
         <v>16556.6854</v>
       </c>
       <c r="G171" t="n">
+        <v>13.40666666666667</v>
+      </c>
+      <c r="H171" t="n">
         <v>13.29666666666666</v>
       </c>
-      <c r="H171" t="n">
-        <v>0</v>
-      </c>
       <c r="I171" t="n">
         <v>0</v>
       </c>
-      <c r="J171" t="inlineStr"/>
-      <c r="K171" t="n">
-        <v>13.3</v>
-      </c>
-      <c r="L171" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M171" t="n">
+      <c r="J171" t="n">
+        <v>0</v>
+      </c>
+      <c r="K171" t="inlineStr"/>
+      <c r="L171" t="inlineStr"/>
+      <c r="M171" t="inlineStr"/>
+      <c r="N171" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6884,24 +7865,21 @@
         <v>16220</v>
       </c>
       <c r="G172" t="n">
+        <v>13.40666666666667</v>
+      </c>
+      <c r="H172" t="n">
         <v>13.31333333333332</v>
       </c>
-      <c r="H172" t="n">
-        <v>0</v>
-      </c>
       <c r="I172" t="n">
         <v>0</v>
       </c>
-      <c r="J172" t="inlineStr"/>
-      <c r="K172" t="n">
-        <v>13.3</v>
-      </c>
-      <c r="L172" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M172" t="n">
+      <c r="J172" t="n">
+        <v>0</v>
+      </c>
+      <c r="K172" t="inlineStr"/>
+      <c r="L172" t="inlineStr"/>
+      <c r="M172" t="inlineStr"/>
+      <c r="N172" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6925,24 +7903,21 @@
         <v>51.4074</v>
       </c>
       <c r="G173" t="n">
+        <v>13.41333333333334</v>
+      </c>
+      <c r="H173" t="n">
         <v>13.32833333333332</v>
       </c>
-      <c r="H173" t="n">
-        <v>0</v>
-      </c>
       <c r="I173" t="n">
         <v>0</v>
       </c>
-      <c r="J173" t="inlineStr"/>
-      <c r="K173" t="n">
-        <v>13.3</v>
-      </c>
-      <c r="L173" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M173" t="n">
+      <c r="J173" t="n">
+        <v>0</v>
+      </c>
+      <c r="K173" t="inlineStr"/>
+      <c r="L173" t="inlineStr"/>
+      <c r="M173" t="inlineStr"/>
+      <c r="N173" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6966,24 +7941,21 @@
         <v>6863.27</v>
       </c>
       <c r="G174" t="n">
+        <v>13.40666666666667</v>
+      </c>
+      <c r="H174" t="n">
         <v>13.34333333333332</v>
       </c>
-      <c r="H174" t="n">
-        <v>0</v>
-      </c>
       <c r="I174" t="n">
         <v>0</v>
       </c>
-      <c r="J174" t="inlineStr"/>
-      <c r="K174" t="n">
-        <v>13.3</v>
-      </c>
-      <c r="L174" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M174" t="n">
+      <c r="J174" t="n">
+        <v>0</v>
+      </c>
+      <c r="K174" t="inlineStr"/>
+      <c r="L174" t="inlineStr"/>
+      <c r="M174" t="inlineStr"/>
+      <c r="N174" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7007,24 +7979,21 @@
         <v>3256.73</v>
       </c>
       <c r="G175" t="n">
+        <v>13.41333333333334</v>
+      </c>
+      <c r="H175" t="n">
         <v>13.35666666666665</v>
       </c>
-      <c r="H175" t="n">
-        <v>0</v>
-      </c>
       <c r="I175" t="n">
         <v>0</v>
       </c>
-      <c r="J175" t="inlineStr"/>
-      <c r="K175" t="n">
-        <v>13.3</v>
-      </c>
-      <c r="L175" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M175" t="n">
+      <c r="J175" t="n">
+        <v>0</v>
+      </c>
+      <c r="K175" t="inlineStr"/>
+      <c r="L175" t="inlineStr"/>
+      <c r="M175" t="inlineStr"/>
+      <c r="N175" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7048,24 +8017,21 @@
         <v>173070.0249</v>
       </c>
       <c r="G176" t="n">
+        <v>13.41333333333334</v>
+      </c>
+      <c r="H176" t="n">
         <v>13.36999999999999</v>
       </c>
-      <c r="H176" t="n">
-        <v>0</v>
-      </c>
       <c r="I176" t="n">
         <v>0</v>
       </c>
-      <c r="J176" t="inlineStr"/>
-      <c r="K176" t="n">
-        <v>13.3</v>
-      </c>
-      <c r="L176" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M176" t="n">
+      <c r="J176" t="n">
+        <v>0</v>
+      </c>
+      <c r="K176" t="inlineStr"/>
+      <c r="L176" t="inlineStr"/>
+      <c r="M176" t="inlineStr"/>
+      <c r="N176" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7089,24 +8055,21 @@
         <v>75594.62119999999</v>
       </c>
       <c r="G177" t="n">
+        <v>13.42000000000001</v>
+      </c>
+      <c r="H177" t="n">
         <v>13.38333333333332</v>
       </c>
-      <c r="H177" t="n">
-        <v>0</v>
-      </c>
       <c r="I177" t="n">
         <v>0</v>
       </c>
-      <c r="J177" t="inlineStr"/>
-      <c r="K177" t="n">
-        <v>13.3</v>
-      </c>
-      <c r="L177" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M177" t="n">
+      <c r="J177" t="n">
+        <v>0</v>
+      </c>
+      <c r="K177" t="inlineStr"/>
+      <c r="L177" t="inlineStr"/>
+      <c r="M177" t="inlineStr"/>
+      <c r="N177" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7130,24 +8093,21 @@
         <v>51.2781</v>
       </c>
       <c r="G178" t="n">
+        <v>13.40666666666667</v>
+      </c>
+      <c r="H178" t="n">
         <v>13.39499999999999</v>
       </c>
-      <c r="H178" t="n">
-        <v>0</v>
-      </c>
       <c r="I178" t="n">
         <v>0</v>
       </c>
-      <c r="J178" t="inlineStr"/>
-      <c r="K178" t="n">
-        <v>13.3</v>
-      </c>
-      <c r="L178" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M178" t="n">
+      <c r="J178" t="n">
+        <v>0</v>
+      </c>
+      <c r="K178" t="inlineStr"/>
+      <c r="L178" t="inlineStr"/>
+      <c r="M178" t="inlineStr"/>
+      <c r="N178" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7171,24 +8131,21 @@
         <v>62214.2659</v>
       </c>
       <c r="G179" t="n">
+        <v>13.40666666666667</v>
+      </c>
+      <c r="H179" t="n">
         <v>13.41166666666665</v>
       </c>
-      <c r="H179" t="n">
-        <v>0</v>
-      </c>
       <c r="I179" t="n">
         <v>0</v>
       </c>
-      <c r="J179" t="inlineStr"/>
-      <c r="K179" t="n">
-        <v>13.3</v>
-      </c>
-      <c r="L179" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M179" t="n">
+      <c r="J179" t="n">
+        <v>0</v>
+      </c>
+      <c r="K179" t="inlineStr"/>
+      <c r="L179" t="inlineStr"/>
+      <c r="M179" t="inlineStr"/>
+      <c r="N179" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7212,24 +8169,21 @@
         <v>368297.7938</v>
       </c>
       <c r="G180" t="n">
+        <v>13.43333333333334</v>
+      </c>
+      <c r="H180" t="n">
         <v>13.42999999999998</v>
       </c>
-      <c r="H180" t="n">
-        <v>0</v>
-      </c>
       <c r="I180" t="n">
         <v>0</v>
       </c>
-      <c r="J180" t="inlineStr"/>
-      <c r="K180" t="n">
-        <v>13.3</v>
-      </c>
-      <c r="L180" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M180" t="n">
+      <c r="J180" t="n">
+        <v>0</v>
+      </c>
+      <c r="K180" t="inlineStr"/>
+      <c r="L180" t="inlineStr"/>
+      <c r="M180" t="inlineStr"/>
+      <c r="N180" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7253,24 +8207,21 @@
         <v>149243.5526</v>
       </c>
       <c r="G181" t="n">
+        <v>13.47333333333334</v>
+      </c>
+      <c r="H181" t="n">
         <v>13.45499999999998</v>
       </c>
-      <c r="H181" t="n">
-        <v>0</v>
-      </c>
       <c r="I181" t="n">
         <v>0</v>
       </c>
-      <c r="J181" t="inlineStr"/>
-      <c r="K181" t="n">
-        <v>13.3</v>
-      </c>
-      <c r="L181" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M181" t="n">
+      <c r="J181" t="n">
+        <v>0</v>
+      </c>
+      <c r="K181" t="inlineStr"/>
+      <c r="L181" t="inlineStr"/>
+      <c r="M181" t="inlineStr"/>
+      <c r="N181" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7294,24 +8245,21 @@
         <v>294104.067</v>
       </c>
       <c r="G182" t="n">
+        <v>13.50000000000001</v>
+      </c>
+      <c r="H182" t="n">
         <v>13.48166666666665</v>
       </c>
-      <c r="H182" t="n">
-        <v>0</v>
-      </c>
       <c r="I182" t="n">
         <v>0</v>
       </c>
-      <c r="J182" t="inlineStr"/>
-      <c r="K182" t="n">
-        <v>13.3</v>
-      </c>
-      <c r="L182" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M182" t="n">
+      <c r="J182" t="n">
+        <v>0</v>
+      </c>
+      <c r="K182" t="inlineStr"/>
+      <c r="L182" t="inlineStr"/>
+      <c r="M182" t="inlineStr"/>
+      <c r="N182" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7335,24 +8283,21 @@
         <v>385450.2265615385</v>
       </c>
       <c r="G183" t="n">
+        <v>13.56000000000001</v>
+      </c>
+      <c r="H183" t="n">
         <v>13.50999999999999</v>
       </c>
-      <c r="H183" t="n">
-        <v>0</v>
-      </c>
       <c r="I183" t="n">
         <v>0</v>
       </c>
-      <c r="J183" t="inlineStr"/>
-      <c r="K183" t="n">
-        <v>13.3</v>
-      </c>
-      <c r="L183" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M183" t="n">
+      <c r="J183" t="n">
+        <v>0</v>
+      </c>
+      <c r="K183" t="inlineStr"/>
+      <c r="L183" t="inlineStr"/>
+      <c r="M183" t="inlineStr"/>
+      <c r="N183" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7376,24 +8321,21 @@
         <v>193175.0285</v>
       </c>
       <c r="G184" t="n">
+        <v>13.62666666666667</v>
+      </c>
+      <c r="H184" t="n">
         <v>13.53499999999999</v>
       </c>
-      <c r="H184" t="n">
-        <v>0</v>
-      </c>
       <c r="I184" t="n">
         <v>0</v>
       </c>
-      <c r="J184" t="inlineStr"/>
-      <c r="K184" t="n">
-        <v>13.3</v>
-      </c>
-      <c r="L184" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M184" t="n">
+      <c r="J184" t="n">
+        <v>0</v>
+      </c>
+      <c r="K184" t="inlineStr"/>
+      <c r="L184" t="inlineStr"/>
+      <c r="M184" t="inlineStr"/>
+      <c r="N184" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7417,24 +8359,21 @@
         <v>284920.8378</v>
       </c>
       <c r="G185" t="n">
+        <v>13.66666666666667</v>
+      </c>
+      <c r="H185" t="n">
         <v>13.55666666666665</v>
       </c>
-      <c r="H185" t="n">
-        <v>0</v>
-      </c>
       <c r="I185" t="n">
         <v>0</v>
       </c>
-      <c r="J185" t="inlineStr"/>
-      <c r="K185" t="n">
-        <v>13.3</v>
-      </c>
-      <c r="L185" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M185" t="n">
+      <c r="J185" t="n">
+        <v>0</v>
+      </c>
+      <c r="K185" t="inlineStr"/>
+      <c r="L185" t="inlineStr"/>
+      <c r="M185" t="inlineStr"/>
+      <c r="N185" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7458,24 +8397,21 @@
         <v>354348.264</v>
       </c>
       <c r="G186" t="n">
+        <v>13.69333333333334</v>
+      </c>
+      <c r="H186" t="n">
         <v>13.57166666666665</v>
       </c>
-      <c r="H186" t="n">
-        <v>0</v>
-      </c>
       <c r="I186" t="n">
         <v>0</v>
       </c>
-      <c r="J186" t="inlineStr"/>
-      <c r="K186" t="n">
-        <v>13.3</v>
-      </c>
-      <c r="L186" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M186" t="n">
+      <c r="J186" t="n">
+        <v>0</v>
+      </c>
+      <c r="K186" t="inlineStr"/>
+      <c r="L186" t="inlineStr"/>
+      <c r="M186" t="inlineStr"/>
+      <c r="N186" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7499,24 +8435,21 @@
         <v>405970.82</v>
       </c>
       <c r="G187" t="n">
+        <v>13.74666666666667</v>
+      </c>
+      <c r="H187" t="n">
         <v>13.59333333333332</v>
       </c>
-      <c r="H187" t="n">
-        <v>0</v>
-      </c>
       <c r="I187" t="n">
         <v>0</v>
       </c>
-      <c r="J187" t="inlineStr"/>
-      <c r="K187" t="n">
-        <v>13.3</v>
-      </c>
-      <c r="L187" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M187" t="n">
+      <c r="J187" t="n">
+        <v>0</v>
+      </c>
+      <c r="K187" t="inlineStr"/>
+      <c r="L187" t="inlineStr"/>
+      <c r="M187" t="inlineStr"/>
+      <c r="N187" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7540,24 +8473,21 @@
         <v>34452.8152</v>
       </c>
       <c r="G188" t="n">
+        <v>13.78</v>
+      </c>
+      <c r="H188" t="n">
         <v>13.61166666666665</v>
       </c>
-      <c r="H188" t="n">
-        <v>0</v>
-      </c>
       <c r="I188" t="n">
         <v>0</v>
       </c>
-      <c r="J188" t="inlineStr"/>
-      <c r="K188" t="n">
-        <v>13.3</v>
-      </c>
-      <c r="L188" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M188" t="n">
+      <c r="J188" t="n">
+        <v>0</v>
+      </c>
+      <c r="K188" t="inlineStr"/>
+      <c r="L188" t="inlineStr"/>
+      <c r="M188" t="inlineStr"/>
+      <c r="N188" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7581,24 +8511,21 @@
         <v>55878.8711</v>
       </c>
       <c r="G189" t="n">
+        <v>13.82</v>
+      </c>
+      <c r="H189" t="n">
         <v>13.62666666666665</v>
       </c>
-      <c r="H189" t="n">
-        <v>0</v>
-      </c>
       <c r="I189" t="n">
         <v>0</v>
       </c>
-      <c r="J189" t="inlineStr"/>
-      <c r="K189" t="n">
-        <v>13.3</v>
-      </c>
-      <c r="L189" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M189" t="n">
+      <c r="J189" t="n">
+        <v>0</v>
+      </c>
+      <c r="K189" t="inlineStr"/>
+      <c r="L189" t="inlineStr"/>
+      <c r="M189" t="inlineStr"/>
+      <c r="N189" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7622,24 +8549,21 @@
         <v>169714.2832</v>
       </c>
       <c r="G190" t="n">
+        <v>13.86</v>
+      </c>
+      <c r="H190" t="n">
         <v>13.63333333333332</v>
       </c>
-      <c r="H190" t="n">
-        <v>0</v>
-      </c>
       <c r="I190" t="n">
         <v>0</v>
       </c>
-      <c r="J190" t="inlineStr"/>
-      <c r="K190" t="n">
-        <v>13.3</v>
-      </c>
-      <c r="L190" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M190" t="n">
+      <c r="J190" t="n">
+        <v>1</v>
+      </c>
+      <c r="K190" t="inlineStr"/>
+      <c r="L190" t="inlineStr"/>
+      <c r="M190" t="inlineStr"/>
+      <c r="N190" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7663,24 +8587,21 @@
         <v>292348.8585</v>
       </c>
       <c r="G191" t="n">
+        <v>13.89333333333334</v>
+      </c>
+      <c r="H191" t="n">
         <v>13.63666666666665</v>
       </c>
-      <c r="H191" t="n">
-        <v>0</v>
-      </c>
       <c r="I191" t="n">
         <v>0</v>
       </c>
-      <c r="J191" t="inlineStr"/>
-      <c r="K191" t="n">
-        <v>13.3</v>
-      </c>
-      <c r="L191" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M191" t="n">
+      <c r="J191" t="n">
+        <v>1</v>
+      </c>
+      <c r="K191" t="inlineStr"/>
+      <c r="L191" t="inlineStr"/>
+      <c r="M191" t="inlineStr"/>
+      <c r="N191" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7704,24 +8625,21 @@
         <v>227007.4411</v>
       </c>
       <c r="G192" t="n">
+        <v>13.92000000000001</v>
+      </c>
+      <c r="H192" t="n">
         <v>13.63499999999999</v>
       </c>
-      <c r="H192" t="n">
-        <v>0</v>
-      </c>
       <c r="I192" t="n">
         <v>0</v>
       </c>
-      <c r="J192" t="inlineStr"/>
-      <c r="K192" t="n">
-        <v>13.3</v>
-      </c>
-      <c r="L192" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M192" t="n">
+      <c r="J192" t="n">
+        <v>1</v>
+      </c>
+      <c r="K192" t="inlineStr"/>
+      <c r="L192" t="inlineStr"/>
+      <c r="M192" t="inlineStr"/>
+      <c r="N192" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7745,24 +8663,21 @@
         <v>3116.27</v>
       </c>
       <c r="G193" t="n">
+        <v>13.95333333333334</v>
+      </c>
+      <c r="H193" t="n">
         <v>13.63833333333332</v>
       </c>
-      <c r="H193" t="n">
-        <v>0</v>
-      </c>
       <c r="I193" t="n">
         <v>0</v>
       </c>
-      <c r="J193" t="inlineStr"/>
-      <c r="K193" t="n">
-        <v>13.3</v>
-      </c>
-      <c r="L193" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M193" t="n">
+      <c r="J193" t="n">
+        <v>1</v>
+      </c>
+      <c r="K193" t="inlineStr"/>
+      <c r="L193" t="inlineStr"/>
+      <c r="M193" t="inlineStr"/>
+      <c r="N193" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7786,24 +8701,21 @@
         <v>7252.56</v>
       </c>
       <c r="G194" t="n">
+        <v>13.97333333333334</v>
+      </c>
+      <c r="H194" t="n">
         <v>13.63999999999998</v>
       </c>
-      <c r="H194" t="n">
-        <v>0</v>
-      </c>
       <c r="I194" t="n">
         <v>0</v>
       </c>
-      <c r="J194" t="inlineStr"/>
-      <c r="K194" t="n">
-        <v>13.3</v>
-      </c>
-      <c r="L194" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M194" t="n">
+      <c r="J194" t="n">
+        <v>1</v>
+      </c>
+      <c r="K194" t="inlineStr"/>
+      <c r="L194" t="inlineStr"/>
+      <c r="M194" t="inlineStr"/>
+      <c r="N194" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7827,24 +8739,21 @@
         <v>174676.8266</v>
       </c>
       <c r="G195" t="n">
+        <v>13.96666666666667</v>
+      </c>
+      <c r="H195" t="n">
         <v>13.63166666666665</v>
       </c>
-      <c r="H195" t="n">
-        <v>0</v>
-      </c>
       <c r="I195" t="n">
         <v>0</v>
       </c>
-      <c r="J195" t="inlineStr"/>
-      <c r="K195" t="n">
-        <v>13.3</v>
-      </c>
-      <c r="L195" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M195" t="n">
+      <c r="J195" t="n">
+        <v>1</v>
+      </c>
+      <c r="K195" t="inlineStr"/>
+      <c r="L195" t="inlineStr"/>
+      <c r="M195" t="inlineStr"/>
+      <c r="N195" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7868,24 +8777,21 @@
         <v>10</v>
       </c>
       <c r="G196" t="n">
+        <v>13.96</v>
+      </c>
+      <c r="H196" t="n">
         <v>13.62666666666665</v>
       </c>
-      <c r="H196" t="n">
-        <v>0</v>
-      </c>
       <c r="I196" t="n">
         <v>0</v>
       </c>
-      <c r="J196" t="inlineStr"/>
-      <c r="K196" t="n">
-        <v>13.3</v>
-      </c>
-      <c r="L196" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M196" t="n">
+      <c r="J196" t="n">
+        <v>1</v>
+      </c>
+      <c r="K196" t="inlineStr"/>
+      <c r="L196" t="inlineStr"/>
+      <c r="M196" t="inlineStr"/>
+      <c r="N196" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7909,24 +8815,21 @@
         <v>28617.6978</v>
       </c>
       <c r="G197" t="n">
+        <v>13.95333333333334</v>
+      </c>
+      <c r="H197" t="n">
         <v>13.62999999999998</v>
       </c>
-      <c r="H197" t="n">
-        <v>0</v>
-      </c>
       <c r="I197" t="n">
         <v>0</v>
       </c>
-      <c r="J197" t="inlineStr"/>
-      <c r="K197" t="n">
-        <v>13.3</v>
-      </c>
-      <c r="L197" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M197" t="n">
+      <c r="J197" t="n">
+        <v>1</v>
+      </c>
+      <c r="K197" t="inlineStr"/>
+      <c r="L197" t="inlineStr"/>
+      <c r="M197" t="inlineStr"/>
+      <c r="N197" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7950,24 +8853,21 @@
         <v>10190</v>
       </c>
       <c r="G198" t="n">
+        <v>13.93333333333334</v>
+      </c>
+      <c r="H198" t="n">
         <v>13.63333333333331</v>
       </c>
-      <c r="H198" t="n">
-        <v>0</v>
-      </c>
       <c r="I198" t="n">
         <v>0</v>
       </c>
-      <c r="J198" t="inlineStr"/>
-      <c r="K198" t="n">
-        <v>13.3</v>
-      </c>
-      <c r="L198" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M198" t="n">
+      <c r="J198" t="n">
+        <v>1</v>
+      </c>
+      <c r="K198" t="inlineStr"/>
+      <c r="L198" t="inlineStr"/>
+      <c r="M198" t="inlineStr"/>
+      <c r="N198" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7991,24 +8891,21 @@
         <v>67961.6951</v>
       </c>
       <c r="G199" t="n">
+        <v>13.90666666666667</v>
+      </c>
+      <c r="H199" t="n">
         <v>13.63666666666665</v>
       </c>
-      <c r="H199" t="n">
-        <v>0</v>
-      </c>
       <c r="I199" t="n">
         <v>0</v>
       </c>
-      <c r="J199" t="inlineStr"/>
-      <c r="K199" t="n">
-        <v>13.3</v>
-      </c>
-      <c r="L199" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M199" t="n">
+      <c r="J199" t="n">
+        <v>1</v>
+      </c>
+      <c r="K199" t="inlineStr"/>
+      <c r="L199" t="inlineStr"/>
+      <c r="M199" t="inlineStr"/>
+      <c r="N199" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8032,24 +8929,21 @@
         <v>4999.6035</v>
       </c>
       <c r="G200" t="n">
+        <v>13.89333333333334</v>
+      </c>
+      <c r="H200" t="n">
         <v>13.63833333333331</v>
       </c>
-      <c r="H200" t="n">
-        <v>0</v>
-      </c>
       <c r="I200" t="n">
         <v>0</v>
       </c>
-      <c r="J200" t="inlineStr"/>
-      <c r="K200" t="n">
-        <v>13.3</v>
-      </c>
-      <c r="L200" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M200" t="n">
+      <c r="J200" t="n">
+        <v>1</v>
+      </c>
+      <c r="K200" t="inlineStr"/>
+      <c r="L200" t="inlineStr"/>
+      <c r="M200" t="inlineStr"/>
+      <c r="N200" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8073,24 +8967,21 @@
         <v>31424.3567</v>
       </c>
       <c r="G201" t="n">
+        <v>13.90000000000001</v>
+      </c>
+      <c r="H201" t="n">
         <v>13.64166666666664</v>
       </c>
-      <c r="H201" t="n">
-        <v>0</v>
-      </c>
       <c r="I201" t="n">
         <v>0</v>
       </c>
-      <c r="J201" t="inlineStr"/>
-      <c r="K201" t="n">
-        <v>13.3</v>
-      </c>
-      <c r="L201" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M201" t="n">
+      <c r="J201" t="n">
+        <v>1</v>
+      </c>
+      <c r="K201" t="inlineStr"/>
+      <c r="L201" t="inlineStr"/>
+      <c r="M201" t="inlineStr"/>
+      <c r="N201" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8114,24 +9005,21 @@
         <v>71620.7884</v>
       </c>
       <c r="G202" t="n">
+        <v>13.86666666666667</v>
+      </c>
+      <c r="H202" t="n">
         <v>13.64333333333331</v>
       </c>
-      <c r="H202" t="n">
-        <v>0</v>
-      </c>
       <c r="I202" t="n">
         <v>0</v>
       </c>
-      <c r="J202" t="inlineStr"/>
-      <c r="K202" t="n">
-        <v>13.3</v>
-      </c>
-      <c r="L202" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M202" t="n">
+      <c r="J202" t="n">
+        <v>1</v>
+      </c>
+      <c r="K202" t="inlineStr"/>
+      <c r="L202" t="inlineStr"/>
+      <c r="M202" t="inlineStr"/>
+      <c r="N202" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8155,24 +9043,21 @@
         <v>70503.8101</v>
       </c>
       <c r="G203" t="n">
+        <v>13.84666666666667</v>
+      </c>
+      <c r="H203" t="n">
         <v>13.64499999999998</v>
       </c>
-      <c r="H203" t="n">
-        <v>0</v>
-      </c>
       <c r="I203" t="n">
         <v>0</v>
       </c>
-      <c r="J203" t="inlineStr"/>
-      <c r="K203" t="n">
-        <v>13.3</v>
-      </c>
-      <c r="L203" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M203" t="n">
+      <c r="J203" t="n">
+        <v>1</v>
+      </c>
+      <c r="K203" t="inlineStr"/>
+      <c r="L203" t="inlineStr"/>
+      <c r="M203" t="inlineStr"/>
+      <c r="N203" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8196,24 +9081,21 @@
         <v>1127.8715</v>
       </c>
       <c r="G204" t="n">
+        <v>13.82666666666667</v>
+      </c>
+      <c r="H204" t="n">
         <v>13.64666666666665</v>
       </c>
-      <c r="H204" t="n">
-        <v>0</v>
-      </c>
       <c r="I204" t="n">
         <v>0</v>
       </c>
-      <c r="J204" t="inlineStr"/>
-      <c r="K204" t="n">
-        <v>13.3</v>
-      </c>
-      <c r="L204" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M204" t="n">
+      <c r="J204" t="n">
+        <v>1</v>
+      </c>
+      <c r="K204" t="inlineStr"/>
+      <c r="L204" t="inlineStr"/>
+      <c r="M204" t="inlineStr"/>
+      <c r="N204" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8237,24 +9119,21 @@
         <v>12</v>
       </c>
       <c r="G205" t="n">
+        <v>13.82666666666667</v>
+      </c>
+      <c r="H205" t="n">
         <v>13.65666666666664</v>
       </c>
-      <c r="H205" t="n">
-        <v>0</v>
-      </c>
       <c r="I205" t="n">
         <v>0</v>
       </c>
-      <c r="J205" t="inlineStr"/>
-      <c r="K205" t="n">
-        <v>13.3</v>
-      </c>
-      <c r="L205" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M205" t="n">
+      <c r="J205" t="n">
+        <v>1</v>
+      </c>
+      <c r="K205" t="inlineStr"/>
+      <c r="L205" t="inlineStr"/>
+      <c r="M205" t="inlineStr"/>
+      <c r="N205" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8278,24 +9157,21 @@
         <v>3748.8837</v>
       </c>
       <c r="G206" t="n">
+        <v>13.82666666666667</v>
+      </c>
+      <c r="H206" t="n">
         <v>13.66333333333331</v>
       </c>
-      <c r="H206" t="n">
-        <v>0</v>
-      </c>
       <c r="I206" t="n">
         <v>0</v>
       </c>
-      <c r="J206" t="inlineStr"/>
-      <c r="K206" t="n">
-        <v>13.3</v>
-      </c>
-      <c r="L206" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M206" t="n">
+      <c r="J206" t="n">
+        <v>1</v>
+      </c>
+      <c r="K206" t="inlineStr"/>
+      <c r="L206" t="inlineStr"/>
+      <c r="M206" t="inlineStr"/>
+      <c r="N206" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8319,24 +9195,21 @@
         <v>178766.3336</v>
       </c>
       <c r="G207" t="n">
+        <v>13.82666666666667</v>
+      </c>
+      <c r="H207" t="n">
         <v>13.66999999999998</v>
       </c>
-      <c r="H207" t="n">
-        <v>0</v>
-      </c>
       <c r="I207" t="n">
         <v>0</v>
       </c>
-      <c r="J207" t="inlineStr"/>
-      <c r="K207" t="n">
-        <v>13.3</v>
-      </c>
-      <c r="L207" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M207" t="n">
+      <c r="J207" t="n">
+        <v>1</v>
+      </c>
+      <c r="K207" t="inlineStr"/>
+      <c r="L207" t="inlineStr"/>
+      <c r="M207" t="inlineStr"/>
+      <c r="N207" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8360,24 +9233,21 @@
         <v>37123.1428</v>
       </c>
       <c r="G208" t="n">
+        <v>13.82666666666667</v>
+      </c>
+      <c r="H208" t="n">
         <v>13.67499999999998</v>
       </c>
-      <c r="H208" t="n">
-        <v>0</v>
-      </c>
       <c r="I208" t="n">
         <v>0</v>
       </c>
-      <c r="J208" t="inlineStr"/>
-      <c r="K208" t="n">
-        <v>13.3</v>
-      </c>
-      <c r="L208" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M208" t="n">
+      <c r="J208" t="n">
+        <v>1</v>
+      </c>
+      <c r="K208" t="inlineStr"/>
+      <c r="L208" t="inlineStr"/>
+      <c r="M208" t="inlineStr"/>
+      <c r="N208" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8401,24 +9271,21 @@
         <v>60</v>
       </c>
       <c r="G209" t="n">
+        <v>13.84</v>
+      </c>
+      <c r="H209" t="n">
         <v>13.68333333333331</v>
       </c>
-      <c r="H209" t="n">
-        <v>0</v>
-      </c>
       <c r="I209" t="n">
         <v>0</v>
       </c>
-      <c r="J209" t="inlineStr"/>
-      <c r="K209" t="n">
-        <v>13.3</v>
-      </c>
-      <c r="L209" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M209" t="n">
+      <c r="J209" t="n">
+        <v>1</v>
+      </c>
+      <c r="K209" t="inlineStr"/>
+      <c r="L209" t="inlineStr"/>
+      <c r="M209" t="inlineStr"/>
+      <c r="N209" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8442,24 +9309,21 @@
         <v>178</v>
       </c>
       <c r="G210" t="n">
+        <v>13.85333333333334</v>
+      </c>
+      <c r="H210" t="n">
         <v>13.68666666666664</v>
       </c>
-      <c r="H210" t="n">
-        <v>0</v>
-      </c>
       <c r="I210" t="n">
         <v>0</v>
       </c>
-      <c r="J210" t="inlineStr"/>
-      <c r="K210" t="n">
-        <v>13.3</v>
-      </c>
-      <c r="L210" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M210" t="n">
+      <c r="J210" t="n">
+        <v>1</v>
+      </c>
+      <c r="K210" t="inlineStr"/>
+      <c r="L210" t="inlineStr"/>
+      <c r="M210" t="inlineStr"/>
+      <c r="N210" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8483,24 +9347,21 @@
         <v>381</v>
       </c>
       <c r="G211" t="n">
+        <v>13.85333333333334</v>
+      </c>
+      <c r="H211" t="n">
         <v>13.68999999999997</v>
       </c>
-      <c r="H211" t="n">
-        <v>0</v>
-      </c>
       <c r="I211" t="n">
         <v>0</v>
       </c>
-      <c r="J211" t="inlineStr"/>
-      <c r="K211" t="n">
-        <v>13.3</v>
-      </c>
-      <c r="L211" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M211" t="n">
+      <c r="J211" t="n">
+        <v>1</v>
+      </c>
+      <c r="K211" t="inlineStr"/>
+      <c r="L211" t="inlineStr"/>
+      <c r="M211" t="inlineStr"/>
+      <c r="N211" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8524,24 +9385,21 @@
         <v>152004.3884</v>
       </c>
       <c r="G212" t="n">
+        <v>13.85333333333334</v>
+      </c>
+      <c r="H212" t="n">
         <v>13.69166666666664</v>
       </c>
-      <c r="H212" t="n">
-        <v>0</v>
-      </c>
       <c r="I212" t="n">
         <v>0</v>
       </c>
-      <c r="J212" t="inlineStr"/>
-      <c r="K212" t="n">
-        <v>13.3</v>
-      </c>
-      <c r="L212" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M212" t="n">
+      <c r="J212" t="n">
+        <v>1</v>
+      </c>
+      <c r="K212" t="inlineStr"/>
+      <c r="L212" t="inlineStr"/>
+      <c r="M212" t="inlineStr"/>
+      <c r="N212" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8565,24 +9423,21 @@
         <v>28514.7764</v>
       </c>
       <c r="G213" t="n">
+        <v>13.85333333333334</v>
+      </c>
+      <c r="H213" t="n">
         <v>13.69499999999997</v>
       </c>
-      <c r="H213" t="n">
-        <v>0</v>
-      </c>
       <c r="I213" t="n">
         <v>0</v>
       </c>
-      <c r="J213" t="inlineStr"/>
-      <c r="K213" t="n">
-        <v>13.3</v>
-      </c>
-      <c r="L213" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M213" t="n">
+      <c r="J213" t="n">
+        <v>1</v>
+      </c>
+      <c r="K213" t="inlineStr"/>
+      <c r="L213" t="inlineStr"/>
+      <c r="M213" t="inlineStr"/>
+      <c r="N213" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8606,24 +9461,21 @@
         <v>11513</v>
       </c>
       <c r="G214" t="n">
+        <v>13.85333333333334</v>
+      </c>
+      <c r="H214" t="n">
         <v>13.69999999999997</v>
       </c>
-      <c r="H214" t="n">
-        <v>0</v>
-      </c>
       <c r="I214" t="n">
         <v>0</v>
       </c>
-      <c r="J214" t="inlineStr"/>
-      <c r="K214" t="n">
-        <v>13.3</v>
-      </c>
-      <c r="L214" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M214" t="n">
+      <c r="J214" t="n">
+        <v>1</v>
+      </c>
+      <c r="K214" t="inlineStr"/>
+      <c r="L214" t="inlineStr"/>
+      <c r="M214" t="inlineStr"/>
+      <c r="N214" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8647,24 +9499,21 @@
         <v>24764.8213</v>
       </c>
       <c r="G215" t="n">
+        <v>13.86</v>
+      </c>
+      <c r="H215" t="n">
         <v>13.70999999999997</v>
       </c>
-      <c r="H215" t="n">
-        <v>0</v>
-      </c>
       <c r="I215" t="n">
         <v>0</v>
       </c>
-      <c r="J215" t="inlineStr"/>
-      <c r="K215" t="n">
-        <v>13.3</v>
-      </c>
-      <c r="L215" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M215" t="n">
+      <c r="J215" t="n">
+        <v>1</v>
+      </c>
+      <c r="K215" t="inlineStr"/>
+      <c r="L215" t="inlineStr"/>
+      <c r="M215" t="inlineStr"/>
+      <c r="N215" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8688,24 +9537,21 @@
         <v>8525</v>
       </c>
       <c r="G216" t="n">
+        <v>13.86</v>
+      </c>
+      <c r="H216" t="n">
         <v>13.71499999999997</v>
       </c>
-      <c r="H216" t="n">
-        <v>0</v>
-      </c>
       <c r="I216" t="n">
         <v>0</v>
       </c>
-      <c r="J216" t="inlineStr"/>
-      <c r="K216" t="n">
-        <v>13.3</v>
-      </c>
-      <c r="L216" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M216" t="n">
+      <c r="J216" t="n">
+        <v>1</v>
+      </c>
+      <c r="K216" t="inlineStr"/>
+      <c r="L216" t="inlineStr"/>
+      <c r="M216" t="inlineStr"/>
+      <c r="N216" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8729,24 +9575,21 @@
         <v>2225.2289</v>
       </c>
       <c r="G217" t="n">
+        <v>13.86666666666667</v>
+      </c>
+      <c r="H217" t="n">
         <v>13.72166666666664</v>
       </c>
-      <c r="H217" t="n">
-        <v>0</v>
-      </c>
       <c r="I217" t="n">
         <v>0</v>
       </c>
-      <c r="J217" t="inlineStr"/>
-      <c r="K217" t="n">
-        <v>13.3</v>
-      </c>
-      <c r="L217" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M217" t="n">
+      <c r="J217" t="n">
+        <v>1</v>
+      </c>
+      <c r="K217" t="inlineStr"/>
+      <c r="L217" t="inlineStr"/>
+      <c r="M217" t="inlineStr"/>
+      <c r="N217" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8770,24 +9613,21 @@
         <v>75245.67999999999</v>
       </c>
       <c r="G218" t="n">
+        <v>13.86666666666667</v>
+      </c>
+      <c r="H218" t="n">
         <v>13.72666666666664</v>
       </c>
-      <c r="H218" t="n">
-        <v>0</v>
-      </c>
       <c r="I218" t="n">
         <v>0</v>
       </c>
-      <c r="J218" t="inlineStr"/>
-      <c r="K218" t="n">
-        <v>13.3</v>
-      </c>
-      <c r="L218" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M218" t="n">
+      <c r="J218" t="n">
+        <v>1</v>
+      </c>
+      <c r="K218" t="inlineStr"/>
+      <c r="L218" t="inlineStr"/>
+      <c r="M218" t="inlineStr"/>
+      <c r="N218" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8811,24 +9651,21 @@
         <v>49831.66</v>
       </c>
       <c r="G219" t="n">
+        <v>13.86666666666667</v>
+      </c>
+      <c r="H219" t="n">
         <v>13.72999999999997</v>
       </c>
-      <c r="H219" t="n">
-        <v>0</v>
-      </c>
       <c r="I219" t="n">
         <v>0</v>
       </c>
-      <c r="J219" t="inlineStr"/>
-      <c r="K219" t="n">
-        <v>13.3</v>
-      </c>
-      <c r="L219" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M219" t="n">
+      <c r="J219" t="n">
+        <v>1</v>
+      </c>
+      <c r="K219" t="inlineStr"/>
+      <c r="L219" t="inlineStr"/>
+      <c r="M219" t="inlineStr"/>
+      <c r="N219" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8852,24 +9689,21 @@
         <v>9163.115900000001</v>
       </c>
       <c r="G220" t="n">
+        <v>13.85333333333334</v>
+      </c>
+      <c r="H220" t="n">
         <v>13.73833333333331</v>
       </c>
-      <c r="H220" t="n">
-        <v>0</v>
-      </c>
       <c r="I220" t="n">
         <v>0</v>
       </c>
-      <c r="J220" t="inlineStr"/>
-      <c r="K220" t="n">
-        <v>13.3</v>
-      </c>
-      <c r="L220" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M220" t="n">
+      <c r="J220" t="n">
+        <v>1</v>
+      </c>
+      <c r="K220" t="inlineStr"/>
+      <c r="L220" t="inlineStr"/>
+      <c r="M220" t="inlineStr"/>
+      <c r="N220" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8893,24 +9727,21 @@
         <v>20171.85</v>
       </c>
       <c r="G221" t="n">
+        <v>13.84000000000001</v>
+      </c>
+      <c r="H221" t="n">
         <v>13.74333333333331</v>
       </c>
-      <c r="H221" t="n">
-        <v>0</v>
-      </c>
       <c r="I221" t="n">
         <v>0</v>
       </c>
-      <c r="J221" t="inlineStr"/>
-      <c r="K221" t="n">
-        <v>13.3</v>
-      </c>
-      <c r="L221" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M221" t="n">
+      <c r="J221" t="n">
+        <v>1</v>
+      </c>
+      <c r="K221" t="inlineStr"/>
+      <c r="L221" t="inlineStr"/>
+      <c r="M221" t="inlineStr"/>
+      <c r="N221" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8934,24 +9765,21 @@
         <v>13149.1615</v>
       </c>
       <c r="G222" t="n">
+        <v>13.82666666666667</v>
+      </c>
+      <c r="H222" t="n">
         <v>13.74833333333331</v>
       </c>
-      <c r="H222" t="n">
-        <v>0</v>
-      </c>
       <c r="I222" t="n">
         <v>0</v>
       </c>
-      <c r="J222" t="inlineStr"/>
-      <c r="K222" t="n">
-        <v>13.3</v>
-      </c>
-      <c r="L222" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M222" t="n">
+      <c r="J222" t="n">
+        <v>0</v>
+      </c>
+      <c r="K222" t="inlineStr"/>
+      <c r="L222" t="inlineStr"/>
+      <c r="M222" t="inlineStr"/>
+      <c r="N222" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8975,24 +9803,21 @@
         <v>11000</v>
       </c>
       <c r="G223" t="n">
+        <v>13.83333333333334</v>
+      </c>
+      <c r="H223" t="n">
         <v>13.75499999999998</v>
       </c>
-      <c r="H223" t="n">
-        <v>0</v>
-      </c>
       <c r="I223" t="n">
         <v>0</v>
       </c>
-      <c r="J223" t="inlineStr"/>
-      <c r="K223" t="n">
-        <v>13.3</v>
-      </c>
-      <c r="L223" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M223" t="n">
+      <c r="J223" t="n">
+        <v>0</v>
+      </c>
+      <c r="K223" t="inlineStr"/>
+      <c r="L223" t="inlineStr"/>
+      <c r="M223" t="inlineStr"/>
+      <c r="N223" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9016,24 +9841,21 @@
         <v>5500</v>
       </c>
       <c r="G224" t="n">
+        <v>13.82</v>
+      </c>
+      <c r="H224" t="n">
         <v>13.75999999999997</v>
       </c>
-      <c r="H224" t="n">
-        <v>0</v>
-      </c>
       <c r="I224" t="n">
         <v>0</v>
       </c>
-      <c r="J224" t="inlineStr"/>
-      <c r="K224" t="n">
-        <v>13.3</v>
-      </c>
-      <c r="L224" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M224" t="n">
+      <c r="J224" t="n">
+        <v>0</v>
+      </c>
+      <c r="K224" t="inlineStr"/>
+      <c r="L224" t="inlineStr"/>
+      <c r="M224" t="inlineStr"/>
+      <c r="N224" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9057,24 +9879,21 @@
         <v>8250</v>
       </c>
       <c r="G225" t="n">
+        <v>13.81333333333334</v>
+      </c>
+      <c r="H225" t="n">
         <v>13.76666666666664</v>
       </c>
-      <c r="H225" t="n">
-        <v>0</v>
-      </c>
       <c r="I225" t="n">
         <v>0</v>
       </c>
-      <c r="J225" t="inlineStr"/>
-      <c r="K225" t="n">
-        <v>13.3</v>
-      </c>
-      <c r="L225" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M225" t="n">
+      <c r="J225" t="n">
+        <v>0</v>
+      </c>
+      <c r="K225" t="inlineStr"/>
+      <c r="L225" t="inlineStr"/>
+      <c r="M225" t="inlineStr"/>
+      <c r="N225" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9098,24 +9917,21 @@
         <v>14309.7101</v>
       </c>
       <c r="G226" t="n">
+        <v>13.80666666666667</v>
+      </c>
+      <c r="H226" t="n">
         <v>13.77333333333331</v>
       </c>
-      <c r="H226" t="n">
-        <v>0</v>
-      </c>
       <c r="I226" t="n">
         <v>0</v>
       </c>
-      <c r="J226" t="inlineStr"/>
-      <c r="K226" t="n">
-        <v>13.3</v>
-      </c>
-      <c r="L226" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M226" t="n">
+      <c r="J226" t="n">
+        <v>0</v>
+      </c>
+      <c r="K226" t="inlineStr"/>
+      <c r="L226" t="inlineStr"/>
+      <c r="M226" t="inlineStr"/>
+      <c r="N226" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9139,24 +9955,21 @@
         <v>5719.2411</v>
       </c>
       <c r="G227" t="n">
+        <v>13.80000000000001</v>
+      </c>
+      <c r="H227" t="n">
         <v>13.77666666666664</v>
       </c>
-      <c r="H227" t="n">
-        <v>0</v>
-      </c>
       <c r="I227" t="n">
         <v>0</v>
       </c>
-      <c r="J227" t="inlineStr"/>
-      <c r="K227" t="n">
-        <v>13.3</v>
-      </c>
-      <c r="L227" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M227" t="n">
+      <c r="J227" t="n">
+        <v>0</v>
+      </c>
+      <c r="K227" t="inlineStr"/>
+      <c r="L227" t="inlineStr"/>
+      <c r="M227" t="inlineStr"/>
+      <c r="N227" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9180,24 +9993,21 @@
         <v>59224.8893</v>
       </c>
       <c r="G228" t="n">
+        <v>13.79333333333334</v>
+      </c>
+      <c r="H228" t="n">
         <v>13.78499999999997</v>
       </c>
-      <c r="H228" t="n">
-        <v>0</v>
-      </c>
       <c r="I228" t="n">
         <v>0</v>
       </c>
-      <c r="J228" t="inlineStr"/>
-      <c r="K228" t="n">
-        <v>13.3</v>
-      </c>
-      <c r="L228" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M228" t="n">
+      <c r="J228" t="n">
+        <v>0</v>
+      </c>
+      <c r="K228" t="inlineStr"/>
+      <c r="L228" t="inlineStr"/>
+      <c r="M228" t="inlineStr"/>
+      <c r="N228" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9221,24 +10031,21 @@
         <v>33</v>
       </c>
       <c r="G229" t="n">
+        <v>13.78666666666667</v>
+      </c>
+      <c r="H229" t="n">
         <v>13.79333333333331</v>
       </c>
-      <c r="H229" t="n">
-        <v>0</v>
-      </c>
       <c r="I229" t="n">
         <v>0</v>
       </c>
-      <c r="J229" t="inlineStr"/>
-      <c r="K229" t="n">
-        <v>13.3</v>
-      </c>
-      <c r="L229" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M229" t="n">
+      <c r="J229" t="n">
+        <v>0</v>
+      </c>
+      <c r="K229" t="inlineStr"/>
+      <c r="L229" t="inlineStr"/>
+      <c r="M229" t="inlineStr"/>
+      <c r="N229" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9262,24 +10069,21 @@
         <v>13611.0383</v>
       </c>
       <c r="G230" t="n">
+        <v>13.76000000000001</v>
+      </c>
+      <c r="H230" t="n">
         <v>13.79499999999998</v>
       </c>
-      <c r="H230" t="n">
-        <v>0</v>
-      </c>
       <c r="I230" t="n">
         <v>0</v>
       </c>
-      <c r="J230" t="inlineStr"/>
-      <c r="K230" t="n">
-        <v>13.3</v>
-      </c>
-      <c r="L230" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M230" t="n">
+      <c r="J230" t="n">
+        <v>0</v>
+      </c>
+      <c r="K230" t="inlineStr"/>
+      <c r="L230" t="inlineStr"/>
+      <c r="M230" t="inlineStr"/>
+      <c r="N230" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9303,24 +10107,21 @@
         <v>29933.3576</v>
       </c>
       <c r="G231" t="n">
+        <v>13.74666666666667</v>
+      </c>
+      <c r="H231" t="n">
         <v>13.79999999999998</v>
       </c>
-      <c r="H231" t="n">
-        <v>0</v>
-      </c>
       <c r="I231" t="n">
         <v>0</v>
       </c>
-      <c r="J231" t="inlineStr"/>
-      <c r="K231" t="n">
-        <v>13.3</v>
-      </c>
-      <c r="L231" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M231" t="n">
+      <c r="J231" t="n">
+        <v>0</v>
+      </c>
+      <c r="K231" t="inlineStr"/>
+      <c r="L231" t="inlineStr"/>
+      <c r="M231" t="inlineStr"/>
+      <c r="N231" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9344,24 +10145,21 @@
         <v>37937.7047</v>
       </c>
       <c r="G232" t="n">
+        <v>13.73333333333334</v>
+      </c>
+      <c r="H232" t="n">
         <v>13.80333333333331</v>
       </c>
-      <c r="H232" t="n">
-        <v>0</v>
-      </c>
       <c r="I232" t="n">
         <v>0</v>
       </c>
-      <c r="J232" t="inlineStr"/>
-      <c r="K232" t="n">
-        <v>13.3</v>
-      </c>
-      <c r="L232" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M232" t="n">
+      <c r="J232" t="n">
+        <v>0</v>
+      </c>
+      <c r="K232" t="inlineStr"/>
+      <c r="L232" t="inlineStr"/>
+      <c r="M232" t="inlineStr"/>
+      <c r="N232" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9385,24 +10183,21 @@
         <v>12</v>
       </c>
       <c r="G233" t="n">
+        <v>13.73333333333334</v>
+      </c>
+      <c r="H233" t="n">
         <v>13.80666666666664</v>
       </c>
-      <c r="H233" t="n">
-        <v>0</v>
-      </c>
       <c r="I233" t="n">
         <v>0</v>
       </c>
-      <c r="J233" t="inlineStr"/>
-      <c r="K233" t="n">
-        <v>13.3</v>
-      </c>
-      <c r="L233" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M233" t="n">
+      <c r="J233" t="n">
+        <v>0</v>
+      </c>
+      <c r="K233" t="inlineStr"/>
+      <c r="L233" t="inlineStr"/>
+      <c r="M233" t="inlineStr"/>
+      <c r="N233" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9426,24 +10221,21 @@
         <v>488033.2873</v>
       </c>
       <c r="G234" t="n">
+        <v>13.7</v>
+      </c>
+      <c r="H234" t="n">
         <v>13.80333333333331</v>
       </c>
-      <c r="H234" t="n">
-        <v>0</v>
-      </c>
       <c r="I234" t="n">
         <v>0</v>
       </c>
-      <c r="J234" t="inlineStr"/>
-      <c r="K234" t="n">
-        <v>13.3</v>
-      </c>
-      <c r="L234" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M234" t="n">
+      <c r="J234" t="n">
+        <v>0</v>
+      </c>
+      <c r="K234" t="inlineStr"/>
+      <c r="L234" t="inlineStr"/>
+      <c r="M234" t="inlineStr"/>
+      <c r="N234" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9467,24 +10259,21 @@
         <v>34767.155</v>
       </c>
       <c r="G235" t="n">
+        <v>13.68</v>
+      </c>
+      <c r="H235" t="n">
         <v>13.80499999999998</v>
       </c>
-      <c r="H235" t="n">
-        <v>0</v>
-      </c>
       <c r="I235" t="n">
         <v>0</v>
       </c>
-      <c r="J235" t="inlineStr"/>
-      <c r="K235" t="n">
-        <v>13.3</v>
-      </c>
-      <c r="L235" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M235" t="n">
+      <c r="J235" t="n">
+        <v>0</v>
+      </c>
+      <c r="K235" t="inlineStr"/>
+      <c r="L235" t="inlineStr"/>
+      <c r="M235" t="inlineStr"/>
+      <c r="N235" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9508,24 +10297,21 @@
         <v>12</v>
       </c>
       <c r="G236" t="n">
+        <v>13.68</v>
+      </c>
+      <c r="H236" t="n">
         <v>13.80999999999998</v>
       </c>
-      <c r="H236" t="n">
-        <v>0</v>
-      </c>
       <c r="I236" t="n">
         <v>0</v>
       </c>
-      <c r="J236" t="inlineStr"/>
-      <c r="K236" t="n">
-        <v>13.3</v>
-      </c>
-      <c r="L236" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M236" t="n">
+      <c r="J236" t="n">
+        <v>0</v>
+      </c>
+      <c r="K236" t="inlineStr"/>
+      <c r="L236" t="inlineStr"/>
+      <c r="M236" t="inlineStr"/>
+      <c r="N236" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9549,24 +10335,21 @@
         <v>126686.6342</v>
       </c>
       <c r="G237" t="n">
+        <v>13.68</v>
+      </c>
+      <c r="H237" t="n">
         <v>13.81333333333331</v>
       </c>
-      <c r="H237" t="n">
-        <v>0</v>
-      </c>
       <c r="I237" t="n">
         <v>0</v>
       </c>
-      <c r="J237" t="inlineStr"/>
-      <c r="K237" t="n">
-        <v>13.3</v>
-      </c>
-      <c r="L237" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M237" t="n">
+      <c r="J237" t="n">
+        <v>0</v>
+      </c>
+      <c r="K237" t="inlineStr"/>
+      <c r="L237" t="inlineStr"/>
+      <c r="M237" t="inlineStr"/>
+      <c r="N237" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9590,24 +10373,21 @@
         <v>374544.4823</v>
       </c>
       <c r="G238" t="n">
+        <v>13.67333333333334</v>
+      </c>
+      <c r="H238" t="n">
         <v>13.82166666666665</v>
       </c>
-      <c r="H238" t="n">
-        <v>0</v>
-      </c>
       <c r="I238" t="n">
         <v>0</v>
       </c>
-      <c r="J238" t="inlineStr"/>
-      <c r="K238" t="n">
-        <v>13.3</v>
-      </c>
-      <c r="L238" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M238" t="n">
+      <c r="J238" t="n">
+        <v>0</v>
+      </c>
+      <c r="K238" t="inlineStr"/>
+      <c r="L238" t="inlineStr"/>
+      <c r="M238" t="inlineStr"/>
+      <c r="N238" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9631,24 +10411,21 @@
         <v>21011.4617</v>
       </c>
       <c r="G239" t="n">
+        <v>13.66666666666667</v>
+      </c>
+      <c r="H239" t="n">
         <v>13.82499999999998</v>
       </c>
-      <c r="H239" t="n">
-        <v>0</v>
-      </c>
       <c r="I239" t="n">
         <v>0</v>
       </c>
-      <c r="J239" t="inlineStr"/>
-      <c r="K239" t="n">
-        <v>13.3</v>
-      </c>
-      <c r="L239" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M239" t="n">
+      <c r="J239" t="n">
+        <v>0</v>
+      </c>
+      <c r="K239" t="inlineStr"/>
+      <c r="L239" t="inlineStr"/>
+      <c r="M239" t="inlineStr"/>
+      <c r="N239" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9672,24 +10449,21 @@
         <v>46131.792</v>
       </c>
       <c r="G240" t="n">
+        <v>13.66666666666667</v>
+      </c>
+      <c r="H240" t="n">
         <v>13.82499999999998</v>
       </c>
-      <c r="H240" t="n">
-        <v>0</v>
-      </c>
       <c r="I240" t="n">
         <v>0</v>
       </c>
-      <c r="J240" t="inlineStr"/>
-      <c r="K240" t="n">
-        <v>13.3</v>
-      </c>
-      <c r="L240" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M240" t="n">
+      <c r="J240" t="n">
+        <v>0</v>
+      </c>
+      <c r="K240" t="inlineStr"/>
+      <c r="L240" t="inlineStr"/>
+      <c r="M240" t="inlineStr"/>
+      <c r="N240" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9713,24 +10487,21 @@
         <v>14795.8547</v>
       </c>
       <c r="G241" t="n">
+        <v>13.66666666666667</v>
+      </c>
+      <c r="H241" t="n">
         <v>13.82166666666665</v>
       </c>
-      <c r="H241" t="n">
-        <v>0</v>
-      </c>
       <c r="I241" t="n">
         <v>0</v>
       </c>
-      <c r="J241" t="inlineStr"/>
-      <c r="K241" t="n">
-        <v>13.3</v>
-      </c>
-      <c r="L241" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M241" t="n">
+      <c r="J241" t="n">
+        <v>0</v>
+      </c>
+      <c r="K241" t="inlineStr"/>
+      <c r="L241" t="inlineStr"/>
+      <c r="M241" t="inlineStr"/>
+      <c r="N241" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9754,24 +10525,21 @@
         <v>25527.8818</v>
       </c>
       <c r="G242" t="n">
+        <v>13.65333333333333</v>
+      </c>
+      <c r="H242" t="n">
         <v>13.81499999999998</v>
       </c>
-      <c r="H242" t="n">
-        <v>0</v>
-      </c>
       <c r="I242" t="n">
         <v>0</v>
       </c>
-      <c r="J242" t="inlineStr"/>
-      <c r="K242" t="n">
-        <v>13.3</v>
-      </c>
-      <c r="L242" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M242" t="n">
+      <c r="J242" t="n">
+        <v>0</v>
+      </c>
+      <c r="K242" t="inlineStr"/>
+      <c r="L242" t="inlineStr"/>
+      <c r="M242" t="inlineStr"/>
+      <c r="N242" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9795,24 +10563,21 @@
         <v>11270.59</v>
       </c>
       <c r="G243" t="n">
+        <v>13.64666666666667</v>
+      </c>
+      <c r="H243" t="n">
         <v>13.80666666666665</v>
       </c>
-      <c r="H243" t="n">
-        <v>0</v>
-      </c>
       <c r="I243" t="n">
         <v>0</v>
       </c>
-      <c r="J243" t="inlineStr"/>
-      <c r="K243" t="n">
-        <v>13.3</v>
-      </c>
-      <c r="L243" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M243" t="n">
+      <c r="J243" t="n">
+        <v>0</v>
+      </c>
+      <c r="K243" t="inlineStr"/>
+      <c r="L243" t="inlineStr"/>
+      <c r="M243" t="inlineStr"/>
+      <c r="N243" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9836,24 +10601,21 @@
         <v>3854.3684</v>
       </c>
       <c r="G244" t="n">
+        <v>13.64</v>
+      </c>
+      <c r="H244" t="n">
         <v>13.79666666666665</v>
       </c>
-      <c r="H244" t="n">
-        <v>0</v>
-      </c>
       <c r="I244" t="n">
         <v>0</v>
       </c>
-      <c r="J244" t="inlineStr"/>
-      <c r="K244" t="n">
-        <v>13.3</v>
-      </c>
-      <c r="L244" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M244" t="n">
+      <c r="J244" t="n">
+        <v>0</v>
+      </c>
+      <c r="K244" t="inlineStr"/>
+      <c r="L244" t="inlineStr"/>
+      <c r="M244" t="inlineStr"/>
+      <c r="N244" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9877,24 +10639,21 @@
         <v>16593.3227</v>
       </c>
       <c r="G245" t="n">
+        <v>13.65333333333333</v>
+      </c>
+      <c r="H245" t="n">
         <v>13.79166666666665</v>
       </c>
-      <c r="H245" t="n">
-        <v>0</v>
-      </c>
       <c r="I245" t="n">
         <v>0</v>
       </c>
-      <c r="J245" t="inlineStr"/>
-      <c r="K245" t="n">
-        <v>13.3</v>
-      </c>
-      <c r="L245" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M245" t="n">
+      <c r="J245" t="n">
+        <v>0</v>
+      </c>
+      <c r="K245" t="inlineStr"/>
+      <c r="L245" t="inlineStr"/>
+      <c r="M245" t="inlineStr"/>
+      <c r="N245" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9918,24 +10677,21 @@
         <v>19281.4688</v>
       </c>
       <c r="G246" t="n">
+        <v>13.65333333333333</v>
+      </c>
+      <c r="H246" t="n">
         <v>13.78999999999998</v>
       </c>
-      <c r="H246" t="n">
-        <v>0</v>
-      </c>
       <c r="I246" t="n">
         <v>0</v>
       </c>
-      <c r="J246" t="inlineStr"/>
-      <c r="K246" t="n">
-        <v>13.3</v>
-      </c>
-      <c r="L246" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M246" t="n">
+      <c r="J246" t="n">
+        <v>0</v>
+      </c>
+      <c r="K246" t="inlineStr"/>
+      <c r="L246" t="inlineStr"/>
+      <c r="M246" t="inlineStr"/>
+      <c r="N246" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9959,24 +10715,21 @@
         <v>84163.9552</v>
       </c>
       <c r="G247" t="n">
+        <v>13.66</v>
+      </c>
+      <c r="H247" t="n">
         <v>13.78166666666665</v>
       </c>
-      <c r="H247" t="n">
-        <v>0</v>
-      </c>
       <c r="I247" t="n">
         <v>0</v>
       </c>
-      <c r="J247" t="inlineStr"/>
-      <c r="K247" t="n">
-        <v>13.3</v>
-      </c>
-      <c r="L247" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M247" t="n">
+      <c r="J247" t="n">
+        <v>0</v>
+      </c>
+      <c r="K247" t="inlineStr"/>
+      <c r="L247" t="inlineStr"/>
+      <c r="M247" t="inlineStr"/>
+      <c r="N247" t="n">
         <v>1</v>
       </c>
     </row>
@@ -10000,24 +10753,21 @@
         <v>53878.9198</v>
       </c>
       <c r="G248" t="n">
+        <v>13.65333333333333</v>
+      </c>
+      <c r="H248" t="n">
         <v>13.77499999999998</v>
       </c>
-      <c r="H248" t="n">
-        <v>0</v>
-      </c>
       <c r="I248" t="n">
         <v>0</v>
       </c>
-      <c r="J248" t="inlineStr"/>
-      <c r="K248" t="n">
-        <v>13.3</v>
-      </c>
-      <c r="L248" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M248" t="n">
+      <c r="J248" t="n">
+        <v>0</v>
+      </c>
+      <c r="K248" t="inlineStr"/>
+      <c r="L248" t="inlineStr"/>
+      <c r="M248" t="inlineStr"/>
+      <c r="N248" t="n">
         <v>1</v>
       </c>
     </row>
@@ -10041,24 +10791,21 @@
         <v>47557.5405</v>
       </c>
       <c r="G249" t="n">
+        <v>13.68</v>
+      </c>
+      <c r="H249" t="n">
         <v>13.76833333333332</v>
       </c>
-      <c r="H249" t="n">
-        <v>0</v>
-      </c>
       <c r="I249" t="n">
         <v>0</v>
       </c>
-      <c r="J249" t="inlineStr"/>
-      <c r="K249" t="n">
-        <v>13.3</v>
-      </c>
-      <c r="L249" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M249" t="n">
+      <c r="J249" t="n">
+        <v>0</v>
+      </c>
+      <c r="K249" t="inlineStr"/>
+      <c r="L249" t="inlineStr"/>
+      <c r="M249" t="inlineStr"/>
+      <c r="N249" t="n">
         <v>1</v>
       </c>
     </row>
@@ -10082,24 +10829,21 @@
         <v>20885.5401</v>
       </c>
       <c r="G250" t="n">
+        <v>13.68666666666667</v>
+      </c>
+      <c r="H250" t="n">
         <v>13.76166666666665</v>
       </c>
-      <c r="H250" t="n">
-        <v>0</v>
-      </c>
       <c r="I250" t="n">
         <v>0</v>
       </c>
-      <c r="J250" t="inlineStr"/>
-      <c r="K250" t="n">
-        <v>13.3</v>
-      </c>
-      <c r="L250" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M250" t="n">
+      <c r="J250" t="n">
+        <v>0</v>
+      </c>
+      <c r="K250" t="inlineStr"/>
+      <c r="L250" t="inlineStr"/>
+      <c r="M250" t="inlineStr"/>
+      <c r="N250" t="n">
         <v>1</v>
       </c>
     </row>
@@ -10123,24 +10867,21 @@
         <v>22890.7695</v>
       </c>
       <c r="G251" t="n">
+        <v>13.68666666666667</v>
+      </c>
+      <c r="H251" t="n">
         <v>13.75833333333332</v>
       </c>
-      <c r="H251" t="n">
-        <v>0</v>
-      </c>
       <c r="I251" t="n">
         <v>0</v>
       </c>
-      <c r="J251" t="inlineStr"/>
-      <c r="K251" t="n">
-        <v>13.3</v>
-      </c>
-      <c r="L251" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M251" t="n">
+      <c r="J251" t="n">
+        <v>0</v>
+      </c>
+      <c r="K251" t="inlineStr"/>
+      <c r="L251" t="inlineStr"/>
+      <c r="M251" t="inlineStr"/>
+      <c r="N251" t="n">
         <v>1</v>
       </c>
     </row>
@@ -10164,24 +10905,401 @@
         <v>21760.5336</v>
       </c>
       <c r="G252" t="n">
+        <v>13.68666666666667</v>
+      </c>
+      <c r="H252" t="n">
         <v>13.75499999999999</v>
       </c>
-      <c r="H252" t="n">
-        <v>0</v>
-      </c>
       <c r="I252" t="n">
         <v>0</v>
       </c>
-      <c r="J252" t="inlineStr"/>
-      <c r="K252" t="n">
+      <c r="J252" t="n">
+        <v>0</v>
+      </c>
+      <c r="K252" t="inlineStr"/>
+      <c r="L252" t="inlineStr"/>
+      <c r="M252" t="inlineStr"/>
+      <c r="N252" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="253">
+      <c r="A253" s="1" t="n">
+        <v>251</v>
+      </c>
+      <c r="B253" t="n">
+        <v>13.6</v>
+      </c>
+      <c r="C253" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="D253" t="n">
+        <v>13.6</v>
+      </c>
+      <c r="E253" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="F253" t="n">
+        <v>12475.5835</v>
+      </c>
+      <c r="G253" t="n">
+        <v>13.66666666666666</v>
+      </c>
+      <c r="H253" t="n">
+        <v>13.74999999999999</v>
+      </c>
+      <c r="I253" t="n">
+        <v>0</v>
+      </c>
+      <c r="J253" t="n">
+        <v>0</v>
+      </c>
+      <c r="K253" t="inlineStr"/>
+      <c r="L253" t="inlineStr"/>
+      <c r="M253" t="inlineStr"/>
+      <c r="N253" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="254">
+      <c r="A254" s="1" t="n">
+        <v>252</v>
+      </c>
+      <c r="B254" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="C254" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="D254" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="E254" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="F254" t="n">
+        <v>105962.592</v>
+      </c>
+      <c r="G254" t="n">
+        <v>13.65333333333333</v>
+      </c>
+      <c r="H254" t="n">
+        <v>13.74499999999999</v>
+      </c>
+      <c r="I254" t="n">
+        <v>0</v>
+      </c>
+      <c r="J254" t="n">
+        <v>0</v>
+      </c>
+      <c r="K254" t="inlineStr"/>
+      <c r="L254" t="inlineStr"/>
+      <c r="M254" t="inlineStr"/>
+      <c r="N254" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="255">
+      <c r="A255" s="1" t="n">
+        <v>253</v>
+      </c>
+      <c r="B255" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="C255" t="n">
+        <v>13.6</v>
+      </c>
+      <c r="D255" t="n">
+        <v>13.6</v>
+      </c>
+      <c r="E255" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="F255" t="n">
+        <v>28940.7838</v>
+      </c>
+      <c r="G255" t="n">
+        <v>13.64</v>
+      </c>
+      <c r="H255" t="n">
+        <v>13.74333333333332</v>
+      </c>
+      <c r="I255" t="n">
+        <v>0</v>
+      </c>
+      <c r="J255" t="n">
+        <v>0</v>
+      </c>
+      <c r="K255" t="inlineStr"/>
+      <c r="L255" t="inlineStr"/>
+      <c r="M255" t="inlineStr"/>
+      <c r="N255" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="256">
+      <c r="A256" s="1" t="n">
+        <v>254</v>
+      </c>
+      <c r="B256" t="n">
+        <v>13.6</v>
+      </c>
+      <c r="C256" t="n">
+        <v>13.6</v>
+      </c>
+      <c r="D256" t="n">
+        <v>13.6</v>
+      </c>
+      <c r="E256" t="n">
+        <v>13.6</v>
+      </c>
+      <c r="F256" t="n">
+        <v>34937.8676</v>
+      </c>
+      <c r="G256" t="n">
+        <v>13.62666666666666</v>
+      </c>
+      <c r="H256" t="n">
+        <v>13.73833333333332</v>
+      </c>
+      <c r="I256" t="n">
+        <v>0</v>
+      </c>
+      <c r="J256" t="n">
+        <v>0</v>
+      </c>
+      <c r="K256" t="inlineStr"/>
+      <c r="L256" t="inlineStr"/>
+      <c r="M256" t="inlineStr"/>
+      <c r="N256" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="257">
+      <c r="A257" s="1" t="n">
+        <v>255</v>
+      </c>
+      <c r="B257" t="n">
+        <v>13.6</v>
+      </c>
+      <c r="C257" t="n">
+        <v>13.7</v>
+      </c>
+      <c r="D257" t="n">
+        <v>13.7</v>
+      </c>
+      <c r="E257" t="n">
+        <v>13.6</v>
+      </c>
+      <c r="F257" t="n">
+        <v>23</v>
+      </c>
+      <c r="G257" t="n">
+        <v>13.63333333333333</v>
+      </c>
+      <c r="H257" t="n">
+        <v>13.73499999999999</v>
+      </c>
+      <c r="I257" t="n">
+        <v>0</v>
+      </c>
+      <c r="J257" t="n">
+        <v>0</v>
+      </c>
+      <c r="K257" t="inlineStr"/>
+      <c r="L257" t="inlineStr"/>
+      <c r="M257" t="inlineStr"/>
+      <c r="N257" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="258">
+      <c r="A258" s="1" t="n">
+        <v>256</v>
+      </c>
+      <c r="B258" t="n">
+        <v>13.6</v>
+      </c>
+      <c r="C258" t="n">
+        <v>13.6</v>
+      </c>
+      <c r="D258" t="n">
+        <v>13.6</v>
+      </c>
+      <c r="E258" t="n">
+        <v>13.6</v>
+      </c>
+      <c r="F258" t="n">
+        <v>10000</v>
+      </c>
+      <c r="G258" t="n">
+        <v>13.62666666666666</v>
+      </c>
+      <c r="H258" t="n">
+        <v>13.72999999999999</v>
+      </c>
+      <c r="I258" t="n">
+        <v>0</v>
+      </c>
+      <c r="J258" t="n">
+        <v>0</v>
+      </c>
+      <c r="K258" t="inlineStr"/>
+      <c r="L258" t="inlineStr"/>
+      <c r="M258" t="inlineStr"/>
+      <c r="N258" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="259">
+      <c r="A259" s="1" t="n">
+        <v>257</v>
+      </c>
+      <c r="B259" t="n">
+        <v>13.6</v>
+      </c>
+      <c r="C259" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="D259" t="n">
+        <v>13.6</v>
+      </c>
+      <c r="E259" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="F259" t="n">
+        <v>269950.1064</v>
+      </c>
+      <c r="G259" t="n">
+        <v>13.61333333333333</v>
+      </c>
+      <c r="H259" t="n">
+        <v>13.72333333333332</v>
+      </c>
+      <c r="I259" t="n">
+        <v>0</v>
+      </c>
+      <c r="J259" t="n">
+        <v>0</v>
+      </c>
+      <c r="K259" t="inlineStr"/>
+      <c r="L259" t="inlineStr"/>
+      <c r="M259" t="inlineStr"/>
+      <c r="N259" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="260">
+      <c r="A260" s="1" t="n">
+        <v>258</v>
+      </c>
+      <c r="B260" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="C260" t="n">
+        <v>13.6</v>
+      </c>
+      <c r="D260" t="n">
+        <v>13.6</v>
+      </c>
+      <c r="E260" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="F260" t="n">
+        <v>120020</v>
+      </c>
+      <c r="G260" t="n">
+        <v>13.6</v>
+      </c>
+      <c r="H260" t="n">
+        <v>13.71833333333332</v>
+      </c>
+      <c r="I260" t="n">
+        <v>0</v>
+      </c>
+      <c r="J260" t="n">
+        <v>0</v>
+      </c>
+      <c r="K260" t="inlineStr"/>
+      <c r="L260" t="inlineStr"/>
+      <c r="M260" t="inlineStr"/>
+      <c r="N260" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="261">
+      <c r="A261" s="1" t="n">
+        <v>259</v>
+      </c>
+      <c r="B261" t="n">
+        <v>13.4</v>
+      </c>
+      <c r="C261" t="n">
         <v>13.3</v>
       </c>
-      <c r="L252" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M252" t="n">
+      <c r="D261" t="n">
+        <v>13.4</v>
+      </c>
+      <c r="E261" t="n">
+        <v>13.3</v>
+      </c>
+      <c r="F261" t="n">
+        <v>149942.1065</v>
+      </c>
+      <c r="G261" t="n">
+        <v>13.57333333333333</v>
+      </c>
+      <c r="H261" t="n">
+        <v>13.70833333333332</v>
+      </c>
+      <c r="I261" t="n">
+        <v>0</v>
+      </c>
+      <c r="J261" t="n">
+        <v>0</v>
+      </c>
+      <c r="K261" t="inlineStr"/>
+      <c r="L261" t="inlineStr"/>
+      <c r="M261" t="inlineStr"/>
+      <c r="N261" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="262">
+      <c r="A262" s="1" t="n">
+        <v>260</v>
+      </c>
+      <c r="B262" t="n">
+        <v>13.6</v>
+      </c>
+      <c r="C262" t="n">
+        <v>13.3</v>
+      </c>
+      <c r="D262" t="n">
+        <v>13.6</v>
+      </c>
+      <c r="E262" t="n">
+        <v>13.3</v>
+      </c>
+      <c r="F262" t="n">
+        <v>41911.3774</v>
+      </c>
+      <c r="G262" t="n">
+        <v>13.54666666666667</v>
+      </c>
+      <c r="H262" t="n">
+        <v>13.70166666666666</v>
+      </c>
+      <c r="I262" t="n">
+        <v>0</v>
+      </c>
+      <c r="J262" t="n">
+        <v>0</v>
+      </c>
+      <c r="K262" t="inlineStr"/>
+      <c r="L262" t="inlineStr"/>
+      <c r="M262" t="inlineStr"/>
+      <c r="N262" t="n">
         <v>1</v>
       </c>
     </row>

--- a/BackTest/2019-10-19 BackTest RNT.xlsx
+++ b/BackTest/2019-10-19 BackTest RNT.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>OBV</t>
+          <t>CMO</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -451,7 +451,7 @@
         <v>-26873.23270000003</v>
       </c>
       <c r="H2" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -484,7 +484,7 @@
         <v>-50195.24880000003</v>
       </c>
       <c r="H3" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I3" t="n">
         <v>12.5</v>
@@ -521,7 +521,7 @@
         <v>-50213.43060000003</v>
       </c>
       <c r="H4" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I4" t="n">
         <v>12.4</v>
@@ -562,7 +562,7 @@
         <v>-50213.43060000003</v>
       </c>
       <c r="H5" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I5" t="n">
         <v>12.3</v>
@@ -603,7 +603,7 @@
         <v>-50213.43060000003</v>
       </c>
       <c r="H6" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I6" t="n">
         <v>12.3</v>
@@ -640,7 +640,7 @@
         <v>-50201.43060000003</v>
       </c>
       <c r="H7" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I7" t="n">
         <v>12.3</v>
@@ -681,7 +681,7 @@
         <v>-71435.86640000003</v>
       </c>
       <c r="H8" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I8" t="n">
         <v>12.4</v>
@@ -722,7 +722,7 @@
         <v>-71435.86640000003</v>
       </c>
       <c r="H9" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I9" t="n">
         <v>12.2</v>
@@ -763,7 +763,7 @@
         <v>-71435.86640000003</v>
       </c>
       <c r="H10" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I10" t="n">
         <v>12.2</v>
@@ -804,7 +804,7 @@
         <v>-71435.86640000003</v>
       </c>
       <c r="H11" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I11" t="n">
         <v>12.2</v>
@@ -845,7 +845,7 @@
         <v>-71435.86640000003</v>
       </c>
       <c r="H12" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I12" t="n">
         <v>12.2</v>
@@ -886,7 +886,7 @@
         <v>-71435.86640000003</v>
       </c>
       <c r="H13" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I13" t="n">
         <v>12.2</v>
@@ -927,7 +927,7 @@
         <v>-71435.86640000003</v>
       </c>
       <c r="H14" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I14" t="n">
         <v>12.2</v>
@@ -968,7 +968,7 @@
         <v>-70769.46630000003</v>
       </c>
       <c r="H15" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I15" t="n">
         <v>12.2</v>
@@ -1009,7 +1009,7 @@
         <v>-80425.23800000003</v>
       </c>
       <c r="H16" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I16" t="n">
         <v>12.3</v>
@@ -1050,7 +1050,7 @@
         <v>105863.1766</v>
       </c>
       <c r="H17" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I17" t="n">
         <v>12.2</v>
@@ -1091,7 +1091,7 @@
         <v>5862.243799999967</v>
       </c>
       <c r="H18" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I18" t="n">
         <v>12.3</v>
@@ -1132,7 +1132,7 @@
         <v>5862.243799999967</v>
       </c>
       <c r="H19" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I19" t="n">
         <v>12.2</v>
@@ -1173,7 +1173,7 @@
         <v>5862.243799999967</v>
       </c>
       <c r="H20" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I20" t="n">
         <v>12.2</v>
@@ -1214,7 +1214,7 @@
         <v>55619.54579999997</v>
       </c>
       <c r="H21" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I21" t="n">
         <v>12.2</v>
@@ -1255,7 +1255,7 @@
         <v>129903.578</v>
       </c>
       <c r="H22" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I22" t="n">
         <v>12.3</v>
@@ -1296,7 +1296,7 @@
         <v>375257.0738</v>
       </c>
       <c r="H23" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I23" t="n">
         <v>12.4</v>
@@ -1337,7 +1337,7 @@
         <v>201364.2872</v>
       </c>
       <c r="H24" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I24" t="n">
         <v>12.5</v>
@@ -1378,9 +1378,11 @@
         <v>201386.0092</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
-      </c>
-      <c r="I25" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I25" t="n">
+        <v>12.4</v>
+      </c>
       <c r="J25" t="n">
         <v>12.3</v>
       </c>
@@ -1417,9 +1419,11 @@
         <v>201386.0092</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
-      </c>
-      <c r="I26" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I26" t="n">
+        <v>12.5</v>
+      </c>
       <c r="J26" t="n">
         <v>12.3</v>
       </c>
@@ -1495,9 +1499,11 @@
         <v>203563.0092</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
-      </c>
-      <c r="I28" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I28" t="n">
+        <v>12.5</v>
+      </c>
       <c r="J28" t="n">
         <v>12.3</v>
       </c>
@@ -1573,7 +1579,7 @@
         <v>203525.3312</v>
       </c>
       <c r="H30" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I30" t="n">
         <v>12.5</v>
@@ -1614,7 +1620,7 @@
         <v>203525.3312</v>
       </c>
       <c r="H31" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I31" t="n">
         <v>12.5</v>
@@ -1655,11 +1661,9 @@
         <v>203525.3312</v>
       </c>
       <c r="H32" t="n">
-        <v>2</v>
-      </c>
-      <c r="I32" t="n">
-        <v>12.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I32" t="inlineStr"/>
       <c r="J32" t="n">
         <v>12.3</v>
       </c>
@@ -1735,11 +1739,9 @@
         <v>203512.6524</v>
       </c>
       <c r="H34" t="n">
-        <v>2</v>
-      </c>
-      <c r="I34" t="n">
-        <v>12.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I34" t="inlineStr"/>
       <c r="J34" t="n">
         <v>12.3</v>
       </c>
@@ -2361,9 +2363,11 @@
         <v>-9672.937999999975</v>
       </c>
       <c r="H50" t="n">
-        <v>0</v>
-      </c>
-      <c r="I50" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I50" t="n">
+        <v>12.3</v>
+      </c>
       <c r="J50" t="n">
         <v>12.3</v>
       </c>
@@ -2517,9 +2521,11 @@
         <v>-44547.50979999997</v>
       </c>
       <c r="H54" t="n">
-        <v>0</v>
-      </c>
-      <c r="I54" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I54" t="n">
+        <v>12.4</v>
+      </c>
       <c r="J54" t="n">
         <v>12.3</v>
       </c>
@@ -2595,9 +2601,11 @@
         <v>-44667.50979999997</v>
       </c>
       <c r="H56" t="n">
-        <v>0</v>
-      </c>
-      <c r="I56" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I56" t="n">
+        <v>12.3</v>
+      </c>
       <c r="J56" t="n">
         <v>12.3</v>
       </c>
@@ -2634,9 +2642,11 @@
         <v>179621.15</v>
       </c>
       <c r="H57" t="n">
-        <v>0</v>
-      </c>
-      <c r="I57" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I57" t="n">
+        <v>12.2</v>
+      </c>
       <c r="J57" t="n">
         <v>12.3</v>
       </c>
@@ -2673,11 +2683,9 @@
         <v>179675.0996</v>
       </c>
       <c r="H58" t="n">
-        <v>2</v>
-      </c>
-      <c r="I58" t="n">
-        <v>12.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I58" t="inlineStr"/>
       <c r="J58" t="n">
         <v>12.3</v>
       </c>
@@ -2987,11 +2995,9 @@
         <v>254729.5221</v>
       </c>
       <c r="H66" t="n">
-        <v>2</v>
-      </c>
-      <c r="I66" t="n">
-        <v>12.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I66" t="inlineStr"/>
       <c r="J66" t="n">
         <v>12.3</v>
       </c>
@@ -5446,9 +5452,11 @@
         <v>-923151.1001793651</v>
       </c>
       <c r="H129" t="n">
-        <v>0</v>
-      </c>
-      <c r="I129" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I129" t="n">
+        <v>12.4</v>
+      </c>
       <c r="J129" t="n">
         <v>12.3</v>
       </c>
@@ -5563,9 +5571,11 @@
         <v>-928341.1001793651</v>
       </c>
       <c r="H132" t="n">
-        <v>0</v>
-      </c>
-      <c r="I132" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I132" t="n">
+        <v>12.4</v>
+      </c>
       <c r="J132" t="n">
         <v>12.3</v>
       </c>
@@ -5602,9 +5612,11 @@
         <v>-928341.1001793651</v>
       </c>
       <c r="H133" t="n">
-        <v>0</v>
-      </c>
-      <c r="I133" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I133" t="n">
+        <v>12.4</v>
+      </c>
       <c r="J133" t="n">
         <v>12.3</v>
       </c>
@@ -5758,7 +5770,7 @@
         <v>-935919.1001793651</v>
       </c>
       <c r="H137" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I137" t="n">
         <v>12.4</v>
@@ -5799,11 +5811,9 @@
         <v>-935919.1001793651</v>
       </c>
       <c r="H138" t="n">
-        <v>2</v>
-      </c>
-      <c r="I138" t="n">
-        <v>12.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I138" t="inlineStr"/>
       <c r="J138" t="n">
         <v>12.3</v>
       </c>
@@ -5840,9 +5850,11 @@
         <v>-944234.5217793651</v>
       </c>
       <c r="H139" t="n">
-        <v>0</v>
-      </c>
-      <c r="I139" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I139" t="n">
+        <v>12.5</v>
+      </c>
       <c r="J139" t="n">
         <v>12.3</v>
       </c>
@@ -5879,9 +5891,11 @@
         <v>-959233.9291793652</v>
       </c>
       <c r="H140" t="n">
-        <v>0</v>
-      </c>
-      <c r="I140" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I140" t="n">
+        <v>12.4</v>
+      </c>
       <c r="J140" t="n">
         <v>12.3</v>
       </c>
@@ -5918,9 +5932,11 @@
         <v>-958408.7291793652</v>
       </c>
       <c r="H141" t="n">
-        <v>0</v>
-      </c>
-      <c r="I141" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I141" t="n">
+        <v>12.3</v>
+      </c>
       <c r="J141" t="n">
         <v>12.3</v>
       </c>
@@ -5957,9 +5973,11 @@
         <v>-958408.7291793652</v>
       </c>
       <c r="H142" t="n">
-        <v>0</v>
-      </c>
-      <c r="I142" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I142" t="n">
+        <v>12.5</v>
+      </c>
       <c r="J142" t="n">
         <v>12.3</v>
       </c>
@@ -5996,9 +6014,11 @@
         <v>-980408.7291793652</v>
       </c>
       <c r="H143" t="n">
-        <v>0</v>
-      </c>
-      <c r="I143" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I143" t="n">
+        <v>12.5</v>
+      </c>
       <c r="J143" t="n">
         <v>12.3</v>
       </c>
@@ -6035,9 +6055,11 @@
         <v>-980396.7291793652</v>
       </c>
       <c r="H144" t="n">
-        <v>0</v>
-      </c>
-      <c r="I144" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I144" t="n">
+        <v>12.3</v>
+      </c>
       <c r="J144" t="n">
         <v>12.3</v>
       </c>
@@ -6074,9 +6096,11 @@
         <v>-980396.7291793652</v>
       </c>
       <c r="H145" t="n">
-        <v>0</v>
-      </c>
-      <c r="I145" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I145" t="n">
+        <v>12.5</v>
+      </c>
       <c r="J145" t="n">
         <v>12.3</v>
       </c>
@@ -6113,9 +6137,11 @@
         <v>-980396.7291793652</v>
       </c>
       <c r="H146" t="n">
-        <v>0</v>
-      </c>
-      <c r="I146" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I146" t="n">
+        <v>12.5</v>
+      </c>
       <c r="J146" t="n">
         <v>12.3</v>
       </c>
@@ -6152,9 +6178,11 @@
         <v>-980396.7291793652</v>
       </c>
       <c r="H147" t="n">
-        <v>0</v>
-      </c>
-      <c r="I147" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I147" t="n">
+        <v>12.5</v>
+      </c>
       <c r="J147" t="n">
         <v>12.3</v>
       </c>
@@ -6191,9 +6219,11 @@
         <v>-981341.7669793653</v>
       </c>
       <c r="H148" t="n">
-        <v>0</v>
-      </c>
-      <c r="I148" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I148" t="n">
+        <v>12.5</v>
+      </c>
       <c r="J148" t="n">
         <v>12.3</v>
       </c>
@@ -6230,9 +6260,11 @@
         <v>-981341.7669793653</v>
       </c>
       <c r="H149" t="n">
-        <v>0</v>
-      </c>
-      <c r="I149" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I149" t="n">
+        <v>12.4</v>
+      </c>
       <c r="J149" t="n">
         <v>12.3</v>
       </c>
@@ -6269,9 +6301,11 @@
         <v>-980336.0527793652</v>
       </c>
       <c r="H150" t="n">
-        <v>0</v>
-      </c>
-      <c r="I150" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I150" t="n">
+        <v>12.4</v>
+      </c>
       <c r="J150" t="n">
         <v>12.3</v>
       </c>
@@ -6308,9 +6342,11 @@
         <v>-980336.0527793652</v>
       </c>
       <c r="H151" t="n">
-        <v>0</v>
-      </c>
-      <c r="I151" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I151" t="n">
+        <v>12.6</v>
+      </c>
       <c r="J151" t="n">
         <v>12.3</v>
       </c>
@@ -6386,7 +6422,7 @@
         <v>-983978.7227793653</v>
       </c>
       <c r="H153" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I153" t="n">
         <v>12.4</v>
@@ -6427,7 +6463,7 @@
         <v>-983978.7227793653</v>
       </c>
       <c r="H154" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I154" t="n">
         <v>12.4</v>
@@ -6468,7 +6504,7 @@
         <v>-968790.8027793652</v>
       </c>
       <c r="H155" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I155" t="n">
         <v>12.4</v>
@@ -6509,7 +6545,7 @@
         <v>-968790.8027793652</v>
       </c>
       <c r="H156" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I156" t="n">
         <v>12.5</v>
@@ -6550,7 +6586,7 @@
         <v>-967351.3481793652</v>
       </c>
       <c r="H157" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I157" t="n">
         <v>12.5</v>
@@ -6591,7 +6627,7 @@
         <v>-999983.5631793651</v>
       </c>
       <c r="H158" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I158" t="n">
         <v>12.6</v>
@@ -6632,7 +6668,7 @@
         <v>-999983.5631793651</v>
       </c>
       <c r="H159" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I159" t="n">
         <v>12.5</v>
@@ -6673,9 +6709,11 @@
         <v>-999983.5631793651</v>
       </c>
       <c r="H160" t="n">
-        <v>0</v>
-      </c>
-      <c r="I160" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I160" t="n">
+        <v>12.5</v>
+      </c>
       <c r="J160" t="n">
         <v>12.3</v>
       </c>
@@ -6712,9 +6750,11 @@
         <v>-999983.5631793651</v>
       </c>
       <c r="H161" t="n">
-        <v>0</v>
-      </c>
-      <c r="I161" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I161" t="n">
+        <v>12.5</v>
+      </c>
       <c r="J161" t="n">
         <v>12.3</v>
       </c>
@@ -6751,9 +6791,11 @@
         <v>-999983.5631793651</v>
       </c>
       <c r="H162" t="n">
-        <v>0</v>
-      </c>
-      <c r="I162" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I162" t="n">
+        <v>12.5</v>
+      </c>
       <c r="J162" t="n">
         <v>12.3</v>
       </c>
@@ -6790,9 +6832,11 @@
         <v>-999983.5631793651</v>
       </c>
       <c r="H163" t="n">
-        <v>0</v>
-      </c>
-      <c r="I163" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I163" t="n">
+        <v>12.5</v>
+      </c>
       <c r="J163" t="n">
         <v>12.3</v>
       </c>
@@ -6829,9 +6873,11 @@
         <v>-999983.5631793651</v>
       </c>
       <c r="H164" t="n">
-        <v>0</v>
-      </c>
-      <c r="I164" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I164" t="n">
+        <v>12.5</v>
+      </c>
       <c r="J164" t="n">
         <v>12.3</v>
       </c>
@@ -6868,9 +6914,11 @@
         <v>-1103839.670879365</v>
       </c>
       <c r="H165" t="n">
-        <v>0</v>
-      </c>
-      <c r="I165" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I165" t="n">
+        <v>12.5</v>
+      </c>
       <c r="J165" t="n">
         <v>12.3</v>
       </c>
@@ -6907,9 +6955,11 @@
         <v>-1103829.670879365</v>
       </c>
       <c r="H166" t="n">
-        <v>0</v>
-      </c>
-      <c r="I166" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I166" t="n">
+        <v>12.4</v>
+      </c>
       <c r="J166" t="n">
         <v>12.3</v>
       </c>
@@ -6946,9 +6996,11 @@
         <v>-1106073.950879365</v>
       </c>
       <c r="H167" t="n">
-        <v>0</v>
-      </c>
-      <c r="I167" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I167" t="n">
+        <v>12.5</v>
+      </c>
       <c r="J167" t="n">
         <v>12.3</v>
       </c>
@@ -6985,9 +7037,11 @@
         <v>-1106036.030879365</v>
       </c>
       <c r="H168" t="n">
-        <v>0</v>
-      </c>
-      <c r="I168" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I168" t="n">
+        <v>12.4</v>
+      </c>
       <c r="J168" t="n">
         <v>12.3</v>
       </c>
@@ -7024,9 +7078,11 @@
         <v>-1106026.030879365</v>
       </c>
       <c r="H169" t="n">
-        <v>0</v>
-      </c>
-      <c r="I169" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I169" t="n">
+        <v>12.5</v>
+      </c>
       <c r="J169" t="n">
         <v>12.3</v>
       </c>
@@ -7063,9 +7119,11 @@
         <v>-1182680.230879365</v>
       </c>
       <c r="H170" t="n">
-        <v>0</v>
-      </c>
-      <c r="I170" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I170" t="n">
+        <v>12.6</v>
+      </c>
       <c r="J170" t="n">
         <v>12.3</v>
       </c>
@@ -7102,9 +7160,11 @@
         <v>-1169329.497479365</v>
       </c>
       <c r="H171" t="n">
-        <v>0</v>
-      </c>
-      <c r="I171" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I171" t="n">
+        <v>12.4</v>
+      </c>
       <c r="J171" t="n">
         <v>12.3</v>
       </c>
@@ -7141,9 +7201,11 @@
         <v>-1178018.764079365</v>
       </c>
       <c r="H172" t="n">
-        <v>0</v>
-      </c>
-      <c r="I172" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I172" t="n">
+        <v>12.6</v>
+      </c>
       <c r="J172" t="n">
         <v>12.3</v>
       </c>
@@ -7180,9 +7242,11 @@
         <v>-1177015.564179365</v>
       </c>
       <c r="H173" t="n">
-        <v>0</v>
-      </c>
-      <c r="I173" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I173" t="n">
+        <v>12.5</v>
+      </c>
       <c r="J173" t="n">
         <v>12.3</v>
       </c>
@@ -7219,9 +7283,11 @@
         <v>-1182632.164179365</v>
       </c>
       <c r="H174" t="n">
-        <v>0</v>
-      </c>
-      <c r="I174" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I174" t="n">
+        <v>12.6</v>
+      </c>
       <c r="J174" t="n">
         <v>12.3</v>
       </c>
@@ -7258,9 +7324,11 @@
         <v>-1133509.386479365</v>
       </c>
       <c r="H175" t="n">
-        <v>0</v>
-      </c>
-      <c r="I175" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I175" t="n">
+        <v>12.5</v>
+      </c>
       <c r="J175" t="n">
         <v>12.3</v>
       </c>
@@ -7297,9 +7365,11 @@
         <v>-1133509.386479365</v>
       </c>
       <c r="H176" t="n">
-        <v>0</v>
-      </c>
-      <c r="I176" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I176" t="n">
+        <v>12.6</v>
+      </c>
       <c r="J176" t="n">
         <v>12.3</v>
       </c>
@@ -7336,7 +7406,7 @@
         <v>-1137846.532279365</v>
       </c>
       <c r="H177" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I177" t="n">
         <v>12.6</v>
@@ -7377,7 +7447,7 @@
         <v>-1137816.532279365</v>
       </c>
       <c r="H178" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I178" t="n">
         <v>12.5</v>
@@ -7418,7 +7488,7 @@
         <v>-1138903.863179365</v>
       </c>
       <c r="H179" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I179" t="n">
         <v>12.7</v>
@@ -7459,7 +7529,7 @@
         <v>-1209047.322579365</v>
       </c>
       <c r="H180" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I180" t="n">
         <v>12.5</v>
@@ -7500,7 +7570,7 @@
         <v>-1203927.280579366</v>
       </c>
       <c r="H181" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I181" t="n">
         <v>12.4</v>
@@ -7541,7 +7611,7 @@
         <v>-1203915.280579366</v>
       </c>
       <c r="H182" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I182" t="n">
         <v>12.5</v>
@@ -7582,7 +7652,7 @@
         <v>-1203915.280579366</v>
       </c>
       <c r="H183" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I183" t="n">
         <v>12.8</v>
@@ -7623,7 +7693,7 @@
         <v>-1177805.432347389</v>
       </c>
       <c r="H184" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I184" t="n">
         <v>12.8</v>
@@ -7664,7 +7734,7 @@
         <v>-1177805.432347389</v>
       </c>
       <c r="H185" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I185" t="n">
         <v>12.9</v>
@@ -7705,7 +7775,7 @@
         <v>-1177805.432347389</v>
       </c>
       <c r="H186" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I186" t="n">
         <v>12.9</v>
@@ -7785,11 +7855,9 @@
         <v>-287266.8217834182</v>
       </c>
       <c r="H188" t="n">
-        <v>2</v>
-      </c>
-      <c r="I188" t="n">
-        <v>13.1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I188" t="inlineStr"/>
       <c r="J188" t="n">
         <v>12.3</v>
       </c>
@@ -8060,7 +8128,7 @@
         <v>687233.6675282606</v>
       </c>
       <c r="H195" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I195" t="inlineStr"/>
       <c r="J195" t="n">
@@ -8918,7 +8986,7 @@
         <v>731410.7992282608</v>
       </c>
       <c r="H217" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I217" t="inlineStr"/>
       <c r="J217" t="n">
@@ -8996,7 +9064,7 @@
         <v>445218.924413975</v>
       </c>
       <c r="H219" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I219" t="inlineStr"/>
       <c r="J219" t="n">
@@ -9074,7 +9142,7 @@
         <v>551412.030413975</v>
       </c>
       <c r="H221" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I221" t="inlineStr"/>
       <c r="J221" t="n">
@@ -9152,7 +9220,7 @@
         <v>515152.030413975</v>
       </c>
       <c r="H223" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I223" t="inlineStr"/>
       <c r="J223" t="n">
@@ -9542,7 +9610,7 @@
         <v>476351.952113975</v>
       </c>
       <c r="H233" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I233" t="inlineStr"/>
       <c r="J233" t="n">
@@ -9620,7 +9688,7 @@
         <v>378876.548413975</v>
       </c>
       <c r="H235" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I235" t="inlineStr"/>
       <c r="J235" t="n">
@@ -9893,7 +9961,7 @@
         <v>1537206.137675514</v>
       </c>
       <c r="H242" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I242" t="inlineStr"/>
       <c r="J242" t="n">
@@ -9901,15 +9969,13 @@
       </c>
       <c r="K242" t="inlineStr">
         <is>
-          <t>매도 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L242" t="n">
-        <v>1.15760162601626</v>
-      </c>
-      <c r="M242" t="n">
-        <v>1.016260162601626</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="M242" t="inlineStr"/>
     </row>
     <row r="243">
       <c r="A243" s="1" t="n">
@@ -9934,11 +10000,17 @@
         <v>1252285.299875514</v>
       </c>
       <c r="H243" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I243" t="inlineStr"/>
-      <c r="J243" t="inlineStr"/>
-      <c r="K243" t="inlineStr"/>
+      <c r="J243" t="n">
+        <v>12.3</v>
+      </c>
+      <c r="K243" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L243" t="n">
         <v>1</v>
       </c>
@@ -9967,11 +10039,17 @@
         <v>897937.0358755137</v>
       </c>
       <c r="H244" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I244" t="inlineStr"/>
-      <c r="J244" t="inlineStr"/>
-      <c r="K244" t="inlineStr"/>
+      <c r="J244" t="n">
+        <v>12.3</v>
+      </c>
+      <c r="K244" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L244" t="n">
         <v>1</v>
       </c>
@@ -10000,11 +10078,17 @@
         <v>1303907.855875514</v>
       </c>
       <c r="H245" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I245" t="inlineStr"/>
-      <c r="J245" t="inlineStr"/>
-      <c r="K245" t="inlineStr"/>
+      <c r="J245" t="n">
+        <v>12.3</v>
+      </c>
+      <c r="K245" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L245" t="n">
         <v>1</v>
       </c>
@@ -10033,11 +10117,17 @@
         <v>1269455.040675514</v>
       </c>
       <c r="H246" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I246" t="inlineStr"/>
-      <c r="J246" t="inlineStr"/>
-      <c r="K246" t="inlineStr"/>
+      <c r="J246" t="n">
+        <v>12.3</v>
+      </c>
+      <c r="K246" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L246" t="n">
         <v>1</v>
       </c>
@@ -10069,8 +10159,14 @@
         <v>0</v>
       </c>
       <c r="I247" t="inlineStr"/>
-      <c r="J247" t="inlineStr"/>
-      <c r="K247" t="inlineStr"/>
+      <c r="J247" t="n">
+        <v>12.3</v>
+      </c>
+      <c r="K247" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L247" t="n">
         <v>1</v>
       </c>
@@ -10102,8 +10198,14 @@
         <v>0</v>
       </c>
       <c r="I248" t="inlineStr"/>
-      <c r="J248" t="inlineStr"/>
-      <c r="K248" t="inlineStr"/>
+      <c r="J248" t="n">
+        <v>12.3</v>
+      </c>
+      <c r="K248" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L248" t="n">
         <v>1</v>
       </c>
@@ -10132,11 +10234,17 @@
         <v>977106.1821755137</v>
       </c>
       <c r="H249" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I249" t="inlineStr"/>
-      <c r="J249" t="inlineStr"/>
-      <c r="K249" t="inlineStr"/>
+      <c r="J249" t="n">
+        <v>12.3</v>
+      </c>
+      <c r="K249" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L249" t="n">
         <v>1</v>
       </c>
@@ -10165,11 +10273,17 @@
         <v>977106.1821755137</v>
       </c>
       <c r="H250" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I250" t="inlineStr"/>
-      <c r="J250" t="inlineStr"/>
-      <c r="K250" t="inlineStr"/>
+      <c r="J250" t="n">
+        <v>12.3</v>
+      </c>
+      <c r="K250" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L250" t="n">
         <v>1</v>
       </c>
@@ -10198,15 +10312,23 @@
         <v>977106.1821755137</v>
       </c>
       <c r="H251" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I251" t="inlineStr"/>
-      <c r="J251" t="inlineStr"/>
-      <c r="K251" t="inlineStr"/>
+      <c r="J251" t="n">
+        <v>12.3</v>
+      </c>
+      <c r="K251" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
       <c r="L251" t="n">
-        <v>1</v>
-      </c>
-      <c r="M251" t="inlineStr"/>
+        <v>1.116951219512195</v>
+      </c>
+      <c r="M251" t="n">
+        <v>1.016260162601626</v>
+      </c>
     </row>
     <row r="252">
       <c r="A252" s="1" t="n">
@@ -10231,7 +10353,7 @@
         <v>977106.1821755137</v>
       </c>
       <c r="H252" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I252" t="inlineStr"/>
       <c r="J252" t="inlineStr"/>
@@ -10264,7 +10386,7 @@
         <v>802429.3555755137</v>
       </c>
       <c r="H253" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I253" t="inlineStr"/>
       <c r="J253" t="inlineStr"/>
@@ -10297,7 +10419,7 @@
         <v>802439.3555755137</v>
       </c>
       <c r="H254" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I254" t="inlineStr"/>
       <c r="J254" t="inlineStr"/>
@@ -10330,7 +10452,7 @@
         <v>802439.3555755137</v>
       </c>
       <c r="H255" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I255" t="inlineStr"/>
       <c r="J255" t="inlineStr"/>
@@ -10363,7 +10485,7 @@
         <v>802439.3555755137</v>
       </c>
       <c r="H256" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I256" t="inlineStr"/>
       <c r="J256" t="inlineStr"/>
@@ -10396,7 +10518,7 @@
         <v>802439.3555755137</v>
       </c>
       <c r="H257" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I257" t="inlineStr"/>
       <c r="J257" t="inlineStr"/>
@@ -10429,7 +10551,7 @@
         <v>802439.3555755137</v>
       </c>
       <c r="H258" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I258" t="inlineStr"/>
       <c r="J258" t="inlineStr"/>
@@ -10462,7 +10584,7 @@
         <v>802439.3555755137</v>
       </c>
       <c r="H259" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I259" t="inlineStr"/>
       <c r="J259" t="inlineStr"/>
@@ -10495,7 +10617,7 @@
         <v>730818.5671755137</v>
       </c>
       <c r="H260" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I260" t="inlineStr"/>
       <c r="J260" t="inlineStr"/>
@@ -10528,7 +10650,7 @@
         <v>730818.5671755137</v>
       </c>
       <c r="H261" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I261" t="inlineStr"/>
       <c r="J261" t="inlineStr"/>
@@ -10561,7 +10683,7 @@
         <v>730818.5671755137</v>
       </c>
       <c r="H262" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I262" t="inlineStr"/>
       <c r="J262" t="inlineStr"/>
@@ -10594,7 +10716,7 @@
         <v>730830.5671755137</v>
       </c>
       <c r="H263" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I263" t="inlineStr"/>
       <c r="J263" t="inlineStr"/>
@@ -10627,7 +10749,7 @@
         <v>727081.6834755137</v>
       </c>
       <c r="H264" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I264" t="inlineStr"/>
       <c r="J264" t="inlineStr"/>
@@ -10660,7 +10782,7 @@
         <v>727081.6834755137</v>
       </c>
       <c r="H265" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I265" t="inlineStr"/>
       <c r="J265" t="inlineStr"/>
@@ -10693,7 +10815,7 @@
         <v>727081.6834755137</v>
       </c>
       <c r="H266" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I266" t="inlineStr"/>
       <c r="J266" t="inlineStr"/>
@@ -10726,7 +10848,7 @@
         <v>727141.6834755137</v>
       </c>
       <c r="H267" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I267" t="inlineStr"/>
       <c r="J267" t="inlineStr"/>
@@ -10759,7 +10881,7 @@
         <v>726963.6834755137</v>
       </c>
       <c r="H268" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I268" t="inlineStr"/>
       <c r="J268" t="inlineStr"/>
@@ -10792,7 +10914,7 @@
         <v>726963.6834755137</v>
       </c>
       <c r="H269" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I269" t="inlineStr"/>
       <c r="J269" t="inlineStr"/>
@@ -10825,7 +10947,7 @@
         <v>726963.6834755137</v>
       </c>
       <c r="H270" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I270" t="inlineStr"/>
       <c r="J270" t="inlineStr"/>
@@ -10858,7 +10980,7 @@
         <v>726963.6834755137</v>
       </c>
       <c r="H271" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I271" t="inlineStr"/>
       <c r="J271" t="inlineStr"/>
@@ -10891,7 +11013,7 @@
         <v>726963.6834755137</v>
       </c>
       <c r="H272" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I272" t="inlineStr"/>
       <c r="J272" t="inlineStr"/>
@@ -10924,7 +11046,7 @@
         <v>751728.5047755137</v>
       </c>
       <c r="H273" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I273" t="inlineStr"/>
       <c r="J273" t="inlineStr"/>
@@ -10957,7 +11079,7 @@
         <v>743203.5047755137</v>
       </c>
       <c r="H274" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I274" t="inlineStr"/>
       <c r="J274" t="inlineStr"/>
@@ -11056,7 +11178,7 @@
         <v>665732.5958755137</v>
       </c>
       <c r="H277" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I277" t="inlineStr"/>
       <c r="J277" t="inlineStr"/>
@@ -11089,7 +11211,7 @@
         <v>674895.7117755137</v>
       </c>
       <c r="H278" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I278" t="inlineStr"/>
       <c r="J278" t="inlineStr"/>
@@ -11122,7 +11244,7 @@
         <v>654723.8617755137</v>
       </c>
       <c r="H279" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I279" t="inlineStr"/>
       <c r="J279" t="inlineStr"/>
@@ -11155,7 +11277,7 @@
         <v>654723.8617755137</v>
       </c>
       <c r="H280" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I280" t="inlineStr"/>
       <c r="J280" t="inlineStr"/>
@@ -11188,7 +11310,7 @@
         <v>665723.8617755137</v>
       </c>
       <c r="H281" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I281" t="inlineStr"/>
       <c r="J281" t="inlineStr"/>
@@ -11221,7 +11343,7 @@
         <v>660223.8617755137</v>
       </c>
       <c r="H282" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I282" t="inlineStr"/>
       <c r="J282" t="inlineStr"/>
@@ -11254,7 +11376,7 @@
         <v>660223.8617755137</v>
       </c>
       <c r="H283" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I283" t="inlineStr"/>
       <c r="J283" t="inlineStr"/>
@@ -11287,7 +11409,7 @@
         <v>660223.8617755137</v>
       </c>
       <c r="H284" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I284" t="inlineStr"/>
       <c r="J284" t="inlineStr"/>
@@ -11320,7 +11442,7 @@
         <v>660223.8617755137</v>
       </c>
       <c r="H285" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I285" t="inlineStr"/>
       <c r="J285" t="inlineStr"/>
@@ -11353,7 +11475,7 @@
         <v>660223.8617755137</v>
       </c>
       <c r="H286" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I286" t="inlineStr"/>
       <c r="J286" t="inlineStr"/>
@@ -11386,7 +11508,7 @@
         <v>660223.8617755137</v>
       </c>
       <c r="H287" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I287" t="inlineStr"/>
       <c r="J287" t="inlineStr"/>
@@ -11419,7 +11541,7 @@
         <v>646612.8234755137</v>
       </c>
       <c r="H288" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I288" t="inlineStr"/>
       <c r="J288" t="inlineStr"/>
@@ -11452,7 +11574,7 @@
         <v>676546.1810755137</v>
       </c>
       <c r="H289" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I289" t="inlineStr"/>
       <c r="J289" t="inlineStr"/>
@@ -11485,7 +11607,7 @@
         <v>638608.4763755137</v>
       </c>
       <c r="H290" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I290" t="inlineStr"/>
       <c r="J290" t="inlineStr"/>
@@ -11518,7 +11640,7 @@
         <v>638620.4763755137</v>
       </c>
       <c r="H291" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I291" t="inlineStr"/>
       <c r="J291" t="inlineStr"/>
@@ -11551,7 +11673,7 @@
         <v>150587.1890755137</v>
       </c>
       <c r="H292" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I292" t="inlineStr"/>
       <c r="J292" t="inlineStr"/>
@@ -11584,7 +11706,7 @@
         <v>185354.3440755137</v>
       </c>
       <c r="H293" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I293" t="inlineStr"/>
       <c r="J293" t="inlineStr"/>
@@ -11617,7 +11739,7 @@
         <v>185366.3440755137</v>
       </c>
       <c r="H294" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I294" t="inlineStr"/>
       <c r="J294" t="inlineStr"/>
@@ -11650,7 +11772,7 @@
         <v>185366.3440755137</v>
       </c>
       <c r="H295" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I295" t="inlineStr"/>
       <c r="J295" t="inlineStr"/>
@@ -11683,7 +11805,7 @@
         <v>559910.8263755137</v>
       </c>
       <c r="H296" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I296" t="inlineStr"/>
       <c r="J296" t="inlineStr"/>
@@ -11716,7 +11838,7 @@
         <v>538899.3646755137</v>
       </c>
       <c r="H297" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I297" t="inlineStr"/>
       <c r="J297" t="inlineStr"/>
@@ -11749,7 +11871,7 @@
         <v>585031.1566755137</v>
       </c>
       <c r="H298" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I298" t="inlineStr"/>
       <c r="J298" t="inlineStr"/>
@@ -11782,7 +11904,7 @@
         <v>585031.1566755137</v>
       </c>
       <c r="H299" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I299" t="inlineStr"/>
       <c r="J299" t="inlineStr"/>
@@ -11881,7 +12003,7 @@
         <v>570773.8648755137</v>
       </c>
       <c r="H302" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I302" t="inlineStr"/>
       <c r="J302" t="inlineStr"/>
@@ -11914,7 +12036,7 @@
         <v>587367.1875755137</v>
       </c>
       <c r="H303" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I303" t="inlineStr"/>
       <c r="J303" t="inlineStr"/>
@@ -11947,7 +12069,7 @@
         <v>568085.7187755137</v>
       </c>
       <c r="H304" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I304" t="inlineStr"/>
       <c r="J304" t="inlineStr"/>
@@ -11980,7 +12102,7 @@
         <v>568085.7187755137</v>
       </c>
       <c r="H305" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I305" t="inlineStr"/>
       <c r="J305" t="inlineStr"/>
@@ -12013,7 +12135,7 @@
         <v>514206.7989755137</v>
       </c>
       <c r="H306" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I306" t="inlineStr"/>
       <c r="J306" t="inlineStr"/>
@@ -12046,7 +12168,7 @@
         <v>514206.7989755137</v>
       </c>
       <c r="H307" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I307" t="inlineStr"/>
       <c r="J307" t="inlineStr"/>
@@ -12079,7 +12201,7 @@
         <v>514206.7989755137</v>
       </c>
       <c r="H308" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I308" t="inlineStr"/>
       <c r="J308" t="inlineStr"/>
@@ -12112,7 +12234,7 @@
         <v>514206.7989755137</v>
       </c>
       <c r="H309" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I309" t="inlineStr"/>
       <c r="J309" t="inlineStr"/>
@@ -12178,7 +12300,7 @@
         <v>501731.2154755137</v>
       </c>
       <c r="H311" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I311" t="inlineStr"/>
       <c r="J311" t="inlineStr"/>
@@ -12244,7 +12366,7 @@
         <v>530671.9992755137</v>
       </c>
       <c r="H313" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I313" t="inlineStr"/>
       <c r="J313" t="inlineStr"/>
@@ -12277,7 +12399,7 @@
         <v>530671.9992755137</v>
       </c>
       <c r="H314" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I314" t="inlineStr"/>
       <c r="J314" t="inlineStr"/>
@@ -12310,7 +12432,7 @@
         <v>530694.9992755137</v>
       </c>
       <c r="H315" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I315" t="inlineStr"/>
       <c r="J315" t="inlineStr"/>
@@ -12442,7 +12564,7 @@
         <v>220822.7863755137</v>
       </c>
       <c r="H319" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I319" t="inlineStr"/>
       <c r="J319" t="inlineStr"/>
@@ -12475,7 +12597,7 @@
         <v>220822.7863755137</v>
       </c>
       <c r="H320" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I320" t="inlineStr"/>
       <c r="J320" t="inlineStr"/>
@@ -12486,6 +12608,6 @@
       <c r="M320" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
--- a/BackTest/2019-10-19 BackTest RNT.xlsx
+++ b/BackTest/2019-10-19 BackTest RNT.xlsx
@@ -5500,10 +5500,14 @@
         <v>-968790.8027793652</v>
       </c>
       <c r="H155" t="n">
-        <v>0</v>
-      </c>
-      <c r="I155" t="inlineStr"/>
-      <c r="J155" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I155" t="n">
+        <v>12.4</v>
+      </c>
+      <c r="J155" t="n">
+        <v>12.4</v>
+      </c>
       <c r="K155" t="inlineStr"/>
       <c r="L155" t="n">
         <v>1</v>
@@ -5536,8 +5540,14 @@
         <v>0</v>
       </c>
       <c r="I156" t="inlineStr"/>
-      <c r="J156" t="inlineStr"/>
-      <c r="K156" t="inlineStr"/>
+      <c r="J156" t="n">
+        <v>12.4</v>
+      </c>
+      <c r="K156" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L156" t="n">
         <v>1</v>
       </c>
@@ -5569,8 +5579,14 @@
         <v>0</v>
       </c>
       <c r="I157" t="inlineStr"/>
-      <c r="J157" t="inlineStr"/>
-      <c r="K157" t="inlineStr"/>
+      <c r="J157" t="n">
+        <v>12.4</v>
+      </c>
+      <c r="K157" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L157" t="n">
         <v>1</v>
       </c>
@@ -5698,10 +5714,14 @@
         <v>-999983.5631793651</v>
       </c>
       <c r="H161" t="n">
-        <v>0</v>
-      </c>
-      <c r="I161" t="inlineStr"/>
-      <c r="J161" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I161" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="J161" t="n">
+        <v>12.5</v>
+      </c>
       <c r="K161" t="inlineStr"/>
       <c r="L161" t="n">
         <v>1</v>
@@ -5731,11 +5751,19 @@
         <v>-999983.5631793651</v>
       </c>
       <c r="H162" t="n">
-        <v>0</v>
-      </c>
-      <c r="I162" t="inlineStr"/>
-      <c r="J162" t="inlineStr"/>
-      <c r="K162" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I162" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="J162" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="K162" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L162" t="n">
         <v>1</v>
       </c>
@@ -5764,11 +5792,19 @@
         <v>-999983.5631793651</v>
       </c>
       <c r="H163" t="n">
-        <v>0</v>
-      </c>
-      <c r="I163" t="inlineStr"/>
-      <c r="J163" t="inlineStr"/>
-      <c r="K163" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I163" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="J163" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="K163" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L163" t="n">
         <v>1</v>
       </c>
@@ -5797,10 +5833,14 @@
         <v>-999983.5631793651</v>
       </c>
       <c r="H164" t="n">
-        <v>0</v>
-      </c>
-      <c r="I164" t="inlineStr"/>
-      <c r="J164" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I164" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="J164" t="n">
+        <v>12.5</v>
+      </c>
       <c r="K164" t="inlineStr"/>
       <c r="L164" t="n">
         <v>1</v>
@@ -5830,11 +5870,19 @@
         <v>-1103839.670879365</v>
       </c>
       <c r="H165" t="n">
-        <v>0</v>
-      </c>
-      <c r="I165" t="inlineStr"/>
-      <c r="J165" t="inlineStr"/>
-      <c r="K165" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I165" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="J165" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="K165" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L165" t="n">
         <v>1</v>
       </c>
@@ -5863,11 +5911,19 @@
         <v>-1103829.670879365</v>
       </c>
       <c r="H166" t="n">
-        <v>0</v>
-      </c>
-      <c r="I166" t="inlineStr"/>
-      <c r="J166" t="inlineStr"/>
-      <c r="K166" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I166" t="n">
+        <v>12.4</v>
+      </c>
+      <c r="J166" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="K166" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L166" t="n">
         <v>1</v>
       </c>
@@ -5974,11 +6030,9 @@
         <v>-1106026.030879365</v>
       </c>
       <c r="H169" t="n">
-        <v>1</v>
-      </c>
-      <c r="I169" t="n">
-        <v>12.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I169" t="inlineStr"/>
       <c r="J169" t="n">
         <v>12.5</v>
       </c>
@@ -6015,585 +6069,565 @@
         <v>-1182680.230879365</v>
       </c>
       <c r="H170" t="n">
-        <v>1</v>
-      </c>
-      <c r="I170" t="n">
+        <v>0</v>
+      </c>
+      <c r="I170" t="inlineStr"/>
+      <c r="J170" t="inlineStr"/>
+      <c r="K170" t="inlineStr"/>
+      <c r="L170" t="n">
+        <v>1</v>
+      </c>
+      <c r="M170" t="inlineStr"/>
+    </row>
+    <row r="171">
+      <c r="A171" s="1" t="n">
+        <v>169</v>
+      </c>
+      <c r="B171" t="n">
         <v>12.6</v>
       </c>
-      <c r="J170" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="K170" t="inlineStr">
+      <c r="C171" t="n">
+        <v>12.6</v>
+      </c>
+      <c r="D171" t="n">
+        <v>12.6</v>
+      </c>
+      <c r="E171" t="n">
+        <v>12.6</v>
+      </c>
+      <c r="F171" t="n">
+        <v>13350.7334</v>
+      </c>
+      <c r="G171" t="n">
+        <v>-1169329.497479365</v>
+      </c>
+      <c r="H171" t="n">
+        <v>1</v>
+      </c>
+      <c r="I171" t="n">
+        <v>12.4</v>
+      </c>
+      <c r="J171" t="n">
+        <v>12.4</v>
+      </c>
+      <c r="K171" t="inlineStr"/>
+      <c r="L171" t="n">
+        <v>1</v>
+      </c>
+      <c r="M171" t="inlineStr"/>
+    </row>
+    <row r="172">
+      <c r="A172" s="1" t="n">
+        <v>170</v>
+      </c>
+      <c r="B172" t="n">
+        <v>12.6</v>
+      </c>
+      <c r="C172" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="D172" t="n">
+        <v>12.6</v>
+      </c>
+      <c r="E172" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="F172" t="n">
+        <v>8689.266600000001</v>
+      </c>
+      <c r="G172" t="n">
+        <v>-1178018.764079365</v>
+      </c>
+      <c r="H172" t="n">
+        <v>1</v>
+      </c>
+      <c r="I172" t="n">
+        <v>12.6</v>
+      </c>
+      <c r="J172" t="n">
+        <v>12.4</v>
+      </c>
+      <c r="K172" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="L172" t="n">
+        <v>1</v>
+      </c>
+      <c r="M172" t="inlineStr"/>
+    </row>
+    <row r="173">
+      <c r="A173" s="1" t="n">
+        <v>171</v>
+      </c>
+      <c r="B173" t="n">
+        <v>12.6</v>
+      </c>
+      <c r="C173" t="n">
+        <v>12.6</v>
+      </c>
+      <c r="D173" t="n">
+        <v>12.6</v>
+      </c>
+      <c r="E173" t="n">
+        <v>12.6</v>
+      </c>
+      <c r="F173" t="n">
+        <v>1003.1999</v>
+      </c>
+      <c r="G173" t="n">
+        <v>-1177015.564179365</v>
+      </c>
+      <c r="H173" t="n">
+        <v>1</v>
+      </c>
+      <c r="I173" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="J173" t="n">
+        <v>12.4</v>
+      </c>
+      <c r="K173" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="L173" t="n">
+        <v>1</v>
+      </c>
+      <c r="M173" t="inlineStr"/>
+    </row>
+    <row r="174">
+      <c r="A174" s="1" t="n">
+        <v>172</v>
+      </c>
+      <c r="B174" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="C174" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="D174" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="E174" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="F174" t="n">
+        <v>5616.6</v>
+      </c>
+      <c r="G174" t="n">
+        <v>-1182632.164179365</v>
+      </c>
+      <c r="H174" t="n">
+        <v>1</v>
+      </c>
+      <c r="I174" t="n">
+        <v>12.6</v>
+      </c>
+      <c r="J174" t="n">
+        <v>12.6</v>
+      </c>
+      <c r="K174" t="inlineStr"/>
+      <c r="L174" t="n">
+        <v>1</v>
+      </c>
+      <c r="M174" t="inlineStr"/>
+    </row>
+    <row r="175">
+      <c r="A175" s="1" t="n">
+        <v>173</v>
+      </c>
+      <c r="B175" t="n">
+        <v>12.6</v>
+      </c>
+      <c r="C175" t="n">
+        <v>12.6</v>
+      </c>
+      <c r="D175" t="n">
+        <v>12.6</v>
+      </c>
+      <c r="E175" t="n">
+        <v>12.6</v>
+      </c>
+      <c r="F175" t="n">
+        <v>49122.7777</v>
+      </c>
+      <c r="G175" t="n">
+        <v>-1133509.386479365</v>
+      </c>
+      <c r="H175" t="n">
+        <v>1</v>
+      </c>
+      <c r="I175" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="J175" t="n">
+        <v>12.6</v>
+      </c>
+      <c r="K175" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="L175" t="n">
+        <v>1</v>
+      </c>
+      <c r="M175" t="inlineStr"/>
+    </row>
+    <row r="176">
+      <c r="A176" s="1" t="n">
+        <v>174</v>
+      </c>
+      <c r="B176" t="n">
+        <v>12.6</v>
+      </c>
+      <c r="C176" t="n">
+        <v>12.6</v>
+      </c>
+      <c r="D176" t="n">
+        <v>12.6</v>
+      </c>
+      <c r="E176" t="n">
+        <v>12.6</v>
+      </c>
+      <c r="F176" t="n">
+        <v>4348.0158</v>
+      </c>
+      <c r="G176" t="n">
+        <v>-1133509.386479365</v>
+      </c>
+      <c r="H176" t="n">
+        <v>1</v>
+      </c>
+      <c r="I176" t="n">
+        <v>12.6</v>
+      </c>
+      <c r="J176" t="n">
+        <v>12.6</v>
+      </c>
+      <c r="K176" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="L176" t="n">
+        <v>1</v>
+      </c>
+      <c r="M176" t="inlineStr"/>
+    </row>
+    <row r="177">
+      <c r="A177" s="1" t="n">
+        <v>175</v>
+      </c>
+      <c r="B177" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="C177" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="D177" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="E177" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="F177" t="n">
+        <v>4337.1458</v>
+      </c>
+      <c r="G177" t="n">
+        <v>-1137846.532279365</v>
+      </c>
+      <c r="H177" t="n">
+        <v>1</v>
+      </c>
+      <c r="I177" t="n">
+        <v>12.6</v>
+      </c>
+      <c r="J177" t="n">
+        <v>12.6</v>
+      </c>
+      <c r="K177" t="inlineStr"/>
+      <c r="L177" t="n">
+        <v>1</v>
+      </c>
+      <c r="M177" t="inlineStr"/>
+    </row>
+    <row r="178">
+      <c r="A178" s="1" t="n">
+        <v>176</v>
+      </c>
+      <c r="B178" t="n">
+        <v>12.7</v>
+      </c>
+      <c r="C178" t="n">
+        <v>12.7</v>
+      </c>
+      <c r="D178" t="n">
+        <v>12.7</v>
+      </c>
+      <c r="E178" t="n">
+        <v>12.7</v>
+      </c>
+      <c r="F178" t="n">
+        <v>30</v>
+      </c>
+      <c r="G178" t="n">
+        <v>-1137816.532279365</v>
+      </c>
+      <c r="H178" t="n">
+        <v>1</v>
+      </c>
+      <c r="I178" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="J178" t="n">
+        <v>12.6</v>
+      </c>
+      <c r="K178" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="L178" t="n">
+        <v>1</v>
+      </c>
+      <c r="M178" t="inlineStr"/>
+    </row>
+    <row r="179">
+      <c r="A179" s="1" t="n">
+        <v>177</v>
+      </c>
+      <c r="B179" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="C179" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="D179" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="E179" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="F179" t="n">
+        <v>1087.3309</v>
+      </c>
+      <c r="G179" t="n">
+        <v>-1138903.863179365</v>
+      </c>
+      <c r="H179" t="n">
+        <v>1</v>
+      </c>
+      <c r="I179" t="n">
+        <v>12.7</v>
+      </c>
+      <c r="J179" t="n">
+        <v>12.6</v>
+      </c>
+      <c r="K179" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="L179" t="n">
+        <v>1</v>
+      </c>
+      <c r="M179" t="inlineStr"/>
+    </row>
+    <row r="180">
+      <c r="A180" s="1" t="n">
+        <v>178</v>
+      </c>
+      <c r="B180" t="n">
+        <v>12.4</v>
+      </c>
+      <c r="C180" t="n">
+        <v>12.4</v>
+      </c>
+      <c r="D180" t="n">
+        <v>12.4</v>
+      </c>
+      <c r="E180" t="n">
+        <v>12.4</v>
+      </c>
+      <c r="F180" t="n">
+        <v>70143.45940000001</v>
+      </c>
+      <c r="G180" t="n">
+        <v>-1209047.322579365</v>
+      </c>
+      <c r="H180" t="n">
+        <v>1</v>
+      </c>
+      <c r="I180" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="J180" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="K180" t="inlineStr"/>
+      <c r="L180" t="n">
+        <v>1</v>
+      </c>
+      <c r="M180" t="inlineStr"/>
+    </row>
+    <row r="181">
+      <c r="A181" s="1" t="n">
+        <v>179</v>
+      </c>
+      <c r="B181" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="C181" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="D181" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="E181" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="F181" t="n">
+        <v>5120.042</v>
+      </c>
+      <c r="G181" t="n">
+        <v>-1203927.280579366</v>
+      </c>
+      <c r="H181" t="n">
+        <v>1</v>
+      </c>
+      <c r="I181" t="n">
+        <v>12.4</v>
+      </c>
+      <c r="J181" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="K181" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="L181" t="n">
+        <v>1</v>
+      </c>
+      <c r="M181" t="inlineStr"/>
+    </row>
+    <row r="182">
+      <c r="A182" s="1" t="n">
+        <v>180</v>
+      </c>
+      <c r="B182" t="n">
+        <v>12.8</v>
+      </c>
+      <c r="C182" t="n">
+        <v>12.8</v>
+      </c>
+      <c r="D182" t="n">
+        <v>12.8</v>
+      </c>
+      <c r="E182" t="n">
+        <v>12.8</v>
+      </c>
+      <c r="F182" t="n">
+        <v>12</v>
+      </c>
+      <c r="G182" t="n">
+        <v>-1203915.280579366</v>
+      </c>
+      <c r="H182" t="n">
+        <v>1</v>
+      </c>
+      <c r="I182" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="J182" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="K182" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="L182" t="n">
+        <v>1</v>
+      </c>
+      <c r="M182" t="inlineStr"/>
+    </row>
+    <row r="183">
+      <c r="A183" s="1" t="n">
+        <v>181</v>
+      </c>
+      <c r="B183" t="n">
+        <v>12.8</v>
+      </c>
+      <c r="C183" t="n">
+        <v>12.8</v>
+      </c>
+      <c r="D183" t="n">
+        <v>12.8</v>
+      </c>
+      <c r="E183" t="n">
+        <v>12.8</v>
+      </c>
+      <c r="F183" t="n">
+        <v>14527.578075</v>
+      </c>
+      <c r="G183" t="n">
+        <v>-1203915.280579366</v>
+      </c>
+      <c r="H183" t="n">
+        <v>1</v>
+      </c>
+      <c r="I183" t="n">
+        <v>12.8</v>
+      </c>
+      <c r="J183" t="n">
+        <v>12.8</v>
+      </c>
+      <c r="K183" t="inlineStr"/>
+      <c r="L183" t="n">
+        <v>1</v>
+      </c>
+      <c r="M183" t="inlineStr"/>
+    </row>
+    <row r="184">
+      <c r="A184" s="1" t="n">
+        <v>182</v>
+      </c>
+      <c r="B184" t="n">
+        <v>12.8</v>
+      </c>
+      <c r="C184" t="n">
+        <v>12.9</v>
+      </c>
+      <c r="D184" t="n">
+        <v>12.9</v>
+      </c>
+      <c r="E184" t="n">
+        <v>12.8</v>
+      </c>
+      <c r="F184" t="n">
+        <v>26109.84823197674</v>
+      </c>
+      <c r="G184" t="n">
+        <v>-1177805.432347389</v>
+      </c>
+      <c r="H184" t="n">
+        <v>1</v>
+      </c>
+      <c r="I184" t="n">
+        <v>12.8</v>
+      </c>
+      <c r="J184" t="n">
+        <v>12.8</v>
+      </c>
+      <c r="K184" t="inlineStr">
         <is>
           <t>매수 체결</t>
         </is>
       </c>
-      <c r="L170" t="n">
-        <v>1</v>
-      </c>
-      <c r="M170" t="inlineStr"/>
-    </row>
-    <row r="171">
-      <c r="A171" s="1" t="n">
-        <v>169</v>
-      </c>
-      <c r="B171" t="n">
-        <v>12.6</v>
-      </c>
-      <c r="C171" t="n">
-        <v>12.6</v>
-      </c>
-      <c r="D171" t="n">
-        <v>12.6</v>
-      </c>
-      <c r="E171" t="n">
-        <v>12.6</v>
-      </c>
-      <c r="F171" t="n">
-        <v>13350.7334</v>
-      </c>
-      <c r="G171" t="n">
-        <v>-1169329.497479365</v>
-      </c>
-      <c r="H171" t="n">
-        <v>1</v>
-      </c>
-      <c r="I171" t="n">
-        <v>12.4</v>
-      </c>
-      <c r="J171" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="K171" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L171" t="n">
-        <v>1</v>
-      </c>
-      <c r="M171" t="inlineStr"/>
-    </row>
-    <row r="172">
-      <c r="A172" s="1" t="n">
-        <v>170</v>
-      </c>
-      <c r="B172" t="n">
-        <v>12.6</v>
-      </c>
-      <c r="C172" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="D172" t="n">
-        <v>12.6</v>
-      </c>
-      <c r="E172" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="F172" t="n">
-        <v>8689.266600000001</v>
-      </c>
-      <c r="G172" t="n">
-        <v>-1178018.764079365</v>
-      </c>
-      <c r="H172" t="n">
-        <v>1</v>
-      </c>
-      <c r="I172" t="n">
-        <v>12.6</v>
-      </c>
-      <c r="J172" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="K172" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L172" t="n">
-        <v>1</v>
-      </c>
-      <c r="M172" t="inlineStr"/>
-    </row>
-    <row r="173">
-      <c r="A173" s="1" t="n">
-        <v>171</v>
-      </c>
-      <c r="B173" t="n">
-        <v>12.6</v>
-      </c>
-      <c r="C173" t="n">
-        <v>12.6</v>
-      </c>
-      <c r="D173" t="n">
-        <v>12.6</v>
-      </c>
-      <c r="E173" t="n">
-        <v>12.6</v>
-      </c>
-      <c r="F173" t="n">
-        <v>1003.1999</v>
-      </c>
-      <c r="G173" t="n">
-        <v>-1177015.564179365</v>
-      </c>
-      <c r="H173" t="n">
-        <v>0</v>
-      </c>
-      <c r="I173" t="inlineStr"/>
-      <c r="J173" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="K173" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L173" t="n">
-        <v>1</v>
-      </c>
-      <c r="M173" t="inlineStr"/>
-    </row>
-    <row r="174">
-      <c r="A174" s="1" t="n">
-        <v>172</v>
-      </c>
-      <c r="B174" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="C174" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="D174" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="E174" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="F174" t="n">
-        <v>5616.6</v>
-      </c>
-      <c r="G174" t="n">
-        <v>-1182632.164179365</v>
-      </c>
-      <c r="H174" t="n">
-        <v>0</v>
-      </c>
-      <c r="I174" t="inlineStr"/>
-      <c r="J174" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="K174" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L174" t="n">
-        <v>1</v>
-      </c>
-      <c r="M174" t="inlineStr"/>
-    </row>
-    <row r="175">
-      <c r="A175" s="1" t="n">
-        <v>173</v>
-      </c>
-      <c r="B175" t="n">
-        <v>12.6</v>
-      </c>
-      <c r="C175" t="n">
-        <v>12.6</v>
-      </c>
-      <c r="D175" t="n">
-        <v>12.6</v>
-      </c>
-      <c r="E175" t="n">
-        <v>12.6</v>
-      </c>
-      <c r="F175" t="n">
-        <v>49122.7777</v>
-      </c>
-      <c r="G175" t="n">
-        <v>-1133509.386479365</v>
-      </c>
-      <c r="H175" t="n">
-        <v>1</v>
-      </c>
-      <c r="I175" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="J175" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="K175" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L175" t="n">
-        <v>1</v>
-      </c>
-      <c r="M175" t="inlineStr"/>
-    </row>
-    <row r="176">
-      <c r="A176" s="1" t="n">
-        <v>174</v>
-      </c>
-      <c r="B176" t="n">
-        <v>12.6</v>
-      </c>
-      <c r="C176" t="n">
-        <v>12.6</v>
-      </c>
-      <c r="D176" t="n">
-        <v>12.6</v>
-      </c>
-      <c r="E176" t="n">
-        <v>12.6</v>
-      </c>
-      <c r="F176" t="n">
-        <v>4348.0158</v>
-      </c>
-      <c r="G176" t="n">
-        <v>-1133509.386479365</v>
-      </c>
-      <c r="H176" t="n">
-        <v>1</v>
-      </c>
-      <c r="I176" t="n">
-        <v>12.6</v>
-      </c>
-      <c r="J176" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="K176" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L176" t="n">
-        <v>1</v>
-      </c>
-      <c r="M176" t="inlineStr"/>
-    </row>
-    <row r="177">
-      <c r="A177" s="1" t="n">
-        <v>175</v>
-      </c>
-      <c r="B177" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="C177" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="D177" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="E177" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="F177" t="n">
-        <v>4337.1458</v>
-      </c>
-      <c r="G177" t="n">
-        <v>-1137846.532279365</v>
-      </c>
-      <c r="H177" t="n">
-        <v>1</v>
-      </c>
-      <c r="I177" t="n">
-        <v>12.6</v>
-      </c>
-      <c r="J177" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="K177" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L177" t="n">
-        <v>1</v>
-      </c>
-      <c r="M177" t="inlineStr"/>
-    </row>
-    <row r="178">
-      <c r="A178" s="1" t="n">
-        <v>176</v>
-      </c>
-      <c r="B178" t="n">
-        <v>12.7</v>
-      </c>
-      <c r="C178" t="n">
-        <v>12.7</v>
-      </c>
-      <c r="D178" t="n">
-        <v>12.7</v>
-      </c>
-      <c r="E178" t="n">
-        <v>12.7</v>
-      </c>
-      <c r="F178" t="n">
-        <v>30</v>
-      </c>
-      <c r="G178" t="n">
-        <v>-1137816.532279365</v>
-      </c>
-      <c r="H178" t="n">
-        <v>1</v>
-      </c>
-      <c r="I178" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="J178" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="K178" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L178" t="n">
-        <v>1</v>
-      </c>
-      <c r="M178" t="inlineStr"/>
-    </row>
-    <row r="179">
-      <c r="A179" s="1" t="n">
-        <v>177</v>
-      </c>
-      <c r="B179" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="C179" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="D179" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="E179" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="F179" t="n">
-        <v>1087.3309</v>
-      </c>
-      <c r="G179" t="n">
-        <v>-1138903.863179365</v>
-      </c>
-      <c r="H179" t="n">
-        <v>1</v>
-      </c>
-      <c r="I179" t="n">
-        <v>12.7</v>
-      </c>
-      <c r="J179" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="K179" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L179" t="n">
-        <v>1</v>
-      </c>
-      <c r="M179" t="inlineStr"/>
-    </row>
-    <row r="180">
-      <c r="A180" s="1" t="n">
-        <v>178</v>
-      </c>
-      <c r="B180" t="n">
-        <v>12.4</v>
-      </c>
-      <c r="C180" t="n">
-        <v>12.4</v>
-      </c>
-      <c r="D180" t="n">
-        <v>12.4</v>
-      </c>
-      <c r="E180" t="n">
-        <v>12.4</v>
-      </c>
-      <c r="F180" t="n">
-        <v>70143.45940000001</v>
-      </c>
-      <c r="G180" t="n">
-        <v>-1209047.322579365</v>
-      </c>
-      <c r="H180" t="n">
-        <v>1</v>
-      </c>
-      <c r="I180" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="J180" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="K180" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L180" t="n">
-        <v>1</v>
-      </c>
-      <c r="M180" t="inlineStr"/>
-    </row>
-    <row r="181">
-      <c r="A181" s="1" t="n">
-        <v>179</v>
-      </c>
-      <c r="B181" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="C181" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="D181" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="E181" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="F181" t="n">
-        <v>5120.042</v>
-      </c>
-      <c r="G181" t="n">
-        <v>-1203927.280579366</v>
-      </c>
-      <c r="H181" t="n">
-        <v>1</v>
-      </c>
-      <c r="I181" t="n">
-        <v>12.4</v>
-      </c>
-      <c r="J181" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="K181" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L181" t="n">
-        <v>1</v>
-      </c>
-      <c r="M181" t="inlineStr"/>
-    </row>
-    <row r="182">
-      <c r="A182" s="1" t="n">
-        <v>180</v>
-      </c>
-      <c r="B182" t="n">
-        <v>12.8</v>
-      </c>
-      <c r="C182" t="n">
-        <v>12.8</v>
-      </c>
-      <c r="D182" t="n">
-        <v>12.8</v>
-      </c>
-      <c r="E182" t="n">
-        <v>12.8</v>
-      </c>
-      <c r="F182" t="n">
-        <v>12</v>
-      </c>
-      <c r="G182" t="n">
-        <v>-1203915.280579366</v>
-      </c>
-      <c r="H182" t="n">
-        <v>1</v>
-      </c>
-      <c r="I182" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="J182" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="K182" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L182" t="n">
-        <v>1</v>
-      </c>
-      <c r="M182" t="inlineStr"/>
-    </row>
-    <row r="183">
-      <c r="A183" s="1" t="n">
-        <v>181</v>
-      </c>
-      <c r="B183" t="n">
-        <v>12.8</v>
-      </c>
-      <c r="C183" t="n">
-        <v>12.8</v>
-      </c>
-      <c r="D183" t="n">
-        <v>12.8</v>
-      </c>
-      <c r="E183" t="n">
-        <v>12.8</v>
-      </c>
-      <c r="F183" t="n">
-        <v>14527.578075</v>
-      </c>
-      <c r="G183" t="n">
-        <v>-1203915.280579366</v>
-      </c>
-      <c r="H183" t="n">
-        <v>0</v>
-      </c>
-      <c r="I183" t="inlineStr"/>
-      <c r="J183" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="K183" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L183" t="n">
-        <v>1</v>
-      </c>
-      <c r="M183" t="inlineStr"/>
-    </row>
-    <row r="184">
-      <c r="A184" s="1" t="n">
-        <v>182</v>
-      </c>
-      <c r="B184" t="n">
-        <v>12.8</v>
-      </c>
-      <c r="C184" t="n">
-        <v>12.9</v>
-      </c>
-      <c r="D184" t="n">
-        <v>12.9</v>
-      </c>
-      <c r="E184" t="n">
-        <v>12.8</v>
-      </c>
-      <c r="F184" t="n">
-        <v>26109.84823197674</v>
-      </c>
-      <c r="G184" t="n">
-        <v>-1177805.432347389</v>
-      </c>
-      <c r="H184" t="n">
-        <v>0</v>
-      </c>
-      <c r="I184" t="inlineStr"/>
-      <c r="J184" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="K184" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
       <c r="L184" t="n">
         <v>1</v>
       </c>
@@ -6622,11 +6656,13 @@
         <v>-1177805.432347389</v>
       </c>
       <c r="H185" t="n">
-        <v>0</v>
-      </c>
-      <c r="I185" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I185" t="n">
+        <v>12.9</v>
+      </c>
       <c r="J185" t="n">
-        <v>12.5</v>
+        <v>12.8</v>
       </c>
       <c r="K185" t="inlineStr">
         <is>
@@ -6661,11 +6697,13 @@
         <v>-1177805.432347389</v>
       </c>
       <c r="H186" t="n">
-        <v>0</v>
-      </c>
-      <c r="I186" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I186" t="n">
+        <v>12.9</v>
+      </c>
       <c r="J186" t="n">
-        <v>12.5</v>
+        <v>12.8</v>
       </c>
       <c r="K186" t="inlineStr">
         <is>
@@ -6700,11 +6738,13 @@
         <v>-931689.8284473887</v>
       </c>
       <c r="H187" t="n">
-        <v>0</v>
-      </c>
-      <c r="I187" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I187" t="n">
+        <v>12.9</v>
+      </c>
       <c r="J187" t="n">
-        <v>12.5</v>
+        <v>12.8</v>
       </c>
       <c r="K187" t="inlineStr">
         <is>
@@ -6743,7 +6783,7 @@
       </c>
       <c r="I188" t="inlineStr"/>
       <c r="J188" t="n">
-        <v>12.5</v>
+        <v>12.8</v>
       </c>
       <c r="K188" t="inlineStr">
         <is>
@@ -6782,7 +6822,7 @@
       </c>
       <c r="I189" t="inlineStr"/>
       <c r="J189" t="n">
-        <v>12.5</v>
+        <v>12.8</v>
       </c>
       <c r="K189" t="inlineStr">
         <is>
@@ -6821,7 +6861,7 @@
       </c>
       <c r="I190" t="inlineStr"/>
       <c r="J190" t="n">
-        <v>12.5</v>
+        <v>12.8</v>
       </c>
       <c r="K190" t="inlineStr">
         <is>
@@ -6860,7 +6900,7 @@
       </c>
       <c r="I191" t="inlineStr"/>
       <c r="J191" t="n">
-        <v>12.5</v>
+        <v>12.8</v>
       </c>
       <c r="K191" t="inlineStr">
         <is>
@@ -6899,7 +6939,7 @@
       </c>
       <c r="I192" t="inlineStr"/>
       <c r="J192" t="n">
-        <v>12.5</v>
+        <v>12.8</v>
       </c>
       <c r="K192" t="inlineStr">
         <is>
@@ -6938,7 +6978,7 @@
       </c>
       <c r="I193" t="inlineStr"/>
       <c r="J193" t="n">
-        <v>12.5</v>
+        <v>12.8</v>
       </c>
       <c r="K193" t="inlineStr">
         <is>
@@ -6977,7 +7017,7 @@
       </c>
       <c r="I194" t="inlineStr"/>
       <c r="J194" t="n">
-        <v>12.5</v>
+        <v>12.8</v>
       </c>
       <c r="K194" t="inlineStr">
         <is>
@@ -7016,7 +7056,7 @@
       </c>
       <c r="I195" t="inlineStr"/>
       <c r="J195" t="n">
-        <v>12.5</v>
+        <v>12.8</v>
       </c>
       <c r="K195" t="inlineStr">
         <is>
@@ -7055,7 +7095,7 @@
       </c>
       <c r="I196" t="inlineStr"/>
       <c r="J196" t="n">
-        <v>12.5</v>
+        <v>12.8</v>
       </c>
       <c r="K196" t="inlineStr">
         <is>
@@ -7094,7 +7134,7 @@
       </c>
       <c r="I197" t="inlineStr"/>
       <c r="J197" t="n">
-        <v>12.5</v>
+        <v>12.8</v>
       </c>
       <c r="K197" t="inlineStr">
         <is>
@@ -7133,7 +7173,7 @@
       </c>
       <c r="I198" t="inlineStr"/>
       <c r="J198" t="n">
-        <v>12.5</v>
+        <v>12.8</v>
       </c>
       <c r="K198" t="inlineStr">
         <is>
@@ -7172,7 +7212,7 @@
       </c>
       <c r="I199" t="inlineStr"/>
       <c r="J199" t="n">
-        <v>12.5</v>
+        <v>12.8</v>
       </c>
       <c r="K199" t="inlineStr">
         <is>
@@ -7211,7 +7251,7 @@
       </c>
       <c r="I200" t="inlineStr"/>
       <c r="J200" t="n">
-        <v>12.5</v>
+        <v>12.8</v>
       </c>
       <c r="K200" t="inlineStr">
         <is>
@@ -7250,7 +7290,7 @@
       </c>
       <c r="I201" t="inlineStr"/>
       <c r="J201" t="n">
-        <v>12.5</v>
+        <v>12.8</v>
       </c>
       <c r="K201" t="inlineStr">
         <is>
@@ -7289,7 +7329,7 @@
       </c>
       <c r="I202" t="inlineStr"/>
       <c r="J202" t="n">
-        <v>12.5</v>
+        <v>12.8</v>
       </c>
       <c r="K202" t="inlineStr">
         <is>
@@ -7328,7 +7368,7 @@
       </c>
       <c r="I203" t="inlineStr"/>
       <c r="J203" t="n">
-        <v>12.5</v>
+        <v>12.8</v>
       </c>
       <c r="K203" t="inlineStr">
         <is>
@@ -7367,7 +7407,7 @@
       </c>
       <c r="I204" t="inlineStr"/>
       <c r="J204" t="n">
-        <v>12.5</v>
+        <v>12.8</v>
       </c>
       <c r="K204" t="inlineStr">
         <is>
@@ -7406,7 +7446,7 @@
       </c>
       <c r="I205" t="inlineStr"/>
       <c r="J205" t="n">
-        <v>12.5</v>
+        <v>12.8</v>
       </c>
       <c r="K205" t="inlineStr">
         <is>
@@ -7445,7 +7485,7 @@
       </c>
       <c r="I206" t="inlineStr"/>
       <c r="J206" t="n">
-        <v>12.5</v>
+        <v>12.8</v>
       </c>
       <c r="K206" t="inlineStr">
         <is>
@@ -7484,7 +7524,7 @@
       </c>
       <c r="I207" t="inlineStr"/>
       <c r="J207" t="n">
-        <v>12.5</v>
+        <v>12.8</v>
       </c>
       <c r="K207" t="inlineStr">
         <is>
@@ -7523,7 +7563,7 @@
       </c>
       <c r="I208" t="inlineStr"/>
       <c r="J208" t="n">
-        <v>12.5</v>
+        <v>12.8</v>
       </c>
       <c r="K208" t="inlineStr">
         <is>
@@ -7562,7 +7602,7 @@
       </c>
       <c r="I209" t="inlineStr"/>
       <c r="J209" t="n">
-        <v>12.5</v>
+        <v>12.8</v>
       </c>
       <c r="K209" t="inlineStr">
         <is>
@@ -7601,7 +7641,7 @@
       </c>
       <c r="I210" t="inlineStr"/>
       <c r="J210" t="n">
-        <v>12.5</v>
+        <v>12.8</v>
       </c>
       <c r="K210" t="inlineStr">
         <is>
@@ -7640,7 +7680,7 @@
       </c>
       <c r="I211" t="inlineStr"/>
       <c r="J211" t="n">
-        <v>12.5</v>
+        <v>12.8</v>
       </c>
       <c r="K211" t="inlineStr">
         <is>
@@ -7679,7 +7719,7 @@
       </c>
       <c r="I212" t="inlineStr"/>
       <c r="J212" t="n">
-        <v>12.5</v>
+        <v>12.8</v>
       </c>
       <c r="K212" t="inlineStr">
         <is>
@@ -7718,7 +7758,7 @@
       </c>
       <c r="I213" t="inlineStr"/>
       <c r="J213" t="n">
-        <v>12.5</v>
+        <v>12.8</v>
       </c>
       <c r="K213" t="inlineStr">
         <is>
@@ -7757,7 +7797,7 @@
       </c>
       <c r="I214" t="inlineStr"/>
       <c r="J214" t="n">
-        <v>12.5</v>
+        <v>12.8</v>
       </c>
       <c r="K214" t="inlineStr">
         <is>
@@ -7796,7 +7836,7 @@
       </c>
       <c r="I215" t="inlineStr"/>
       <c r="J215" t="n">
-        <v>12.5</v>
+        <v>12.8</v>
       </c>
       <c r="K215" t="inlineStr">
         <is>
@@ -7835,7 +7875,7 @@
       </c>
       <c r="I216" t="inlineStr"/>
       <c r="J216" t="n">
-        <v>12.5</v>
+        <v>12.8</v>
       </c>
       <c r="K216" t="inlineStr">
         <is>
@@ -7870,881 +7910,1037 @@
         <v>731410.7992282608</v>
       </c>
       <c r="H217" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I217" t="inlineStr"/>
       <c r="J217" t="n">
-        <v>12.5</v>
+        <v>12.8</v>
       </c>
       <c r="K217" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L217" t="n">
+        <v>1</v>
+      </c>
+      <c r="M217" t="inlineStr"/>
+    </row>
+    <row r="218">
+      <c r="A218" s="1" t="n">
+        <v>216</v>
+      </c>
+      <c r="B218" t="n">
+        <v>13.3</v>
+      </c>
+      <c r="C218" t="n">
+        <v>13.3</v>
+      </c>
+      <c r="D218" t="n">
+        <v>13.3</v>
+      </c>
+      <c r="E218" t="n">
+        <v>13.3</v>
+      </c>
+      <c r="F218" t="n">
+        <v>286191.8748142857</v>
+      </c>
+      <c r="G218" t="n">
+        <v>445218.924413975</v>
+      </c>
+      <c r="H218" t="n">
+        <v>0</v>
+      </c>
+      <c r="I218" t="inlineStr"/>
+      <c r="J218" t="n">
+        <v>12.8</v>
+      </c>
+      <c r="K218" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L218" t="n">
+        <v>1</v>
+      </c>
+      <c r="M218" t="inlineStr"/>
+    </row>
+    <row r="219">
+      <c r="A219" s="1" t="n">
+        <v>217</v>
+      </c>
+      <c r="B219" t="n">
+        <v>13.3</v>
+      </c>
+      <c r="C219" t="n">
+        <v>13.3</v>
+      </c>
+      <c r="D219" t="n">
+        <v>13.3</v>
+      </c>
+      <c r="E219" t="n">
+        <v>13.3</v>
+      </c>
+      <c r="F219" t="n">
+        <v>36559.43348571428</v>
+      </c>
+      <c r="G219" t="n">
+        <v>445218.924413975</v>
+      </c>
+      <c r="H219" t="n">
+        <v>0</v>
+      </c>
+      <c r="I219" t="inlineStr"/>
+      <c r="J219" t="n">
+        <v>12.8</v>
+      </c>
+      <c r="K219" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L219" t="n">
+        <v>1</v>
+      </c>
+      <c r="M219" t="inlineStr"/>
+    </row>
+    <row r="220">
+      <c r="A220" s="1" t="n">
+        <v>218</v>
+      </c>
+      <c r="B220" t="n">
+        <v>13.3</v>
+      </c>
+      <c r="C220" t="n">
+        <v>13.3</v>
+      </c>
+      <c r="D220" t="n">
+        <v>13.3</v>
+      </c>
+      <c r="E220" t="n">
+        <v>13.3</v>
+      </c>
+      <c r="F220" t="n">
+        <v>1159.5383</v>
+      </c>
+      <c r="G220" t="n">
+        <v>445218.924413975</v>
+      </c>
+      <c r="H220" t="n">
+        <v>0</v>
+      </c>
+      <c r="I220" t="inlineStr"/>
+      <c r="J220" t="n">
+        <v>12.8</v>
+      </c>
+      <c r="K220" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L220" t="n">
+        <v>1</v>
+      </c>
+      <c r="M220" t="inlineStr"/>
+    </row>
+    <row r="221">
+      <c r="A221" s="1" t="n">
+        <v>219</v>
+      </c>
+      <c r="B221" t="n">
+        <v>13.3</v>
+      </c>
+      <c r="C221" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="D221" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="E221" t="n">
+        <v>13.2</v>
+      </c>
+      <c r="F221" t="n">
+        <v>106193.106</v>
+      </c>
+      <c r="G221" t="n">
+        <v>551412.030413975</v>
+      </c>
+      <c r="H221" t="n">
+        <v>0</v>
+      </c>
+      <c r="I221" t="inlineStr"/>
+      <c r="J221" t="n">
+        <v>12.8</v>
+      </c>
+      <c r="K221" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L221" t="n">
+        <v>1</v>
+      </c>
+      <c r="M221" t="inlineStr"/>
+    </row>
+    <row r="222">
+      <c r="A222" s="1" t="n">
+        <v>220</v>
+      </c>
+      <c r="B222" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="C222" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="D222" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="E222" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="F222" t="n">
+        <v>260</v>
+      </c>
+      <c r="G222" t="n">
+        <v>551412.030413975</v>
+      </c>
+      <c r="H222" t="n">
+        <v>0</v>
+      </c>
+      <c r="I222" t="inlineStr"/>
+      <c r="J222" t="n">
+        <v>12.8</v>
+      </c>
+      <c r="K222" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L222" t="n">
+        <v>1</v>
+      </c>
+      <c r="M222" t="inlineStr"/>
+    </row>
+    <row r="223">
+      <c r="A223" s="1" t="n">
+        <v>221</v>
+      </c>
+      <c r="B223" t="n">
+        <v>13.4</v>
+      </c>
+      <c r="C223" t="n">
+        <v>13.4</v>
+      </c>
+      <c r="D223" t="n">
+        <v>13.4</v>
+      </c>
+      <c r="E223" t="n">
+        <v>13.4</v>
+      </c>
+      <c r="F223" t="n">
+        <v>36260</v>
+      </c>
+      <c r="G223" t="n">
+        <v>515152.030413975</v>
+      </c>
+      <c r="H223" t="n">
+        <v>0</v>
+      </c>
+      <c r="I223" t="inlineStr"/>
+      <c r="J223" t="n">
+        <v>12.8</v>
+      </c>
+      <c r="K223" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L223" t="n">
+        <v>1</v>
+      </c>
+      <c r="M223" t="inlineStr"/>
+    </row>
+    <row r="224">
+      <c r="A224" s="1" t="n">
+        <v>222</v>
+      </c>
+      <c r="B224" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="C224" t="n">
+        <v>13.4</v>
+      </c>
+      <c r="D224" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="E224" t="n">
+        <v>13.4</v>
+      </c>
+      <c r="F224" t="n">
+        <v>112277.6225</v>
+      </c>
+      <c r="G224" t="n">
+        <v>515152.030413975</v>
+      </c>
+      <c r="H224" t="n">
+        <v>0</v>
+      </c>
+      <c r="I224" t="inlineStr"/>
+      <c r="J224" t="n">
+        <v>12.8</v>
+      </c>
+      <c r="K224" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L224" t="n">
+        <v>1</v>
+      </c>
+      <c r="M224" t="inlineStr"/>
+    </row>
+    <row r="225">
+      <c r="A225" s="1" t="n">
+        <v>223</v>
+      </c>
+      <c r="B225" t="n">
+        <v>13.4</v>
+      </c>
+      <c r="C225" t="n">
+        <v>13.6</v>
+      </c>
+      <c r="D225" t="n">
+        <v>13.6</v>
+      </c>
+      <c r="E225" t="n">
+        <v>13.4</v>
+      </c>
+      <c r="F225" t="n">
+        <v>52889.7897</v>
+      </c>
+      <c r="G225" t="n">
+        <v>568041.820113975</v>
+      </c>
+      <c r="H225" t="n">
+        <v>0</v>
+      </c>
+      <c r="I225" t="inlineStr"/>
+      <c r="J225" t="n">
+        <v>12.8</v>
+      </c>
+      <c r="K225" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L225" t="n">
+        <v>1</v>
+      </c>
+      <c r="M225" t="inlineStr"/>
+    </row>
+    <row r="226">
+      <c r="A226" s="1" t="n">
+        <v>224</v>
+      </c>
+      <c r="B226" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="C226" t="n">
+        <v>13.3</v>
+      </c>
+      <c r="D226" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="E226" t="n">
+        <v>13.3</v>
+      </c>
+      <c r="F226" t="n">
+        <v>85729.32000000001</v>
+      </c>
+      <c r="G226" t="n">
+        <v>482312.500113975</v>
+      </c>
+      <c r="H226" t="n">
+        <v>0</v>
+      </c>
+      <c r="I226" t="inlineStr"/>
+      <c r="J226" t="n">
+        <v>12.8</v>
+      </c>
+      <c r="K226" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L226" t="n">
+        <v>1</v>
+      </c>
+      <c r="M226" t="inlineStr"/>
+    </row>
+    <row r="227">
+      <c r="A227" s="1" t="n">
+        <v>225</v>
+      </c>
+      <c r="B227" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="C227" t="n">
+        <v>13.3</v>
+      </c>
+      <c r="D227" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="E227" t="n">
+        <v>13.3</v>
+      </c>
+      <c r="F227" t="n">
+        <v>73788.9452</v>
+      </c>
+      <c r="G227" t="n">
+        <v>482312.500113975</v>
+      </c>
+      <c r="H227" t="n">
+        <v>0</v>
+      </c>
+      <c r="I227" t="inlineStr"/>
+      <c r="J227" t="n">
+        <v>12.8</v>
+      </c>
+      <c r="K227" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L227" t="n">
+        <v>1</v>
+      </c>
+      <c r="M227" t="inlineStr"/>
+    </row>
+    <row r="228">
+      <c r="A228" s="1" t="n">
+        <v>226</v>
+      </c>
+      <c r="B228" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="C228" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="D228" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="E228" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="F228" t="n">
+        <v>17408</v>
+      </c>
+      <c r="G228" t="n">
+        <v>499720.500113975</v>
+      </c>
+      <c r="H228" t="n">
+        <v>0</v>
+      </c>
+      <c r="I228" t="inlineStr"/>
+      <c r="J228" t="n">
+        <v>12.8</v>
+      </c>
+      <c r="K228" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L228" t="n">
+        <v>1</v>
+      </c>
+      <c r="M228" t="inlineStr"/>
+    </row>
+    <row r="229">
+      <c r="A229" s="1" t="n">
+        <v>227</v>
+      </c>
+      <c r="B229" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="C229" t="n">
+        <v>13.4</v>
+      </c>
+      <c r="D229" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="E229" t="n">
+        <v>13.4</v>
+      </c>
+      <c r="F229" t="n">
+        <v>16556.6854</v>
+      </c>
+      <c r="G229" t="n">
+        <v>483163.8147139749</v>
+      </c>
+      <c r="H229" t="n">
+        <v>0</v>
+      </c>
+      <c r="I229" t="inlineStr"/>
+      <c r="J229" t="n">
+        <v>12.8</v>
+      </c>
+      <c r="K229" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L229" t="n">
+        <v>1</v>
+      </c>
+      <c r="M229" t="inlineStr"/>
+    </row>
+    <row r="230">
+      <c r="A230" s="1" t="n">
+        <v>228</v>
+      </c>
+      <c r="B230" t="n">
+        <v>13.4</v>
+      </c>
+      <c r="C230" t="n">
+        <v>13.4</v>
+      </c>
+      <c r="D230" t="n">
+        <v>13.4</v>
+      </c>
+      <c r="E230" t="n">
+        <v>13.4</v>
+      </c>
+      <c r="F230" t="n">
+        <v>16220</v>
+      </c>
+      <c r="G230" t="n">
+        <v>483163.8147139749</v>
+      </c>
+      <c r="H230" t="n">
+        <v>0</v>
+      </c>
+      <c r="I230" t="inlineStr"/>
+      <c r="J230" t="n">
+        <v>12.8</v>
+      </c>
+      <c r="K230" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L230" t="n">
+        <v>1</v>
+      </c>
+      <c r="M230" t="inlineStr"/>
+    </row>
+    <row r="231">
+      <c r="A231" s="1" t="n">
+        <v>229</v>
+      </c>
+      <c r="B231" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="C231" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="D231" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="E231" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="F231" t="n">
+        <v>51.4074</v>
+      </c>
+      <c r="G231" t="n">
+        <v>483215.222113975</v>
+      </c>
+      <c r="H231" t="n">
+        <v>0</v>
+      </c>
+      <c r="I231" t="inlineStr"/>
+      <c r="J231" t="n">
+        <v>12.8</v>
+      </c>
+      <c r="K231" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L231" t="n">
+        <v>1</v>
+      </c>
+      <c r="M231" t="inlineStr"/>
+    </row>
+    <row r="232">
+      <c r="A232" s="1" t="n">
+        <v>230</v>
+      </c>
+      <c r="B232" t="n">
+        <v>13.4</v>
+      </c>
+      <c r="C232" t="n">
+        <v>13.4</v>
+      </c>
+      <c r="D232" t="n">
+        <v>13.4</v>
+      </c>
+      <c r="E232" t="n">
+        <v>13.4</v>
+      </c>
+      <c r="F232" t="n">
+        <v>6863.27</v>
+      </c>
+      <c r="G232" t="n">
+        <v>476351.952113975</v>
+      </c>
+      <c r="H232" t="n">
+        <v>0</v>
+      </c>
+      <c r="I232" t="inlineStr"/>
+      <c r="J232" t="n">
+        <v>12.8</v>
+      </c>
+      <c r="K232" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L232" t="n">
+        <v>1</v>
+      </c>
+      <c r="M232" t="inlineStr"/>
+    </row>
+    <row r="233">
+      <c r="A233" s="1" t="n">
+        <v>231</v>
+      </c>
+      <c r="B233" t="n">
+        <v>13.4</v>
+      </c>
+      <c r="C233" t="n">
+        <v>13.4</v>
+      </c>
+      <c r="D233" t="n">
+        <v>13.4</v>
+      </c>
+      <c r="E233" t="n">
+        <v>13.4</v>
+      </c>
+      <c r="F233" t="n">
+        <v>3256.73</v>
+      </c>
+      <c r="G233" t="n">
+        <v>476351.952113975</v>
+      </c>
+      <c r="H233" t="n">
+        <v>0</v>
+      </c>
+      <c r="I233" t="inlineStr"/>
+      <c r="J233" t="n">
+        <v>12.8</v>
+      </c>
+      <c r="K233" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L233" t="n">
+        <v>1</v>
+      </c>
+      <c r="M233" t="inlineStr"/>
+    </row>
+    <row r="234">
+      <c r="A234" s="1" t="n">
+        <v>232</v>
+      </c>
+      <c r="B234" t="n">
+        <v>13.3</v>
+      </c>
+      <c r="C234" t="n">
+        <v>13.3</v>
+      </c>
+      <c r="D234" t="n">
+        <v>13.3</v>
+      </c>
+      <c r="E234" t="n">
+        <v>13.1</v>
+      </c>
+      <c r="F234" t="n">
+        <v>173070.0249</v>
+      </c>
+      <c r="G234" t="n">
+        <v>303281.927213975</v>
+      </c>
+      <c r="H234" t="n">
+        <v>0</v>
+      </c>
+      <c r="I234" t="inlineStr"/>
+      <c r="J234" t="n">
+        <v>12.8</v>
+      </c>
+      <c r="K234" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L234" t="n">
+        <v>1</v>
+      </c>
+      <c r="M234" t="inlineStr"/>
+    </row>
+    <row r="235">
+      <c r="A235" s="1" t="n">
+        <v>233</v>
+      </c>
+      <c r="B235" t="n">
+        <v>13.4</v>
+      </c>
+      <c r="C235" t="n">
+        <v>13.4</v>
+      </c>
+      <c r="D235" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="E235" t="n">
+        <v>13.4</v>
+      </c>
+      <c r="F235" t="n">
+        <v>75594.62119999999</v>
+      </c>
+      <c r="G235" t="n">
+        <v>378876.548413975</v>
+      </c>
+      <c r="H235" t="n">
+        <v>0</v>
+      </c>
+      <c r="I235" t="inlineStr"/>
+      <c r="J235" t="n">
+        <v>12.8</v>
+      </c>
+      <c r="K235" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L235" t="n">
+        <v>1</v>
+      </c>
+      <c r="M235" t="inlineStr"/>
+    </row>
+    <row r="236">
+      <c r="A236" s="1" t="n">
+        <v>234</v>
+      </c>
+      <c r="B236" t="n">
+        <v>13.3</v>
+      </c>
+      <c r="C236" t="n">
+        <v>13.3</v>
+      </c>
+      <c r="D236" t="n">
+        <v>13.3</v>
+      </c>
+      <c r="E236" t="n">
+        <v>13.3</v>
+      </c>
+      <c r="F236" t="n">
+        <v>51.2781</v>
+      </c>
+      <c r="G236" t="n">
+        <v>378825.270313975</v>
+      </c>
+      <c r="H236" t="n">
+        <v>0</v>
+      </c>
+      <c r="I236" t="inlineStr"/>
+      <c r="J236" t="n">
+        <v>12.8</v>
+      </c>
+      <c r="K236" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L236" t="n">
+        <v>1</v>
+      </c>
+      <c r="M236" t="inlineStr"/>
+    </row>
+    <row r="237">
+      <c r="A237" s="1" t="n">
+        <v>235</v>
+      </c>
+      <c r="B237" t="n">
+        <v>13.3</v>
+      </c>
+      <c r="C237" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="D237" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="E237" t="n">
+        <v>13.3</v>
+      </c>
+      <c r="F237" t="n">
+        <v>62214.2659</v>
+      </c>
+      <c r="G237" t="n">
+        <v>441039.536213975</v>
+      </c>
+      <c r="H237" t="n">
+        <v>0</v>
+      </c>
+      <c r="I237" t="inlineStr"/>
+      <c r="J237" t="n">
+        <v>12.8</v>
+      </c>
+      <c r="K237" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L237" t="n">
+        <v>1</v>
+      </c>
+      <c r="M237" t="inlineStr"/>
+    </row>
+    <row r="238">
+      <c r="A238" s="1" t="n">
+        <v>236</v>
+      </c>
+      <c r="B238" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="C238" t="n">
+        <v>13.8</v>
+      </c>
+      <c r="D238" t="n">
+        <v>13.8</v>
+      </c>
+      <c r="E238" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="F238" t="n">
+        <v>368297.7938</v>
+      </c>
+      <c r="G238" t="n">
+        <v>809337.330013975</v>
+      </c>
+      <c r="H238" t="n">
+        <v>0</v>
+      </c>
+      <c r="I238" t="inlineStr"/>
+      <c r="J238" t="n">
+        <v>12.8</v>
+      </c>
+      <c r="K238" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L238" t="n">
+        <v>1</v>
+      </c>
+      <c r="M238" t="inlineStr"/>
+    </row>
+    <row r="239">
+      <c r="A239" s="1" t="n">
+        <v>237</v>
+      </c>
+      <c r="B239" t="n">
+        <v>13.9</v>
+      </c>
+      <c r="C239" t="n">
+        <v>14</v>
+      </c>
+      <c r="D239" t="n">
+        <v>14</v>
+      </c>
+      <c r="E239" t="n">
+        <v>13.8</v>
+      </c>
+      <c r="F239" t="n">
+        <v>149243.5526</v>
+      </c>
+      <c r="G239" t="n">
+        <v>958580.8826139751</v>
+      </c>
+      <c r="H239" t="n">
+        <v>0</v>
+      </c>
+      <c r="I239" t="inlineStr"/>
+      <c r="J239" t="n">
+        <v>12.8</v>
+      </c>
+      <c r="K239" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L239" t="n">
+        <v>1</v>
+      </c>
+      <c r="M239" t="inlineStr"/>
+    </row>
+    <row r="240">
+      <c r="A240" s="1" t="n">
+        <v>238</v>
+      </c>
+      <c r="B240" t="n">
+        <v>14</v>
+      </c>
+      <c r="C240" t="n">
+        <v>14</v>
+      </c>
+      <c r="D240" t="n">
+        <v>14.1</v>
+      </c>
+      <c r="E240" t="n">
+        <v>14</v>
+      </c>
+      <c r="F240" t="n">
+        <v>294104.067</v>
+      </c>
+      <c r="G240" t="n">
+        <v>958580.8826139751</v>
+      </c>
+      <c r="H240" t="n">
+        <v>0</v>
+      </c>
+      <c r="I240" t="inlineStr"/>
+      <c r="J240" t="n">
+        <v>12.8</v>
+      </c>
+      <c r="K240" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L240" t="n">
+        <v>1</v>
+      </c>
+      <c r="M240" t="inlineStr"/>
+    </row>
+    <row r="241">
+      <c r="A241" s="1" t="n">
+        <v>239</v>
+      </c>
+      <c r="B241" t="n">
+        <v>14</v>
+      </c>
+      <c r="C241" t="n">
+        <v>14.2</v>
+      </c>
+      <c r="D241" t="n">
+        <v>14.3</v>
+      </c>
+      <c r="E241" t="n">
+        <v>14</v>
+      </c>
+      <c r="F241" t="n">
+        <v>385450.2265615385</v>
+      </c>
+      <c r="G241" t="n">
+        <v>1344031.109175513</v>
+      </c>
+      <c r="H241" t="n">
+        <v>0</v>
+      </c>
+      <c r="I241" t="inlineStr"/>
+      <c r="J241" t="n">
+        <v>12.8</v>
+      </c>
+      <c r="K241" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L241" t="n">
+        <v>1</v>
+      </c>
+      <c r="M241" t="inlineStr"/>
+    </row>
+    <row r="242">
+      <c r="A242" s="1" t="n">
+        <v>240</v>
+      </c>
+      <c r="B242" t="n">
+        <v>14.3</v>
+      </c>
+      <c r="C242" t="n">
+        <v>14.3</v>
+      </c>
+      <c r="D242" t="n">
+        <v>14.3</v>
+      </c>
+      <c r="E242" t="n">
+        <v>14.2</v>
+      </c>
+      <c r="F242" t="n">
+        <v>193175.0285</v>
+      </c>
+      <c r="G242" t="n">
+        <v>1537206.137675514</v>
+      </c>
+      <c r="H242" t="n">
+        <v>0</v>
+      </c>
+      <c r="I242" t="inlineStr"/>
+      <c r="J242" t="n">
+        <v>12.8</v>
+      </c>
+      <c r="K242" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L242" t="n">
+        <v>1</v>
+      </c>
+      <c r="M242" t="inlineStr"/>
+    </row>
+    <row r="243">
+      <c r="A243" s="1" t="n">
+        <v>241</v>
+      </c>
+      <c r="B243" t="n">
+        <v>14.3</v>
+      </c>
+      <c r="C243" t="n">
+        <v>14.1</v>
+      </c>
+      <c r="D243" t="n">
+        <v>14.3</v>
+      </c>
+      <c r="E243" t="n">
+        <v>13.9</v>
+      </c>
+      <c r="F243" t="n">
+        <v>284920.8378</v>
+      </c>
+      <c r="G243" t="n">
+        <v>1252285.299875514</v>
+      </c>
+      <c r="H243" t="n">
+        <v>2</v>
+      </c>
+      <c r="I243" t="inlineStr"/>
+      <c r="J243" t="n">
+        <v>12.8</v>
+      </c>
+      <c r="K243" t="inlineStr">
         <is>
           <t>매도 체결</t>
         </is>
       </c>
-      <c r="L217" t="n">
-        <v>1.075</v>
-      </c>
-      <c r="M217" t="n">
+      <c r="L243" t="n">
+        <v>1.0965625</v>
+      </c>
+      <c r="M243" t="n">
         <v>1.090909090909091</v>
       </c>
-    </row>
-    <row r="218">
-      <c r="A218" s="1" t="n">
-        <v>216</v>
-      </c>
-      <c r="B218" t="n">
-        <v>13.3</v>
-      </c>
-      <c r="C218" t="n">
-        <v>13.3</v>
-      </c>
-      <c r="D218" t="n">
-        <v>13.3</v>
-      </c>
-      <c r="E218" t="n">
-        <v>13.3</v>
-      </c>
-      <c r="F218" t="n">
-        <v>286191.8748142857</v>
-      </c>
-      <c r="G218" t="n">
-        <v>445218.924413975</v>
-      </c>
-      <c r="H218" t="n">
-        <v>2</v>
-      </c>
-      <c r="I218" t="inlineStr"/>
-      <c r="J218" t="inlineStr"/>
-      <c r="K218" t="inlineStr"/>
-      <c r="L218" t="n">
-        <v>1</v>
-      </c>
-      <c r="M218" t="inlineStr"/>
-    </row>
-    <row r="219">
-      <c r="A219" s="1" t="n">
-        <v>217</v>
-      </c>
-      <c r="B219" t="n">
-        <v>13.3</v>
-      </c>
-      <c r="C219" t="n">
-        <v>13.3</v>
-      </c>
-      <c r="D219" t="n">
-        <v>13.3</v>
-      </c>
-      <c r="E219" t="n">
-        <v>13.3</v>
-      </c>
-      <c r="F219" t="n">
-        <v>36559.43348571428</v>
-      </c>
-      <c r="G219" t="n">
-        <v>445218.924413975</v>
-      </c>
-      <c r="H219" t="n">
-        <v>2</v>
-      </c>
-      <c r="I219" t="inlineStr"/>
-      <c r="J219" t="inlineStr"/>
-      <c r="K219" t="inlineStr"/>
-      <c r="L219" t="n">
-        <v>1</v>
-      </c>
-      <c r="M219" t="inlineStr"/>
-    </row>
-    <row r="220">
-      <c r="A220" s="1" t="n">
-        <v>218</v>
-      </c>
-      <c r="B220" t="n">
-        <v>13.3</v>
-      </c>
-      <c r="C220" t="n">
-        <v>13.3</v>
-      </c>
-      <c r="D220" t="n">
-        <v>13.3</v>
-      </c>
-      <c r="E220" t="n">
-        <v>13.3</v>
-      </c>
-      <c r="F220" t="n">
-        <v>1159.5383</v>
-      </c>
-      <c r="G220" t="n">
-        <v>445218.924413975</v>
-      </c>
-      <c r="H220" t="n">
-        <v>2</v>
-      </c>
-      <c r="I220" t="inlineStr"/>
-      <c r="J220" t="inlineStr"/>
-      <c r="K220" t="inlineStr"/>
-      <c r="L220" t="n">
-        <v>1</v>
-      </c>
-      <c r="M220" t="inlineStr"/>
-    </row>
-    <row r="221">
-      <c r="A221" s="1" t="n">
-        <v>219</v>
-      </c>
-      <c r="B221" t="n">
-        <v>13.3</v>
-      </c>
-      <c r="C221" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="D221" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="E221" t="n">
-        <v>13.2</v>
-      </c>
-      <c r="F221" t="n">
-        <v>106193.106</v>
-      </c>
-      <c r="G221" t="n">
-        <v>551412.030413975</v>
-      </c>
-      <c r="H221" t="n">
-        <v>2</v>
-      </c>
-      <c r="I221" t="inlineStr"/>
-      <c r="J221" t="inlineStr"/>
-      <c r="K221" t="inlineStr"/>
-      <c r="L221" t="n">
-        <v>1</v>
-      </c>
-      <c r="M221" t="inlineStr"/>
-    </row>
-    <row r="222">
-      <c r="A222" s="1" t="n">
-        <v>220</v>
-      </c>
-      <c r="B222" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="C222" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="D222" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="E222" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="F222" t="n">
-        <v>260</v>
-      </c>
-      <c r="G222" t="n">
-        <v>551412.030413975</v>
-      </c>
-      <c r="H222" t="n">
-        <v>2</v>
-      </c>
-      <c r="I222" t="inlineStr"/>
-      <c r="J222" t="inlineStr"/>
-      <c r="K222" t="inlineStr"/>
-      <c r="L222" t="n">
-        <v>1</v>
-      </c>
-      <c r="M222" t="inlineStr"/>
-    </row>
-    <row r="223">
-      <c r="A223" s="1" t="n">
-        <v>221</v>
-      </c>
-      <c r="B223" t="n">
-        <v>13.4</v>
-      </c>
-      <c r="C223" t="n">
-        <v>13.4</v>
-      </c>
-      <c r="D223" t="n">
-        <v>13.4</v>
-      </c>
-      <c r="E223" t="n">
-        <v>13.4</v>
-      </c>
-      <c r="F223" t="n">
-        <v>36260</v>
-      </c>
-      <c r="G223" t="n">
-        <v>515152.030413975</v>
-      </c>
-      <c r="H223" t="n">
-        <v>2</v>
-      </c>
-      <c r="I223" t="inlineStr"/>
-      <c r="J223" t="inlineStr"/>
-      <c r="K223" t="inlineStr"/>
-      <c r="L223" t="n">
-        <v>1</v>
-      </c>
-      <c r="M223" t="inlineStr"/>
-    </row>
-    <row r="224">
-      <c r="A224" s="1" t="n">
-        <v>222</v>
-      </c>
-      <c r="B224" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="C224" t="n">
-        <v>13.4</v>
-      </c>
-      <c r="D224" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="E224" t="n">
-        <v>13.4</v>
-      </c>
-      <c r="F224" t="n">
-        <v>112277.6225</v>
-      </c>
-      <c r="G224" t="n">
-        <v>515152.030413975</v>
-      </c>
-      <c r="H224" t="n">
-        <v>2</v>
-      </c>
-      <c r="I224" t="inlineStr"/>
-      <c r="J224" t="inlineStr"/>
-      <c r="K224" t="inlineStr"/>
-      <c r="L224" t="n">
-        <v>1</v>
-      </c>
-      <c r="M224" t="inlineStr"/>
-    </row>
-    <row r="225">
-      <c r="A225" s="1" t="n">
-        <v>223</v>
-      </c>
-      <c r="B225" t="n">
-        <v>13.4</v>
-      </c>
-      <c r="C225" t="n">
-        <v>13.6</v>
-      </c>
-      <c r="D225" t="n">
-        <v>13.6</v>
-      </c>
-      <c r="E225" t="n">
-        <v>13.4</v>
-      </c>
-      <c r="F225" t="n">
-        <v>52889.7897</v>
-      </c>
-      <c r="G225" t="n">
-        <v>568041.820113975</v>
-      </c>
-      <c r="H225" t="n">
-        <v>2</v>
-      </c>
-      <c r="I225" t="inlineStr"/>
-      <c r="J225" t="inlineStr"/>
-      <c r="K225" t="inlineStr"/>
-      <c r="L225" t="n">
-        <v>1</v>
-      </c>
-      <c r="M225" t="inlineStr"/>
-    </row>
-    <row r="226">
-      <c r="A226" s="1" t="n">
-        <v>224</v>
-      </c>
-      <c r="B226" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="C226" t="n">
-        <v>13.3</v>
-      </c>
-      <c r="D226" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="E226" t="n">
-        <v>13.3</v>
-      </c>
-      <c r="F226" t="n">
-        <v>85729.32000000001</v>
-      </c>
-      <c r="G226" t="n">
-        <v>482312.500113975</v>
-      </c>
-      <c r="H226" t="n">
-        <v>0</v>
-      </c>
-      <c r="I226" t="inlineStr"/>
-      <c r="J226" t="inlineStr"/>
-      <c r="K226" t="inlineStr"/>
-      <c r="L226" t="n">
-        <v>1</v>
-      </c>
-      <c r="M226" t="inlineStr"/>
-    </row>
-    <row r="227">
-      <c r="A227" s="1" t="n">
-        <v>225</v>
-      </c>
-      <c r="B227" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="C227" t="n">
-        <v>13.3</v>
-      </c>
-      <c r="D227" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="E227" t="n">
-        <v>13.3</v>
-      </c>
-      <c r="F227" t="n">
-        <v>73788.9452</v>
-      </c>
-      <c r="G227" t="n">
-        <v>482312.500113975</v>
-      </c>
-      <c r="H227" t="n">
-        <v>0</v>
-      </c>
-      <c r="I227" t="inlineStr"/>
-      <c r="J227" t="inlineStr"/>
-      <c r="K227" t="inlineStr"/>
-      <c r="L227" t="n">
-        <v>1</v>
-      </c>
-      <c r="M227" t="inlineStr"/>
-    </row>
-    <row r="228">
-      <c r="A228" s="1" t="n">
-        <v>226</v>
-      </c>
-      <c r="B228" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="C228" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="D228" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="E228" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="F228" t="n">
-        <v>17408</v>
-      </c>
-      <c r="G228" t="n">
-        <v>499720.500113975</v>
-      </c>
-      <c r="H228" t="n">
-        <v>0</v>
-      </c>
-      <c r="I228" t="inlineStr"/>
-      <c r="J228" t="inlineStr"/>
-      <c r="K228" t="inlineStr"/>
-      <c r="L228" t="n">
-        <v>1</v>
-      </c>
-      <c r="M228" t="inlineStr"/>
-    </row>
-    <row r="229">
-      <c r="A229" s="1" t="n">
-        <v>227</v>
-      </c>
-      <c r="B229" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="C229" t="n">
-        <v>13.4</v>
-      </c>
-      <c r="D229" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="E229" t="n">
-        <v>13.4</v>
-      </c>
-      <c r="F229" t="n">
-        <v>16556.6854</v>
-      </c>
-      <c r="G229" t="n">
-        <v>483163.8147139749</v>
-      </c>
-      <c r="H229" t="n">
-        <v>0</v>
-      </c>
-      <c r="I229" t="inlineStr"/>
-      <c r="J229" t="inlineStr"/>
-      <c r="K229" t="inlineStr"/>
-      <c r="L229" t="n">
-        <v>1</v>
-      </c>
-      <c r="M229" t="inlineStr"/>
-    </row>
-    <row r="230">
-      <c r="A230" s="1" t="n">
-        <v>228</v>
-      </c>
-      <c r="B230" t="n">
-        <v>13.4</v>
-      </c>
-      <c r="C230" t="n">
-        <v>13.4</v>
-      </c>
-      <c r="D230" t="n">
-        <v>13.4</v>
-      </c>
-      <c r="E230" t="n">
-        <v>13.4</v>
-      </c>
-      <c r="F230" t="n">
-        <v>16220</v>
-      </c>
-      <c r="G230" t="n">
-        <v>483163.8147139749</v>
-      </c>
-      <c r="H230" t="n">
-        <v>0</v>
-      </c>
-      <c r="I230" t="inlineStr"/>
-      <c r="J230" t="inlineStr"/>
-      <c r="K230" t="inlineStr"/>
-      <c r="L230" t="n">
-        <v>1</v>
-      </c>
-      <c r="M230" t="inlineStr"/>
-    </row>
-    <row r="231">
-      <c r="A231" s="1" t="n">
-        <v>229</v>
-      </c>
-      <c r="B231" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="C231" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="D231" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="E231" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="F231" t="n">
-        <v>51.4074</v>
-      </c>
-      <c r="G231" t="n">
-        <v>483215.222113975</v>
-      </c>
-      <c r="H231" t="n">
-        <v>0</v>
-      </c>
-      <c r="I231" t="inlineStr"/>
-      <c r="J231" t="inlineStr"/>
-      <c r="K231" t="inlineStr"/>
-      <c r="L231" t="n">
-        <v>1</v>
-      </c>
-      <c r="M231" t="inlineStr"/>
-    </row>
-    <row r="232">
-      <c r="A232" s="1" t="n">
-        <v>230</v>
-      </c>
-      <c r="B232" t="n">
-        <v>13.4</v>
-      </c>
-      <c r="C232" t="n">
-        <v>13.4</v>
-      </c>
-      <c r="D232" t="n">
-        <v>13.4</v>
-      </c>
-      <c r="E232" t="n">
-        <v>13.4</v>
-      </c>
-      <c r="F232" t="n">
-        <v>6863.27</v>
-      </c>
-      <c r="G232" t="n">
-        <v>476351.952113975</v>
-      </c>
-      <c r="H232" t="n">
-        <v>0</v>
-      </c>
-      <c r="I232" t="inlineStr"/>
-      <c r="J232" t="inlineStr"/>
-      <c r="K232" t="inlineStr"/>
-      <c r="L232" t="n">
-        <v>1</v>
-      </c>
-      <c r="M232" t="inlineStr"/>
-    </row>
-    <row r="233">
-      <c r="A233" s="1" t="n">
-        <v>231</v>
-      </c>
-      <c r="B233" t="n">
-        <v>13.4</v>
-      </c>
-      <c r="C233" t="n">
-        <v>13.4</v>
-      </c>
-      <c r="D233" t="n">
-        <v>13.4</v>
-      </c>
-      <c r="E233" t="n">
-        <v>13.4</v>
-      </c>
-      <c r="F233" t="n">
-        <v>3256.73</v>
-      </c>
-      <c r="G233" t="n">
-        <v>476351.952113975</v>
-      </c>
-      <c r="H233" t="n">
-        <v>0</v>
-      </c>
-      <c r="I233" t="inlineStr"/>
-      <c r="J233" t="inlineStr"/>
-      <c r="K233" t="inlineStr"/>
-      <c r="L233" t="n">
-        <v>1</v>
-      </c>
-      <c r="M233" t="inlineStr"/>
-    </row>
-    <row r="234">
-      <c r="A234" s="1" t="n">
-        <v>232</v>
-      </c>
-      <c r="B234" t="n">
-        <v>13.3</v>
-      </c>
-      <c r="C234" t="n">
-        <v>13.3</v>
-      </c>
-      <c r="D234" t="n">
-        <v>13.3</v>
-      </c>
-      <c r="E234" t="n">
-        <v>13.1</v>
-      </c>
-      <c r="F234" t="n">
-        <v>173070.0249</v>
-      </c>
-      <c r="G234" t="n">
-        <v>303281.927213975</v>
-      </c>
-      <c r="H234" t="n">
-        <v>0</v>
-      </c>
-      <c r="I234" t="inlineStr"/>
-      <c r="J234" t="inlineStr"/>
-      <c r="K234" t="inlineStr"/>
-      <c r="L234" t="n">
-        <v>1</v>
-      </c>
-      <c r="M234" t="inlineStr"/>
-    </row>
-    <row r="235">
-      <c r="A235" s="1" t="n">
-        <v>233</v>
-      </c>
-      <c r="B235" t="n">
-        <v>13.4</v>
-      </c>
-      <c r="C235" t="n">
-        <v>13.4</v>
-      </c>
-      <c r="D235" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="E235" t="n">
-        <v>13.4</v>
-      </c>
-      <c r="F235" t="n">
-        <v>75594.62119999999</v>
-      </c>
-      <c r="G235" t="n">
-        <v>378876.548413975</v>
-      </c>
-      <c r="H235" t="n">
-        <v>0</v>
-      </c>
-      <c r="I235" t="inlineStr"/>
-      <c r="J235" t="inlineStr"/>
-      <c r="K235" t="inlineStr"/>
-      <c r="L235" t="n">
-        <v>1</v>
-      </c>
-      <c r="M235" t="inlineStr"/>
-    </row>
-    <row r="236">
-      <c r="A236" s="1" t="n">
-        <v>234</v>
-      </c>
-      <c r="B236" t="n">
-        <v>13.3</v>
-      </c>
-      <c r="C236" t="n">
-        <v>13.3</v>
-      </c>
-      <c r="D236" t="n">
-        <v>13.3</v>
-      </c>
-      <c r="E236" t="n">
-        <v>13.3</v>
-      </c>
-      <c r="F236" t="n">
-        <v>51.2781</v>
-      </c>
-      <c r="G236" t="n">
-        <v>378825.270313975</v>
-      </c>
-      <c r="H236" t="n">
-        <v>0</v>
-      </c>
-      <c r="I236" t="inlineStr"/>
-      <c r="J236" t="inlineStr"/>
-      <c r="K236" t="inlineStr"/>
-      <c r="L236" t="n">
-        <v>1</v>
-      </c>
-      <c r="M236" t="inlineStr"/>
-    </row>
-    <row r="237">
-      <c r="A237" s="1" t="n">
-        <v>235</v>
-      </c>
-      <c r="B237" t="n">
-        <v>13.3</v>
-      </c>
-      <c r="C237" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="D237" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="E237" t="n">
-        <v>13.3</v>
-      </c>
-      <c r="F237" t="n">
-        <v>62214.2659</v>
-      </c>
-      <c r="G237" t="n">
-        <v>441039.536213975</v>
-      </c>
-      <c r="H237" t="n">
-        <v>0</v>
-      </c>
-      <c r="I237" t="inlineStr"/>
-      <c r="J237" t="inlineStr"/>
-      <c r="K237" t="inlineStr"/>
-      <c r="L237" t="n">
-        <v>1</v>
-      </c>
-      <c r="M237" t="inlineStr"/>
-    </row>
-    <row r="238">
-      <c r="A238" s="1" t="n">
-        <v>236</v>
-      </c>
-      <c r="B238" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="C238" t="n">
-        <v>13.8</v>
-      </c>
-      <c r="D238" t="n">
-        <v>13.8</v>
-      </c>
-      <c r="E238" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="F238" t="n">
-        <v>368297.7938</v>
-      </c>
-      <c r="G238" t="n">
-        <v>809337.330013975</v>
-      </c>
-      <c r="H238" t="n">
-        <v>0</v>
-      </c>
-      <c r="I238" t="inlineStr"/>
-      <c r="J238" t="inlineStr"/>
-      <c r="K238" t="inlineStr"/>
-      <c r="L238" t="n">
-        <v>1</v>
-      </c>
-      <c r="M238" t="inlineStr"/>
-    </row>
-    <row r="239">
-      <c r="A239" s="1" t="n">
-        <v>237</v>
-      </c>
-      <c r="B239" t="n">
-        <v>13.9</v>
-      </c>
-      <c r="C239" t="n">
-        <v>14</v>
-      </c>
-      <c r="D239" t="n">
-        <v>14</v>
-      </c>
-      <c r="E239" t="n">
-        <v>13.8</v>
-      </c>
-      <c r="F239" t="n">
-        <v>149243.5526</v>
-      </c>
-      <c r="G239" t="n">
-        <v>958580.8826139751</v>
-      </c>
-      <c r="H239" t="n">
-        <v>0</v>
-      </c>
-      <c r="I239" t="inlineStr"/>
-      <c r="J239" t="inlineStr"/>
-      <c r="K239" t="inlineStr"/>
-      <c r="L239" t="n">
-        <v>1</v>
-      </c>
-      <c r="M239" t="inlineStr"/>
-    </row>
-    <row r="240">
-      <c r="A240" s="1" t="n">
-        <v>238</v>
-      </c>
-      <c r="B240" t="n">
-        <v>14</v>
-      </c>
-      <c r="C240" t="n">
-        <v>14</v>
-      </c>
-      <c r="D240" t="n">
-        <v>14.1</v>
-      </c>
-      <c r="E240" t="n">
-        <v>14</v>
-      </c>
-      <c r="F240" t="n">
-        <v>294104.067</v>
-      </c>
-      <c r="G240" t="n">
-        <v>958580.8826139751</v>
-      </c>
-      <c r="H240" t="n">
-        <v>0</v>
-      </c>
-      <c r="I240" t="inlineStr"/>
-      <c r="J240" t="inlineStr"/>
-      <c r="K240" t="inlineStr"/>
-      <c r="L240" t="n">
-        <v>1</v>
-      </c>
-      <c r="M240" t="inlineStr"/>
-    </row>
-    <row r="241">
-      <c r="A241" s="1" t="n">
-        <v>239</v>
-      </c>
-      <c r="B241" t="n">
-        <v>14</v>
-      </c>
-      <c r="C241" t="n">
-        <v>14.2</v>
-      </c>
-      <c r="D241" t="n">
-        <v>14.3</v>
-      </c>
-      <c r="E241" t="n">
-        <v>14</v>
-      </c>
-      <c r="F241" t="n">
-        <v>385450.2265615385</v>
-      </c>
-      <c r="G241" t="n">
-        <v>1344031.109175513</v>
-      </c>
-      <c r="H241" t="n">
-        <v>0</v>
-      </c>
-      <c r="I241" t="inlineStr"/>
-      <c r="J241" t="inlineStr"/>
-      <c r="K241" t="inlineStr"/>
-      <c r="L241" t="n">
-        <v>1</v>
-      </c>
-      <c r="M241" t="inlineStr"/>
-    </row>
-    <row r="242">
-      <c r="A242" s="1" t="n">
-        <v>240</v>
-      </c>
-      <c r="B242" t="n">
-        <v>14.3</v>
-      </c>
-      <c r="C242" t="n">
-        <v>14.3</v>
-      </c>
-      <c r="D242" t="n">
-        <v>14.3</v>
-      </c>
-      <c r="E242" t="n">
-        <v>14.2</v>
-      </c>
-      <c r="F242" t="n">
-        <v>193175.0285</v>
-      </c>
-      <c r="G242" t="n">
-        <v>1537206.137675514</v>
-      </c>
-      <c r="H242" t="n">
-        <v>0</v>
-      </c>
-      <c r="I242" t="inlineStr"/>
-      <c r="J242" t="inlineStr"/>
-      <c r="K242" t="inlineStr"/>
-      <c r="L242" t="n">
-        <v>1</v>
-      </c>
-      <c r="M242" t="inlineStr"/>
-    </row>
-    <row r="243">
-      <c r="A243" s="1" t="n">
-        <v>241</v>
-      </c>
-      <c r="B243" t="n">
-        <v>14.3</v>
-      </c>
-      <c r="C243" t="n">
-        <v>14.1</v>
-      </c>
-      <c r="D243" t="n">
-        <v>14.3</v>
-      </c>
-      <c r="E243" t="n">
-        <v>13.9</v>
-      </c>
-      <c r="F243" t="n">
-        <v>284920.8378</v>
-      </c>
-      <c r="G243" t="n">
-        <v>1252285.299875514</v>
-      </c>
-      <c r="H243" t="n">
-        <v>0</v>
-      </c>
-      <c r="I243" t="inlineStr"/>
-      <c r="J243" t="inlineStr"/>
-      <c r="K243" t="inlineStr"/>
-      <c r="L243" t="n">
-        <v>1</v>
-      </c>
-      <c r="M243" t="inlineStr"/>
     </row>
     <row r="244">
       <c r="A244" s="1" t="n">
@@ -8769,7 +8965,7 @@
         <v>897937.0358755137</v>
       </c>
       <c r="H244" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I244" t="inlineStr"/>
       <c r="J244" t="inlineStr"/>
@@ -8802,7 +8998,7 @@
         <v>1303907.855875514</v>
       </c>
       <c r="H245" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I245" t="inlineStr"/>
       <c r="J245" t="inlineStr"/>
@@ -8835,7 +9031,7 @@
         <v>1269455.040675514</v>
       </c>
       <c r="H246" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I246" t="inlineStr"/>
       <c r="J246" t="inlineStr"/>
@@ -8868,7 +9064,7 @@
         <v>1269455.040675514</v>
       </c>
       <c r="H247" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I247" t="inlineStr"/>
       <c r="J247" t="inlineStr"/>
@@ -8901,7 +9097,7 @@
         <v>1269455.040675514</v>
       </c>
       <c r="H248" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I248" t="inlineStr"/>
       <c r="J248" t="inlineStr"/>
@@ -8934,7 +9130,7 @@
         <v>977106.1821755137</v>
       </c>
       <c r="H249" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I249" t="inlineStr"/>
       <c r="J249" t="inlineStr"/>
@@ -8967,7 +9163,7 @@
         <v>977106.1821755137</v>
       </c>
       <c r="H250" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I250" t="inlineStr"/>
       <c r="J250" t="inlineStr"/>
@@ -9000,7 +9196,7 @@
         <v>977106.1821755137</v>
       </c>
       <c r="H251" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I251" t="inlineStr"/>
       <c r="J251" t="inlineStr"/>
@@ -9033,7 +9229,7 @@
         <v>977106.1821755137</v>
       </c>
       <c r="H252" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I252" t="inlineStr"/>
       <c r="J252" t="inlineStr"/>
@@ -9066,7 +9262,7 @@
         <v>802429.3555755137</v>
       </c>
       <c r="H253" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I253" t="inlineStr"/>
       <c r="J253" t="inlineStr"/>
@@ -9165,7 +9361,7 @@
         <v>802439.3555755137</v>
       </c>
       <c r="H256" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I256" t="inlineStr"/>
       <c r="J256" t="inlineStr"/>
@@ -9231,7 +9427,7 @@
         <v>802439.3555755137</v>
       </c>
       <c r="H258" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I258" t="inlineStr"/>
       <c r="J258" t="inlineStr"/>
@@ -9264,7 +9460,7 @@
         <v>802439.3555755137</v>
       </c>
       <c r="H259" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I259" t="inlineStr"/>
       <c r="J259" t="inlineStr"/>
@@ -9297,7 +9493,7 @@
         <v>730818.5671755137</v>
       </c>
       <c r="H260" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I260" t="inlineStr"/>
       <c r="J260" t="inlineStr"/>
@@ -9330,7 +9526,7 @@
         <v>730818.5671755137</v>
       </c>
       <c r="H261" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I261" t="inlineStr"/>
       <c r="J261" t="inlineStr"/>
@@ -9396,7 +9592,7 @@
         <v>730830.5671755137</v>
       </c>
       <c r="H263" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I263" t="inlineStr"/>
       <c r="J263" t="inlineStr"/>
@@ -9429,7 +9625,7 @@
         <v>727081.6834755137</v>
       </c>
       <c r="H264" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I264" t="inlineStr"/>
       <c r="J264" t="inlineStr"/>
@@ -9462,7 +9658,7 @@
         <v>727081.6834755137</v>
       </c>
       <c r="H265" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I265" t="inlineStr"/>
       <c r="J265" t="inlineStr"/>
@@ -9495,7 +9691,7 @@
         <v>727081.6834755137</v>
       </c>
       <c r="H266" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I266" t="inlineStr"/>
       <c r="J266" t="inlineStr"/>
@@ -9528,7 +9724,7 @@
         <v>727141.6834755137</v>
       </c>
       <c r="H267" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I267" t="inlineStr"/>
       <c r="J267" t="inlineStr"/>
@@ -9561,7 +9757,7 @@
         <v>726963.6834755137</v>
       </c>
       <c r="H268" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I268" t="inlineStr"/>
       <c r="J268" t="inlineStr"/>
@@ -9594,7 +9790,7 @@
         <v>726963.6834755137</v>
       </c>
       <c r="H269" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I269" t="inlineStr"/>
       <c r="J269" t="inlineStr"/>
@@ -9627,7 +9823,7 @@
         <v>726963.6834755137</v>
       </c>
       <c r="H270" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I270" t="inlineStr"/>
       <c r="J270" t="inlineStr"/>
@@ -9660,7 +9856,7 @@
         <v>726963.6834755137</v>
       </c>
       <c r="H271" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I271" t="inlineStr"/>
       <c r="J271" t="inlineStr"/>
@@ -9693,7 +9889,7 @@
         <v>726963.6834755137</v>
       </c>
       <c r="H272" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I272" t="inlineStr"/>
       <c r="J272" t="inlineStr"/>
@@ -9726,7 +9922,7 @@
         <v>751728.5047755137</v>
       </c>
       <c r="H273" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I273" t="inlineStr"/>
       <c r="J273" t="inlineStr"/>
@@ -9759,7 +9955,7 @@
         <v>743203.5047755137</v>
       </c>
       <c r="H274" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I274" t="inlineStr"/>
       <c r="J274" t="inlineStr"/>
@@ -9792,7 +9988,7 @@
         <v>740978.2758755137</v>
       </c>
       <c r="H275" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I275" t="inlineStr"/>
       <c r="J275" t="inlineStr"/>
@@ -9825,7 +10021,7 @@
         <v>665732.5958755137</v>
       </c>
       <c r="H276" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I276" t="inlineStr"/>
       <c r="J276" t="inlineStr"/>
@@ -9858,7 +10054,7 @@
         <v>665732.5958755137</v>
       </c>
       <c r="H277" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I277" t="inlineStr"/>
       <c r="J277" t="inlineStr"/>
